--- a/Messprotokoll_Simon.xlsx
+++ b/Messprotokoll_Simon.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F0F559-BD05-4D85-ACBB-E0CD22A3A20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BF07AA-0E04-4BFB-AC2C-4A0BC696FA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="4950" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Simon Keegan, Philipp Gebauer</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>Fv</t>
+  </si>
+  <si>
+    <t>V_0 in km/s</t>
+  </si>
+  <si>
+    <t>R_0 in m</t>
+  </si>
+  <si>
+    <t>Bahnradius Tangentpunkt</t>
+  </si>
+  <si>
+    <t>V von R</t>
   </si>
 </sst>
 </file>
@@ -250,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -274,9 +286,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -554,35 +567,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T144"/>
+  <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q61" sqref="Q61"/>
+    <sheetView tabSelected="1" topLeftCell="G70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W101" sqref="W101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -590,27 +605,27 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>1410</v>
       </c>
@@ -619,7 +634,7 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -645,7 +660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>0.35391203703703705</v>
       </c>
@@ -668,7 +683,7 @@
         <v>308.3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>0.35440972222222222</v>
       </c>
@@ -688,7 +703,7 @@
         <v>318.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>0.35487268518518517</v>
       </c>
@@ -708,7 +723,7 @@
         <v>324.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
         <v>0.3552777777777778</v>
       </c>
@@ -728,7 +743,7 @@
         <v>322.39999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>0.35570601851851852</v>
       </c>
@@ -748,7 +763,7 @@
         <v>312.89999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="9">
         <v>0.3562731481481482</v>
       </c>
@@ -768,7 +783,7 @@
         <v>314.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>0.35671296296296301</v>
       </c>
@@ -788,7 +803,7 @@
         <v>312.89999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
         <v>0.35741898148148149</v>
       </c>
@@ -808,7 +823,7 @@
         <v>361.2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
         <v>0.3578587962962963</v>
       </c>
@@ -828,7 +843,7 @@
         <v>327.2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="9">
         <v>0.35844907407407406</v>
       </c>
@@ -848,7 +863,7 @@
         <v>335.3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
         <v>0.35903935185185182</v>
       </c>
@@ -868,7 +883,7 @@
         <v>318.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="9">
         <v>0.35951388888888891</v>
       </c>
@@ -888,7 +903,7 @@
         <v>387.3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
         <v>0.36000000000000004</v>
       </c>
@@ -908,7 +923,7 @@
         <v>685.2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
         <v>0.3605902777777778</v>
       </c>
@@ -928,7 +943,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>0.36108796296296292</v>
       </c>
@@ -948,7 +963,7 @@
         <v>313.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
         <v>0.36185185185185187</v>
       </c>
@@ -968,7 +983,7 @@
         <v>329.1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>0.36234953703703704</v>
       </c>
@@ -988,7 +1003,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="9">
         <v>0.3628703703703704</v>
       </c>
@@ -1008,7 +1023,7 @@
         <v>318.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="9">
         <v>0.36346064814814816</v>
       </c>
@@ -1028,7 +1043,7 @@
         <v>307.60000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="9">
         <v>0.36398148148148146</v>
       </c>
@@ -1048,7 +1063,7 @@
         <v>315.60000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="9">
         <v>0.36464120370370368</v>
       </c>
@@ -1068,7 +1083,7 @@
         <v>306.7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="9">
         <v>0.36515046296296294</v>
       </c>
@@ -1088,7 +1103,7 @@
         <v>313.39999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
         <v>0.3656712962962963</v>
       </c>
@@ -1108,7 +1123,7 @@
         <v>321.89999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="9">
         <v>0.3661342592592593</v>
       </c>
@@ -1128,7 +1143,7 @@
         <v>314.7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="9">
         <v>0.36663194444444441</v>
       </c>
@@ -1148,21 +1163,21 @@
         <v>305.3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="9"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="8">
         <v>1410</v>
       </c>
@@ -1171,7 +1186,7 @@
       </c>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1197,7 +1212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="9">
         <v>0.36813657407407407</v>
       </c>
@@ -1220,7 +1235,7 @@
         <v>306.89999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
         <v>0.36921296296296297</v>
       </c>
@@ -1241,7 +1256,7 @@
         <v>306.2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="9">
         <v>0.36958333333333332</v>
       </c>
@@ -1262,7 +1277,7 @@
         <v>309.2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
         <v>0.36994212962962963</v>
       </c>
@@ -1283,7 +1298,7 @@
         <v>316.89999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="9">
         <v>0.37041666666666667</v>
       </c>
@@ -1304,7 +1319,7 @@
         <v>327.9</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="9">
         <v>0.3707523148148148</v>
       </c>
@@ -1325,7 +1340,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="9">
         <v>0.37123842592592587</v>
       </c>
@@ -1346,7 +1361,7 @@
         <v>346.1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="9">
         <v>0.37170138888888887</v>
       </c>
@@ -1367,7 +1382,7 @@
         <v>489.4</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="9">
         <v>0.37208333333333332</v>
       </c>
@@ -1388,7 +1403,7 @@
         <v>660.9</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="9">
         <v>0.37248842592592596</v>
       </c>
@@ -1412,7 +1427,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="9">
         <v>0.37283564814814812</v>
       </c>
@@ -1443,7 +1458,7 @@
         <v>0.12042268149823648</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="9">
         <v>0.37321759259259263</v>
       </c>
@@ -1473,7 +1488,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="9">
         <v>0.37354166666666666</v>
       </c>
@@ -1503,7 +1518,7 @@
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="9">
         <v>0.3739467592592593</v>
       </c>
@@ -1533,7 +1548,7 @@
         <v>4.7199999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="9">
         <v>0.37436342592592592</v>
       </c>
@@ -1563,7 +1578,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="9">
         <v>0.3747685185185185</v>
       </c>
@@ -1584,7 +1599,7 @@
         <v>304.39999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="9">
         <v>0.37513888888888891</v>
       </c>
@@ -1608,7 +1623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="9">
         <v>0.37572916666666667</v>
       </c>
@@ -1635,7 +1650,7 @@
         <v>1.3677696844008986E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="9">
         <v>0.37606481481481485</v>
       </c>
@@ -1660,7 +1675,7 @@
         <v>2.5104812675327524E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="9">
         <v>0.37643518518518521</v>
       </c>
@@ -1685,7 +1700,7 @@
         <v>0.3200483798249073</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="9">
         <v>0.37680555555555556</v>
       </c>
@@ -1710,7 +1725,7 @@
         <v>2.8339286859628974</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="9">
         <v>0.37731481481481483</v>
       </c>
@@ -1735,7 +1750,7 @@
         <v>17.429175300305687</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="9">
         <v>0.37783564814814818</v>
       </c>
@@ -1760,7 +1775,7 @@
         <v>74.452518830298629</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="9">
         <v>0.37820601851851854</v>
       </c>
@@ -1785,7 +1800,7 @@
         <v>220.90044392530959</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="9">
         <v>0.3785648148148148</v>
       </c>
@@ -1810,7 +1825,7 @@
         <v>455.22742552414496</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="9">
         <v>0.3790162037037037</v>
       </c>
@@ -1835,7 +1850,7 @@
         <v>651.59071175376778</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="9">
         <v>0.37952546296296297</v>
       </c>
@@ -1860,7 +1875,7 @@
         <v>647.79260763922457</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="9">
         <v>0.37996527777777778</v>
       </c>
@@ -1885,7 +1900,7 @@
         <v>447.31321307743031</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="9">
         <v>0.38030092592592596</v>
       </c>
@@ -1910,7 +1925,7 @@
         <v>214.53695018144941</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="9">
         <v>0.38081018518518522</v>
       </c>
@@ -1935,7 +1950,7 @@
         <v>71.467257134293789</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="9">
         <v>0.38122685185185184</v>
       </c>
@@ -1960,7 +1975,7 @@
         <v>16.535859094147124</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="9">
         <v>0.38184027777777779</v>
       </c>
@@ -1985,7 +2000,7 @@
         <v>2.6574251920854564</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="9">
         <v>0.38221064814814815</v>
       </c>
@@ -2010,7 +2025,7 @@
         <v>0.29662651475438673</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="9">
         <v>0.3825810185185185</v>
       </c>
@@ -2035,10 +2050,10 @@
         <v>2.2997123986100244E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A74" s="10" t="s">
         <v>3</v>
       </c>
@@ -2050,7 +2065,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
         <v>9</v>
       </c>
@@ -2062,7 +2077,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
         <v>6</v>
       </c>
@@ -2078,7 +2093,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="11">
         <v>84</v>
       </c>
@@ -2094,7 +2109,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="11">
         <v>84</v>
       </c>
@@ -2108,7 +2123,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="11">
         <v>84</v>
       </c>
@@ -2122,7 +2137,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="11">
         <v>84</v>
       </c>
@@ -2135,8 +2150,14 @@
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" s="11">
         <v>84</v>
       </c>
@@ -2149,8 +2170,14 @@
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <v>220</v>
+      </c>
+      <c r="I81" s="21">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82" s="11">
         <v>84</v>
       </c>
@@ -2164,7 +2191,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" s="11"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -2172,7 +2199,7 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
         <v>8</v>
       </c>
@@ -2212,7 +2239,7 @@
       </c>
       <c r="T84" s="11"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>6</v>
       </c>
@@ -2273,8 +2300,14 @@
       <c r="T85" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U85" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V85" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" s="11">
         <v>33</v>
       </c>
@@ -2311,8 +2344,16 @@
       <c r="L86" s="19">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U86" s="21">
+        <f>$I$81*SIN(RADIANS(A86))</f>
+        <v>4.6294317976277304</v>
+      </c>
+      <c r="V86">
+        <f>I86+$H$81*SIN(RADIANS(A86))</f>
+        <v>200.72058770330597</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" s="11">
         <v>38</v>
       </c>
@@ -2353,8 +2394,16 @@
       <c r="N87" s="11">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U87" s="21">
+        <f t="shared" ref="U87:U110" si="3">$I$81*SIN(RADIANS(A87))</f>
+        <v>5.2331225402680959</v>
+      </c>
+      <c r="V87">
+        <f>I87+$H$81*SIN(RADIANS(A87))</f>
+        <v>194.34552457164483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" s="11">
         <v>43</v>
       </c>
@@ -2389,8 +2438,16 @@
       <c r="L88" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U88" s="21">
+        <f t="shared" si="3"/>
+        <v>5.7969860605312373</v>
+      </c>
+      <c r="V88">
+        <f>I88+$H$81*SIN(RADIANS(A88))</f>
+        <v>211.33963921374965</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89" s="11">
         <f>A88+5</f>
         <v>48</v>
@@ -2420,10 +2477,18 @@
       <c r="J89" s="11">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U89" s="21">
+        <f t="shared" si="3"/>
+        <v>6.316731016557851</v>
+      </c>
+      <c r="V89">
+        <f>G89+$H$81*SIN(RADIANS(A89))</f>
+        <v>216.69186160502676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" s="11">
-        <f t="shared" ref="A90:A100" si="3">A89+5</f>
+        <f t="shared" ref="A90:A100" si="4">A89+5</f>
         <v>53</v>
       </c>
       <c r="B90" s="14">
@@ -2451,10 +2516,18 @@
       <c r="J90" s="11">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U90" s="21">
+        <f t="shared" si="3"/>
+        <v>6.7884018354019888</v>
+      </c>
+      <c r="V90">
+        <f>G90+$H$81*SIN(RADIANS(A90))</f>
+        <v>222.59981221040442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="B91" s="14">
@@ -2476,10 +2549,18 @@
       <c r="H91" s="11">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U91" s="21">
+        <f t="shared" si="3"/>
+        <v>7.2084088173296204</v>
+      </c>
+      <c r="V91">
+        <f>E91+$H$81*SIN(RADIANS(A91))</f>
+        <v>193.87058115441371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="B92" s="14">
@@ -2501,10 +2582,18 @@
       <c r="H92" s="11">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U92" s="21">
+        <f t="shared" si="3"/>
+        <v>7.5735554556011264</v>
+      </c>
+      <c r="V92">
+        <f>E92+$H$81*SIN(RADIANS(A92))</f>
+        <v>200.52143532144092</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="B93" s="14">
@@ -2526,8 +2615,16 @@
       <c r="H93" s="11">
         <v>19</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U93" s="21">
+        <f t="shared" si="3"/>
+        <v>7.8810627638176936</v>
+      </c>
+      <c r="V93">
+        <f>E93+$H$81*SIN(RADIANS(A93))</f>
+        <v>211.58044800469324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94" s="11">
         <f>A93+5</f>
         <v>73</v>
@@ -2551,10 +2648,18 @@
       <c r="H94" s="11">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U94" s="21">
+        <f t="shared" si="3"/>
+        <v>8.1285904256858004</v>
+      </c>
+      <c r="V94">
+        <f>E94+$H$81*SIN(RADIANS(A94))</f>
+        <v>216.28704631186781</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B95" s="14">
@@ -2582,10 +2687,18 @@
       <c r="J95" s="11">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U95" s="21">
+        <f t="shared" si="3"/>
+        <v>8.3142546062373466</v>
+      </c>
+      <c r="V95">
+        <f>E95+$H$81*SIN(RADIANS(A95))</f>
+        <v>217.59247216143723</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="B96" s="14">
@@ -2613,10 +2726,18 @@
       <c r="J96" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U96" s="21">
+        <f t="shared" si="3"/>
+        <v>8.4366422889512371</v>
+      </c>
+      <c r="V96">
+        <f>E96+$H$81*SIN(RADIANS(A96))</f>
+        <v>222.96015336109082</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A97" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="B97" s="14">
@@ -2650,8 +2771,16 @@
       <c r="L97" s="19">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U97" s="21">
+        <f t="shared" si="3"/>
+        <v>8.4948220296623145</v>
+      </c>
+      <c r="V97">
+        <f>E97+$H$81*SIN(RADIANS(A97))</f>
+        <v>222.16598194420109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A98" s="11">
         <f>A97+5</f>
         <v>93</v>
@@ -2699,10 +2828,11 @@
       <c r="P98" s="19">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U98" s="21"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A99" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="B99" s="14">
@@ -2742,10 +2872,11 @@
       <c r="N99" s="19">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U99" s="21"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A100" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="B100" s="14">
@@ -2779,8 +2910,9 @@
       <c r="L100" s="19">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U100" s="21"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A101" s="11">
         <f>A100+10</f>
         <v>113</v>
@@ -2828,10 +2960,11 @@
       <c r="P101" s="19">
         <v>35.799999999999997</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U101" s="21"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A102" s="11">
-        <f t="shared" ref="A102:A110" si="4">A101+10</f>
+        <f t="shared" ref="A102:A110" si="5">A101+10</f>
         <v>123</v>
       </c>
       <c r="B102" s="14">
@@ -2877,8 +3010,9 @@
       <c r="P102" s="19">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U102" s="21"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A103" s="11">
         <f>A102+10</f>
         <v>133</v>
@@ -2920,10 +3054,11 @@
       <c r="N103" s="19">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U103" s="21"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A104" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
       <c r="B104" s="14">
@@ -2975,10 +3110,11 @@
       <c r="R104" s="19">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U104" s="21"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A105" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>153</v>
       </c>
       <c r="B105" s="14">
@@ -3012,10 +3148,11 @@
       <c r="L105" s="11">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U105" s="21"/>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A106" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="B106" s="14">
@@ -3067,10 +3204,11 @@
       <c r="R106" s="19">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U106" s="21"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A107" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>173</v>
       </c>
       <c r="B107" s="14">
@@ -3122,10 +3260,11 @@
       <c r="R107" s="19">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U107" s="21"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A108" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>183</v>
       </c>
       <c r="B108" s="14">
@@ -3159,8 +3298,9 @@
       <c r="L108" s="19">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U108" s="21"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A109" s="11">
         <f>A108+10</f>
         <v>193</v>
@@ -3190,10 +3330,11 @@
       <c r="J109" s="19">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U109" s="21"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A110" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>203</v>
       </c>
       <c r="B110" s="14">
@@ -3251,8 +3392,9 @@
       <c r="T110" s="19">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U110" s="21"/>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -3260,7 +3402,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -3268,7 +3410,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="13" t="s">
         <v>16</v>
       </c>
@@ -3286,7 +3428,7 @@
       </c>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="11">
         <v>33</v>
       </c>
@@ -3304,7 +3446,7 @@
       </c>
       <c r="F114" s="13"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="11">
         <v>38</v>
       </c>
@@ -3320,7 +3462,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="11">
         <v>38</v>
       </c>
@@ -3336,7 +3478,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="11">
         <v>43</v>
       </c>
@@ -3352,7 +3494,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="11">
         <f>A117+5</f>
         <v>48</v>
@@ -3369,9 +3511,9 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="11">
-        <f t="shared" ref="A119:A127" si="5">A118+5</f>
+        <f t="shared" ref="A119:A127" si="6">A118+5</f>
         <v>53</v>
       </c>
       <c r="B119" s="11">
@@ -3386,9 +3528,9 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="B120" s="11">
@@ -3403,9 +3545,9 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="B121" s="11">
@@ -3420,9 +3562,9 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="B122" s="11">
@@ -3437,7 +3579,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="11">
         <f>A122+5</f>
         <v>73</v>
@@ -3454,7 +3596,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="11">
         <v>73</v>
       </c>
@@ -3470,7 +3612,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="11">
         <f>A123+5</f>
         <v>78</v>
@@ -3487,9 +3629,9 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="B126" s="11">
@@ -3504,9 +3646,9 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="B127" s="11">
@@ -3521,7 +3663,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="11">
         <v>88</v>
       </c>
@@ -3537,7 +3679,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="17"/>
       <c r="B129" s="18"/>
       <c r="C129" s="11"/>
@@ -3545,7 +3687,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="13" t="s">
         <v>16</v>
       </c>
@@ -3563,7 +3705,7 @@
       </c>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="11">
         <v>38</v>
       </c>
@@ -3581,7 +3723,7 @@
       </c>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="11">
         <v>43</v>
       </c>
@@ -3597,7 +3739,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="11">
         <f>A132+5</f>
         <v>48</v>
@@ -3614,9 +3756,9 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="11">
-        <f t="shared" ref="A134:A142" si="6">A133+5</f>
+        <f t="shared" ref="A134:A142" si="7">A133+5</f>
         <v>53</v>
       </c>
       <c r="B134" s="11">
@@ -3631,9 +3773,9 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="B135" s="11">
@@ -3648,9 +3790,9 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="B136" s="11">
@@ -3665,9 +3807,9 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="B137" s="11">
@@ -3682,7 +3824,7 @@
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="11">
         <f>A137+5</f>
         <v>73</v>
@@ -3699,7 +3841,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="11">
         <v>73</v>
       </c>
@@ -3715,7 +3857,7 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="11">
         <f>A138+5</f>
         <v>78</v>
@@ -3732,9 +3874,9 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="B141" s="11">
@@ -3749,9 +3891,9 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="B142" s="11">
@@ -3766,7 +3908,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="11">
         <v>88</v>
       </c>
@@ -3782,7 +3924,7 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>

--- a/Messprotokoll_Simon.xlsx
+++ b/Messprotokoll_Simon.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BF07AA-0E04-4BFB-AC2C-4A0BC696FA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E693CE-E0C3-4A9B-A508-577E94A35250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4950" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W101" sqref="W101"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W115" sqref="W115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2395,7 +2395,7 @@
         <v>15.4</v>
       </c>
       <c r="U87" s="21">
-        <f t="shared" ref="U87:U110" si="3">$I$81*SIN(RADIANS(A87))</f>
+        <f t="shared" ref="U87:U97" si="3">$I$81*SIN(RADIANS(A87))</f>
         <v>5.2331225402680959</v>
       </c>
       <c r="V87">
@@ -2554,7 +2554,7 @@
         <v>7.2084088173296204</v>
       </c>
       <c r="V91">
-        <f>E91+$H$81*SIN(RADIANS(A91))</f>
+        <f t="shared" ref="V91:V97" si="5">E91+$H$81*SIN(RADIANS(A91))</f>
         <v>193.87058115441371</v>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
         <v>7.5735554556011264</v>
       </c>
       <c r="V92">
-        <f>E92+$H$81*SIN(RADIANS(A92))</f>
+        <f t="shared" si="5"/>
         <v>200.52143532144092</v>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
         <v>7.8810627638176936</v>
       </c>
       <c r="V93">
-        <f>E93+$H$81*SIN(RADIANS(A93))</f>
+        <f t="shared" si="5"/>
         <v>211.58044800469324</v>
       </c>
     </row>
@@ -2653,7 +2653,7 @@
         <v>8.1285904256858004</v>
       </c>
       <c r="V94">
-        <f>E94+$H$81*SIN(RADIANS(A94))</f>
+        <f t="shared" si="5"/>
         <v>216.28704631186781</v>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
         <v>8.3142546062373466</v>
       </c>
       <c r="V95">
-        <f>E95+$H$81*SIN(RADIANS(A95))</f>
+        <f t="shared" si="5"/>
         <v>217.59247216143723</v>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
         <v>8.4366422889512371</v>
       </c>
       <c r="V96">
-        <f>E96+$H$81*SIN(RADIANS(A96))</f>
+        <f t="shared" si="5"/>
         <v>222.96015336109082</v>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
         <v>8.4948220296623145</v>
       </c>
       <c r="V97">
-        <f>E97+$H$81*SIN(RADIANS(A97))</f>
+        <f t="shared" si="5"/>
         <v>222.16598194420109</v>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A102" s="11">
-        <f t="shared" ref="A102:A110" si="5">A101+10</f>
+        <f t="shared" ref="A102:A110" si="6">A101+10</f>
         <v>123</v>
       </c>
       <c r="B102" s="14">
@@ -3058,7 +3058,7 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A104" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>143</v>
       </c>
       <c r="B104" s="14">
@@ -3114,7 +3114,7 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A105" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>153</v>
       </c>
       <c r="B105" s="14">
@@ -3152,7 +3152,7 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A106" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>163</v>
       </c>
       <c r="B106" s="14">
@@ -3208,7 +3208,7 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A107" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>173</v>
       </c>
       <c r="B107" s="14">
@@ -3264,7 +3264,7 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A108" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>183</v>
       </c>
       <c r="B108" s="14">
@@ -3334,7 +3334,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A110" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
       <c r="B110" s="14">
@@ -3410,7 +3410,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A113" s="13" t="s">
         <v>16</v>
       </c>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A114" s="11">
         <v>33</v>
       </c>
@@ -3445,8 +3445,68 @@
         <v>22</v>
       </c>
       <c r="F114" s="13"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+E86)</f>
+        <v>8.0498756286719964</v>
+      </c>
+      <c r="I114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+F86)</f>
+        <v>6.4574638625744383</v>
+      </c>
+      <c r="J114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+G86)</f>
+        <v>6.3055429029822347</v>
+      </c>
+      <c r="K114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+H86)</f>
+        <v>6.7889015172526008</v>
+      </c>
+      <c r="L114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+I86)</f>
+        <v>5.0740933310914462</v>
+      </c>
+      <c r="M114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+J86)</f>
+        <v>7.0278144162871552</v>
+      </c>
+      <c r="N114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+K86)</f>
+        <v>13.796625401730438</v>
+      </c>
+      <c r="O114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+L86)</f>
+        <v>7.6565215434902827</v>
+      </c>
+      <c r="P114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+M86)</f>
+        <v>8.5</v>
+      </c>
+      <c r="Q114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+N86)</f>
+        <v>8.5</v>
+      </c>
+      <c r="R114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+O86)</f>
+        <v>8.5</v>
+      </c>
+      <c r="S114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+P86)</f>
+        <v>8.5</v>
+      </c>
+      <c r="T114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+Q86)</f>
+        <v>8.5</v>
+      </c>
+      <c r="U114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+R86)</f>
+        <v>8.5</v>
+      </c>
+      <c r="V114" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+S86)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A115" s="11">
         <v>38</v>
       </c>
@@ -3461,8 +3521,68 @@
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H115" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+E87)</f>
+        <v>8.1799187744185229</v>
+      </c>
+      <c r="I115" s="21">
+        <f t="shared" ref="I114:V129" si="7">($I$81*$H$81*SIN(RADIANS(B87)))/($H$81*SIN(RADIANS(B87))+F87)</f>
+        <v>0.18306823658185242</v>
+      </c>
+      <c r="J115" s="21">
+        <f t="shared" si="7"/>
+        <v>7.2743996481680533</v>
+      </c>
+      <c r="K115" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L115" s="21">
+        <f t="shared" ref="L115:L138" si="8">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+I87)</f>
+        <v>5.9239180392577699</v>
+      </c>
+      <c r="M115" s="21">
+        <f t="shared" ref="M115:M138" si="9">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+J87)</f>
+        <v>6.8469676001898652</v>
+      </c>
+      <c r="N115" s="21">
+        <f t="shared" ref="N115:N138" si="10">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+K87)</f>
+        <v>5.571313297229552</v>
+      </c>
+      <c r="O115" s="21">
+        <f t="shared" ref="O115:O138" si="11">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+L87)</f>
+        <v>7.1488292637825177</v>
+      </c>
+      <c r="P115" s="21">
+        <f t="shared" ref="P115:P138" si="12">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+M87)</f>
+        <v>11.337643522110103</v>
+      </c>
+      <c r="Q115" s="21">
+        <f t="shared" ref="Q115:Q138" si="13">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+N87)</f>
+        <v>7.6322248348320842</v>
+      </c>
+      <c r="R115" s="21">
+        <f t="shared" ref="R115:R138" si="14">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+O87)</f>
+        <v>8.5</v>
+      </c>
+      <c r="S115" s="21">
+        <f t="shared" ref="S115:S138" si="15">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+P87)</f>
+        <v>8.5</v>
+      </c>
+      <c r="T115" s="21">
+        <f t="shared" ref="T115:T138" si="16">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+Q87)</f>
+        <v>8.5</v>
+      </c>
+      <c r="U115" s="21">
+        <f t="shared" ref="U115:U138" si="17">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+R87)</f>
+        <v>8.5</v>
+      </c>
+      <c r="V115" s="21">
+        <f t="shared" ref="V115:V138" si="18">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+S87)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A116" s="11">
         <v>38</v>
       </c>
@@ -3477,8 +3597,68 @@
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H116" s="21">
+        <f t="shared" ref="H116:K138" si="19">($I$81*$H$81*SIN(RADIANS(A88)))/($H$81*SIN(RADIANS(A88))+E88)</f>
+        <v>8.188903863880773</v>
+      </c>
+      <c r="I116" s="21">
+        <f t="shared" si="7"/>
+        <v>0.17722399811692399</v>
+      </c>
+      <c r="J116" s="21">
+        <f t="shared" si="7"/>
+        <v>7.3303754156978949</v>
+      </c>
+      <c r="K116" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L116" s="21">
+        <f t="shared" si="8"/>
+        <v>6.0345372882320092</v>
+      </c>
+      <c r="M116" s="21">
+        <f t="shared" si="9"/>
+        <v>6.9334534892440924</v>
+      </c>
+      <c r="N116" s="21">
+        <f t="shared" si="10"/>
+        <v>13.008380523885192</v>
+      </c>
+      <c r="O116" s="21">
+        <f t="shared" si="11"/>
+        <v>7.7274583208772682</v>
+      </c>
+      <c r="P116" s="21">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q116" s="21">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="R116" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S116" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T116" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U116" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V116" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A117" s="11">
         <v>43</v>
       </c>
@@ -3493,8 +3673,68 @@
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H117" s="21">
+        <f t="shared" si="19"/>
+        <v>8.311892757828744</v>
+      </c>
+      <c r="I117" s="21">
+        <f t="shared" si="7"/>
+        <v>0.17863970004059562</v>
+      </c>
+      <c r="J117" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(C89)))/($H$81*SIN(RADIANS(C89))+G89)</f>
+        <v>6.6446347009930431</v>
+      </c>
+      <c r="K117" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L117" s="21">
+        <f t="shared" si="8"/>
+        <v>11.797766031600124</v>
+      </c>
+      <c r="M117" s="21">
+        <f t="shared" si="9"/>
+        <v>7.7900460880866147</v>
+      </c>
+      <c r="N117" s="21">
+        <f t="shared" si="10"/>
+        <v>8.5</v>
+      </c>
+      <c r="O117" s="21">
+        <f t="shared" si="11"/>
+        <v>8.5</v>
+      </c>
+      <c r="P117" s="21">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q117" s="21">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="R117" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S117" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T117" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U117" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V117" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A118" s="11">
         <f>A117+5</f>
         <v>48</v>
@@ -3510,10 +3750,70 @@
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H118" s="21">
+        <f t="shared" si="19"/>
+        <v>8.1431294055802379</v>
+      </c>
+      <c r="I118" s="21">
+        <f t="shared" si="7"/>
+        <v>0.15983805154827474</v>
+      </c>
+      <c r="J118" s="21">
+        <f t="shared" si="7"/>
+        <v>6.8209476200094299</v>
+      </c>
+      <c r="K118" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L118" s="21">
+        <f t="shared" si="8"/>
+        <v>11.881071081384018</v>
+      </c>
+      <c r="M118" s="21">
+        <f t="shared" si="9"/>
+        <v>7.8396318949592683</v>
+      </c>
+      <c r="N118" s="21">
+        <f t="shared" si="10"/>
+        <v>8.5</v>
+      </c>
+      <c r="O118" s="21">
+        <f t="shared" si="11"/>
+        <v>8.5</v>
+      </c>
+      <c r="P118" s="21">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q118" s="21">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="R118" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S118" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T118" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U118" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V118" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A119" s="11">
-        <f t="shared" ref="A119:A127" si="6">A118+5</f>
+        <f t="shared" ref="A119:A127" si="20">A118+5</f>
         <v>53</v>
       </c>
       <c r="B119" s="11">
@@ -3527,10 +3827,70 @@
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H119" s="21">
+        <f t="shared" si="19"/>
+        <v>8.1799411255151782</v>
+      </c>
+      <c r="I119" s="21">
+        <f t="shared" si="7"/>
+        <v>0.16361782980788084</v>
+      </c>
+      <c r="J119" s="21">
+        <f t="shared" si="7"/>
+        <v>12.880969738256523</v>
+      </c>
+      <c r="K119" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L119" s="21">
+        <f t="shared" si="8"/>
+        <v>8.5</v>
+      </c>
+      <c r="M119" s="21">
+        <f t="shared" si="9"/>
+        <v>8.5</v>
+      </c>
+      <c r="N119" s="21">
+        <f t="shared" si="10"/>
+        <v>8.5</v>
+      </c>
+      <c r="O119" s="21">
+        <f t="shared" si="11"/>
+        <v>8.5</v>
+      </c>
+      <c r="P119" s="21">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q119" s="21">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="R119" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S119" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T119" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U119" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V119" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A120" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>58</v>
       </c>
       <c r="B120" s="11">
@@ -3544,10 +3904,70 @@
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H120" s="21">
+        <f t="shared" si="19"/>
+        <v>8.3092473259096504</v>
+      </c>
+      <c r="I120" s="21">
+        <f t="shared" si="7"/>
+        <v>0.14599362270124894</v>
+      </c>
+      <c r="J120" s="21">
+        <f t="shared" si="7"/>
+        <v>13.185098646540141</v>
+      </c>
+      <c r="K120" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="21">
+        <f t="shared" si="8"/>
+        <v>8.5</v>
+      </c>
+      <c r="M120" s="21">
+        <f t="shared" si="9"/>
+        <v>8.5</v>
+      </c>
+      <c r="N120" s="21">
+        <f t="shared" si="10"/>
+        <v>8.5</v>
+      </c>
+      <c r="O120" s="21">
+        <f t="shared" si="11"/>
+        <v>8.5</v>
+      </c>
+      <c r="P120" s="21">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q120" s="21">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="R120" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S120" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T120" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U120" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V120" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A121" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>63</v>
       </c>
       <c r="B121" s="11">
@@ -3561,10 +3981,70 @@
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H121" s="21">
+        <f t="shared" si="19"/>
+        <v>8.1946787824243241</v>
+      </c>
+      <c r="I121" s="21">
+        <f t="shared" si="7"/>
+        <v>0.13003956379505369</v>
+      </c>
+      <c r="J121" s="21">
+        <f t="shared" si="7"/>
+        <v>13.282425129811678</v>
+      </c>
+      <c r="K121" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="21">
+        <f t="shared" si="8"/>
+        <v>8.5</v>
+      </c>
+      <c r="M121" s="21">
+        <f t="shared" si="9"/>
+        <v>8.5</v>
+      </c>
+      <c r="N121" s="21">
+        <f t="shared" si="10"/>
+        <v>8.5</v>
+      </c>
+      <c r="O121" s="21">
+        <f t="shared" si="11"/>
+        <v>8.5</v>
+      </c>
+      <c r="P121" s="21">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q121" s="21">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="R121" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S121" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T121" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U121" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V121" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A122" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>68</v>
       </c>
       <c r="B122" s="11">
@@ -3578,8 +4058,68 @@
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H122" s="21">
+        <f t="shared" si="19"/>
+        <v>8.2681322073829246</v>
+      </c>
+      <c r="I122" s="21">
+        <f t="shared" si="7"/>
+        <v>0.1271825513336482</v>
+      </c>
+      <c r="J122" s="21">
+        <f t="shared" si="7"/>
+        <v>13.709709480239949</v>
+      </c>
+      <c r="K122" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L122" s="21">
+        <f t="shared" si="8"/>
+        <v>8.5</v>
+      </c>
+      <c r="M122" s="21">
+        <f t="shared" si="9"/>
+        <v>8.5</v>
+      </c>
+      <c r="N122" s="21">
+        <f t="shared" si="10"/>
+        <v>8.5</v>
+      </c>
+      <c r="O122" s="21">
+        <f t="shared" si="11"/>
+        <v>8.5</v>
+      </c>
+      <c r="P122" s="21">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q122" s="21">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="R122" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S122" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T122" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U122" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V122" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A123" s="11">
         <f>A122+5</f>
         <v>73</v>
@@ -3595,8 +4135,68 @@
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H123" s="21">
+        <f t="shared" si="19"/>
+        <v>8.406246756620952</v>
+      </c>
+      <c r="I123" s="21">
+        <f t="shared" si="7"/>
+        <v>0.13130197972598123</v>
+      </c>
+      <c r="J123" s="21">
+        <f t="shared" si="7"/>
+        <v>10.126381380857659</v>
+      </c>
+      <c r="K123" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L123" s="21">
+        <f t="shared" si="8"/>
+        <v>12.572031983500993</v>
+      </c>
+      <c r="M123" s="21">
+        <f t="shared" si="9"/>
+        <v>7.9049071747505693</v>
+      </c>
+      <c r="N123" s="21">
+        <f t="shared" si="10"/>
+        <v>8.5</v>
+      </c>
+      <c r="O123" s="21">
+        <f t="shared" si="11"/>
+        <v>8.5</v>
+      </c>
+      <c r="P123" s="21">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q123" s="21">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="R123" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S123" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T123" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U123" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V123" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A124" s="11">
         <v>73</v>
       </c>
@@ -3611,8 +4211,68 @@
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H124" s="21">
+        <f t="shared" si="19"/>
+        <v>8.3246323416513075</v>
+      </c>
+      <c r="I124" s="21">
+        <f t="shared" si="7"/>
+        <v>0.15117405261047626</v>
+      </c>
+      <c r="J124" s="21">
+        <f t="shared" si="7"/>
+        <v>10.666630819806961</v>
+      </c>
+      <c r="K124" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L124" s="21">
+        <f t="shared" si="8"/>
+        <v>12.830494510373555</v>
+      </c>
+      <c r="M124" s="21">
+        <f t="shared" si="9"/>
+        <v>7.9536342294791336</v>
+      </c>
+      <c r="N124" s="21">
+        <f t="shared" si="10"/>
+        <v>8.5</v>
+      </c>
+      <c r="O124" s="21">
+        <f t="shared" si="11"/>
+        <v>8.5</v>
+      </c>
+      <c r="P124" s="21">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q124" s="21">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="R124" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S124" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T124" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U124" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V124" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A125" s="11">
         <f>A123+5</f>
         <v>78</v>
@@ -3628,10 +4288,70 @@
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H125" s="21">
+        <f t="shared" si="19"/>
+        <v>8.4120027295406992</v>
+      </c>
+      <c r="I125" s="21">
+        <f t="shared" si="7"/>
+        <v>0.17478341966447652</v>
+      </c>
+      <c r="J125" s="21">
+        <f t="shared" si="7"/>
+        <v>11.136056027535414</v>
+      </c>
+      <c r="K125" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L125" s="21">
+        <f t="shared" si="8"/>
+        <v>12.812177463286915</v>
+      </c>
+      <c r="M125" s="21">
+        <f t="shared" si="9"/>
+        <v>7.8999559918404421</v>
+      </c>
+      <c r="N125" s="21">
+        <f t="shared" si="10"/>
+        <v>4.3842598886306297</v>
+      </c>
+      <c r="O125" s="21">
+        <f t="shared" si="11"/>
+        <v>7.9707121307280575</v>
+      </c>
+      <c r="P125" s="21">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q125" s="21">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="R125" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S125" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T125" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U125" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V125" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A126" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>83</v>
       </c>
       <c r="B126" s="11">
@@ -3645,10 +4365,70 @@
       </c>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H126" s="21">
+        <f t="shared" si="19"/>
+        <v>8.5</v>
+      </c>
+      <c r="I126" s="21">
+        <f t="shared" si="7"/>
+        <v>0.17741342888117828</v>
+      </c>
+      <c r="J126" s="21" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K126" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L126" s="21">
+        <f t="shared" si="8"/>
+        <v>9.1902117959766159</v>
+      </c>
+      <c r="M126" s="21">
+        <f t="shared" si="9"/>
+        <v>7.6253519231072628</v>
+      </c>
+      <c r="N126" s="21">
+        <f t="shared" si="10"/>
+        <v>13.022711260204492</v>
+      </c>
+      <c r="O126" s="21">
+        <f t="shared" si="11"/>
+        <v>7.956749824652448</v>
+      </c>
+      <c r="P126" s="21">
+        <f t="shared" si="12"/>
+        <v>14.255409516507427</v>
+      </c>
+      <c r="Q126" s="21">
+        <f t="shared" si="13"/>
+        <v>8.1228770484029038</v>
+      </c>
+      <c r="R126" s="21">
+        <f t="shared" si="14"/>
+        <v>16.915422490431048</v>
+      </c>
+      <c r="S126" s="21">
+        <f t="shared" si="15"/>
+        <v>8.2740348272942867</v>
+      </c>
+      <c r="T126" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U126" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V126" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A127" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>88</v>
       </c>
       <c r="B127" s="11">
@@ -3662,8 +4442,68 @@
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H127" s="21">
+        <f t="shared" si="19"/>
+        <v>8.4766546556527373</v>
+      </c>
+      <c r="I127" s="21">
+        <f t="shared" si="7"/>
+        <v>0.19981091883188518</v>
+      </c>
+      <c r="J127" s="21">
+        <f t="shared" si="7"/>
+        <v>10.45319573919458</v>
+      </c>
+      <c r="K127" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L127" s="21">
+        <f t="shared" si="8"/>
+        <v>11.911832604581679</v>
+      </c>
+      <c r="M127" s="21">
+        <f t="shared" si="9"/>
+        <v>7.7139431574961916</v>
+      </c>
+      <c r="N127" s="21">
+        <f t="shared" si="10"/>
+        <v>9.5179432733681129</v>
+      </c>
+      <c r="O127" s="21">
+        <f t="shared" si="11"/>
+        <v>7.6565332653207063</v>
+      </c>
+      <c r="P127" s="21">
+        <f t="shared" si="12"/>
+        <v>18.562753739809548</v>
+      </c>
+      <c r="Q127" s="21">
+        <f t="shared" si="13"/>
+        <v>8.4035664420379295</v>
+      </c>
+      <c r="R127" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S127" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T127" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U127" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V127" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A128" s="11">
         <v>88</v>
       </c>
@@ -3678,16 +4518,136 @@
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H128" s="21">
+        <f t="shared" si="19"/>
+        <v>8.6328997064636805</v>
+      </c>
+      <c r="I128" s="21">
+        <f t="shared" si="7"/>
+        <v>0.18205478173043083</v>
+      </c>
+      <c r="J128" s="21">
+        <f t="shared" si="7"/>
+        <v>11.590343033139021</v>
+      </c>
+      <c r="K128" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L128" s="21">
+        <f t="shared" si="8"/>
+        <v>15.753499409636003</v>
+      </c>
+      <c r="M128" s="21">
+        <f t="shared" si="9"/>
+        <v>8.1283927799185118</v>
+      </c>
+      <c r="N128" s="21">
+        <f t="shared" si="10"/>
+        <v>10.227085526855307</v>
+      </c>
+      <c r="O128" s="21">
+        <f t="shared" si="11"/>
+        <v>7.7023213058813331</v>
+      </c>
+      <c r="P128" s="21">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q128" s="21">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="R128" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S128" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T128" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U128" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V128" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A129" s="17"/>
       <c r="B129" s="18"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H129" s="21">
+        <f t="shared" si="19"/>
+        <v>8.9137515313181943</v>
+      </c>
+      <c r="I129" s="21">
+        <f t="shared" si="7"/>
+        <v>0.20425757438365166</v>
+      </c>
+      <c r="J129" s="21">
+        <f t="shared" si="7"/>
+        <v>11.573776595034539</v>
+      </c>
+      <c r="K129" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L129" s="21">
+        <f t="shared" si="8"/>
+        <v>12.517858409521965</v>
+      </c>
+      <c r="M129" s="21">
+        <f t="shared" si="9"/>
+        <v>7.6330802432789584</v>
+      </c>
+      <c r="N129" s="21">
+        <f t="shared" si="10"/>
+        <v>16.808184052897602</v>
+      </c>
+      <c r="O129" s="21">
+        <f t="shared" si="11"/>
+        <v>8.0021176682562771</v>
+      </c>
+      <c r="P129" s="21">
+        <f t="shared" si="12"/>
+        <v>12.591109879880104</v>
+      </c>
+      <c r="Q129" s="21">
+        <f t="shared" si="13"/>
+        <v>7.4352560878167964</v>
+      </c>
+      <c r="R129" s="21">
+        <f t="shared" si="14"/>
+        <v>8.546422473720078</v>
+      </c>
+      <c r="S129" s="21">
+        <f t="shared" si="15"/>
+        <v>7.2230974924461</v>
+      </c>
+      <c r="T129" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U129" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V129" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A130" s="13" t="s">
         <v>16</v>
       </c>
@@ -3704,8 +4664,68 @@
         <v>5</v>
       </c>
       <c r="F130" s="11"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H130" s="21">
+        <f t="shared" si="19"/>
+        <v>8.8551514822335768</v>
+      </c>
+      <c r="I130" s="21">
+        <f t="shared" si="19"/>
+        <v>0.21776570229248521</v>
+      </c>
+      <c r="J130" s="21">
+        <f t="shared" si="19"/>
+        <v>8.6498192644226819</v>
+      </c>
+      <c r="K130" s="21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L130" s="21">
+        <f t="shared" si="8"/>
+        <v>10.574743005170509</v>
+      </c>
+      <c r="M130" s="21">
+        <f t="shared" si="9"/>
+        <v>7.5797821391568165</v>
+      </c>
+      <c r="N130" s="21">
+        <f t="shared" si="10"/>
+        <v>12.290136986021105</v>
+      </c>
+      <c r="O130" s="21">
+        <f t="shared" si="11"/>
+        <v>7.2942282482312732</v>
+      </c>
+      <c r="P130" s="21">
+        <f t="shared" si="12"/>
+        <v>17.719555065848684</v>
+      </c>
+      <c r="Q130" s="21">
+        <f t="shared" si="13"/>
+        <v>8.0176565930933119</v>
+      </c>
+      <c r="R130" s="21">
+        <f t="shared" si="14"/>
+        <v>5.7236163946797056</v>
+      </c>
+      <c r="S130" s="21">
+        <f t="shared" si="15"/>
+        <v>7.8886046313800406</v>
+      </c>
+      <c r="T130" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U130" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V130" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A131" s="11">
         <v>38</v>
       </c>
@@ -3722,8 +4742,68 @@
         <v>23</v>
       </c>
       <c r="F131" s="11"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H131" s="21">
+        <f t="shared" si="19"/>
+        <v>8.6834946098657344</v>
+      </c>
+      <c r="I131" s="21">
+        <f t="shared" si="19"/>
+        <v>0.22711136294525519</v>
+      </c>
+      <c r="J131" s="21">
+        <f t="shared" si="19"/>
+        <v>9.051067070078286</v>
+      </c>
+      <c r="K131" s="21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L131" s="21">
+        <f t="shared" si="8"/>
+        <v>12.421967048345994</v>
+      </c>
+      <c r="M131" s="21">
+        <f t="shared" si="9"/>
+        <v>7.0606445745057487</v>
+      </c>
+      <c r="N131" s="21">
+        <f t="shared" si="10"/>
+        <v>20.474194181482972</v>
+      </c>
+      <c r="O131" s="21">
+        <f t="shared" si="11"/>
+        <v>7.905483818493666</v>
+      </c>
+      <c r="P131" s="21">
+        <f t="shared" si="12"/>
+        <v>4.4117453694570496</v>
+      </c>
+      <c r="Q131" s="21">
+        <f t="shared" si="13"/>
+        <v>7.779570110334987</v>
+      </c>
+      <c r="R131" s="21">
+        <f t="shared" si="14"/>
+        <v>8.4999999999999982</v>
+      </c>
+      <c r="S131" s="21">
+        <f t="shared" si="15"/>
+        <v>8.4999999999999982</v>
+      </c>
+      <c r="T131" s="21">
+        <f t="shared" si="16"/>
+        <v>8.4999999999999982</v>
+      </c>
+      <c r="U131" s="21">
+        <f t="shared" si="17"/>
+        <v>8.4999999999999982</v>
+      </c>
+      <c r="V131" s="21">
+        <f t="shared" si="18"/>
+        <v>8.4999999999999982</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A132" s="11">
         <v>43</v>
       </c>
@@ -3738,8 +4818,68 @@
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H132" s="21">
+        <f t="shared" si="19"/>
+        <v>8.3610691192869329</v>
+      </c>
+      <c r="I132" s="21">
+        <f t="shared" si="19"/>
+        <v>0.22878062843336963</v>
+      </c>
+      <c r="J132" s="21">
+        <f t="shared" si="19"/>
+        <v>8.790676232000898</v>
+      </c>
+      <c r="K132" s="21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L132" s="21">
+        <f t="shared" si="8"/>
+        <v>6.5544475714785966</v>
+      </c>
+      <c r="M132" s="21">
+        <f t="shared" si="9"/>
+        <v>6.5430153492938903</v>
+      </c>
+      <c r="N132" s="21">
+        <f t="shared" si="10"/>
+        <v>19.370181648200006</v>
+      </c>
+      <c r="O132" s="21">
+        <f t="shared" si="11"/>
+        <v>7.6819073822667709</v>
+      </c>
+      <c r="P132" s="21">
+        <f t="shared" si="12"/>
+        <v>4.3978005054892702</v>
+      </c>
+      <c r="Q132" s="21">
+        <f t="shared" si="13"/>
+        <v>7.6091912168434233</v>
+      </c>
+      <c r="R132" s="21">
+        <f t="shared" si="14"/>
+        <v>4.6198575684056307</v>
+      </c>
+      <c r="S132" s="21">
+        <f t="shared" si="15"/>
+        <v>7.6662085871450021</v>
+      </c>
+      <c r="T132" s="21">
+        <f t="shared" si="16"/>
+        <v>6.8123415692197531</v>
+      </c>
+      <c r="U132" s="21">
+        <f t="shared" si="17"/>
+        <v>7.6924090143522541</v>
+      </c>
+      <c r="V132" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A133" s="11">
         <f>A132+5</f>
         <v>48</v>
@@ -3755,10 +4895,70 @@
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H133" s="21">
+        <f t="shared" si="19"/>
+        <v>9.200059202035602</v>
+      </c>
+      <c r="I133" s="21">
+        <f t="shared" si="19"/>
+        <v>0.20243614222731798</v>
+      </c>
+      <c r="J133" s="21">
+        <f t="shared" si="19"/>
+        <v>9.7308804279255288</v>
+      </c>
+      <c r="K133" s="21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L133" s="21">
+        <f t="shared" si="8"/>
+        <v>13.374136534729741</v>
+      </c>
+      <c r="M133" s="21">
+        <f t="shared" si="9"/>
+        <v>6.0176836675406085</v>
+      </c>
+      <c r="N133" s="21">
+        <f t="shared" si="10"/>
+        <v>16.620927431551653</v>
+      </c>
+      <c r="O133" s="21">
+        <f t="shared" si="11"/>
+        <v>6.6181483225924902</v>
+      </c>
+      <c r="P133" s="21">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q133" s="21">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="R133" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S133" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T133" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U133" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V133" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A134" s="11">
-        <f t="shared" ref="A134:A142" si="7">A133+5</f>
+        <f t="shared" ref="A134:A142" si="21">A133+5</f>
         <v>53</v>
       </c>
       <c r="B134" s="11">
@@ -3772,10 +4972,70 @@
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H134" s="21">
+        <f t="shared" si="19"/>
+        <v>11.828517779124256</v>
+      </c>
+      <c r="I134" s="21">
+        <f t="shared" si="19"/>
+        <v>0.21342902593081051</v>
+      </c>
+      <c r="J134" s="21">
+        <f t="shared" si="19"/>
+        <v>9.7425884693844491</v>
+      </c>
+      <c r="K134" s="21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L134" s="21">
+        <f t="shared" si="8"/>
+        <v>7.0892440890399948</v>
+      </c>
+      <c r="M134" s="21">
+        <f t="shared" si="9"/>
+        <v>6.8068103271626894</v>
+      </c>
+      <c r="N134" s="21">
+        <f t="shared" si="10"/>
+        <v>59.937357092653343</v>
+      </c>
+      <c r="O134" s="21">
+        <f t="shared" si="11"/>
+        <v>6.9187902646032748</v>
+      </c>
+      <c r="P134" s="21">
+        <f t="shared" si="12"/>
+        <v>175.13596623743112</v>
+      </c>
+      <c r="Q134" s="21">
+        <f t="shared" si="13"/>
+        <v>7.1355053775929651</v>
+      </c>
+      <c r="R134" s="21">
+        <f t="shared" si="14"/>
+        <v>3.0003828451045238</v>
+      </c>
+      <c r="S134" s="21">
+        <f t="shared" si="15"/>
+        <v>6.9806268762328072</v>
+      </c>
+      <c r="T134" s="21">
+        <f t="shared" si="16"/>
+        <v>2.1850020356793403</v>
+      </c>
+      <c r="U134" s="21">
+        <f t="shared" si="17"/>
+        <v>7.1355053775929651</v>
+      </c>
+      <c r="V134" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5000000000000018</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A135" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>58</v>
       </c>
       <c r="B135" s="11">
@@ -3789,10 +5049,70 @@
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H135" s="21">
+        <f t="shared" si="19"/>
+        <v>10.693676477306523</v>
+      </c>
+      <c r="I135" s="21">
+        <f t="shared" si="19"/>
+        <v>0.16131487123196886</v>
+      </c>
+      <c r="J135" s="21">
+        <f t="shared" si="19"/>
+        <v>8.5629211524122972</v>
+      </c>
+      <c r="K135" s="21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L135" s="21">
+        <f t="shared" si="8"/>
+        <v>15.081187094391334</v>
+      </c>
+      <c r="M135" s="21">
+        <f t="shared" si="9"/>
+        <v>3.0462751960893764</v>
+      </c>
+      <c r="N135" s="21">
+        <f t="shared" si="10"/>
+        <v>-11.458524832002915</v>
+      </c>
+      <c r="O135" s="21">
+        <f t="shared" si="11"/>
+        <v>5.7100602081304261</v>
+      </c>
+      <c r="P135" s="21">
+        <f t="shared" si="12"/>
+        <v>-2.4774299674168092</v>
+      </c>
+      <c r="Q135" s="21">
+        <f t="shared" si="13"/>
+        <v>6.6809523278723733</v>
+      </c>
+      <c r="R135" s="21">
+        <f t="shared" si="14"/>
+        <v>-1.3060766348272776</v>
+      </c>
+      <c r="S135" s="21">
+        <f t="shared" si="15"/>
+        <v>8.2537236223141015</v>
+      </c>
+      <c r="T135" s="21">
+        <f t="shared" si="16"/>
+        <v>2.07345163176443</v>
+      </c>
+      <c r="U135" s="21">
+        <f t="shared" si="17"/>
+        <v>5.6116381797630535</v>
+      </c>
+      <c r="V135" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A136" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>63</v>
       </c>
       <c r="B136" s="11">
@@ -3806,10 +5126,70 @@
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H136" s="21">
+        <f t="shared" si="19"/>
+        <v>7.5202790987393024</v>
+      </c>
+      <c r="I136" s="21">
+        <f t="shared" si="19"/>
+        <v>0.19528179784848809</v>
+      </c>
+      <c r="J136" s="21">
+        <f t="shared" si="19"/>
+        <v>6.6747597105036265</v>
+      </c>
+      <c r="K136" s="21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L136" s="21">
+        <f t="shared" si="8"/>
+        <v>-1.2930809169452722</v>
+      </c>
+      <c r="M136" s="21">
+        <f t="shared" si="9"/>
+        <v>-46.914685221864964</v>
+      </c>
+      <c r="N136" s="21">
+        <f t="shared" si="10"/>
+        <v>1.2401899451080107</v>
+      </c>
+      <c r="O136" s="21">
+        <f t="shared" si="11"/>
+        <v>-99.248826413956948</v>
+      </c>
+      <c r="P136" s="21">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q136" s="21">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="R136" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S136" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T136" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U136" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V136" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A137" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>68</v>
       </c>
       <c r="B137" s="11">
@@ -3823,8 +5203,68 @@
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H137" s="21">
+        <f t="shared" si="19"/>
+        <v>9.1468905597007879</v>
+      </c>
+      <c r="I137" s="21">
+        <f t="shared" si="19"/>
+        <v>0.20497172661377341</v>
+      </c>
+      <c r="J137" s="21">
+        <f t="shared" si="19"/>
+        <v>5.5285969093076295</v>
+      </c>
+      <c r="K137" s="21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L137" s="21">
+        <f t="shared" si="8"/>
+        <v>3.7595974542909052</v>
+      </c>
+      <c r="M137" s="21">
+        <f t="shared" si="9"/>
+        <v>11.311297639184378</v>
+      </c>
+      <c r="N137" s="21">
+        <f t="shared" si="10"/>
+        <v>8.5</v>
+      </c>
+      <c r="O137" s="21">
+        <f t="shared" si="11"/>
+        <v>8.5</v>
+      </c>
+      <c r="P137" s="21">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q137" s="21">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="R137" s="21">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+      <c r="S137" s="21">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="T137" s="21">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+      <c r="U137" s="21">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="V137" s="21">
+        <f t="shared" si="18"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A138" s="11">
         <f>A137+5</f>
         <v>73</v>
@@ -3840,8 +5280,68 @@
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H138" s="21">
+        <f t="shared" si="19"/>
+        <v>9.1837533935912816</v>
+      </c>
+      <c r="I138" s="21">
+        <f t="shared" si="19"/>
+        <v>0.30151101209336517</v>
+      </c>
+      <c r="J138" s="21">
+        <f t="shared" si="19"/>
+        <v>7.7402936902369399</v>
+      </c>
+      <c r="K138" s="21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L138" s="21">
+        <f t="shared" si="8"/>
+        <v>13.318554731606794</v>
+      </c>
+      <c r="M138" s="21">
+        <f t="shared" si="9"/>
+        <v>14.832615270957936</v>
+      </c>
+      <c r="N138" s="21">
+        <f t="shared" si="10"/>
+        <v>15.015504996053274</v>
+      </c>
+      <c r="O138" s="21">
+        <f t="shared" si="11"/>
+        <v>12.850093386502786</v>
+      </c>
+      <c r="P138" s="21">
+        <f t="shared" si="12"/>
+        <v>24.225685026865776</v>
+      </c>
+      <c r="Q138" s="21">
+        <f t="shared" si="13"/>
+        <v>10.369832726105676</v>
+      </c>
+      <c r="R138" s="21">
+        <f t="shared" si="14"/>
+        <v>-10.936633549876881</v>
+      </c>
+      <c r="S138" s="21">
+        <f t="shared" si="15"/>
+        <v>9.8259665845273574</v>
+      </c>
+      <c r="T138" s="21">
+        <f t="shared" si="16"/>
+        <v>41.139206825284276</v>
+      </c>
+      <c r="U138" s="21">
+        <f t="shared" si="17"/>
+        <v>10.000803817638753</v>
+      </c>
+      <c r="V138" s="21">
+        <f t="shared" si="18"/>
+        <v>2.5758479350859909</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A139" s="11">
         <v>73</v>
       </c>
@@ -3856,8 +5356,9 @@
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H139" s="21"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A140" s="11">
         <f>A138+5</f>
         <v>78</v>
@@ -3873,10 +5374,11 @@
       </c>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H140" s="21"/>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A141" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>83</v>
       </c>
       <c r="B141" s="11">
@@ -3890,10 +5392,11 @@
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H141" s="21"/>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A142" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>88</v>
       </c>
       <c r="B142" s="11">
@@ -3907,8 +5410,9 @@
       </c>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H142" s="21"/>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A143" s="11">
         <v>88</v>
       </c>
@@ -3924,7 +5428,7 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>

--- a/Messprotokoll_Simon.xlsx
+++ b/Messprotokoll_Simon.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E693CE-E0C3-4A9B-A508-577E94A35250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62D5E49-B66D-4933-B276-6D7F547AE73E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4950" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
   <si>
     <t>Simon Keegan, Philipp Gebauer</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Maxima 5</t>
   </si>
   <si>
-    <t>.41.3</t>
-  </si>
-  <si>
     <t>Maxima 6</t>
   </si>
   <si>
@@ -176,12 +173,114 @@
   <si>
     <t>V von R</t>
   </si>
+  <si>
+    <t>Radius 1</t>
+  </si>
+  <si>
+    <t>Radius 2</t>
+  </si>
+  <si>
+    <t>Radius 3</t>
+  </si>
+  <si>
+    <t>Radius 4</t>
+  </si>
+  <si>
+    <t>Radius 5</t>
+  </si>
+  <si>
+    <t>Radius 6</t>
+  </si>
+  <si>
+    <t>Radius 7</t>
+  </si>
+  <si>
+    <t>Radius 8</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>r5</t>
+  </si>
+  <si>
+    <t>r6</t>
+  </si>
+  <si>
+    <t>r7</t>
+  </si>
+  <si>
+    <t>r8</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>y5</t>
+  </si>
+  <si>
+    <t>y6</t>
+  </si>
+  <si>
+    <t>y7</t>
+  </si>
+  <si>
+    <t>y8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +334,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -262,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -287,6 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:AK371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W115" sqref="W115"/>
+    <sheetView tabSelected="1" topLeftCell="E148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q189" sqref="Q189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -591,10 +697,14 @@
     <col min="14" max="14" width="14.53125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.3984375" customWidth="1"/>
     <col min="20" max="20" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -1424,7 +1534,7 @@
         <v>655.1</v>
       </c>
       <c r="O48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
@@ -1448,10 +1558,10 @@
         <v>486.3</v>
       </c>
       <c r="K49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O49">
         <f>1/((2*PI()*L51^2))^(1/2)</f>
@@ -1479,7 +1589,7 @@
         <v>352.6</v>
       </c>
       <c r="K50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L50">
         <v>313.04899999999998</v>
@@ -1509,7 +1619,7 @@
         <v>313.5</v>
       </c>
       <c r="K51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L51">
         <v>3.3128500000000001</v>
@@ -1539,7 +1649,7 @@
         <v>324.10000000000002</v>
       </c>
       <c r="K52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L52">
         <v>0.96792</v>
@@ -1569,7 +1679,7 @@
         <v>317</v>
       </c>
       <c r="K53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L53">
         <v>5646.81</v>
@@ -1620,7 +1730,7 @@
         <v>302.2</v>
       </c>
       <c r="K55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.45">
@@ -1637,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>2183.1999999999998</v>
@@ -2151,13 +2261,13 @@
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="H80" t="s">
+        <v>44</v>
+      </c>
+      <c r="I80" t="s">
         <v>45</v>
       </c>
-      <c r="I80" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A81" s="11">
         <v>84</v>
       </c>
@@ -2177,7 +2287,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A82" s="11">
         <v>84</v>
       </c>
@@ -2191,7 +2301,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A83" s="11"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -2199,47 +2309,47 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
       <c r="D84" s="16"/>
-      <c r="E84" s="13" t="s">
+      <c r="H84" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="13" t="s">
+      <c r="I84" s="11"/>
+      <c r="J84" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H84" s="11"/>
-      <c r="I84" s="13" t="s">
+      <c r="K84" s="11"/>
+      <c r="L84" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J84" s="11"/>
-      <c r="K84" s="13" t="s">
+      <c r="M84" s="11"/>
+      <c r="N84" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L84" s="11"/>
-      <c r="M84" s="13" t="s">
+      <c r="O84" s="11"/>
+      <c r="P84" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N84" s="11"/>
-      <c r="O84" s="13" t="s">
+      <c r="Q84" s="11"/>
+      <c r="R84" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S84" s="11"/>
+      <c r="T84" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="13" t="s">
+      <c r="U84" s="11"/>
+      <c r="V84" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R84" s="11"/>
-      <c r="S84" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T84" s="11"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W84" s="11"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>6</v>
       </c>
@@ -2252,62 +2362,65 @@
       <c r="D85" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="G85" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="I85" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G85" s="13" t="s">
+      <c r="J85" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H85" s="13" t="s">
+      <c r="K85" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I85" s="13" t="s">
+      <c r="L85" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="M85" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K85" s="13" t="s">
+      <c r="N85" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L85" s="13" t="s">
+      <c r="O85" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M85" s="13" t="s">
+      <c r="P85" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N85" s="13" t="s">
+      <c r="Q85" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O85" s="13" t="s">
+      <c r="R85" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P85" s="13" t="s">
+      <c r="S85" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Q85" s="13" t="s">
+      <c r="T85" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="R85" s="13" t="s">
+      <c r="U85" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="S85" s="13" t="s">
+      <c r="V85" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="T85" s="13" t="s">
+      <c r="W85" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="U85" s="5" t="s">
+      <c r="X85" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y85" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="V85" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A86" s="11">
         <v>33</v>
       </c>
@@ -2320,40 +2433,43 @@
       <c r="D86" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E86" s="11">
+      <c r="G86" s="11">
+        <v>33</v>
+      </c>
+      <c r="H86" s="11">
         <v>6.7</v>
       </c>
-      <c r="F86" s="11">
+      <c r="I86" s="11">
         <v>37.9</v>
       </c>
-      <c r="G86" s="11">
+      <c r="J86" s="11">
         <v>41.7</v>
       </c>
-      <c r="H86" s="11">
+      <c r="K86" s="11">
         <v>30.2</v>
       </c>
-      <c r="I86" s="11">
+      <c r="L86" s="11">
         <v>80.900000000000006</v>
       </c>
-      <c r="J86" s="11">
+      <c r="M86" s="11">
         <v>25.1</v>
       </c>
-      <c r="K86" s="19">
+      <c r="N86" s="19">
         <v>-46</v>
       </c>
-      <c r="L86" s="19">
+      <c r="O86" s="19">
         <v>13.2</v>
       </c>
-      <c r="U86" s="21">
+      <c r="X86" s="21">
         <f>$I$81*SIN(RADIANS(A86))</f>
         <v>4.6294317976277304</v>
       </c>
-      <c r="V86">
-        <f>I86+$H$81*SIN(RADIANS(A86))</f>
+      <c r="Y86">
+        <f>L86+$H$81*SIN(RADIANS(A86))</f>
         <v>200.72058770330597</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A87" s="11">
         <v>38</v>
       </c>
@@ -2364,46 +2480,49 @@
         <v>60</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="11">
+      <c r="G87" s="11">
+        <v>38</v>
+      </c>
+      <c r="H87" s="11">
         <v>5.3</v>
       </c>
-      <c r="F87" s="11">
+      <c r="I87" s="11">
         <v>37.200000000000003</v>
       </c>
-      <c r="G87" s="19">
+      <c r="J87" s="19">
         <v>32.1</v>
       </c>
-      <c r="H87" s="19">
+      <c r="K87" s="19">
         <v>36.700000000000003</v>
       </c>
-      <c r="I87" s="19">
+      <c r="L87" s="19">
         <v>58.9</v>
       </c>
-      <c r="J87" s="19">
+      <c r="M87" s="19">
         <v>32.700000000000003</v>
       </c>
-      <c r="K87" s="19">
+      <c r="N87" s="19">
         <v>71.2</v>
       </c>
-      <c r="L87" s="19">
+      <c r="O87" s="19">
         <v>25.6</v>
       </c>
-      <c r="M87" s="11">
+      <c r="P87" s="11">
         <v>-33.9</v>
       </c>
-      <c r="N87" s="11">
+      <c r="Q87" s="11">
         <v>15.4</v>
       </c>
-      <c r="U87" s="21">
-        <f t="shared" ref="U87:U97" si="3">$I$81*SIN(RADIANS(A87))</f>
+      <c r="X87" s="21">
+        <f>$I$81*SIN(RADIANS(A87))</f>
         <v>5.2331225402680959</v>
       </c>
-      <c r="V87">
-        <f>I87+$H$81*SIN(RADIANS(A87))</f>
+      <c r="Y87">
+        <f>L87+$H$81*SIN(RADIANS(A87))</f>
         <v>194.34552457164483</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A88" s="11">
         <v>43</v>
       </c>
@@ -2414,40 +2533,43 @@
         <v>60</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11">
+      <c r="G88" s="11">
+        <v>43</v>
+      </c>
+      <c r="H88" s="11">
         <v>5.7</v>
       </c>
-      <c r="F88" s="11">
+      <c r="I88" s="11">
         <v>38.700000000000003</v>
       </c>
-      <c r="G88" s="11">
+      <c r="J88" s="11">
         <v>30.4</v>
       </c>
-      <c r="H88" s="11">
+      <c r="K88" s="11">
         <v>35.700000000000003</v>
       </c>
-      <c r="I88" s="11">
+      <c r="L88" s="11">
         <v>61.3</v>
       </c>
-      <c r="J88" s="11">
+      <c r="M88" s="11">
         <v>33.9</v>
       </c>
-      <c r="K88" s="11">
+      <c r="N88" s="11">
         <v>-52</v>
       </c>
-      <c r="L88" s="11">
+      <c r="O88" s="11">
         <v>15</v>
       </c>
-      <c r="U88" s="21">
-        <f t="shared" si="3"/>
+      <c r="X88" s="21">
+        <f>$I$81*SIN(RADIANS(A88))</f>
         <v>5.7969860605312373</v>
       </c>
-      <c r="V88">
-        <f>I88+$H$81*SIN(RADIANS(A88))</f>
+      <c r="Y88">
+        <f>L88+$H$81*SIN(RADIANS(A88))</f>
         <v>211.33963921374965</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A89" s="11">
         <f>A88+5</f>
         <v>48</v>
@@ -2459,36 +2581,43 @@
         <v>60</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11">
+      <c r="G89" s="11">
+        <f>G88+5</f>
+        <v>48</v>
+      </c>
+      <c r="H89" s="11">
         <v>3.7</v>
       </c>
-      <c r="F89" s="11">
+      <c r="I89" s="11">
         <v>38.6</v>
       </c>
-      <c r="G89" s="11">
+      <c r="J89" s="11">
         <v>53.2</v>
       </c>
-      <c r="H89" s="11">
+      <c r="K89" s="11">
         <v>37.700000000000003</v>
       </c>
-      <c r="I89" s="11">
+      <c r="L89" s="11">
         <v>-45.7</v>
       </c>
-      <c r="J89" s="11">
+      <c r="M89" s="11">
         <v>14.9</v>
       </c>
-      <c r="U89" s="21">
-        <f t="shared" si="3"/>
+      <c r="N89" t="s">
+        <v>57</v>
+      </c>
+      <c r="X89" s="21">
+        <f>$I$81*SIN(RADIANS(A89))</f>
         <v>6.316731016557851</v>
       </c>
-      <c r="V89">
-        <f>G89+$H$81*SIN(RADIANS(A89))</f>
+      <c r="Y89">
+        <f>J89+$H$81*SIN(RADIANS(A89))</f>
         <v>216.69186160502676</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A90" s="11">
-        <f t="shared" ref="A90:A100" si="4">A89+5</f>
+        <f t="shared" ref="A90:A100" si="3">A89+5</f>
         <v>53</v>
       </c>
       <c r="B90" s="14">
@@ -2498,133 +2627,179 @@
         <v>60</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11">
+      <c r="G90" s="11">
+        <f t="shared" ref="G90:G100" si="4">G89+5</f>
+        <v>53</v>
+      </c>
+      <c r="H90" s="11">
         <v>7.7</v>
       </c>
-      <c r="F90" s="11">
+      <c r="I90" s="11">
         <v>43.5</v>
       </c>
-      <c r="G90" s="11">
+      <c r="J90" s="11">
         <v>46.9</v>
       </c>
-      <c r="H90" s="11">
+      <c r="K90" s="11">
         <v>34.6</v>
       </c>
-      <c r="I90" s="11">
+      <c r="L90" s="11">
         <v>-50</v>
       </c>
-      <c r="J90" s="11">
+      <c r="M90" s="11">
         <v>14.8</v>
       </c>
-      <c r="U90" s="21">
+      <c r="N90" t="s">
+        <v>57</v>
+      </c>
+      <c r="X90" s="21">
+        <f>$I$81*SIN(RADIANS(A90))</f>
+        <v>6.7884018354019888</v>
+      </c>
+      <c r="Y90">
+        <f>J90+$H$81*SIN(RADIANS(A90))</f>
+        <v>222.59981221040442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A91" s="11">
         <f t="shared" si="3"/>
-        <v>6.7884018354019888</v>
-      </c>
-      <c r="V90">
-        <f>G90+$H$81*SIN(RADIANS(A90))</f>
-        <v>222.59981221040442</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A91" s="11">
+        <v>58</v>
+      </c>
+      <c r="B91" s="14">
+        <v>0.2182638888888889</v>
+      </c>
+      <c r="C91" s="11">
+        <v>60</v>
+      </c>
+      <c r="D91" s="11"/>
+      <c r="G91" s="11">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="B91" s="14">
-        <v>0.2182638888888889</v>
-      </c>
-      <c r="C91" s="11">
+      <c r="H91" s="11">
+        <v>7.3</v>
+      </c>
+      <c r="I91" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="J91" s="11">
+        <v>-64.8</v>
+      </c>
+      <c r="K91" s="11">
+        <v>15.8</v>
+      </c>
+      <c r="L91" t="s">
+        <v>56</v>
+      </c>
+      <c r="M91" t="s">
+        <v>57</v>
+      </c>
+      <c r="N91" t="s">
+        <v>57</v>
+      </c>
+      <c r="X91" s="21">
+        <f>$I$81*SIN(RADIANS(A91))</f>
+        <v>7.2084088173296204</v>
+      </c>
+      <c r="Y91">
+        <f>H91+$H$81*SIN(RADIANS(A91))</f>
+        <v>193.87058115441371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A92" s="11">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="B92" s="14">
+        <v>0.21937499999999999</v>
+      </c>
+      <c r="C92" s="11">
         <v>60</v>
       </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11">
-        <v>7.3</v>
-      </c>
-      <c r="F91" s="11">
-        <v>42.7</v>
-      </c>
-      <c r="G91" s="11">
-        <v>-64.8</v>
-      </c>
-      <c r="H91" s="11">
-        <v>15.8</v>
-      </c>
-      <c r="U91" s="21">
-        <f t="shared" si="3"/>
-        <v>7.2084088173296204</v>
-      </c>
-      <c r="V91">
-        <f t="shared" ref="V91:V97" si="5">E91+$H$81*SIN(RADIANS(A91))</f>
-        <v>193.87058115441371</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A92" s="11">
+      <c r="D92" s="11"/>
+      <c r="G92" s="11">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="B92" s="14">
-        <v>0.21937499999999999</v>
-      </c>
-      <c r="C92" s="11">
+      <c r="H92" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="I92" s="11">
+        <v>48.2</v>
+      </c>
+      <c r="J92" s="11">
+        <v>-67.7</v>
+      </c>
+      <c r="K92" s="11">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L92" t="s">
+        <v>57</v>
+      </c>
+      <c r="M92" t="s">
+        <v>57</v>
+      </c>
+      <c r="N92" t="s">
+        <v>57</v>
+      </c>
+      <c r="X92" s="21">
+        <f>$I$81*SIN(RADIANS(A92))</f>
+        <v>7.5735554556011264</v>
+      </c>
+      <c r="Y92">
+        <f>H92+$H$81*SIN(RADIANS(A92))</f>
+        <v>200.52143532144092</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A93" s="11">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="B93" s="14">
+        <v>0.22052083333333336</v>
+      </c>
+      <c r="C93" s="11">
         <v>60</v>
       </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="F92" s="11">
-        <v>48.2</v>
-      </c>
-      <c r="G92" s="11">
-        <v>-67.7</v>
-      </c>
-      <c r="H92" s="11">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="U92" s="21">
-        <f t="shared" si="3"/>
-        <v>7.5735554556011264</v>
-      </c>
-      <c r="V92">
-        <f t="shared" si="5"/>
-        <v>200.52143532144092</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A93" s="11">
+      <c r="D93" s="11"/>
+      <c r="G93" s="11">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="B93" s="14">
-        <v>0.22052083333333336</v>
-      </c>
-      <c r="C93" s="11">
-        <v>60</v>
-      </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11">
+      <c r="H93" s="11">
         <v>7.6</v>
       </c>
-      <c r="F93" s="11">
+      <c r="I93" s="11">
         <v>54.5</v>
       </c>
-      <c r="G93" s="11">
+      <c r="J93" s="11">
         <v>-68.599999999999994</v>
       </c>
-      <c r="H93" s="11">
+      <c r="K93" s="11">
         <v>19</v>
       </c>
-      <c r="U93" s="21">
-        <f t="shared" si="3"/>
+      <c r="L93" t="s">
+        <v>57</v>
+      </c>
+      <c r="M93" t="s">
+        <v>57</v>
+      </c>
+      <c r="N93" t="s">
+        <v>57</v>
+      </c>
+      <c r="X93" s="21">
+        <f>$I$81*SIN(RADIANS(A93))</f>
         <v>7.8810627638176936</v>
       </c>
-      <c r="V93">
-        <f t="shared" si="5"/>
+      <c r="Y93">
+        <f>H93+$H$81*SIN(RADIANS(A93))</f>
         <v>211.58044800469324</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A94" s="11">
         <f>A93+5</f>
         <v>73</v>
@@ -2636,151 +2811,194 @@
         <v>60</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11">
+      <c r="G94" s="11">
+        <f>G93+5</f>
+        <v>73</v>
+      </c>
+      <c r="H94" s="11">
         <v>5.9</v>
       </c>
-      <c r="F94" s="11">
+      <c r="I94" s="11">
         <v>56.7</v>
       </c>
-      <c r="G94" s="11">
+      <c r="J94" s="11">
         <v>-72.400000000000006</v>
       </c>
-      <c r="H94" s="11">
+      <c r="K94" s="11">
         <v>16.399999999999999</v>
       </c>
-      <c r="U94" s="21">
+      <c r="L94" t="s">
+        <v>57</v>
+      </c>
+      <c r="M94" t="s">
+        <v>57</v>
+      </c>
+      <c r="N94" t="s">
+        <v>57</v>
+      </c>
+      <c r="X94" s="21">
+        <f>$I$81*SIN(RADIANS(A94))</f>
+        <v>8.1285904256858004</v>
+      </c>
+      <c r="Y94">
+        <f>H94+$H$81*SIN(RADIANS(A94))</f>
+        <v>216.28704631186781</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A95" s="11">
         <f t="shared" si="3"/>
-        <v>8.1285904256858004</v>
-      </c>
-      <c r="V94">
-        <f t="shared" si="5"/>
-        <v>216.28704631186781</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A95" s="11">
+        <v>78</v>
+      </c>
+      <c r="B95" s="14">
+        <v>0.22555555555555554</v>
+      </c>
+      <c r="C95" s="11">
+        <v>60</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="G95" s="11">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="B95" s="14">
-        <v>0.22555555555555554</v>
-      </c>
-      <c r="C95" s="11">
+      <c r="H95" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="I95" s="11">
+        <v>55.2</v>
+      </c>
+      <c r="J95" s="11">
+        <v>-30.6</v>
+      </c>
+      <c r="K95" s="11">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="L95" s="11">
+        <v>-69.7</v>
+      </c>
+      <c r="M95" s="11">
+        <v>16.2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>57</v>
+      </c>
+      <c r="X95" s="21">
+        <f>$I$81*SIN(RADIANS(A95))</f>
+        <v>8.3142546062373466</v>
+      </c>
+      <c r="Y95">
+        <f>H95+$H$81*SIN(RADIANS(A95))</f>
+        <v>217.59247216143723</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A96" s="11">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="B96" s="14">
+        <v>0.2268287037037037</v>
+      </c>
+      <c r="C96" s="11">
         <v>60</v>
       </c>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11">
-        <v>2.4</v>
-      </c>
-      <c r="F95" s="11">
-        <v>55.2</v>
-      </c>
-      <c r="G95" s="11">
-        <v>-30.6</v>
-      </c>
-      <c r="H95" s="11">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="I95" s="11">
-        <v>-69.7</v>
-      </c>
-      <c r="J95" s="11">
-        <v>16.2</v>
-      </c>
-      <c r="U95" s="21">
-        <f t="shared" si="3"/>
-        <v>8.3142546062373466</v>
-      </c>
-      <c r="V95">
-        <f t="shared" si="5"/>
-        <v>217.59247216143723</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A96" s="11">
+      <c r="D96" s="11"/>
+      <c r="G96" s="11">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="B96" s="14">
-        <v>0.2268287037037037</v>
-      </c>
-      <c r="C96" s="11">
+      <c r="H96" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I96" s="11">
+        <v>48.1</v>
+      </c>
+      <c r="J96" s="11">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="K96" s="11">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="L96" s="11">
+        <v>-73.7</v>
+      </c>
+      <c r="M96" s="11">
+        <v>15</v>
+      </c>
+      <c r="N96" t="s">
+        <v>57</v>
+      </c>
+      <c r="X96" s="21">
+        <f>$I$81*SIN(RADIANS(A96))</f>
+        <v>8.4366422889512371</v>
+      </c>
+      <c r="Y96">
+        <f>H96+$H$81*SIN(RADIANS(A96))</f>
+        <v>222.96015336109082</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A97" s="11">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="B97" s="14">
+        <v>0.2290972222222222</v>
+      </c>
+      <c r="C97" s="11">
         <v>60</v>
       </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F96" s="11">
-        <v>48.1</v>
-      </c>
-      <c r="G96" s="11">
-        <v>-38.700000000000003</v>
-      </c>
-      <c r="H96" s="11">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="I96" s="11">
-        <v>-73.7</v>
-      </c>
-      <c r="J96" s="11">
-        <v>15</v>
-      </c>
-      <c r="U96" s="21">
-        <f t="shared" si="3"/>
-        <v>8.4366422889512371</v>
-      </c>
-      <c r="V96">
-        <f t="shared" si="5"/>
-        <v>222.96015336109082</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A97" s="11">
+      <c r="D97" s="11"/>
+      <c r="G97" s="11">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="B97" s="14">
-        <v>0.2290972222222222</v>
-      </c>
-      <c r="C97" s="11">
-        <v>60</v>
-      </c>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11">
+      <c r="H97" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F97" s="11">
+      <c r="I97" s="11">
         <v>41.9</v>
       </c>
-      <c r="G97" s="11">
+      <c r="J97" s="11">
         <v>-45.1</v>
       </c>
-      <c r="H97" s="11">
+      <c r="K97" s="11">
         <v>22</v>
       </c>
-      <c r="I97" s="11">
+      <c r="L97" s="11">
         <v>-74</v>
       </c>
-      <c r="J97" s="11">
+      <c r="M97" s="11">
         <v>16.7</v>
       </c>
-      <c r="K97" s="19">
+      <c r="N97" s="19">
         <v>206.4</v>
       </c>
-      <c r="L97" s="19">
+      <c r="O97" s="19">
         <v>14.6</v>
       </c>
-      <c r="U97" s="21">
-        <f t="shared" si="3"/>
+      <c r="P97" t="s">
+        <v>57</v>
+      </c>
+      <c r="R97" t="s">
+        <v>57</v>
+      </c>
+      <c r="S97" t="s">
+        <v>57</v>
+      </c>
+      <c r="T97" t="s">
+        <v>57</v>
+      </c>
+      <c r="X97" s="21">
+        <f>$I$81*SIN(RADIANS(A97))</f>
         <v>8.4948220296623145</v>
       </c>
-      <c r="V97">
-        <f t="shared" si="5"/>
+      <c r="Y97">
+        <f>H97+$H$81*SIN(RADIANS(A97))</f>
         <v>222.16598194420109</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A98" s="11">
         <f>A97+5</f>
         <v>93</v>
@@ -2792,127 +3010,163 @@
         <v>60</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="11">
+      <c r="G98" s="11">
+        <f>G97+5</f>
+        <v>93</v>
+      </c>
+      <c r="H98" s="11">
         <v>0</v>
       </c>
-      <c r="F98" s="11">
+      <c r="I98" s="11">
         <v>42.5</v>
       </c>
-      <c r="G98" t="s">
-        <v>32</v>
-      </c>
-      <c r="H98" s="11">
+      <c r="J98">
+        <v>-41.3</v>
+      </c>
+      <c r="K98" s="11">
         <v>21.8</v>
       </c>
-      <c r="I98" s="19">
+      <c r="L98" s="19">
         <v>-16.5</v>
       </c>
-      <c r="J98" s="19">
+      <c r="M98" s="19">
         <v>25.2</v>
       </c>
-      <c r="K98" s="11">
+      <c r="N98" s="11">
         <v>-76.3</v>
       </c>
-      <c r="L98" s="11">
+      <c r="O98" s="11">
         <v>15</v>
       </c>
-      <c r="M98" s="19">
+      <c r="P98" s="19">
         <v>-88.7</v>
       </c>
-      <c r="N98" s="19">
+      <c r="Q98" s="19">
         <v>10.199999999999999</v>
       </c>
-      <c r="O98" s="19">
+      <c r="R98" s="19">
         <v>-109.3</v>
       </c>
-      <c r="P98" s="19">
+      <c r="S98" s="19">
         <v>6</v>
       </c>
-      <c r="U98" s="21"/>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T98" t="s">
+        <v>57</v>
+      </c>
+      <c r="X98" s="21"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A99" s="11">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="14">
+        <v>0.23824074074074075</v>
+      </c>
+      <c r="C99" s="11">
+        <v>60</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="G99" s="11">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="B99" s="14">
-        <v>0.23824074074074075</v>
-      </c>
-      <c r="C99" s="11">
+      <c r="H99" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I99" s="11">
+        <v>38</v>
+      </c>
+      <c r="J99" s="11">
+        <v>-35.6</v>
+      </c>
+      <c r="K99" s="11">
+        <v>21.6</v>
+      </c>
+      <c r="L99" s="11">
+        <v>-62.4</v>
+      </c>
+      <c r="M99" s="11">
+        <v>22.2</v>
+      </c>
+      <c r="N99" s="11">
+        <v>-23.3</v>
+      </c>
+      <c r="O99" s="11">
+        <v>24</v>
+      </c>
+      <c r="P99" s="19">
+        <v>-118.1</v>
+      </c>
+      <c r="Q99" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="R99" t="s">
+        <v>57</v>
+      </c>
+      <c r="S99" t="s">
+        <v>57</v>
+      </c>
+      <c r="T99" t="s">
+        <v>57</v>
+      </c>
+      <c r="X99" s="21"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A100" s="11">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="B100" s="14">
+        <v>0.23997685185185183</v>
+      </c>
+      <c r="C100" s="11">
         <v>60</v>
       </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="F99" s="11">
-        <v>38</v>
-      </c>
-      <c r="G99" s="11">
-        <v>-35.6</v>
-      </c>
-      <c r="H99" s="11">
-        <v>21.6</v>
-      </c>
-      <c r="I99" s="11">
-        <v>-62.4</v>
-      </c>
-      <c r="J99" s="11">
-        <v>22.2</v>
-      </c>
-      <c r="K99" s="11">
-        <v>-23.3</v>
-      </c>
-      <c r="L99" s="11">
-        <v>24</v>
-      </c>
-      <c r="M99" s="19">
-        <v>-118.1</v>
-      </c>
-      <c r="N99" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="U99" s="21"/>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A100" s="11">
+      <c r="D100" s="11"/>
+      <c r="G100" s="11">
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
-      <c r="B100" s="14">
-        <v>0.23997685185185183</v>
-      </c>
-      <c r="C100" s="11">
-        <v>60</v>
-      </c>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11">
+      <c r="H100" s="11">
         <v>-3.3</v>
       </c>
-      <c r="F100" s="11">
+      <c r="I100" s="11">
         <v>42.1</v>
       </c>
-      <c r="G100" s="11">
+      <c r="J100" s="11">
         <v>-50.8</v>
       </c>
-      <c r="H100" s="11">
+      <c r="K100" s="11">
         <v>29.2</v>
       </c>
-      <c r="I100" s="19">
+      <c r="L100" s="19">
         <v>-98.7</v>
       </c>
-      <c r="J100" s="19">
+      <c r="M100" s="19">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K100" s="19">
+      <c r="N100" s="19">
         <v>-36.200000000000003</v>
       </c>
-      <c r="L100" s="19">
+      <c r="O100" s="19">
         <v>22.2</v>
       </c>
-      <c r="U100" s="21"/>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="P100" t="s">
+        <v>57</v>
+      </c>
+      <c r="R100" t="s">
+        <v>57</v>
+      </c>
+      <c r="T100" t="s">
+        <v>57</v>
+      </c>
+      <c r="V100" t="s">
+        <v>57</v>
+      </c>
+      <c r="X100" s="21"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A101" s="11">
         <f>A100+10</f>
         <v>113</v>
@@ -2924,47 +3178,57 @@
         <v>60</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11">
+      <c r="G101" s="11">
+        <f>G100+10</f>
+        <v>113</v>
+      </c>
+      <c r="H101" s="11">
         <v>-9.4</v>
       </c>
-      <c r="F101" s="11">
+      <c r="I101" s="11">
         <v>38.9</v>
       </c>
-      <c r="G101" s="11">
+      <c r="J101" s="11">
         <v>-50.6</v>
       </c>
-      <c r="H101" s="11">
+      <c r="K101" s="11">
         <v>31.5</v>
       </c>
-      <c r="I101" s="11">
+      <c r="L101" s="11">
         <v>-65</v>
       </c>
-      <c r="J101" s="11">
+      <c r="M101" s="11">
         <v>23</v>
       </c>
-      <c r="K101" s="11">
+      <c r="N101" s="11">
         <v>-100.1</v>
       </c>
-      <c r="L101" s="11">
+      <c r="O101" s="11">
         <v>12.6</v>
       </c>
-      <c r="M101" s="19">
+      <c r="P101" s="19">
         <v>-65.8</v>
       </c>
-      <c r="N101" s="19">
+      <c r="Q101" s="19">
         <v>29</v>
       </c>
-      <c r="O101" s="19">
+      <c r="R101" s="19">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="P101" s="19">
+      <c r="S101" s="19">
         <v>35.799999999999997</v>
       </c>
-      <c r="U101" s="21"/>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T101" t="s">
+        <v>57</v>
+      </c>
+      <c r="V101" t="s">
+        <v>57</v>
+      </c>
+      <c r="X101" s="21"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A102" s="11">
-        <f t="shared" ref="A102:A110" si="6">A101+10</f>
+        <f t="shared" ref="A102:A110" si="5">A101+10</f>
         <v>123</v>
       </c>
       <c r="B102" s="14">
@@ -2974,45 +3238,52 @@
         <v>60</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11">
+      <c r="G102" s="11">
+        <f t="shared" ref="G102:G110" si="6">G101+10</f>
+        <v>123</v>
+      </c>
+      <c r="H102" s="11">
         <v>-7.4</v>
       </c>
-      <c r="F102" s="11">
+      <c r="I102" s="11">
         <v>36.6</v>
       </c>
-      <c r="G102" s="11">
+      <c r="J102" s="11">
         <v>-3.3</v>
       </c>
-      <c r="H102" s="11">
+      <c r="K102" s="11">
         <v>35.4</v>
       </c>
-      <c r="I102" s="19">
+      <c r="L102" s="19">
         <v>-36.200000000000003</v>
       </c>
-      <c r="J102" s="19">
+      <c r="M102" s="19">
         <v>22.4</v>
       </c>
-      <c r="K102" s="11">
+      <c r="N102" s="11">
         <v>-56.9</v>
       </c>
-      <c r="L102" s="11">
+      <c r="O102" s="11">
         <v>30.5</v>
       </c>
-      <c r="M102" s="19">
+      <c r="P102" s="19">
         <v>-96</v>
       </c>
-      <c r="N102" s="19">
+      <c r="Q102" s="19">
         <v>11.1</v>
       </c>
-      <c r="O102" s="19">
+      <c r="R102" s="19">
         <v>89.5</v>
       </c>
-      <c r="P102" s="19">
+      <c r="S102" s="19">
         <v>14.3</v>
       </c>
-      <c r="U102" s="21"/>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T102" t="s">
+        <v>57</v>
+      </c>
+      <c r="X102" s="21"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A103" s="11">
         <f>A102+10</f>
         <v>133</v>
@@ -3024,283 +3295,355 @@
         <v>60</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11">
+      <c r="G103" s="11">
+        <f>G102+10</f>
+        <v>133</v>
+      </c>
+      <c r="H103" s="11">
         <v>-3.4</v>
       </c>
-      <c r="F103" s="11">
+      <c r="I103" s="11">
         <v>35.200000000000003</v>
       </c>
-      <c r="G103" s="19">
+      <c r="J103" s="19">
         <v>-11.6</v>
       </c>
-      <c r="H103" s="19">
+      <c r="K103" s="19">
         <v>32.299999999999997</v>
       </c>
-      <c r="I103" s="11">
+      <c r="L103" s="11">
         <v>-50.8</v>
       </c>
-      <c r="J103" s="11">
+      <c r="M103" s="11">
         <v>32.799999999999997</v>
       </c>
-      <c r="K103" s="19">
+      <c r="N103" s="19">
         <v>-94.1</v>
       </c>
-      <c r="L103" s="19">
+      <c r="O103" s="19">
         <v>12.1</v>
       </c>
-      <c r="M103" s="19">
+      <c r="P103" s="19">
         <v>149.1</v>
       </c>
-      <c r="N103" s="19">
+      <c r="Q103" s="19">
         <v>14.9</v>
       </c>
-      <c r="U103" s="21"/>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="R103" t="s">
+        <v>57</v>
+      </c>
+      <c r="S103" t="s">
+        <v>57</v>
+      </c>
+      <c r="T103" t="s">
+        <v>57</v>
+      </c>
+      <c r="X103" s="21"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A104" s="11">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+      <c r="B104" s="14">
+        <v>0.25284722222222222</v>
+      </c>
+      <c r="C104" s="11">
+        <v>60</v>
+      </c>
+      <c r="D104" s="11"/>
+      <c r="G104" s="11">
         <f t="shared" si="6"/>
         <v>143</v>
       </c>
-      <c r="B104" s="14">
-        <v>0.25284722222222222</v>
-      </c>
-      <c r="C104" s="11">
+      <c r="H104" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I104" s="19">
+        <v>35.1</v>
+      </c>
+      <c r="J104" s="11">
+        <v>-6.3</v>
+      </c>
+      <c r="K104" s="11">
+        <v>36</v>
+      </c>
+      <c r="L104" s="11">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="M104" s="11">
+        <v>39.6</v>
+      </c>
+      <c r="N104" s="11">
+        <v>-74.3</v>
+      </c>
+      <c r="O104" s="11">
+        <v>14.1</v>
+      </c>
+      <c r="P104" s="19">
+        <v>123.5</v>
+      </c>
+      <c r="Q104" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="R104" s="20">
+        <v>111.2</v>
+      </c>
+      <c r="S104" s="20">
+        <v>14.4</v>
+      </c>
+      <c r="T104" s="19">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="U104" s="19">
+        <v>13.9</v>
+      </c>
+      <c r="X104" s="21"/>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A105" s="11">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="B105" s="14">
+        <v>0.25415509259259256</v>
+      </c>
+      <c r="C105" s="11">
         <v>60</v>
       </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="19">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F104" s="19">
-        <v>35.1</v>
-      </c>
-      <c r="G104" s="11">
-        <v>-6.3</v>
-      </c>
-      <c r="H104" s="11">
-        <v>36</v>
-      </c>
-      <c r="I104" s="11">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="J104" s="11">
-        <v>39.6</v>
-      </c>
-      <c r="K104" s="11">
-        <v>-74.3</v>
-      </c>
-      <c r="L104" s="11">
-        <v>14.1</v>
-      </c>
-      <c r="M104" s="19">
-        <v>123.5</v>
-      </c>
-      <c r="N104" s="19">
-        <v>15.5</v>
-      </c>
-      <c r="O104" s="20">
-        <v>111.2</v>
-      </c>
-      <c r="P104" s="20">
-        <v>14.4</v>
-      </c>
-      <c r="Q104" s="19">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="R104" s="19">
-        <v>13.9</v>
-      </c>
-      <c r="U104" s="21"/>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A105" s="11">
+      <c r="D105" s="11"/>
+      <c r="G105" s="11">
         <f t="shared" si="6"/>
         <v>153</v>
       </c>
-      <c r="B105" s="14">
-        <v>0.25415509259259256</v>
-      </c>
-      <c r="C105" s="11">
+      <c r="H105" s="11">
+        <v>-7.6</v>
+      </c>
+      <c r="I105" s="11">
+        <v>40</v>
+      </c>
+      <c r="J105" s="19">
+        <v>-24.1</v>
+      </c>
+      <c r="K105" s="19">
+        <v>37.4</v>
+      </c>
+      <c r="L105" s="11">
+        <v>-36.4</v>
+      </c>
+      <c r="M105" s="11">
+        <v>41.2</v>
+      </c>
+      <c r="N105" s="11">
+        <v>-48.8</v>
+      </c>
+      <c r="O105" s="11">
+        <v>28.4</v>
+      </c>
+      <c r="P105" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>57</v>
+      </c>
+      <c r="R105" t="s">
+        <v>57</v>
+      </c>
+      <c r="S105" t="s">
+        <v>57</v>
+      </c>
+      <c r="T105" t="s">
+        <v>57</v>
+      </c>
+      <c r="U105" t="s">
+        <v>57</v>
+      </c>
+      <c r="X105" s="21"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A106" s="11">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="B106" s="14">
+        <v>0.25556712962962963</v>
+      </c>
+      <c r="C106" s="11">
         <v>60</v>
       </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11">
-        <v>-7.6</v>
-      </c>
-      <c r="F105" s="11">
-        <v>40</v>
-      </c>
-      <c r="G105" s="19">
-        <v>-24.1</v>
-      </c>
-      <c r="H105" s="19">
-        <v>37.4</v>
-      </c>
-      <c r="I105" s="11">
-        <v>-36.4</v>
-      </c>
-      <c r="J105" s="11">
-        <v>41.2</v>
-      </c>
-      <c r="K105" s="11">
-        <v>-48.8</v>
-      </c>
-      <c r="L105" s="11">
-        <v>28.4</v>
-      </c>
-      <c r="U105" s="21"/>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A106" s="11">
+      <c r="D106" s="11"/>
+      <c r="G106" s="11">
         <f t="shared" si="6"/>
         <v>163</v>
       </c>
-      <c r="B106" s="14">
-        <v>0.25556712962962963</v>
-      </c>
-      <c r="C106" s="11">
+      <c r="H106" s="11">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="I106" s="11">
+        <v>38.1</v>
+      </c>
+      <c r="J106" s="19">
+        <v>-24.3</v>
+      </c>
+      <c r="K106" s="19">
+        <v>37</v>
+      </c>
+      <c r="L106" s="19">
+        <v>12.8</v>
+      </c>
+      <c r="M106" s="19">
+        <v>16</v>
+      </c>
+      <c r="N106" s="19">
+        <v>-55.2</v>
+      </c>
+      <c r="O106" s="19">
+        <v>14.7</v>
+      </c>
+      <c r="P106" s="19">
+        <v>-61.2</v>
+      </c>
+      <c r="Q106" s="19">
+        <v>12.3</v>
+      </c>
+      <c r="R106" s="19">
+        <v>117.9</v>
+      </c>
+      <c r="S106" s="19">
+        <v>14</v>
+      </c>
+      <c r="T106" s="19">
+        <v>185.9</v>
+      </c>
+      <c r="U106" s="19">
+        <v>12.3</v>
+      </c>
+      <c r="X106" s="21"/>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A107" s="11">
+        <f t="shared" si="5"/>
+        <v>173</v>
+      </c>
+      <c r="B107" s="14">
+        <v>0.25745370370370368</v>
+      </c>
+      <c r="C107" s="11">
         <v>60</v>
       </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11">
-        <v>-18.100000000000001</v>
-      </c>
-      <c r="F106" s="11">
-        <v>38.1</v>
-      </c>
-      <c r="G106" s="19">
-        <v>-24.3</v>
-      </c>
-      <c r="H106" s="19">
-        <v>37</v>
-      </c>
-      <c r="I106" s="19">
-        <v>12.8</v>
-      </c>
-      <c r="J106" s="19">
-        <v>16</v>
-      </c>
-      <c r="K106" s="19">
-        <v>-55.2</v>
-      </c>
-      <c r="L106" s="19">
-        <v>14.7</v>
-      </c>
-      <c r="M106" s="19">
-        <v>-61.2</v>
-      </c>
-      <c r="N106" s="19">
-        <v>12.3</v>
-      </c>
-      <c r="O106" s="19">
-        <v>117.9</v>
-      </c>
-      <c r="P106" s="19">
-        <v>14</v>
-      </c>
-      <c r="Q106" s="19">
-        <v>185.9</v>
-      </c>
-      <c r="R106" s="19">
-        <v>12.3</v>
-      </c>
-      <c r="U106" s="21"/>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A107" s="11">
+      <c r="D107" s="11"/>
+      <c r="G107" s="11">
         <f t="shared" si="6"/>
         <v>173</v>
       </c>
-      <c r="B107" s="14">
-        <v>0.25745370370370368</v>
-      </c>
-      <c r="C107" s="11">
+      <c r="H107" s="11">
+        <v>-5.5</v>
+      </c>
+      <c r="I107" s="11">
+        <v>51.1</v>
+      </c>
+      <c r="J107" s="19">
+        <v>-1.4</v>
+      </c>
+      <c r="K107" s="19">
+        <v>47.7</v>
+      </c>
+      <c r="L107" s="19">
+        <v>-11.7</v>
+      </c>
+      <c r="M107" s="19">
+        <v>48</v>
+      </c>
+      <c r="N107" s="19">
+        <v>-46.7</v>
+      </c>
+      <c r="O107" s="19">
+        <v>13.1</v>
+      </c>
+      <c r="P107" s="19">
+        <v>-118.8</v>
+      </c>
+      <c r="Q107" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="R107" s="19">
+        <v>-201.3</v>
+      </c>
+      <c r="S107" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="T107" s="19">
+        <v>83.1</v>
+      </c>
+      <c r="U107" s="19">
+        <v>13.8</v>
+      </c>
+      <c r="X107" s="21"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A108" s="11">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+      <c r="B108" s="14">
+        <v>0.34049768518518514</v>
+      </c>
+      <c r="C108" s="11">
         <v>60</v>
       </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11">
-        <v>-5.5</v>
-      </c>
-      <c r="F107" s="11">
-        <v>51.1</v>
-      </c>
-      <c r="G107" s="19">
-        <v>-1.4</v>
-      </c>
-      <c r="H107" s="19">
-        <v>47.7</v>
-      </c>
-      <c r="I107" s="19">
-        <v>-11.7</v>
-      </c>
-      <c r="J107" s="19">
-        <v>48</v>
-      </c>
-      <c r="K107" s="19">
-        <v>-46.7</v>
-      </c>
-      <c r="L107" s="19">
-        <v>13.1</v>
-      </c>
-      <c r="M107" s="19">
-        <v>-118.8</v>
-      </c>
-      <c r="N107" s="19">
-        <v>7.3</v>
-      </c>
-      <c r="O107" s="19">
-        <v>-201.3</v>
-      </c>
-      <c r="P107" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="Q107" s="19">
-        <v>83.1</v>
-      </c>
-      <c r="R107" s="19">
-        <v>13.8</v>
-      </c>
-      <c r="U107" s="21"/>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A108" s="11">
+      <c r="D108" s="11"/>
+      <c r="G108" s="11">
         <f t="shared" si="6"/>
         <v>183</v>
       </c>
-      <c r="B108" s="14">
-        <v>0.34049768518518514</v>
-      </c>
-      <c r="C108" s="11">
-        <v>60</v>
-      </c>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11">
+      <c r="H108" s="11">
         <v>-1.5</v>
       </c>
-      <c r="F108" s="11">
+      <c r="I108" s="11">
         <v>55.6</v>
       </c>
-      <c r="G108" s="19">
+      <c r="J108" s="19">
         <v>52.1</v>
       </c>
-      <c r="H108" s="19">
+      <c r="K108" s="19">
         <v>14.1</v>
       </c>
-      <c r="I108" s="19">
+      <c r="L108" s="19">
         <v>87.2</v>
       </c>
-      <c r="J108" s="19">
+      <c r="M108" s="19">
         <v>13.6</v>
       </c>
-      <c r="K108" s="19">
+      <c r="N108" s="19">
         <v>-67.400000000000006</v>
       </c>
-      <c r="L108" s="19">
+      <c r="O108" s="19">
         <v>12.5</v>
       </c>
-      <c r="U108" s="21"/>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="P108" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>57</v>
+      </c>
+      <c r="R108" t="s">
+        <v>57</v>
+      </c>
+      <c r="S108" t="s">
+        <v>57</v>
+      </c>
+      <c r="T108" t="s">
+        <v>57</v>
+      </c>
+      <c r="U108" t="s">
+        <v>57</v>
+      </c>
+      <c r="V108" t="s">
+        <v>57</v>
+      </c>
+      <c r="X108" s="21"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A109" s="11">
         <f>A108+10</f>
         <v>193</v>
@@ -3312,89 +3655,127 @@
         <v>60</v>
       </c>
       <c r="D109" s="11"/>
-      <c r="E109" s="11">
+      <c r="G109" s="11">
+        <f>G108+10</f>
+        <v>193</v>
+      </c>
+      <c r="H109" s="11">
         <v>3.5</v>
       </c>
-      <c r="F109" s="11">
+      <c r="I109" s="11">
         <v>53.3</v>
       </c>
-      <c r="G109" s="19">
+      <c r="J109" s="19">
         <v>102.4</v>
       </c>
-      <c r="H109" s="19">
+      <c r="K109" s="19">
         <v>12.9</v>
       </c>
-      <c r="I109" s="19">
+      <c r="L109" s="19">
         <v>-62.4</v>
       </c>
-      <c r="J109" s="19">
+      <c r="M109" s="19">
         <v>12.3</v>
       </c>
-      <c r="U109" s="21"/>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="N109" t="s">
+        <v>57</v>
+      </c>
+      <c r="O109" t="s">
+        <v>57</v>
+      </c>
+      <c r="P109" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>57</v>
+      </c>
+      <c r="R109" t="s">
+        <v>57</v>
+      </c>
+      <c r="S109" t="s">
+        <v>57</v>
+      </c>
+      <c r="T109" t="s">
+        <v>57</v>
+      </c>
+      <c r="U109" t="s">
+        <v>57</v>
+      </c>
+      <c r="V109" t="s">
+        <v>57</v>
+      </c>
+      <c r="W109" t="s">
+        <v>57</v>
+      </c>
+      <c r="X109" s="21"/>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A110" s="11">
+        <f t="shared" si="5"/>
+        <v>203</v>
+      </c>
+      <c r="B110" s="14">
+        <v>0.40418981481481481</v>
+      </c>
+      <c r="C110" s="11">
+        <v>60</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="G110" s="11">
         <f t="shared" si="6"/>
         <v>203</v>
       </c>
-      <c r="B110" s="14">
-        <v>0.40418981481481481</v>
-      </c>
-      <c r="C110" s="11">
-        <v>60</v>
-      </c>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11">
+      <c r="H110" s="11">
         <v>6.4</v>
       </c>
-      <c r="F110" s="11">
+      <c r="I110" s="11">
         <v>42.2</v>
       </c>
-      <c r="G110" s="11">
+      <c r="J110" s="11">
         <v>18.7</v>
       </c>
-      <c r="H110" s="11">
+      <c r="K110" s="11">
         <v>41.1</v>
       </c>
-      <c r="I110" s="11">
+      <c r="L110" s="11">
         <v>31.1</v>
       </c>
-      <c r="J110" s="11">
+      <c r="M110" s="11">
         <v>36.700000000000003</v>
       </c>
-      <c r="K110" s="19">
+      <c r="N110" s="19">
         <v>37.299999999999997</v>
       </c>
-      <c r="L110" s="19">
+      <c r="O110" s="19">
         <v>29.1</v>
       </c>
-      <c r="M110" s="19">
+      <c r="P110" s="19">
         <v>55.8</v>
       </c>
-      <c r="N110" s="19">
+      <c r="Q110" s="19">
         <v>15.5</v>
       </c>
-      <c r="O110" s="19">
+      <c r="R110" s="19">
         <v>152.77000000000001</v>
       </c>
-      <c r="P110" s="19">
+      <c r="S110" s="19">
         <v>11.6</v>
       </c>
-      <c r="Q110" s="19">
+      <c r="T110" s="19">
         <v>68.2</v>
       </c>
-      <c r="R110" s="19">
+      <c r="U110" s="19">
         <v>12.9</v>
       </c>
-      <c r="S110" s="19">
+      <c r="V110" s="19">
         <v>-197.7</v>
       </c>
-      <c r="T110" s="19">
+      <c r="W110" s="19">
         <v>6.5</v>
       </c>
-      <c r="U110" s="21"/>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="X110" s="21"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -3402,7 +3783,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -3410,7 +3791,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A113" s="13" t="s">
         <v>16</v>
       </c>
@@ -3427,8 +3808,59 @@
         <v>5</v>
       </c>
       <c r="F113" s="11"/>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="G113" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K113" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L113" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M113" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N113" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O113" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q113" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R113" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="S113" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T113" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U113" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="V113" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="W113" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="X113" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A114" s="11">
         <v>33</v>
       </c>
@@ -3445,68 +3877,51 @@
         <v>22</v>
       </c>
       <c r="F114" s="13"/>
+      <c r="G114" s="11">
+        <v>33</v>
+      </c>
       <c r="H114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+E86)</f>
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+H86)</f>
         <v>8.0498756286719964</v>
       </c>
       <c r="I114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+F86)</f>
-        <v>6.4574638625744383</v>
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+J86)</f>
+        <v>6.3055429029822347</v>
       </c>
       <c r="J114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+G86)</f>
-        <v>6.3055429029822347</v>
-      </c>
-      <c r="K114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+H86)</f>
-        <v>6.7889015172526008</v>
-      </c>
-      <c r="L114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+I86)</f>
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+L86)</f>
         <v>5.0740933310914462</v>
       </c>
-      <c r="M114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+J86)</f>
-        <v>7.0278144162871552</v>
-      </c>
-      <c r="N114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+K86)</f>
+      <c r="K114" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+N86)</f>
         <v>13.796625401730438</v>
       </c>
-      <c r="O114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+L86)</f>
-        <v>7.6565215434902827</v>
-      </c>
-      <c r="P114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+M86)</f>
-        <v>8.5</v>
-      </c>
+      <c r="L114" s="21"/>
+      <c r="M114" s="21"/>
+      <c r="N114" s="21"/>
+      <c r="O114" s="21"/>
       <c r="Q114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+N86)</f>
-        <v>8.5</v>
+        <f>SQRT(H114^2-$I$81^2*SIN(RADIANS(G114))^2)+$I$81*COS(RADIANS(G114))</f>
+        <v>13.714203518841778</v>
       </c>
       <c r="R114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+O86)</f>
-        <v>8.5</v>
+        <f>SQRT(I114^2-$I$81^2*SIN(RADIANS(G114))^2)+$I$81*COS(RADIANS(G114))</f>
+        <v>11.409848333773994</v>
       </c>
       <c r="S114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+P86)</f>
-        <v>8.5</v>
-      </c>
-      <c r="T114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+Q86)</f>
-        <v>8.5</v>
-      </c>
-      <c r="U114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+R86)</f>
-        <v>8.5</v>
-      </c>
-      <c r="V114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+S86)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.45">
+        <f>SQRT(J114^2-$I$81^2*SIN(RADIANS(G114))^2)+$I$81*COS(RADIANS(G114))</f>
+        <v>9.2059057306039662</v>
+      </c>
+      <c r="T114" s="22">
+        <f>SQRT(K114^2-$I$81^2*SIN(RADIANS(G114)))+$I$81*COS(RADIANS(G114))</f>
+        <v>19.416771368499639</v>
+      </c>
+      <c r="U114" s="21"/>
+      <c r="V114" s="21"/>
+      <c r="W114" s="21"/>
+      <c r="X114" s="21"/>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A115" s="11">
         <v>38</v>
       </c>
@@ -3521,68 +3936,57 @@
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
+      <c r="G115" s="11">
+        <v>38</v>
+      </c>
       <c r="H115" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+E87)</f>
+        <f>($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+H87)</f>
         <v>8.1799187744185229</v>
       </c>
-      <c r="I115" s="21">
-        <f t="shared" ref="I114:V129" si="7">($I$81*$H$81*SIN(RADIANS(B87)))/($H$81*SIN(RADIANS(B87))+F87)</f>
-        <v>0.18306823658185242</v>
-      </c>
-      <c r="J115" s="21">
-        <f t="shared" si="7"/>
-        <v>7.2743996481680533</v>
-      </c>
-      <c r="K115" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="I115" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+J87)</f>
+        <v>6.8714873870992275</v>
+      </c>
+      <c r="J115" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+L87)</f>
+        <v>5.9239180392577699</v>
+      </c>
+      <c r="K115" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+N87)</f>
+        <v>5.571313297229552</v>
       </c>
       <c r="L115" s="21">
-        <f t="shared" ref="L115:L138" si="8">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+I87)</f>
-        <v>5.9239180392577699</v>
-      </c>
-      <c r="M115" s="21">
-        <f t="shared" ref="M115:M138" si="9">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+J87)</f>
-        <v>6.8469676001898652</v>
-      </c>
-      <c r="N115" s="21">
-        <f t="shared" ref="N115:N138" si="10">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+K87)</f>
-        <v>5.571313297229552</v>
-      </c>
-      <c r="O115" s="21">
-        <f t="shared" ref="O115:O138" si="11">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+L87)</f>
-        <v>7.1488292637825177</v>
-      </c>
-      <c r="P115" s="21">
-        <f t="shared" ref="P115:P138" si="12">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+M87)</f>
+        <f>($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+P87)</f>
         <v>11.337643522110103</v>
       </c>
+      <c r="M115" s="21"/>
+      <c r="N115" s="21"/>
+      <c r="O115" s="21"/>
       <c r="Q115" s="21">
-        <f t="shared" ref="Q115:Q138" si="13">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+N87)</f>
-        <v>7.6322248348320842</v>
-      </c>
-      <c r="R115" s="21">
-        <f t="shared" ref="R115:R138" si="14">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+O87)</f>
-        <v>8.5</v>
-      </c>
-      <c r="S115" s="21">
-        <f t="shared" ref="S115:S138" si="15">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+P87)</f>
-        <v>8.5</v>
-      </c>
-      <c r="T115" s="21">
-        <f t="shared" ref="T115:T138" si="16">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+Q87)</f>
-        <v>8.5</v>
+        <f t="shared" ref="Q115:Q138" si="7">SQRT(H115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
+        <v>12.985022265355104</v>
+      </c>
+      <c r="R115" s="22">
+        <f t="shared" ref="R115:R138" si="8">SQRT(I115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
+        <v>11.151378662235334</v>
+      </c>
+      <c r="S115" s="22">
+        <f t="shared" ref="S115:S118" si="9">SQRT(J115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
+        <v>9.4742818556049819</v>
+      </c>
+      <c r="T115" s="22" t="e">
+        <f t="shared" ref="T115:T138" si="10">SQRT(K115^2-$I$81^2*SIN(RADIANS(G115)))+$I$81*COS(RADIANS(G115))</f>
+        <v>#NUM!</v>
       </c>
       <c r="U115" s="21">
-        <f t="shared" ref="U115:U138" si="17">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+R87)</f>
-        <v>8.5</v>
-      </c>
-      <c r="V115" s="21">
-        <f t="shared" ref="V115:V138" si="18">($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+S87)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" ref="U115:U138" si="11">SQRT(L115^2-$I$81^2*SIN(RADIANS(G115)))+$I$81*COS(RADIANS(G115))</f>
+        <v>15.866549239020737</v>
+      </c>
+      <c r="V115" s="21"/>
+      <c r="W115" s="21"/>
+      <c r="X115" s="21"/>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A116" s="11">
         <v>38</v>
       </c>
@@ -3597,68 +4001,51 @@
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
+      <c r="G116" s="11">
+        <v>43</v>
+      </c>
       <c r="H116" s="21">
-        <f t="shared" ref="H116:K138" si="19">($I$81*$H$81*SIN(RADIANS(A88)))/($H$81*SIN(RADIANS(A88))+E88)</f>
+        <f>($I$81*$H$81*SIN(RADIANS(A88)))/($H$81*SIN(RADIANS(A88))+H88)</f>
         <v>8.188903863880773</v>
       </c>
       <c r="I116" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A88)))/($H$81*SIN(RADIANS(A88))+J88)</f>
+        <v>7.0679421599047965</v>
+      </c>
+      <c r="J116" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A88)))/($H$81*SIN(RADIANS(A88))+L88)</f>
+        <v>6.0345372882320092</v>
+      </c>
+      <c r="K116" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A88)))/($H$81*SIN(RADIANS(A88))+N88)</f>
+        <v>13.008380523885192</v>
+      </c>
+      <c r="L116" s="21"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="21"/>
+      <c r="Q116" s="21">
         <f t="shared" si="7"/>
-        <v>0.17722399811692399</v>
-      </c>
-      <c r="J116" s="21">
-        <f t="shared" si="7"/>
-        <v>7.3303754156978949</v>
-      </c>
-      <c r="K116" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L116" s="21">
+        <v>12.000371875914929</v>
+      </c>
+      <c r="R116" s="21">
         <f t="shared" si="8"/>
-        <v>6.0345372882320092</v>
-      </c>
-      <c r="M116" s="21">
+        <v>10.260113639264324</v>
+      </c>
+      <c r="S116" s="21">
         <f t="shared" si="9"/>
-        <v>6.9334534892440924</v>
-      </c>
-      <c r="N116" s="21">
+        <v>7.8929887622287147</v>
+      </c>
+      <c r="T116" s="21">
         <f t="shared" si="10"/>
-        <v>13.008380523885192</v>
-      </c>
-      <c r="O116" s="21">
-        <f t="shared" si="11"/>
-        <v>7.7274583208772682</v>
-      </c>
-      <c r="P116" s="21">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q116" s="21">
-        <f t="shared" si="13"/>
-        <v>8.5</v>
-      </c>
-      <c r="R116" s="21">
-        <f t="shared" si="14"/>
-        <v>8.5</v>
-      </c>
-      <c r="S116" s="21">
-        <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T116" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U116" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V116" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.45">
+        <v>17.16838220902595</v>
+      </c>
+      <c r="U116" s="21"/>
+      <c r="V116" s="21"/>
+      <c r="W116" s="21"/>
+      <c r="X116" s="21"/>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A117" s="11">
         <v>43</v>
       </c>
@@ -3673,68 +4060,46 @@
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
+      <c r="G117" s="11">
+        <f>G116+5</f>
+        <v>48</v>
+      </c>
       <c r="H117" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A89)))/($H$81*SIN(RADIANS(A89))+H89)</f>
         <v>8.311892757828744</v>
       </c>
       <c r="I117" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A89)))/($H$81*SIN(RADIANS(A89))+J89)</f>
+        <v>6.4131657430483298</v>
+      </c>
+      <c r="J117" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A89)))/($H$81*SIN(RADIANS(A89))+L89)</f>
+        <v>11.797766031600124</v>
+      </c>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21"/>
+      <c r="O117" s="21"/>
+      <c r="Q117" s="21">
         <f t="shared" si="7"/>
-        <v>0.17863970004059562</v>
-      </c>
-      <c r="J117" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(C89)))/($H$81*SIN(RADIANS(C89))+G89)</f>
-        <v>6.6446347009930431</v>
-      </c>
-      <c r="K117" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L117" s="21">
+        <v>11.090060568640137</v>
+      </c>
+      <c r="R117" s="21">
         <f t="shared" si="8"/>
-        <v>11.797766031600124</v>
-      </c>
-      <c r="M117" s="21">
+        <v>6.7955831285693753</v>
+      </c>
+      <c r="S117" s="21">
         <f t="shared" si="9"/>
-        <v>7.7900460880866147</v>
-      </c>
-      <c r="N117" s="21">
-        <f t="shared" si="10"/>
-        <v>8.5</v>
-      </c>
-      <c r="O117" s="21">
-        <f t="shared" si="11"/>
-        <v>8.5</v>
-      </c>
-      <c r="P117" s="21">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q117" s="21">
-        <f t="shared" si="13"/>
-        <v>8.5</v>
-      </c>
-      <c r="R117" s="21">
-        <f t="shared" si="14"/>
-        <v>8.5</v>
-      </c>
-      <c r="S117" s="21">
-        <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T117" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U117" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V117" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.45">
+        <v>15.65185586563498</v>
+      </c>
+      <c r="T117" s="21"/>
+      <c r="U117" s="21"/>
+      <c r="V117" s="21"/>
+      <c r="W117" s="21"/>
+      <c r="X117" s="21"/>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A118" s="11">
         <f>A117+5</f>
         <v>48</v>
@@ -3750,70 +4115,48 @@
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
+      <c r="G118" s="11">
+        <f t="shared" ref="G118:G128" si="12">G117+5</f>
+        <v>53</v>
+      </c>
       <c r="H118" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A90)))/($H$81*SIN(RADIANS(A90))+H90)</f>
         <v>8.1431294055802379</v>
       </c>
       <c r="I118" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A90)))/($H$81*SIN(RADIANS(A90))+J90)</f>
+        <v>6.7091179860332026</v>
+      </c>
+      <c r="J118" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A90)))/($H$81*SIN(RADIANS(A90))+L90)</f>
+        <v>11.881071081384018</v>
+      </c>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21"/>
+      <c r="O118" s="21"/>
+      <c r="Q118" s="21">
         <f t="shared" si="7"/>
-        <v>0.15983805154827474</v>
-      </c>
-      <c r="J118" s="21">
-        <f t="shared" si="7"/>
-        <v>6.8209476200094299</v>
-      </c>
-      <c r="K118" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L118" s="21">
-        <f t="shared" si="8"/>
-        <v>11.881071081384018</v>
-      </c>
-      <c r="M118" s="21">
+        <v>9.6130000460866896</v>
+      </c>
+      <c r="R118" s="21" t="e">
+        <f>SQRT(I118^2-$I$81^2*SIN(RADIANS(G118))^2)+$I$81*COS(RADIANS(G118))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S118" s="21">
         <f t="shared" si="9"/>
-        <v>7.8396318949592683</v>
-      </c>
-      <c r="N118" s="21">
-        <f t="shared" si="10"/>
-        <v>8.5</v>
-      </c>
-      <c r="O118" s="21">
-        <f t="shared" si="11"/>
-        <v>8.5</v>
-      </c>
-      <c r="P118" s="21">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q118" s="21">
-        <f t="shared" si="13"/>
-        <v>8.5</v>
-      </c>
-      <c r="R118" s="21">
-        <f t="shared" si="14"/>
-        <v>8.5</v>
-      </c>
-      <c r="S118" s="21">
-        <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T118" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U118" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V118" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.45">
+        <v>14.866194362137783</v>
+      </c>
+      <c r="T118" s="21"/>
+      <c r="U118" s="21"/>
+      <c r="V118" s="21"/>
+      <c r="W118" s="21"/>
+      <c r="X118" s="21"/>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A119" s="11">
-        <f t="shared" ref="A119:A127" si="20">A118+5</f>
+        <f t="shared" ref="A119:A127" si="13">A118+5</f>
         <v>53</v>
       </c>
       <c r="B119" s="11">
@@ -3827,70 +4170,42 @@
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
+      <c r="G119" s="11">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
       <c r="H119" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A91)))/($H$81*SIN(RADIANS(A91))+H91)</f>
         <v>8.1799411255151782</v>
       </c>
       <c r="I119" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A91)))/($H$81*SIN(RADIANS(A91))+J91)</f>
+        <v>13.02326000893062</v>
+      </c>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="21"/>
+      <c r="O119" s="21"/>
+      <c r="Q119" s="21">
         <f t="shared" si="7"/>
-        <v>0.16361782980788084</v>
-      </c>
-      <c r="J119" s="21">
-        <f t="shared" si="7"/>
-        <v>12.880969738256523</v>
-      </c>
-      <c r="K119" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L119" s="21">
+        <v>8.3708728285696399</v>
+      </c>
+      <c r="R119" s="21">
         <f t="shared" si="8"/>
-        <v>8.5</v>
-      </c>
-      <c r="M119" s="21">
-        <f t="shared" si="9"/>
-        <v>8.5</v>
-      </c>
-      <c r="N119" s="21">
-        <f t="shared" si="10"/>
-        <v>8.5</v>
-      </c>
-      <c r="O119" s="21">
-        <f t="shared" si="11"/>
-        <v>8.5</v>
-      </c>
-      <c r="P119" s="21">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q119" s="21">
+        <v>15.350702250109141</v>
+      </c>
+      <c r="S119" s="21"/>
+      <c r="T119" s="21"/>
+      <c r="U119" s="21"/>
+      <c r="V119" s="21"/>
+      <c r="W119" s="21"/>
+      <c r="X119" s="21"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A120" s="11">
         <f t="shared" si="13"/>
-        <v>8.5</v>
-      </c>
-      <c r="R119" s="21">
-        <f t="shared" si="14"/>
-        <v>8.5</v>
-      </c>
-      <c r="S119" s="21">
-        <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T119" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U119" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V119" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A120" s="11">
-        <f t="shared" si="20"/>
         <v>58</v>
       </c>
       <c r="B120" s="11">
@@ -3904,70 +4219,42 @@
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
+      <c r="G120" s="11">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
       <c r="H120" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A92)))/($H$81*SIN(RADIANS(A92))+H92)</f>
         <v>8.3092473259096504</v>
       </c>
       <c r="I120" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A92)))/($H$81*SIN(RADIANS(A92))+J92)</f>
+        <v>12.984441734605891</v>
+      </c>
+      <c r="J120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="21"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21"/>
+      <c r="O120" s="21"/>
+      <c r="Q120" s="21">
         <f t="shared" si="7"/>
-        <v>0.14599362270124894</v>
-      </c>
-      <c r="J120" s="21">
-        <f t="shared" si="7"/>
-        <v>13.185098646540141</v>
-      </c>
-      <c r="K120" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L120" s="21">
+        <v>7.277230070995631</v>
+      </c>
+      <c r="R120" s="21">
         <f t="shared" si="8"/>
-        <v>8.5</v>
-      </c>
-      <c r="M120" s="21">
-        <f t="shared" si="9"/>
-        <v>8.5</v>
-      </c>
-      <c r="N120" s="21">
-        <f t="shared" si="10"/>
-        <v>8.5</v>
-      </c>
-      <c r="O120" s="21">
-        <f t="shared" si="11"/>
-        <v>8.5</v>
-      </c>
-      <c r="P120" s="21">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q120" s="21">
+        <v>14.405813810656758</v>
+      </c>
+      <c r="S120" s="21"/>
+      <c r="T120" s="21"/>
+      <c r="U120" s="21"/>
+      <c r="V120" s="21"/>
+      <c r="W120" s="21"/>
+      <c r="X120" s="21"/>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A121" s="11">
         <f t="shared" si="13"/>
-        <v>8.5</v>
-      </c>
-      <c r="R120" s="21">
-        <f t="shared" si="14"/>
-        <v>8.5</v>
-      </c>
-      <c r="S120" s="21">
-        <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T120" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U120" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V120" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A121" s="11">
-        <f t="shared" si="20"/>
         <v>63</v>
       </c>
       <c r="B121" s="11">
@@ -3981,70 +4268,42 @@
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
+      <c r="G121" s="11">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
       <c r="H121" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A93)))/($H$81*SIN(RADIANS(A93))+H93)</f>
         <v>8.1946787824243241</v>
       </c>
       <c r="I121" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A93)))/($H$81*SIN(RADIANS(A93))+J93)</f>
+        <v>12.807121217236521</v>
+      </c>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="21"/>
+      <c r="Q121" s="21">
         <f t="shared" si="7"/>
-        <v>0.13003956379505369</v>
-      </c>
-      <c r="J121" s="21">
-        <f t="shared" si="7"/>
-        <v>13.282425129811678</v>
-      </c>
-      <c r="K121" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L121" s="21">
+        <v>5.4295090363020861</v>
+      </c>
+      <c r="R121" s="21">
         <f t="shared" si="8"/>
-        <v>8.5</v>
-      </c>
-      <c r="M121" s="21">
-        <f t="shared" si="9"/>
-        <v>8.5</v>
-      </c>
-      <c r="N121" s="21">
-        <f t="shared" si="10"/>
-        <v>8.5</v>
-      </c>
-      <c r="O121" s="21">
-        <f t="shared" si="11"/>
-        <v>8.5</v>
-      </c>
-      <c r="P121" s="21">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q121" s="21">
+        <v>13.279263947656494</v>
+      </c>
+      <c r="S121" s="21"/>
+      <c r="T121" s="21"/>
+      <c r="U121" s="21"/>
+      <c r="V121" s="21"/>
+      <c r="W121" s="21"/>
+      <c r="X121" s="21"/>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A122" s="11">
         <f t="shared" si="13"/>
-        <v>8.5</v>
-      </c>
-      <c r="R121" s="21">
-        <f t="shared" si="14"/>
-        <v>8.5</v>
-      </c>
-      <c r="S121" s="21">
-        <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T121" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U121" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V121" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A122" s="11">
-        <f t="shared" si="20"/>
         <v>68</v>
       </c>
       <c r="B122" s="11">
@@ -4058,68 +4317,40 @@
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
+      <c r="G122" s="11">
+        <f>G121+5</f>
+        <v>73</v>
+      </c>
       <c r="H122" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A94)))/($H$81*SIN(RADIANS(A94))+H94)</f>
         <v>8.2681322073829246</v>
       </c>
       <c r="I122" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A94)))/($H$81*SIN(RADIANS(A94))+J94)</f>
+        <v>12.959838922916864</v>
+      </c>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="21"/>
+      <c r="O122" s="21"/>
+      <c r="Q122" s="21">
         <f t="shared" si="7"/>
-        <v>0.1271825513336482</v>
-      </c>
-      <c r="J122" s="21">
-        <f t="shared" si="7"/>
-        <v>13.709709480239949</v>
-      </c>
-      <c r="K122" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L122" s="21">
+        <v>3.9977823414224405</v>
+      </c>
+      <c r="R122" s="21">
         <f t="shared" si="8"/>
-        <v>8.5</v>
-      </c>
-      <c r="M122" s="21">
-        <f t="shared" si="9"/>
-        <v>8.5</v>
-      </c>
-      <c r="N122" s="21">
-        <f t="shared" si="10"/>
-        <v>8.5</v>
-      </c>
-      <c r="O122" s="21">
-        <f t="shared" si="11"/>
-        <v>8.5</v>
-      </c>
-      <c r="P122" s="21">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q122" s="21">
-        <f t="shared" si="13"/>
-        <v>8.5</v>
-      </c>
-      <c r="R122" s="21">
-        <f t="shared" si="14"/>
-        <v>8.5</v>
-      </c>
-      <c r="S122" s="21">
-        <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T122" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U122" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V122" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.45">
+        <v>12.578892327869852</v>
+      </c>
+      <c r="S122" s="21"/>
+      <c r="T122" s="21"/>
+      <c r="U122" s="21"/>
+      <c r="V122" s="21"/>
+      <c r="W122" s="21"/>
+      <c r="X122" s="21"/>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A123" s="11">
         <f>A122+5</f>
         <v>73</v>
@@ -4135,68 +4366,46 @@
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
+      <c r="G123" s="11">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
       <c r="H123" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A95)))/($H$81*SIN(RADIANS(A95))+H95)</f>
         <v>8.406246756620952</v>
       </c>
       <c r="I123" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A95)))/($H$81*SIN(RADIANS(A95))+J95)</f>
+        <v>9.9090498759479573</v>
+      </c>
+      <c r="J123" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A95)))/($H$81*SIN(RADIANS(A95))+L95)</f>
+        <v>12.572031983500993</v>
+      </c>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="21"/>
+      <c r="Q123" s="21">
         <f t="shared" si="7"/>
-        <v>0.13130197972598123</v>
-      </c>
-      <c r="J123" s="21">
-        <f t="shared" si="7"/>
-        <v>10.126381380857659</v>
-      </c>
-      <c r="K123" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L123" s="21">
+        <v>3.0074730920358883</v>
+      </c>
+      <c r="R123" s="21">
         <f t="shared" si="8"/>
-        <v>12.572031983500993</v>
-      </c>
-      <c r="M123" s="21">
-        <f t="shared" si="9"/>
-        <v>7.9049071747505693</v>
-      </c>
-      <c r="N123" s="21">
-        <f t="shared" si="10"/>
-        <v>8.5</v>
-      </c>
-      <c r="O123" s="21">
-        <f t="shared" si="11"/>
-        <v>8.5</v>
-      </c>
-      <c r="P123" s="21">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q123" s="21">
-        <f t="shared" si="13"/>
-        <v>8.5</v>
-      </c>
-      <c r="R123" s="21">
-        <f t="shared" si="14"/>
-        <v>8.5</v>
+        <v>7.1582084505088019</v>
       </c>
       <c r="S123" s="21">
-        <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T123" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U123" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V123" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.45">
+        <f>SQRT(J123^2-$I$81^2*SIN(RADIANS(G123))^2)+$I$81*COS(RADIANS(G123))</f>
+        <v>11.197475166534719</v>
+      </c>
+      <c r="T123" s="21"/>
+      <c r="U123" s="21"/>
+      <c r="V123" s="21"/>
+      <c r="W123" s="21"/>
+      <c r="X123" s="21"/>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A124" s="11">
         <v>73</v>
       </c>
@@ -4211,68 +4420,46 @@
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
+      <c r="G124" s="11">
+        <f t="shared" si="12"/>
+        <v>83</v>
+      </c>
       <c r="H124" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A96)))/($H$81*SIN(RADIANS(A96))+H96)</f>
         <v>8.3246323416513075</v>
       </c>
       <c r="I124" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A96)))/($H$81*SIN(RADIANS(A96))+J96)</f>
+        <v>10.330956914184853</v>
+      </c>
+      <c r="J124" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A96)))/($H$81*SIN(RADIANS(A96))+L96)</f>
+        <v>12.830494510373555</v>
+      </c>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21"/>
+      <c r="O124" s="21"/>
+      <c r="Q124" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>0.15117405261047626</v>
-      </c>
-      <c r="J124" s="21">
-        <f t="shared" si="7"/>
-        <v>10.666630819806961</v>
-      </c>
-      <c r="K124" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L124" s="21">
+        <v>#NUM!</v>
+      </c>
+      <c r="R124" s="21">
         <f t="shared" si="8"/>
-        <v>12.830494510373555</v>
-      </c>
-      <c r="M124" s="21">
-        <f t="shared" si="9"/>
-        <v>7.9536342294791336</v>
-      </c>
-      <c r="N124" s="21">
-        <f t="shared" si="10"/>
-        <v>8.5</v>
-      </c>
-      <c r="O124" s="21">
-        <f t="shared" si="11"/>
-        <v>8.5</v>
-      </c>
-      <c r="P124" s="21">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q124" s="21">
-        <f t="shared" si="13"/>
-        <v>8.5</v>
-      </c>
-      <c r="R124" s="21">
-        <f t="shared" si="14"/>
-        <v>8.5</v>
+        <v>6.9984172093212074</v>
       </c>
       <c r="S124" s="21">
-        <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T124" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U124" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V124" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" ref="S124:S138" si="14">SQRT(J124^2-$I$81^2*SIN(RADIANS(G124))^2)+$I$81*COS(RADIANS(G124))</f>
+        <v>10.702567042047027</v>
+      </c>
+      <c r="T124" s="21"/>
+      <c r="U124" s="21"/>
+      <c r="V124" s="21"/>
+      <c r="W124" s="21"/>
+      <c r="X124" s="21"/>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A125" s="11">
         <f>A123+5</f>
         <v>78</v>
@@ -4288,70 +4475,54 @@
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
+      <c r="G125" s="11">
+        <f t="shared" si="12"/>
+        <v>88</v>
+      </c>
       <c r="H125" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A97)))/($H$81*SIN(RADIANS(A97))+H97)</f>
         <v>8.4120027295406992</v>
       </c>
       <c r="I125" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A97)))/($H$81*SIN(RADIANS(A97))+J97)</f>
+        <v>10.693504684008785</v>
+      </c>
+      <c r="J125" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A97)))/($H$81*SIN(RADIANS(A97))+L97)</f>
+        <v>12.812177463286915</v>
+      </c>
+      <c r="K125" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A97)))/($H$81*SIN(RADIANS(A97))+N97)</f>
+        <v>4.3842598886306297</v>
+      </c>
+      <c r="L125" s="21"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+      <c r="O125" s="21"/>
+      <c r="Q125" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>0.17478341966447652</v>
-      </c>
-      <c r="J125" s="21">
-        <f t="shared" si="7"/>
-        <v>11.136056027535414</v>
-      </c>
-      <c r="K125" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L125" s="21">
+        <v>#NUM!</v>
+      </c>
+      <c r="R125" s="21">
         <f t="shared" si="8"/>
-        <v>12.812177463286915</v>
-      </c>
-      <c r="M125" s="21">
-        <f t="shared" si="9"/>
-        <v>7.8999559918404421</v>
-      </c>
-      <c r="N125" s="21">
-        <f t="shared" si="10"/>
-        <v>4.3842598886306297</v>
-      </c>
-      <c r="O125" s="21">
-        <f t="shared" si="11"/>
-        <v>7.9707121307280575</v>
-      </c>
-      <c r="P125" s="21">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q125" s="21">
+        <v>6.7919548840729105</v>
+      </c>
+      <c r="S125" s="21">
+        <f t="shared" si="14"/>
+        <v>9.8877817357665467</v>
+      </c>
+      <c r="T125" s="22" t="e">
+        <f>SQRT(K125^2-$I$81^2*SIN(RADIANS(G125))^2)+$I$81*COS(RADIANS(G125))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U125" s="21"/>
+      <c r="V125" s="21"/>
+      <c r="W125" s="21"/>
+      <c r="X125" s="21"/>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A126" s="11">
         <f t="shared" si="13"/>
-        <v>8.5</v>
-      </c>
-      <c r="R125" s="21">
-        <f t="shared" si="14"/>
-        <v>8.5</v>
-      </c>
-      <c r="S125" s="21">
-        <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T125" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U125" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V125" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A126" s="11">
-        <f t="shared" si="20"/>
         <v>83</v>
       </c>
       <c r="B126" s="11">
@@ -4365,70 +4536,66 @@
       </c>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
+      <c r="G126" s="11">
+        <f>G125+5</f>
+        <v>93</v>
+      </c>
       <c r="H126" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+H98)</f>
         <v>8.5</v>
       </c>
       <c r="I126" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+J98)</f>
+        <v>10.467785629543718</v>
+      </c>
+      <c r="J126" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+L98)</f>
+        <v>9.1902117959766159</v>
+      </c>
+      <c r="K126" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+N98)</f>
+        <v>13.022711260204492</v>
+      </c>
+      <c r="L126" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+P98)</f>
+        <v>14.255409516507427</v>
+      </c>
+      <c r="M126" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+R98)</f>
+        <v>16.915422490431048</v>
+      </c>
+      <c r="N126" s="21"/>
+      <c r="O126" s="21"/>
+      <c r="Q126" s="21">
         <f t="shared" si="7"/>
-        <v>0.17741342888117828</v>
-      </c>
-      <c r="J126" s="21" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K126" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L126" s="21">
+        <v>1.1934897514720433E-14</v>
+      </c>
+      <c r="R126" s="21">
         <f t="shared" si="8"/>
-        <v>9.1902117959766159</v>
-      </c>
-      <c r="M126" s="21">
-        <f t="shared" si="9"/>
-        <v>7.6253519231072628</v>
-      </c>
-      <c r="N126" s="21">
-        <f t="shared" si="10"/>
-        <v>13.022711260204492</v>
-      </c>
-      <c r="O126" s="21">
-        <f t="shared" si="11"/>
-        <v>7.956749824652448</v>
-      </c>
-      <c r="P126" s="21">
-        <f t="shared" si="12"/>
-        <v>14.255409516507427</v>
-      </c>
-      <c r="Q126" s="21">
+        <v>5.680700062311411</v>
+      </c>
+      <c r="S126" s="22">
+        <f t="shared" si="14"/>
+        <v>3.0776277834968933</v>
+      </c>
+      <c r="T126" s="21">
+        <f t="shared" ref="T126:T136" si="15">SQRT(K126^2-$I$81^2*SIN(RADIANS(G126))^2)+$I$81*COS(RADIANS(G126))</f>
+        <v>9.4313230406548776</v>
+      </c>
+      <c r="U126" s="22">
+        <f>SQRT(L126^2-$I$81^2*SIN(RADIANS(G126))^2)+$I$81*COS(RADIANS(G126))</f>
+        <v>11.007855710877894</v>
+      </c>
+      <c r="V126" s="22">
+        <f>SQRT(M126^2-$I$81^2*SIN(RADIANS(G126))^2)+$I$81*COS(RADIANS(G126))</f>
+        <v>14.186597292257062</v>
+      </c>
+      <c r="W126" s="21"/>
+      <c r="X126" s="21"/>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A127" s="11">
         <f t="shared" si="13"/>
-        <v>8.1228770484029038</v>
-      </c>
-      <c r="R126" s="21">
-        <f t="shared" si="14"/>
-        <v>16.915422490431048</v>
-      </c>
-      <c r="S126" s="21">
-        <f t="shared" si="15"/>
-        <v>8.2740348272942867</v>
-      </c>
-      <c r="T126" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U126" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V126" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A127" s="11">
-        <f t="shared" si="20"/>
         <v>88</v>
       </c>
       <c r="B127" s="11">
@@ -4442,68 +4609,58 @@
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
+      <c r="G127" s="11">
+        <f t="shared" si="12"/>
+        <v>98</v>
+      </c>
       <c r="H127" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A99)))/($H$81*SIN(RADIANS(A99))+H99)</f>
         <v>8.4766546556527373</v>
       </c>
       <c r="I127" s="21">
-        <f t="shared" si="7"/>
-        <v>0.19981091883188518</v>
+        <f>($I$81*$H$81*SIN(RADIANS(A99)))/($H$81*SIN(RADIANS(A99))+J99)</f>
+        <v>10.160274890690813</v>
       </c>
       <c r="J127" s="21">
-        <f t="shared" si="7"/>
-        <v>10.45319573919458</v>
+        <f>($I$81*$H$81*SIN(RADIANS(A99)))/($H$81*SIN(RADIANS(A99))+L99)</f>
+        <v>11.911832604581679</v>
       </c>
       <c r="K127" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L127" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A99)))/($H$81*SIN(RADIANS(A99))+N99)</f>
+        <v>9.5179432733681129</v>
+      </c>
+      <c r="L127" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A99)))/($H$81*SIN(RADIANS(A99))+P99)</f>
+        <v>18.562753739809548</v>
+      </c>
+      <c r="M127" s="21"/>
+      <c r="N127" s="21"/>
+      <c r="O127" s="21"/>
+      <c r="Q127" s="21">
+        <f>SQRT(H127^2-$I$81^2*SIN(RADIANS(G127))^2)+$I$81*COS(RADIANS(G127))</f>
+        <v>-0.18142486127313817</v>
+      </c>
+      <c r="R127" s="21">
         <f t="shared" si="8"/>
-        <v>11.911832604581679</v>
-      </c>
-      <c r="M127" s="21">
-        <f t="shared" si="9"/>
-        <v>7.7139431574961916</v>
-      </c>
-      <c r="N127" s="21">
-        <f t="shared" si="10"/>
-        <v>9.5179432733681129</v>
-      </c>
-      <c r="O127" s="21">
-        <f t="shared" si="11"/>
-        <v>7.6565332653207063</v>
-      </c>
-      <c r="P127" s="21">
-        <f t="shared" si="12"/>
-        <v>18.562753739809548</v>
-      </c>
-      <c r="Q127" s="21">
-        <f t="shared" si="13"/>
-        <v>8.4035664420379295</v>
-      </c>
-      <c r="R127" s="21">
+        <v>4.5074246815391801</v>
+      </c>
+      <c r="S127" s="21">
         <f t="shared" si="14"/>
-        <v>8.5</v>
-      </c>
-      <c r="S127" s="21">
+        <v>7.2456214801371512</v>
+      </c>
+      <c r="T127" s="21">
         <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T127" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U127" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V127" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.45">
+        <v>3.2600755006156978</v>
+      </c>
+      <c r="U127" s="22">
+        <f>SQRT(L127^2-$I$81^2*SIN(RADIANS(G127))^2)+$I$81*COS(RADIANS(G127))</f>
+        <v>15.361672718973336</v>
+      </c>
+      <c r="V127" s="21"/>
+      <c r="W127" s="21"/>
+      <c r="X127" s="21"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A128" s="11">
         <v>88</v>
       </c>
@@ -4518,136 +4675,116 @@
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
+      <c r="G128" s="11">
+        <f t="shared" si="12"/>
+        <v>103</v>
+      </c>
       <c r="H128" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A100)))/($H$81*SIN(RADIANS(A100))+H100)</f>
         <v>8.6328997064636805</v>
       </c>
       <c r="I128" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A100)))/($H$81*SIN(RADIANS(A100))+J100)</f>
+        <v>11.13998695519188</v>
+      </c>
+      <c r="J128" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A100)))/($H$81*SIN(RADIANS(A100))+L100)</f>
+        <v>15.753499409636003</v>
+      </c>
+      <c r="K128" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A100)))/($H$81*SIN(RADIANS(A100))+N100)</f>
+        <v>10.227085526855307</v>
+      </c>
+      <c r="L128" s="21"/>
+      <c r="M128" s="21"/>
+      <c r="N128" s="21"/>
+      <c r="O128" s="21"/>
+      <c r="Q128" s="21">
         <f t="shared" si="7"/>
-        <v>0.18205478173043083</v>
-      </c>
-      <c r="J128" s="21">
-        <f t="shared" si="7"/>
-        <v>11.590343033139021</v>
-      </c>
-      <c r="K128" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L128" s="21">
+        <v>0.52369567082377544</v>
+      </c>
+      <c r="R128" s="21">
         <f t="shared" si="8"/>
-        <v>15.753499409636003</v>
-      </c>
-      <c r="M128" s="21">
-        <f t="shared" si="9"/>
-        <v>8.1283927799185118</v>
-      </c>
-      <c r="N128" s="21">
-        <f t="shared" si="10"/>
-        <v>10.227085526855307</v>
-      </c>
-      <c r="O128" s="21">
-        <f t="shared" si="11"/>
-        <v>7.7023213058813331</v>
-      </c>
-      <c r="P128" s="21">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q128" s="21">
-        <f t="shared" si="13"/>
-        <v>8.5</v>
-      </c>
-      <c r="R128" s="21">
+        <v>5.5381089509679162</v>
+      </c>
+      <c r="S128" s="22">
         <f t="shared" si="14"/>
-        <v>8.5</v>
-      </c>
-      <c r="S128" s="21">
+        <v>11.488617837865265</v>
+      </c>
+      <c r="T128" s="22">
         <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T128" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U128" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V128" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.45">
+        <v>4.0878613254156813</v>
+      </c>
+      <c r="U128" s="21"/>
+      <c r="V128" s="21"/>
+      <c r="W128" s="21"/>
+      <c r="X128" s="21"/>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A129" s="17"/>
       <c r="B129" s="18"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
+      <c r="G129" s="11">
+        <f>G128+10</f>
+        <v>113</v>
+      </c>
       <c r="H129" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A101)))/($H$81*SIN(RADIANS(A101))+H101)</f>
         <v>8.9137515313181943</v>
       </c>
       <c r="I129" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A101)))/($H$81*SIN(RADIANS(A101))+J101)</f>
+        <v>11.33126177929849</v>
+      </c>
+      <c r="J129" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A101)))/($H$81*SIN(RADIANS(A101))+L101)</f>
+        <v>12.517858409521965</v>
+      </c>
+      <c r="K129" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A101)))/($H$81*SIN(RADIANS(A101))+N101)</f>
+        <v>16.808184052897602</v>
+      </c>
+      <c r="L129" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A101)))/($H$81*SIN(RADIANS(A101))+P101)</f>
+        <v>12.591109879880104</v>
+      </c>
+      <c r="M129" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A101)))/($H$81*SIN(RADIANS(A101))+R101)</f>
+        <v>8.546422473720078</v>
+      </c>
+      <c r="N129" s="21"/>
+      <c r="O129" s="21"/>
+      <c r="Q129" s="21">
         <f t="shared" si="7"/>
-        <v>0.20425757438365166</v>
-      </c>
-      <c r="J129" s="21">
-        <f t="shared" si="7"/>
-        <v>11.573776595034539</v>
-      </c>
-      <c r="K129" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L129" s="21">
+        <v>0.94908197005394168</v>
+      </c>
+      <c r="R129" s="21">
         <f t="shared" si="8"/>
-        <v>12.517858409521965</v>
-      </c>
-      <c r="M129" s="21">
-        <f t="shared" si="9"/>
-        <v>7.6330802432789584</v>
-      </c>
-      <c r="N129" s="21">
-        <f t="shared" si="10"/>
-        <v>16.808184052897602</v>
-      </c>
-      <c r="O129" s="21">
-        <f t="shared" si="11"/>
-        <v>8.0021176682562771</v>
-      </c>
-      <c r="P129" s="21">
-        <f t="shared" si="12"/>
-        <v>12.591109879880104</v>
-      </c>
-      <c r="Q129" s="21">
-        <f t="shared" si="13"/>
-        <v>7.4352560878167964</v>
-      </c>
-      <c r="R129" s="21">
+        <v>4.8750016005827677</v>
+      </c>
+      <c r="S129" s="21">
         <f t="shared" si="14"/>
-        <v>8.546422473720078</v>
-      </c>
-      <c r="S129" s="21">
+        <v>6.4500312612627573</v>
+      </c>
+      <c r="T129" s="21">
         <f t="shared" si="15"/>
-        <v>7.2230974924461</v>
-      </c>
-      <c r="T129" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U129" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V129" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.45">
+        <v>11.554790164604665</v>
+      </c>
+      <c r="U129" s="22">
+        <f>SQRT(L129^2-$I$81^2*SIN(RADIANS(G129))^2)+$I$81*COS(RADIANS(G129))</f>
+        <v>6.5436987057056344</v>
+      </c>
+      <c r="V129" s="22">
+        <f>SQRT(M129^2-$I$81^2*SIN(RADIANS(G129))^2)+$I$81*COS(RADIANS(G129))</f>
+        <v>0.1170703678868561</v>
+      </c>
+      <c r="W129" s="21"/>
+      <c r="X129" s="21"/>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A130" s="13" t="s">
         <v>16</v>
       </c>
@@ -4664,68 +4801,64 @@
         <v>5</v>
       </c>
       <c r="F130" s="11"/>
+      <c r="G130" s="11">
+        <f t="shared" ref="G130:G138" si="16">G129+10</f>
+        <v>123</v>
+      </c>
       <c r="H130" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A102)))/($H$81*SIN(RADIANS(A102))+H102)</f>
         <v>8.8551514822335768</v>
       </c>
       <c r="I130" s="21">
-        <f t="shared" si="19"/>
-        <v>0.21776570229248521</v>
-      </c>
-      <c r="J130" s="21">
-        <f t="shared" si="19"/>
-        <v>8.6498192644226819</v>
+        <f>($I$81*$H$81*SIN(RADIANS(A102)))/($H$81*SIN(RADIANS(A102))+J102)</f>
+        <v>8.6547948961173127</v>
+      </c>
+      <c r="J130" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A102)))/($H$81*SIN(RADIANS(A102))+L102)</f>
+        <v>10.574743005170509</v>
       </c>
       <c r="K130" s="21">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L130" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A102)))/($H$81*SIN(RADIANS(A102))+N102)</f>
+        <v>12.290136986021105</v>
+      </c>
+      <c r="L130" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A102)))/($H$81*SIN(RADIANS(A102))+P102)</f>
+        <v>17.719555065848684</v>
+      </c>
+      <c r="M130" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A102)))/($H$81*SIN(RADIANS(A102))+R102)</f>
+        <v>5.7236163946797056</v>
+      </c>
+      <c r="N130" s="21"/>
+      <c r="O130" s="21"/>
+      <c r="Q130" s="21">
+        <f t="shared" si="7"/>
+        <v>0.62369551305019044</v>
+      </c>
+      <c r="R130" s="21">
         <f t="shared" si="8"/>
-        <v>10.574743005170509</v>
-      </c>
-      <c r="M130" s="21">
-        <f t="shared" si="9"/>
-        <v>7.5797821391568165</v>
-      </c>
-      <c r="N130" s="21">
-        <f t="shared" si="10"/>
-        <v>12.290136986021105</v>
-      </c>
-      <c r="O130" s="21">
-        <f t="shared" si="11"/>
-        <v>7.2942282482312732</v>
-      </c>
-      <c r="P130" s="21">
-        <f t="shared" si="12"/>
-        <v>17.719555065848684</v>
-      </c>
-      <c r="Q130" s="21">
-        <f t="shared" si="13"/>
-        <v>8.0176565930933119</v>
-      </c>
-      <c r="R130" s="21">
+        <v>0.27843061514883516</v>
+      </c>
+      <c r="S130" s="22">
         <f t="shared" si="14"/>
-        <v>5.7236163946797056</v>
-      </c>
-      <c r="S130" s="21">
+        <v>3.1812550091959402</v>
+      </c>
+      <c r="T130" s="21">
         <f t="shared" si="15"/>
-        <v>7.8886046313800406</v>
-      </c>
-      <c r="T130" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U130" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V130" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.45">
+        <v>5.3820169438906857</v>
+      </c>
+      <c r="U130" s="22">
+        <f t="shared" ref="U130:U132" si="17">SQRT(L130^2-$I$81^2*SIN(RADIANS(G130))^2)+$I$81*COS(RADIANS(G130))</f>
+        <v>11.592906828493057</v>
+      </c>
+      <c r="V130" s="22" t="e">
+        <f>SQRT(M130^2-$I$81^2*SIN(RADIANS(G130))^2)+$I$81*COS(RADIANS(G130))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W130" s="21"/>
+      <c r="X130" s="21"/>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A131" s="11">
         <v>38</v>
       </c>
@@ -4742,68 +4875,58 @@
         <v>23</v>
       </c>
       <c r="F131" s="11"/>
+      <c r="G131" s="11">
+        <f>G130+10</f>
+        <v>133</v>
+      </c>
       <c r="H131" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A103)))/($H$81*SIN(RADIANS(A103))+H103)</f>
         <v>8.6834946098657344</v>
       </c>
-      <c r="I131" s="21">
-        <f t="shared" si="19"/>
-        <v>0.22711136294525519</v>
+      <c r="I131" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A103)))/($H$81*SIN(RADIANS(A103))+J103)</f>
+        <v>9.1604249394083208</v>
       </c>
       <c r="J131" s="21">
-        <f t="shared" si="19"/>
-        <v>9.051067070078286</v>
-      </c>
-      <c r="K131" s="21">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L131" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A103)))/($H$81*SIN(RADIANS(A103))+L103)</f>
+        <v>12.421967048345994</v>
+      </c>
+      <c r="K131" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A103)))/($H$81*SIN(RADIANS(A103))+N103)</f>
+        <v>20.474194181482972</v>
+      </c>
+      <c r="L131" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A103)))/($H$81*SIN(RADIANS(A103))+P103)</f>
+        <v>4.4117453694570496</v>
+      </c>
+      <c r="M131" s="21"/>
+      <c r="N131" s="21"/>
+      <c r="O131" s="21"/>
+      <c r="Q131" s="21">
+        <f t="shared" si="7"/>
+        <v>0.26586195220673137</v>
+      </c>
+      <c r="R131" s="22">
         <f t="shared" si="8"/>
-        <v>12.421967048345994</v>
-      </c>
-      <c r="M131" s="21">
-        <f t="shared" si="9"/>
-        <v>7.0606445745057487</v>
-      </c>
-      <c r="N131" s="21">
-        <f t="shared" si="10"/>
-        <v>20.474194181482972</v>
-      </c>
-      <c r="O131" s="21">
-        <f t="shared" si="11"/>
-        <v>7.905483818493666</v>
-      </c>
-      <c r="P131" s="21">
-        <f t="shared" si="12"/>
-        <v>4.4117453694570496</v>
-      </c>
-      <c r="Q131" s="21">
-        <f t="shared" si="13"/>
-        <v>7.779570110334987</v>
-      </c>
-      <c r="R131" s="21">
+        <v>0.93119589721391627</v>
+      </c>
+      <c r="S131" s="21">
         <f t="shared" si="14"/>
-        <v>8.4999999999999982</v>
-      </c>
-      <c r="S131" s="21">
+        <v>4.9575624068004887</v>
+      </c>
+      <c r="T131" s="22">
         <f t="shared" si="15"/>
-        <v>8.4999999999999982</v>
-      </c>
-      <c r="T131" s="21">
-        <f t="shared" si="16"/>
-        <v>8.4999999999999982</v>
-      </c>
-      <c r="U131" s="21">
+        <v>13.710645132595843</v>
+      </c>
+      <c r="U131" s="22" t="e">
         <f t="shared" si="17"/>
-        <v>8.4999999999999982</v>
-      </c>
-      <c r="V131" s="21">
-        <f t="shared" si="18"/>
-        <v>8.4999999999999982</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.45">
+        <v>#NUM!</v>
+      </c>
+      <c r="V131" s="21"/>
+      <c r="W131" s="21"/>
+      <c r="X131" s="21"/>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A132" s="11">
         <v>43</v>
       </c>
@@ -4818,68 +4941,70 @@
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
-      <c r="H132" s="21">
-        <f t="shared" si="19"/>
+      <c r="G132" s="11">
+        <f t="shared" si="16"/>
+        <v>143</v>
+      </c>
+      <c r="H132" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A104)))/($H$81*SIN(RADIANS(A104))+H104)</f>
         <v>8.3610691192869329</v>
       </c>
       <c r="I132" s="21">
-        <f t="shared" si="19"/>
-        <v>0.22878062843336963</v>
+        <f>($I$81*$H$81*SIN(RADIANS(A104)))/($H$81*SIN(RADIANS(A104))+J104)</f>
+        <v>8.9246653061276966</v>
       </c>
       <c r="J132" s="21">
-        <f t="shared" si="19"/>
-        <v>8.790676232000898</v>
+        <f>($I$81*$H$81*SIN(RADIANS(A104)))/($H$81*SIN(RADIANS(A104))+L104)</f>
+        <v>6.5544475714785966</v>
       </c>
       <c r="K132" s="21">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L132" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A104)))/($H$81*SIN(RADIANS(A104))+N104)</f>
+        <v>19.370181648200006</v>
+      </c>
+      <c r="L132" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A104)))/($H$81*SIN(RADIANS(A104))+P104)</f>
+        <v>4.3978005054892702</v>
+      </c>
+      <c r="M132" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A104)))/($H$81*SIN(RADIANS(A104))+R104)</f>
+        <v>4.6198575684056307</v>
+      </c>
+      <c r="N132" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A104)))/($H$81*SIN(RADIANS(A104))+T104)</f>
+        <v>6.8123415692197531</v>
+      </c>
+      <c r="O132" s="21"/>
+      <c r="Q132" s="22">
+        <f>SQRT(H132^2-$I$81^2*SIN(RADIANS(G132))^2)+$I$81*COS(RADIANS(G132))</f>
+        <v>-0.17478888207740972</v>
+      </c>
+      <c r="R132" s="21">
         <f t="shared" si="8"/>
-        <v>6.5544475714785966</v>
-      </c>
-      <c r="M132" s="21">
-        <f t="shared" si="9"/>
-        <v>6.5430153492938903</v>
-      </c>
-      <c r="N132" s="21">
-        <f t="shared" si="10"/>
-        <v>19.370181648200006</v>
-      </c>
-      <c r="O132" s="21">
-        <f t="shared" si="11"/>
-        <v>7.6819073822667709</v>
-      </c>
-      <c r="P132" s="21">
-        <f t="shared" si="12"/>
-        <v>4.3978005054892702</v>
-      </c>
-      <c r="Q132" s="21">
-        <f t="shared" si="13"/>
-        <v>7.6091912168434233</v>
-      </c>
-      <c r="R132" s="21">
+        <v>0.52474046495621351</v>
+      </c>
+      <c r="S132" s="21">
         <f t="shared" si="14"/>
-        <v>4.6198575684056307</v>
-      </c>
-      <c r="S132" s="21">
+        <v>-2.6904532698205745</v>
+      </c>
+      <c r="T132" s="21">
         <f t="shared" si="15"/>
-        <v>7.6662085871450021</v>
-      </c>
-      <c r="T132" s="21">
-        <f t="shared" si="16"/>
-        <v>6.8123415692197531</v>
-      </c>
-      <c r="U132" s="21">
+        <v>11.894112357370711</v>
+      </c>
+      <c r="U132" s="22" t="e">
         <f t="shared" si="17"/>
-        <v>7.6924090143522541</v>
-      </c>
-      <c r="V132" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.45">
+        <v>#NUM!</v>
+      </c>
+      <c r="V132" s="22" t="e">
+        <f>SQRT(M132^2-$I$81^2*SIN(RADIANS(G132))^2)+$I$81*COS(RADIANS(G132))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W132" s="22">
+        <f>SQRT(N132^2-$I$81^2*SIN(RADIANS(G132))^2)+$I$81*COS(RADIANS(G132))</f>
+        <v>-2.2894689469707172</v>
+      </c>
+      <c r="X132" s="21"/>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A133" s="11">
         <f>A132+5</f>
         <v>48</v>
@@ -4895,70 +5020,54 @@
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
+      <c r="G133" s="11">
+        <f t="shared" si="16"/>
+        <v>153</v>
+      </c>
       <c r="H133" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A105)))/($H$81*SIN(RADIANS(A105))+H105)</f>
         <v>9.200059202035602</v>
       </c>
-      <c r="I133" s="21">
-        <f t="shared" si="19"/>
-        <v>0.20243614222731798</v>
+      <c r="I133" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A105)))/($H$81*SIN(RADIANS(A105))+J105)</f>
+        <v>11.203294405386712</v>
       </c>
       <c r="J133" s="21">
-        <f t="shared" si="19"/>
-        <v>9.7308804279255288</v>
+        <f>($I$81*$H$81*SIN(RADIANS(A105)))/($H$81*SIN(RADIANS(A105))+L105)</f>
+        <v>13.374136534729741</v>
       </c>
       <c r="K133" s="21">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L133" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A105)))/($H$81*SIN(RADIANS(A105))+N105)</f>
+        <v>16.620927431551653</v>
+      </c>
+      <c r="L133" s="21"/>
+      <c r="M133" s="21"/>
+      <c r="N133" s="21"/>
+      <c r="O133" s="21"/>
+      <c r="Q133" s="21">
+        <f t="shared" si="7"/>
+        <v>0.77808100440032302</v>
+      </c>
+      <c r="R133" s="22">
         <f t="shared" si="8"/>
-        <v>13.374136534729741</v>
-      </c>
-      <c r="M133" s="21">
-        <f t="shared" si="9"/>
-        <v>6.0176836675406085</v>
-      </c>
-      <c r="N133" s="21">
-        <f t="shared" si="10"/>
-        <v>16.620927431551653</v>
-      </c>
-      <c r="O133" s="21">
-        <f t="shared" si="11"/>
-        <v>6.6181483225924902</v>
-      </c>
-      <c r="P133" s="21">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q133" s="21">
-        <f t="shared" si="13"/>
-        <v>8.5</v>
-      </c>
-      <c r="R133" s="21">
+        <v>2.9441699530998813</v>
+      </c>
+      <c r="S133" s="21">
         <f t="shared" si="14"/>
-        <v>8.5</v>
-      </c>
-      <c r="S133" s="21">
+        <v>5.2317664961757382</v>
+      </c>
+      <c r="T133" s="21">
         <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T133" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U133" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V133" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.45">
+        <v>8.5931996586440249</v>
+      </c>
+      <c r="U133" s="21"/>
+      <c r="V133" s="21"/>
+      <c r="W133" s="21"/>
+      <c r="X133" s="21"/>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A134" s="11">
-        <f t="shared" ref="A134:A142" si="21">A133+5</f>
+        <f t="shared" ref="A134:A142" si="18">A133+5</f>
         <v>53</v>
       </c>
       <c r="B134" s="11">
@@ -4972,70 +5081,72 @@
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
+      <c r="G134" s="11">
+        <f t="shared" si="16"/>
+        <v>163</v>
+      </c>
       <c r="H134" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A106)))/($H$81*SIN(RADIANS(A106))+H106)</f>
         <v>11.828517779124256</v>
       </c>
-      <c r="I134" s="21">
-        <f t="shared" si="19"/>
-        <v>0.21342902593081051</v>
-      </c>
-      <c r="J134" s="21">
-        <f t="shared" si="19"/>
-        <v>9.7425884693844491</v>
-      </c>
-      <c r="K134" s="21">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L134" s="21">
+      <c r="I134" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A106)))/($H$81*SIN(RADIANS(A106))+J106)</f>
+        <v>13.660940507978788</v>
+      </c>
+      <c r="J134" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A106)))/($H$81*SIN(RADIANS(A106))+L106)</f>
+        <v>7.0892440890399948</v>
+      </c>
+      <c r="K134" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A106)))/($H$81*SIN(RADIANS(A106))+N106)</f>
+        <v>59.937357092653343</v>
+      </c>
+      <c r="L134" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A106)))/($H$81*SIN(RADIANS(A106))+P106)</f>
+        <v>175.13596623743112</v>
+      </c>
+      <c r="M134" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A106)))/($H$81*SIN(RADIANS(A106))+R106)</f>
+        <v>3.0003828451045238</v>
+      </c>
+      <c r="N134" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A106)))/($H$81*SIN(RADIANS(A106))+T106)</f>
+        <v>2.1850020356793403</v>
+      </c>
+      <c r="O134" s="21"/>
+      <c r="Q134" s="21">
+        <f t="shared" si="7"/>
+        <v>3.4359162719476739</v>
+      </c>
+      <c r="R134" s="22">
         <f t="shared" si="8"/>
-        <v>7.0892440890399948</v>
-      </c>
-      <c r="M134" s="21">
-        <f t="shared" si="9"/>
-        <v>6.8068103271626894</v>
-      </c>
-      <c r="N134" s="21">
-        <f t="shared" si="10"/>
-        <v>59.937357092653343</v>
-      </c>
-      <c r="O134" s="21">
-        <f t="shared" si="11"/>
-        <v>6.9187902646032748</v>
-      </c>
-      <c r="P134" s="21">
-        <f t="shared" si="12"/>
-        <v>175.13596623743112</v>
-      </c>
-      <c r="Q134" s="21">
-        <f t="shared" si="13"/>
-        <v>7.1355053775929651</v>
-      </c>
-      <c r="R134" s="21">
+        <v>5.3044017157206174</v>
+      </c>
+      <c r="S134" s="22">
         <f t="shared" si="14"/>
-        <v>3.0003828451045238</v>
-      </c>
-      <c r="S134" s="21">
+        <v>-1.4892106306643278</v>
+      </c>
+      <c r="T134" s="22">
         <f t="shared" si="15"/>
-        <v>6.9806268762328072</v>
-      </c>
-      <c r="T134" s="21">
-        <f t="shared" si="16"/>
-        <v>2.1850020356793403</v>
-      </c>
-      <c r="U134" s="21">
-        <f t="shared" si="17"/>
-        <v>7.1355053775929651</v>
-      </c>
-      <c r="V134" s="21">
+        <v>51.757223900920735</v>
+      </c>
+      <c r="U134" s="22">
+        <f>SQRT(L134^2-$I$81^2*SIN(RADIANS(G134))^2)+$I$81*COS(RADIANS(G134))</f>
+        <v>166.98974285848851</v>
+      </c>
+      <c r="V134" s="22">
+        <f>SQRT(M134^2-$I$81^2*SIN(RADIANS(G134))^2)+$I$81*COS(RADIANS(G134))</f>
+        <v>-6.4474362014254565</v>
+      </c>
+      <c r="W134" s="22" t="e">
+        <f>SQRT(N134^2-$I$81^2*SIN(RADIANS(G134))^2)+$I$81*COS(RADIANS(G134))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X134" s="21"/>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A135" s="11">
         <f t="shared" si="18"/>
-        <v>8.5000000000000018</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A135" s="11">
-        <f t="shared" si="21"/>
         <v>58</v>
       </c>
       <c r="B135" s="11">
@@ -5049,70 +5160,72 @@
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
+      <c r="G135" s="11">
+        <f t="shared" si="16"/>
+        <v>173</v>
+      </c>
       <c r="H135" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A107)))/($H$81*SIN(RADIANS(A107))+H107)</f>
         <v>10.693676477306523</v>
       </c>
-      <c r="I135" s="21">
-        <f t="shared" si="19"/>
-        <v>0.16131487123196886</v>
-      </c>
-      <c r="J135" s="21">
-        <f t="shared" si="19"/>
-        <v>8.5629211524122972</v>
-      </c>
-      <c r="K135" s="21">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L135" s="21">
+      <c r="I135" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A107)))/($H$81*SIN(RADIANS(A107))+J107)</f>
+        <v>8.9682964199463271</v>
+      </c>
+      <c r="J135" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A107)))/($H$81*SIN(RADIANS(A107))+L107)</f>
+        <v>15.081187094391334</v>
+      </c>
+      <c r="K135" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A107)))/($H$81*SIN(RADIANS(A107))+N107)</f>
+        <v>-11.458524832002915</v>
+      </c>
+      <c r="L135" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A107)))/($H$81*SIN(RADIANS(A107))+P107)</f>
+        <v>-2.4774299674168092</v>
+      </c>
+      <c r="M135" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A107)))/($H$81*SIN(RADIANS(A107))+R107)</f>
+        <v>-1.3060766348272776</v>
+      </c>
+      <c r="N135" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A107)))/($H$81*SIN(RADIANS(A107))+T107)</f>
+        <v>2.07345163176443</v>
+      </c>
+      <c r="O135" s="21"/>
+      <c r="Q135" s="21">
+        <f t="shared" si="7"/>
+        <v>2.2067429673015511</v>
+      </c>
+      <c r="R135" s="22">
         <f t="shared" si="8"/>
-        <v>15.081187094391334</v>
-      </c>
-      <c r="M135" s="21">
-        <f t="shared" si="9"/>
-        <v>3.0462751960893764</v>
-      </c>
-      <c r="N135" s="21">
-        <f t="shared" si="10"/>
-        <v>-11.458524832002915</v>
-      </c>
-      <c r="O135" s="21">
-        <f t="shared" si="11"/>
-        <v>5.7100602081304261</v>
-      </c>
-      <c r="P135" s="21">
-        <f t="shared" si="12"/>
-        <v>-2.4774299674168092</v>
-      </c>
-      <c r="Q135" s="21">
-        <f t="shared" si="13"/>
-        <v>6.6809523278723733</v>
-      </c>
-      <c r="R135" s="21">
+        <v>0.47162767708271147</v>
+      </c>
+      <c r="S135" s="22">
         <f t="shared" si="14"/>
-        <v>-1.3060766348272776</v>
-      </c>
-      <c r="S135" s="21">
+        <v>6.6089264037820517</v>
+      </c>
+      <c r="T135" s="22">
         <f t="shared" si="15"/>
-        <v>8.2537236223141015</v>
-      </c>
-      <c r="T135" s="21">
-        <f t="shared" si="16"/>
-        <v>2.07345163176443</v>
-      </c>
-      <c r="U135" s="21">
-        <f t="shared" si="17"/>
-        <v>5.6116381797630535</v>
-      </c>
-      <c r="V135" s="21">
+        <v>2.9749625253309233</v>
+      </c>
+      <c r="U135" s="22">
+        <f>SQRT(L135^2-$I$81^2*SIN(RADIANS(G135))^2)+$I$81*COS(RADIANS(G135))</f>
+        <v>-6.186177369167944</v>
+      </c>
+      <c r="V135" s="22">
+        <f>SQRT(M135^2-$I$81^2*SIN(RADIANS(G135))^2)+$I$81*COS(RADIANS(G135))</f>
+        <v>-7.6411743211724472</v>
+      </c>
+      <c r="W135" s="22">
+        <f>SQRT(N135^2-$I$81^2*SIN(RADIANS(G135))^2)+$I$81*COS(RADIANS(G135))</f>
+        <v>-6.6404978679797644</v>
+      </c>
+      <c r="X135" s="21"/>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A136" s="11">
         <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A136" s="11">
-        <f t="shared" si="21"/>
         <v>63</v>
       </c>
       <c r="B136" s="11">
@@ -5126,70 +5239,54 @@
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
+      <c r="G136" s="11">
+        <f t="shared" si="16"/>
+        <v>183</v>
+      </c>
       <c r="H136" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A108)))/($H$81*SIN(RADIANS(A108))+H108)</f>
         <v>7.5202790987393024</v>
       </c>
-      <c r="I136" s="21">
-        <f t="shared" si="19"/>
-        <v>0.19528179784848809</v>
-      </c>
-      <c r="J136" s="21">
-        <f t="shared" si="19"/>
-        <v>6.6747597105036265</v>
-      </c>
-      <c r="K136" s="21">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L136" s="21">
+      <c r="I136" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A108)))/($H$81*SIN(RADIANS(A108))+J108)</f>
+        <v>-2.4113739233029396</v>
+      </c>
+      <c r="J136" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A108)))/($H$81*SIN(RADIANS(A108))+L108)</f>
+        <v>-1.2930809169452722</v>
+      </c>
+      <c r="K136" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A108)))/($H$81*SIN(RADIANS(A108))+N108)</f>
+        <v>1.2401899451080107</v>
+      </c>
+      <c r="L136" s="21"/>
+      <c r="M136" s="21"/>
+      <c r="N136" s="21"/>
+      <c r="O136" s="21"/>
+      <c r="Q136" s="21">
+        <f t="shared" si="7"/>
+        <v>-0.98124100272007819</v>
+      </c>
+      <c r="R136" s="22">
         <f t="shared" si="8"/>
-        <v>-1.2930809169452722</v>
-      </c>
-      <c r="M136" s="21">
-        <f t="shared" si="9"/>
-        <v>-46.914685221864964</v>
-      </c>
-      <c r="N136" s="21">
-        <f t="shared" si="10"/>
-        <v>1.2401899451080107</v>
-      </c>
-      <c r="O136" s="21">
-        <f t="shared" si="11"/>
-        <v>-99.248826413956948</v>
-      </c>
-      <c r="P136" s="21">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q136" s="21">
-        <f t="shared" si="13"/>
-        <v>8.5</v>
-      </c>
-      <c r="R136" s="21">
+        <v>-6.1183663053439563</v>
+      </c>
+      <c r="S136" s="22">
         <f t="shared" si="14"/>
-        <v>8.5</v>
-      </c>
-      <c r="S136" s="21">
+        <v>-7.2742004254548451</v>
+      </c>
+      <c r="T136" s="22">
         <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T136" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U136" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V136" s="21">
+        <v>-7.3306919547805904</v>
+      </c>
+      <c r="U136" s="21"/>
+      <c r="V136" s="21"/>
+      <c r="W136" s="21"/>
+      <c r="X136" s="21"/>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A137" s="11">
         <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A137" s="11">
-        <f t="shared" si="21"/>
         <v>68</v>
       </c>
       <c r="B137" s="11">
@@ -5203,68 +5300,46 @@
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
+      <c r="G137" s="11">
+        <f>G136+10</f>
+        <v>193</v>
+      </c>
       <c r="H137" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A109)))/($H$81*SIN(RADIANS(A109))+H109)</f>
         <v>9.1468905597007879</v>
       </c>
-      <c r="I137" s="21">
-        <f t="shared" si="19"/>
-        <v>0.20497172661377341</v>
-      </c>
-      <c r="J137" s="21">
-        <f t="shared" si="19"/>
-        <v>5.5285969093076295</v>
-      </c>
-      <c r="K137" s="21">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L137" s="21">
+      <c r="I137" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A109)))/($H$81*SIN(RADIANS(A109))+J109)</f>
+        <v>-7.9503376566076742</v>
+      </c>
+      <c r="J137" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A109)))/($H$81*SIN(RADIANS(A109))+L109)</f>
+        <v>3.7595974542909052</v>
+      </c>
+      <c r="K137" s="21"/>
+      <c r="L137" s="21"/>
+      <c r="M137" s="21"/>
+      <c r="N137" s="21"/>
+      <c r="O137" s="21"/>
+      <c r="Q137" s="21">
+        <f t="shared" si="7"/>
+        <v>0.66265974814004736</v>
+      </c>
+      <c r="R137" s="22">
         <f t="shared" si="8"/>
-        <v>3.7595974542909052</v>
-      </c>
-      <c r="M137" s="21">
-        <f t="shared" si="9"/>
-        <v>11.311297639184378</v>
-      </c>
-      <c r="N137" s="21">
-        <f t="shared" si="10"/>
-        <v>8.5</v>
-      </c>
-      <c r="O137" s="21">
-        <f t="shared" si="11"/>
-        <v>8.5</v>
-      </c>
-      <c r="P137" s="21">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q137" s="21">
-        <f t="shared" si="13"/>
-        <v>8.5</v>
-      </c>
-      <c r="R137" s="21">
+        <v>-0.56516403089415146</v>
+      </c>
+      <c r="S137" s="22">
         <f t="shared" si="14"/>
-        <v>8.5</v>
-      </c>
-      <c r="S137" s="21">
-        <f t="shared" si="15"/>
-        <v>8.5</v>
-      </c>
-      <c r="T137" s="21">
-        <f t="shared" si="16"/>
-        <v>8.5</v>
-      </c>
-      <c r="U137" s="21">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="V137" s="21">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.45">
+        <v>-5.0450931969322772</v>
+      </c>
+      <c r="T137" s="21"/>
+      <c r="U137" s="21"/>
+      <c r="V137" s="21"/>
+      <c r="W137" s="21"/>
+      <c r="X137" s="21"/>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A138" s="11">
         <f>A137+5</f>
         <v>73</v>
@@ -5280,68 +5355,76 @@
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
+      <c r="G138" s="11">
+        <f t="shared" si="16"/>
+        <v>203</v>
+      </c>
       <c r="H138" s="21">
-        <f t="shared" si="19"/>
+        <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+H110)</f>
         <v>9.1837533935912816</v>
       </c>
       <c r="I138" s="21">
-        <f t="shared" si="19"/>
-        <v>0.30151101209336517</v>
+        <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+J110)</f>
+        <v>10.863187561469877</v>
       </c>
       <c r="J138" s="21">
-        <f t="shared" si="19"/>
-        <v>7.7402936902369399</v>
-      </c>
-      <c r="K138" s="21">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L138" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+L110)</f>
+        <v>13.318554731606794</v>
+      </c>
+      <c r="K138" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+N110)</f>
+        <v>15.015504996053274</v>
+      </c>
+      <c r="L138" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+P110)</f>
+        <v>24.225685026865776</v>
+      </c>
+      <c r="M138" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+R110)</f>
+        <v>-10.936633549876881</v>
+      </c>
+      <c r="N138" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+T110)</f>
+        <v>41.139206825284276</v>
+      </c>
+      <c r="O138" s="22">
+        <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+V110)</f>
+        <v>2.5758479350859909</v>
+      </c>
+      <c r="Q138" s="21">
+        <f t="shared" si="7"/>
+        <v>0.73788487250020474</v>
+      </c>
+      <c r="R138" s="21">
         <f t="shared" si="8"/>
-        <v>13.318554731606794</v>
-      </c>
-      <c r="M138" s="21">
-        <f t="shared" si="9"/>
-        <v>14.832615270957936</v>
-      </c>
-      <c r="N138" s="21">
-        <f t="shared" si="10"/>
-        <v>15.015504996053274</v>
-      </c>
-      <c r="O138" s="21">
-        <f t="shared" si="11"/>
-        <v>12.850093386502786</v>
-      </c>
-      <c r="P138" s="21">
-        <f t="shared" si="12"/>
-        <v>24.225685026865776</v>
-      </c>
-      <c r="Q138" s="21">
-        <f t="shared" si="13"/>
-        <v>10.369832726105676</v>
-      </c>
-      <c r="R138" s="21">
+        <v>2.5187439688614717</v>
+      </c>
+      <c r="S138" s="21">
         <f t="shared" si="14"/>
-        <v>-10.936633549876881</v>
-      </c>
-      <c r="S138" s="21">
-        <f t="shared" si="15"/>
-        <v>9.8259665845273574</v>
-      </c>
-      <c r="T138" s="21">
-        <f t="shared" si="16"/>
-        <v>41.139206825284276</v>
-      </c>
-      <c r="U138" s="21">
-        <f t="shared" si="17"/>
-        <v>10.000803817638753</v>
-      </c>
-      <c r="V138" s="21">
-        <f t="shared" si="18"/>
-        <v>2.5758479350859909</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.45">
+        <v>5.0735160698329285</v>
+      </c>
+      <c r="T138" s="22">
+        <f>SQRT(K138^2-$I$81^2*SIN(RADIANS(G138))^2)+$I$81*COS(RADIANS(G138))</f>
+        <v>6.8193054322381954</v>
+      </c>
+      <c r="U138" s="22">
+        <f>SQRT(L138^2-$I$81^2*SIN(RADIANS(G138))^2)+$I$81*COS(RADIANS(G138))</f>
+        <v>16.172653314780966</v>
+      </c>
+      <c r="V138" s="22">
+        <f>SQRT(M138^2-$I$81^2*SIN(RADIANS(G138))^2)+$I$81*COS(RADIANS(G138))</f>
+        <v>2.5958568749815871</v>
+      </c>
+      <c r="W138" s="22">
+        <f>SQRT(N138^2-$I$81^2*SIN(RADIANS(G138))^2)+$I$81*COS(RADIANS(G138))</f>
+        <v>33.180633716276354</v>
+      </c>
+      <c r="X138" s="22" t="e">
+        <f>SQRT(O138^2-$I$81^2*SIN(RADIANS(G138))^2)+$I$81*COS(RADIANS(G138))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A139" s="11">
         <v>73</v>
       </c>
@@ -5358,7 +5441,7 @@
       <c r="F139" s="11"/>
       <c r="H139" s="21"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A140" s="11">
         <f>A138+5</f>
         <v>78</v>
@@ -5376,9 +5459,9 @@
       <c r="F140" s="11"/>
       <c r="H140" s="21"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A141" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>83</v>
       </c>
       <c r="B141" s="11">
@@ -5392,11 +5475,61 @@
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
-      <c r="H141" s="21"/>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="G141" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H141" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I141" t="s">
+        <v>67</v>
+      </c>
+      <c r="J141" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K141" t="s">
+        <v>69</v>
+      </c>
+      <c r="L141" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M141" t="s">
+        <v>71</v>
+      </c>
+      <c r="N141" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O141" t="s">
+        <v>73</v>
+      </c>
+      <c r="P141" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>75</v>
+      </c>
+      <c r="R141" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="S141" t="s">
+        <v>77</v>
+      </c>
+      <c r="T141" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="U141" t="s">
+        <v>79</v>
+      </c>
+      <c r="V141" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="W141" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A142" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="B142" s="11">
@@ -5410,9 +5543,51 @@
       </c>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
-      <c r="H142" s="21"/>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="G142" s="11">
+        <v>33</v>
+      </c>
+      <c r="H142" s="21">
+        <f>Q114*COS(RADIANS(G142-90))</f>
+        <v>7.4692905705016743</v>
+      </c>
+      <c r="I142" s="21">
+        <f>R114*COS(RADIANS(G142-90))</f>
+        <v>6.2142487861744824</v>
+      </c>
+      <c r="J142" s="21">
+        <f>S114*COS(RADIANS(G142-90))</f>
+        <v>5.0138956135554524</v>
+      </c>
+      <c r="K142" s="22">
+        <f>T114*COS(RADIANS(G142-90))</f>
+        <v>10.575131621247049</v>
+      </c>
+      <c r="L142" s="21"/>
+      <c r="M142" s="21"/>
+      <c r="N142" s="21"/>
+      <c r="O142" s="21"/>
+      <c r="P142" s="21">
+        <f>Q114*SIN(RADIANS(G142-90))</f>
+        <v>-11.501698854066166</v>
+      </c>
+      <c r="Q142" s="21">
+        <f>R114*SIN(RADIANS(G142-90))</f>
+        <v>-9.5691039822573849</v>
+      </c>
+      <c r="R142" s="21">
+        <f>S114*SIN(RADIANS(G142-90))</f>
+        <v>-7.7207221875376622</v>
+      </c>
+      <c r="S142" s="22">
+        <f>T114*SIN(RADIANS(G142-90))</f>
+        <v>-16.284274671286042</v>
+      </c>
+      <c r="T142" s="21"/>
+      <c r="U142" s="21"/>
+      <c r="V142" s="21"/>
+      <c r="W142" s="21"/>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A143" s="11">
         <v>88</v>
       </c>
@@ -5427,16 +5602,3086 @@
       </c>
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="G143" s="11">
+        <v>38</v>
+      </c>
+      <c r="H143" s="21">
+        <f t="shared" ref="H143:H166" si="19">Q115*COS(RADIANS(G143-90))</f>
+        <v>7.9943779650250448</v>
+      </c>
+      <c r="I143" s="22">
+        <f t="shared" ref="H143:I168" si="20">R115*COS(RADIANS(G143-90))</f>
+        <v>6.8654742391068719</v>
+      </c>
+      <c r="J143" s="22">
+        <f t="shared" ref="J143:J166" si="21">S115*COS(RADIANS(G143-90))</f>
+        <v>5.832950344872879</v>
+      </c>
+      <c r="K143" s="22" t="e">
+        <f t="shared" ref="K143:K166" si="22">T115*COS(RADIANS(G143-90))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L143" s="21">
+        <f t="shared" ref="L143:L166" si="23">U115*COS(RADIANS(G143-90))</f>
+        <v>9.7684231128227079</v>
+      </c>
+      <c r="M143" s="21"/>
+      <c r="N143" s="21"/>
+      <c r="O143" s="21"/>
+      <c r="P143" s="21">
+        <f t="shared" ref="P143:P166" si="24">Q115*SIN(RADIANS(G143-90))</f>
+        <v>-10.23233718092254</v>
+      </c>
+      <c r="Q143" s="22">
+        <f t="shared" ref="Q143:Q166" si="25">R115*SIN(RADIANS(G143-90))</f>
+        <v>-8.7874063033819851</v>
+      </c>
+      <c r="R143" s="22">
+        <f t="shared" ref="R143:R166" si="26">S115*SIN(RADIANS(G143-90))</f>
+        <v>-7.4658359849177742</v>
+      </c>
+      <c r="S143" s="22" t="e">
+        <f t="shared" ref="S143:S166" si="27">T115*SIN(RADIANS(G143-90))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T143" s="21">
+        <f t="shared" ref="T143:T166" si="28">U115*SIN(RADIANS(G143-90))</f>
+        <v>-12.503011422978892</v>
+      </c>
+      <c r="U143" s="21"/>
+      <c r="V143" s="21"/>
+      <c r="W143" s="21"/>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
+      <c r="G144" s="11">
+        <v>43</v>
+      </c>
+      <c r="H144" s="21">
+        <f t="shared" si="19"/>
+        <v>8.1842339395141099</v>
+      </c>
+      <c r="I144" s="21">
+        <f t="shared" si="20"/>
+        <v>6.9973806760331421</v>
+      </c>
+      <c r="J144" s="21">
+        <f t="shared" si="21"/>
+        <v>5.3830053918317136</v>
+      </c>
+      <c r="K144" s="21">
+        <f t="shared" si="22"/>
+        <v>11.708808511481873</v>
+      </c>
+      <c r="L144" s="21"/>
+      <c r="M144" s="21"/>
+      <c r="N144" s="21"/>
+      <c r="O144" s="21"/>
+      <c r="P144" s="21">
+        <f t="shared" si="24"/>
+        <v>-8.7765163922569727</v>
+      </c>
+      <c r="Q144" s="21">
+        <f t="shared" si="25"/>
+        <v>-7.5037720891093009</v>
+      </c>
+      <c r="R144" s="21">
+        <f t="shared" si="26"/>
+        <v>-5.7725665480944848</v>
+      </c>
+      <c r="S144" s="21">
+        <f t="shared" si="27"/>
+        <v>-12.55615987938384</v>
+      </c>
+      <c r="T144" s="21"/>
+      <c r="U144" s="21"/>
+      <c r="V144" s="21"/>
+      <c r="W144" s="21"/>
+    </row>
+    <row r="145" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G145" s="11">
+        <f>G144+5</f>
+        <v>48</v>
+      </c>
+      <c r="H145" s="21">
+        <f t="shared" si="19"/>
+        <v>8.2415211258158063</v>
+      </c>
+      <c r="I145" s="21">
+        <f t="shared" si="20"/>
+        <v>5.050102438097813</v>
+      </c>
+      <c r="J145" s="21">
+        <f t="shared" si="21"/>
+        <v>11.631595695664636</v>
+      </c>
+      <c r="K145" s="21"/>
+      <c r="L145" s="21"/>
+      <c r="M145" s="21"/>
+      <c r="N145" s="21"/>
+      <c r="O145" s="21"/>
+      <c r="P145" s="21">
+        <f t="shared" si="24"/>
+        <v>-7.4206989528506391</v>
+      </c>
+      <c r="Q145" s="21">
+        <f t="shared" si="25"/>
+        <v>-4.5471326593816528</v>
+      </c>
+      <c r="R145" s="21">
+        <f t="shared" si="26"/>
+        <v>-10.473135806013786</v>
+      </c>
+      <c r="S145" s="21"/>
+      <c r="T145" s="21"/>
+      <c r="U145" s="21"/>
+      <c r="V145" s="21"/>
+      <c r="W145" s="21"/>
+    </row>
+    <row r="146" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G146" s="11">
+        <f t="shared" ref="G146:G156" si="29">G145+5</f>
+        <v>53</v>
+      </c>
+      <c r="H146" s="21">
+        <f t="shared" si="19"/>
+        <v>7.6772831948910927</v>
+      </c>
+      <c r="I146" s="21" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J146" s="21">
+        <f t="shared" si="21"/>
+        <v>11.872670716868097</v>
+      </c>
+      <c r="K146" s="21"/>
+      <c r="L146" s="21"/>
+      <c r="M146" s="21"/>
+      <c r="N146" s="21"/>
+      <c r="O146" s="21"/>
+      <c r="P146" s="21">
+        <f t="shared" si="24"/>
+        <v>-5.7852478452963023</v>
+      </c>
+      <c r="Q146" s="21" t="e">
+        <f t="shared" si="25"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R146" s="21">
+        <f t="shared" si="26"/>
+        <v>-8.946699104232799</v>
+      </c>
+      <c r="S146" s="21"/>
+      <c r="T146" s="21"/>
+      <c r="U146" s="21"/>
+      <c r="V146" s="21"/>
+      <c r="W146" s="21"/>
+    </row>
+    <row r="147" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G147" s="11">
+        <f t="shared" si="29"/>
+        <v>58</v>
+      </c>
+      <c r="H147" s="21">
+        <f t="shared" si="19"/>
+        <v>7.0989027654360397</v>
+      </c>
+      <c r="I147" s="21">
+        <f t="shared" si="20"/>
+        <v>13.01813381786922</v>
+      </c>
+      <c r="J147" s="21"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="21"/>
+      <c r="M147" s="21"/>
+      <c r="N147" s="21"/>
+      <c r="O147" s="21"/>
+      <c r="P147" s="21">
+        <f t="shared" si="24"/>
+        <v>-4.4358867703053502</v>
+      </c>
+      <c r="Q147" s="21">
+        <f t="shared" si="25"/>
+        <v>-8.1346328418408387</v>
+      </c>
+      <c r="R147" s="21"/>
+      <c r="S147" s="21"/>
+      <c r="T147" s="21"/>
+      <c r="U147" s="21"/>
+      <c r="V147" s="21"/>
+      <c r="W147" s="21"/>
+    </row>
+    <row r="148" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G148" s="11">
+        <f t="shared" si="29"/>
+        <v>63</v>
+      </c>
+      <c r="H148" s="21">
+        <f t="shared" si="19"/>
+        <v>6.4840594712768871</v>
+      </c>
+      <c r="I148" s="21">
+        <f t="shared" si="20"/>
+        <v>12.835674091538065</v>
+      </c>
+      <c r="J148" s="21"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="21"/>
+      <c r="M148" s="21"/>
+      <c r="N148" s="21"/>
+      <c r="O148" s="21"/>
+      <c r="P148" s="21">
+        <f t="shared" si="24"/>
+        <v>-3.3037933166509639</v>
+      </c>
+      <c r="Q148" s="21">
+        <f t="shared" si="25"/>
+        <v>-6.5401026110549259</v>
+      </c>
+      <c r="R148" s="21"/>
+      <c r="S148" s="21"/>
+      <c r="T148" s="21"/>
+      <c r="U148" s="21"/>
+      <c r="V148" s="21"/>
+      <c r="W148" s="21"/>
+    </row>
+    <row r="149" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G149" s="11">
+        <f t="shared" si="29"/>
+        <v>68</v>
+      </c>
+      <c r="H149" s="21">
+        <f t="shared" si="19"/>
+        <v>5.0341531166837719</v>
+      </c>
+      <c r="I149" s="21">
+        <f t="shared" si="20"/>
+        <v>12.312319132797922</v>
+      </c>
+      <c r="J149" s="21"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="21"/>
+      <c r="M149" s="21"/>
+      <c r="N149" s="21"/>
+      <c r="O149" s="21"/>
+      <c r="P149" s="21">
+        <f t="shared" si="24"/>
+        <v>-2.0339298840100359</v>
+      </c>
+      <c r="Q149" s="21">
+        <f t="shared" si="25"/>
+        <v>-4.9744998305023351</v>
+      </c>
+      <c r="R149" s="21"/>
+      <c r="S149" s="21"/>
+      <c r="T149" s="21"/>
+      <c r="U149" s="21"/>
+      <c r="V149" s="21"/>
+      <c r="W149" s="21"/>
+    </row>
+    <row r="150" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G150" s="11">
+        <f>G149+5</f>
+        <v>73</v>
+      </c>
+      <c r="H150" s="21">
+        <f t="shared" si="19"/>
+        <v>3.8230982664073192</v>
+      </c>
+      <c r="I150" s="21">
+        <f t="shared" si="20"/>
+        <v>12.029254557888878</v>
+      </c>
+      <c r="J150" s="21"/>
+      <c r="K150" s="21"/>
+      <c r="L150" s="21"/>
+      <c r="M150" s="21"/>
+      <c r="N150" s="21"/>
+      <c r="O150" s="21"/>
+      <c r="P150" s="21">
+        <f t="shared" si="24"/>
+        <v>-1.1688384382721331</v>
+      </c>
+      <c r="Q150" s="21">
+        <f t="shared" si="25"/>
+        <v>-3.6777121934230634</v>
+      </c>
+      <c r="R150" s="21"/>
+      <c r="S150" s="21"/>
+      <c r="T150" s="21"/>
+      <c r="U150" s="21"/>
+      <c r="V150" s="21"/>
+      <c r="W150" s="21"/>
+    </row>
+    <row r="151" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G151" s="11">
+        <f t="shared" si="29"/>
+        <v>78</v>
+      </c>
+      <c r="H151" s="21">
+        <f t="shared" si="19"/>
+        <v>2.9417525892463843</v>
+      </c>
+      <c r="I151" s="21">
+        <f t="shared" si="20"/>
+        <v>7.0017844214176375</v>
+      </c>
+      <c r="J151" s="21">
+        <f t="shared" si="21"/>
+        <v>10.952783468422307</v>
+      </c>
+      <c r="K151" s="21"/>
+      <c r="L151" s="21"/>
+      <c r="M151" s="21"/>
+      <c r="N151" s="21"/>
+      <c r="O151" s="21"/>
+      <c r="P151" s="21">
+        <f t="shared" si="24"/>
+        <v>-0.62528881565409633</v>
+      </c>
+      <c r="Q151" s="21">
+        <f t="shared" si="25"/>
+        <v>-1.4882752221712583</v>
+      </c>
+      <c r="R151" s="21">
+        <f t="shared" si="26"/>
+        <v>-2.328085994764105</v>
+      </c>
+      <c r="S151" s="21"/>
+      <c r="T151" s="21"/>
+      <c r="U151" s="21"/>
+      <c r="V151" s="21"/>
+      <c r="W151" s="21"/>
+    </row>
+    <row r="152" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G152" s="11">
+        <f t="shared" si="29"/>
+        <v>83</v>
+      </c>
+      <c r="H152" s="21" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I152" s="21">
+        <f t="shared" si="20"/>
+        <v>6.9462520686921643</v>
+      </c>
+      <c r="J152" s="21">
+        <f t="shared" si="21"/>
+        <v>10.622791730267023</v>
+      </c>
+      <c r="K152" s="21"/>
+      <c r="L152" s="21"/>
+      <c r="M152" s="21"/>
+      <c r="N152" s="21"/>
+      <c r="O152" s="21"/>
+      <c r="P152" s="21" t="e">
+        <f t="shared" si="24"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q152" s="21">
+        <f t="shared" si="25"/>
+        <v>-0.85289251017526013</v>
+      </c>
+      <c r="R152" s="21">
+        <f t="shared" si="26"/>
+        <v>-1.3043148181638426</v>
+      </c>
+      <c r="S152" s="21"/>
+      <c r="T152" s="21"/>
+      <c r="U152" s="21"/>
+      <c r="V152" s="21"/>
+      <c r="W152" s="21"/>
+    </row>
+    <row r="153" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G153" s="11">
+        <f t="shared" si="29"/>
+        <v>88</v>
+      </c>
+      <c r="H153" s="21" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I153" s="21">
+        <f t="shared" si="20"/>
+        <v>6.7878174086700129</v>
+      </c>
+      <c r="J153" s="21">
+        <f t="shared" si="21"/>
+        <v>9.8817583662920399</v>
+      </c>
+      <c r="K153" s="22" t="e">
+        <f t="shared" si="22"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L153" s="21"/>
+      <c r="M153" s="21"/>
+      <c r="N153" s="21"/>
+      <c r="O153" s="21"/>
+      <c r="P153" s="21" t="e">
+        <f t="shared" si="24"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q153" s="21">
+        <f t="shared" si="25"/>
+        <v>-0.23703580708023789</v>
+      </c>
+      <c r="R153" s="21">
+        <f t="shared" si="26"/>
+        <v>-0.3450786060824339</v>
+      </c>
+      <c r="S153" s="22" t="e">
+        <f t="shared" si="27"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T153" s="21"/>
+      <c r="U153" s="21"/>
+      <c r="V153" s="21"/>
+      <c r="W153" s="21"/>
+    </row>
+    <row r="154" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G154" s="11">
+        <f>G153+5</f>
+        <v>93</v>
+      </c>
+      <c r="H154" s="21">
+        <f t="shared" si="19"/>
+        <v>1.1918541152468785E-14</v>
+      </c>
+      <c r="I154" s="21">
+        <f t="shared" si="20"/>
+        <v>5.6729148603063226</v>
+      </c>
+      <c r="J154" s="22">
+        <f t="shared" si="21"/>
+        <v>3.0734100015812529</v>
+      </c>
+      <c r="K154" s="21">
+        <f t="shared" si="22"/>
+        <v>9.4183977402092722</v>
+      </c>
+      <c r="L154" s="22">
+        <f t="shared" si="23"/>
+        <v>10.992769827199471</v>
+      </c>
+      <c r="M154" s="22">
+        <f t="shared" ref="M143:M166" si="30">V126*COS(RADIANS(G154-90))</f>
+        <v>14.167155053717167</v>
+      </c>
+      <c r="N154" s="21"/>
+      <c r="O154" s="21"/>
+      <c r="P154" s="21">
+        <f t="shared" si="24"/>
+        <v>6.2462427409442772E-16</v>
+      </c>
+      <c r="Q154" s="21">
+        <f t="shared" si="25"/>
+        <v>0.29730486989041832</v>
+      </c>
+      <c r="R154" s="22">
+        <f t="shared" si="26"/>
+        <v>0.16107059300916163</v>
+      </c>
+      <c r="S154" s="21">
+        <f t="shared" si="27"/>
+        <v>0.49359730996878165</v>
+      </c>
+      <c r="T154" s="22">
+        <f t="shared" si="28"/>
+        <v>0.57610665481314494</v>
+      </c>
+      <c r="U154" s="22">
+        <f t="shared" ref="U143:U166" si="31">V126*SIN(RADIANS(G154-90))</f>
+        <v>0.74246913512383106</v>
+      </c>
+      <c r="V154" s="21"/>
+      <c r="W154" s="21"/>
+    </row>
+    <row r="155" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G155" s="11">
+        <f t="shared" si="29"/>
+        <v>98</v>
+      </c>
+      <c r="H155" s="21">
+        <f t="shared" si="19"/>
+        <v>-0.17965924699465785</v>
+      </c>
+      <c r="I155" s="21">
+        <f t="shared" si="20"/>
+        <v>4.4635587343858916</v>
+      </c>
+      <c r="J155" s="21">
+        <f t="shared" si="21"/>
+        <v>7.1751075899678556</v>
+      </c>
+      <c r="K155" s="21">
+        <f t="shared" si="22"/>
+        <v>3.2283486699464152</v>
+      </c>
+      <c r="L155" s="22">
+        <f t="shared" si="23"/>
+        <v>15.212173976057795</v>
+      </c>
+      <c r="M155" s="21"/>
+      <c r="N155" s="21"/>
+      <c r="O155" s="21"/>
+      <c r="P155" s="21">
+        <f t="shared" si="24"/>
+        <v>-2.5249460534632326E-2</v>
+      </c>
+      <c r="Q155" s="21">
+        <f t="shared" si="25"/>
+        <v>0.62731227027374314</v>
+      </c>
+      <c r="R155" s="21">
+        <f t="shared" si="26"/>
+        <v>1.0083956097735465</v>
+      </c>
+      <c r="S155" s="21">
+        <f t="shared" si="27"/>
+        <v>0.45371481678462439</v>
+      </c>
+      <c r="T155" s="22">
+        <f t="shared" si="28"/>
+        <v>2.1379316282331593</v>
+      </c>
+      <c r="U155" s="21"/>
+      <c r="V155" s="21"/>
+      <c r="W155" s="21"/>
+    </row>
+    <row r="156" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G156" s="11">
+        <f t="shared" si="29"/>
+        <v>103</v>
+      </c>
+      <c r="H156" s="21">
+        <f t="shared" si="19"/>
+        <v>0.5102733847083093</v>
+      </c>
+      <c r="I156" s="21">
+        <f t="shared" si="20"/>
+        <v>5.3961675773422995</v>
+      </c>
+      <c r="J156" s="22">
+        <f t="shared" si="21"/>
+        <v>11.194165306973588</v>
+      </c>
+      <c r="K156" s="22">
+        <f t="shared" si="22"/>
+        <v>3.9830897044783349</v>
+      </c>
+      <c r="L156" s="21"/>
+      <c r="M156" s="21"/>
+      <c r="N156" s="21"/>
+      <c r="O156" s="21"/>
+      <c r="P156" s="21">
+        <f t="shared" si="24"/>
+        <v>0.11780589330712594</v>
+      </c>
+      <c r="Q156" s="21">
+        <f t="shared" si="25"/>
+        <v>1.245803447591429</v>
+      </c>
+      <c r="R156" s="22">
+        <f t="shared" si="26"/>
+        <v>2.5843766955815259</v>
+      </c>
+      <c r="S156" s="22">
+        <f t="shared" si="27"/>
+        <v>0.91956871516376693</v>
+      </c>
+      <c r="T156" s="21"/>
+      <c r="U156" s="21"/>
+      <c r="V156" s="21"/>
+      <c r="W156" s="21"/>
+    </row>
+    <row r="157" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G157" s="11">
+        <f>G156+10</f>
+        <v>113</v>
+      </c>
+      <c r="H157" s="21">
+        <f t="shared" si="19"/>
+        <v>0.87363455975885695</v>
+      </c>
+      <c r="I157" s="21">
+        <f t="shared" si="20"/>
+        <v>4.4874626339248529</v>
+      </c>
+      <c r="J157" s="21">
+        <f t="shared" si="21"/>
+        <v>5.9372850809123339</v>
+      </c>
+      <c r="K157" s="21">
+        <f t="shared" si="22"/>
+        <v>10.636240427143116</v>
+      </c>
+      <c r="L157" s="22">
+        <f t="shared" si="23"/>
+        <v>6.0235064181324889</v>
+      </c>
+      <c r="M157" s="22">
+        <f t="shared" si="30"/>
+        <v>0.10776384183531375</v>
+      </c>
+      <c r="N157" s="21"/>
+      <c r="O157" s="21"/>
+      <c r="P157" s="21">
+        <f t="shared" si="24"/>
+        <v>0.37083586918799977</v>
+      </c>
+      <c r="Q157" s="21">
+        <f t="shared" si="25"/>
+        <v>1.9048148767827207</v>
+      </c>
+      <c r="R157" s="21">
+        <f t="shared" si="26"/>
+        <v>2.5202279935042911</v>
+      </c>
+      <c r="S157" s="21">
+        <f t="shared" si="27"/>
+        <v>4.5148162004727421</v>
+      </c>
+      <c r="T157" s="22">
+        <f t="shared" si="28"/>
+        <v>2.5568267797741626</v>
+      </c>
+      <c r="U157" s="22">
+        <f t="shared" si="31"/>
+        <v>4.5743036957085717E-2</v>
+      </c>
+      <c r="V157" s="21"/>
+      <c r="W157" s="21"/>
+    </row>
+    <row r="158" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G158" s="11">
+        <f t="shared" ref="G158:G166" si="32">G157+10</f>
+        <v>123</v>
+      </c>
+      <c r="H158" s="21">
+        <f t="shared" si="19"/>
+        <v>0.5230750701548158</v>
+      </c>
+      <c r="I158" s="21">
+        <f>R130*COS(RADIANS(G158-90))</f>
+        <v>0.23351156214026736</v>
+      </c>
+      <c r="J158" s="22">
+        <f t="shared" si="21"/>
+        <v>2.6680249453415845</v>
+      </c>
+      <c r="K158" s="21">
+        <f t="shared" si="22"/>
+        <v>4.5137392070246971</v>
+      </c>
+      <c r="L158" s="22">
+        <f t="shared" si="23"/>
+        <v>9.7226297539906561</v>
+      </c>
+      <c r="M158" s="22" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N158" s="21"/>
+      <c r="O158" s="21"/>
+      <c r="P158" s="21">
+        <f t="shared" si="24"/>
+        <v>0.33968892237085796</v>
+      </c>
+      <c r="Q158" s="21">
+        <f t="shared" si="25"/>
+        <v>0.15164418155330195</v>
+      </c>
+      <c r="R158" s="22">
+        <f t="shared" si="26"/>
+        <v>1.7326356583451981</v>
+      </c>
+      <c r="S158" s="21">
+        <f t="shared" si="27"/>
+        <v>2.9312565147551481</v>
+      </c>
+      <c r="T158" s="22">
+        <f t="shared" si="28"/>
+        <v>6.3139495880895762</v>
+      </c>
+      <c r="U158" s="22" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V158" s="21"/>
+      <c r="W158" s="21"/>
+    </row>
+    <row r="159" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G159" s="11">
+        <f>G158+10</f>
+        <v>133</v>
+      </c>
+      <c r="H159" s="21">
+        <f t="shared" si="19"/>
+        <v>0.19443912286609197</v>
+      </c>
+      <c r="I159" s="22">
+        <f t="shared" si="20"/>
+        <v>0.68103356635998225</v>
+      </c>
+      <c r="J159" s="21">
+        <f t="shared" si="21"/>
+        <v>3.625731617221581</v>
+      </c>
+      <c r="K159" s="22">
+        <f t="shared" si="22"/>
+        <v>10.027331069310833</v>
+      </c>
+      <c r="L159" s="22" t="e">
+        <f t="shared" si="23"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M159" s="21"/>
+      <c r="N159" s="21"/>
+      <c r="O159" s="21"/>
+      <c r="P159" s="21">
+        <f t="shared" si="24"/>
+        <v>0.18131741540800514</v>
+      </c>
+      <c r="Q159" s="22">
+        <f t="shared" si="25"/>
+        <v>0.63507407479681777</v>
+      </c>
+      <c r="R159" s="21">
+        <f t="shared" si="26"/>
+        <v>3.381049431345426</v>
+      </c>
+      <c r="S159" s="22">
+        <f t="shared" si="27"/>
+        <v>9.3506374958292415</v>
+      </c>
+      <c r="T159" s="22" t="e">
+        <f t="shared" si="28"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U159" s="21"/>
+      <c r="V159" s="21"/>
+      <c r="W159" s="21"/>
+    </row>
+    <row r="160" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G160" s="11">
+        <f t="shared" si="32"/>
+        <v>143</v>
+      </c>
+      <c r="H160" s="22">
+        <f t="shared" si="19"/>
+        <v>-0.10519057511413699</v>
+      </c>
+      <c r="I160" s="21">
+        <f t="shared" si="20"/>
+        <v>0.31579669506644026</v>
+      </c>
+      <c r="J160" s="21">
+        <f t="shared" si="21"/>
+        <v>-1.6191551968665734</v>
+      </c>
+      <c r="K160" s="21">
+        <f t="shared" si="22"/>
+        <v>7.1580555037241185</v>
+      </c>
+      <c r="L160" s="22" t="e">
+        <f t="shared" si="23"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M160" s="22" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N160" s="22">
+        <f t="shared" ref="N143:N166" si="33">W132*COS(RADIANS(G160-90))</f>
+        <v>-1.3778368073270779</v>
+      </c>
+      <c r="O160" s="21"/>
+      <c r="P160" s="22">
+        <f t="shared" si="24"/>
+        <v>-0.13959260798848824</v>
+      </c>
+      <c r="Q160" s="21">
+        <f t="shared" si="25"/>
+        <v>0.41907636887275918</v>
+      </c>
+      <c r="R160" s="21">
+        <f t="shared" si="26"/>
+        <v>-2.1486915194015612</v>
+      </c>
+      <c r="S160" s="21">
+        <f t="shared" si="27"/>
+        <v>9.4990604890885653</v>
+      </c>
+      <c r="T160" s="22" t="e">
+        <f t="shared" si="28"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U160" s="22" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V160" s="22">
+        <f t="shared" ref="V143:V166" si="34">W132*SIN(RADIANS(G160-90))</f>
+        <v>-1.8284512002013973</v>
+      </c>
+      <c r="W160" s="21"/>
+    </row>
+    <row r="161" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G161" s="11">
+        <f t="shared" si="32"/>
+        <v>153</v>
+      </c>
+      <c r="H161" s="21">
+        <f t="shared" si="19"/>
+        <v>0.35324138402555116</v>
+      </c>
+      <c r="I161" s="22">
+        <f t="shared" si="20"/>
+        <v>1.3366251883259732</v>
+      </c>
+      <c r="J161" s="21">
+        <f t="shared" si="21"/>
+        <v>2.3751722861194411</v>
+      </c>
+      <c r="K161" s="21">
+        <f t="shared" si="22"/>
+        <v>3.9012310073895038</v>
+      </c>
+      <c r="L161" s="21"/>
+      <c r="M161" s="21"/>
+      <c r="N161" s="21"/>
+      <c r="O161" s="21"/>
+      <c r="P161" s="21">
+        <f t="shared" si="24"/>
+        <v>0.69327525126772593</v>
+      </c>
+      <c r="Q161" s="21">
+        <f t="shared" si="25"/>
+        <v>2.6232746365313551</v>
+      </c>
+      <c r="R161" s="21">
+        <f t="shared" si="26"/>
+        <v>4.6615380811226999</v>
+      </c>
+      <c r="S161" s="21">
+        <f t="shared" si="27"/>
+        <v>7.6565969595050811</v>
+      </c>
+      <c r="T161" s="21"/>
+      <c r="U161" s="21"/>
+      <c r="V161" s="21"/>
+      <c r="W161" s="21"/>
+    </row>
+    <row r="162" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G162" s="11">
+        <f t="shared" si="32"/>
+        <v>163</v>
+      </c>
+      <c r="H162" s="21">
+        <f t="shared" si="19"/>
+        <v>1.0045646977139318</v>
+      </c>
+      <c r="I162" s="22">
+        <f t="shared" si="20"/>
+        <v>1.5508569721594467</v>
+      </c>
+      <c r="J162" s="22">
+        <f t="shared" si="21"/>
+        <v>-0.43540305077855146</v>
+      </c>
+      <c r="K162" s="22">
+        <f t="shared" si="22"/>
+        <v>15.132347783628571</v>
+      </c>
+      <c r="L162" s="22">
+        <f t="shared" si="23"/>
+        <v>48.823075790747744</v>
+      </c>
+      <c r="M162" s="22">
+        <f t="shared" si="30"/>
+        <v>-1.8850479133018472</v>
+      </c>
+      <c r="N162" s="22" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O162" s="21"/>
+      <c r="P162" s="21">
+        <f t="shared" si="24"/>
+        <v>3.2857830719543428</v>
+      </c>
+      <c r="Q162" s="22">
+        <f t="shared" si="25"/>
+        <v>5.0726245882821113</v>
+      </c>
+      <c r="R162" s="22">
+        <f t="shared" si="26"/>
+        <v>-1.424139208735008</v>
+      </c>
+      <c r="S162" s="22">
+        <f t="shared" si="27"/>
+        <v>49.495679371894191</v>
+      </c>
+      <c r="T162" s="22">
+        <f t="shared" si="28"/>
+        <v>159.6930852926169</v>
+      </c>
+      <c r="U162" s="22">
+        <f t="shared" si="31"/>
+        <v>-6.1657139031914117</v>
+      </c>
+      <c r="V162" s="22" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W162" s="21"/>
+    </row>
+    <row r="163" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G163" s="11">
+        <f t="shared" si="32"/>
+        <v>173</v>
+      </c>
+      <c r="H163" s="21">
+        <f t="shared" si="19"/>
+        <v>0.26893431648896687</v>
+      </c>
+      <c r="I163" s="22">
+        <f t="shared" si="20"/>
+        <v>5.7476955337764972E-2</v>
+      </c>
+      <c r="J163" s="22">
+        <f t="shared" si="21"/>
+        <v>0.8054255214418613</v>
+      </c>
+      <c r="K163" s="22">
+        <f t="shared" si="22"/>
+        <v>0.36255672961699908</v>
+      </c>
+      <c r="L163" s="22">
+        <f t="shared" si="23"/>
+        <v>-0.75390537416828007</v>
+      </c>
+      <c r="M163" s="22">
+        <f t="shared" si="30"/>
+        <v>-0.93122489736555969</v>
+      </c>
+      <c r="N163" s="22">
+        <f t="shared" si="33"/>
+        <v>-0.8092731150539757</v>
+      </c>
+      <c r="O163" s="21"/>
+      <c r="P163" s="21">
+        <f t="shared" si="24"/>
+        <v>2.1902942398567062</v>
+      </c>
+      <c r="Q163" s="22">
+        <f t="shared" si="25"/>
+        <v>0.46811223589598139</v>
+      </c>
+      <c r="R163" s="22">
+        <f t="shared" si="26"/>
+        <v>6.5596644685545966</v>
+      </c>
+      <c r="S163" s="22">
+        <f t="shared" si="27"/>
+        <v>2.9527876057943567</v>
+      </c>
+      <c r="T163" s="22">
+        <f t="shared" si="28"/>
+        <v>-6.1400665411382809</v>
+      </c>
+      <c r="U163" s="22">
+        <f t="shared" si="31"/>
+        <v>-7.5842181665002038</v>
+      </c>
+      <c r="V163" s="22">
+        <f t="shared" si="34"/>
+        <v>-6.5910006038457185</v>
+      </c>
+      <c r="W163" s="21"/>
+    </row>
+    <row r="164" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G164" s="11">
+        <f t="shared" si="32"/>
+        <v>183</v>
+      </c>
+      <c r="H164" s="21">
+        <f t="shared" si="19"/>
+        <v>5.1354186182140354E-2</v>
+      </c>
+      <c r="I164" s="22">
+        <f t="shared" si="20"/>
+        <v>0.32021055123478326</v>
+      </c>
+      <c r="J164" s="22">
+        <f t="shared" si="21"/>
+        <v>0.38070223516900825</v>
+      </c>
+      <c r="K164" s="22">
+        <f t="shared" si="22"/>
+        <v>0.38365877337589743</v>
+      </c>
+      <c r="L164" s="21"/>
+      <c r="M164" s="21"/>
+      <c r="N164" s="21"/>
+      <c r="O164" s="21"/>
+      <c r="P164" s="21">
+        <f t="shared" si="24"/>
+        <v>-0.97989624602846326</v>
+      </c>
+      <c r="Q164" s="22">
+        <f t="shared" si="25"/>
+        <v>-6.1099812969636957</v>
+      </c>
+      <c r="R164" s="22">
+        <f t="shared" si="26"/>
+        <v>-7.2642313865834947</v>
+      </c>
+      <c r="S164" s="22">
+        <f t="shared" si="27"/>
+        <v>-7.3206454962316387</v>
+      </c>
+      <c r="T164" s="21"/>
+      <c r="U164" s="21"/>
+      <c r="V164" s="21"/>
+      <c r="W164" s="21"/>
+    </row>
+    <row r="165" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G165" s="11">
+        <f>G164+10</f>
+        <v>193</v>
+      </c>
+      <c r="H165" s="21">
+        <f t="shared" si="19"/>
+        <v>-0.1490660090153437</v>
+      </c>
+      <c r="I165" s="22">
+        <f t="shared" si="20"/>
+        <v>0.12713424462686809</v>
+      </c>
+      <c r="J165" s="22">
+        <f t="shared" si="21"/>
+        <v>1.1348990339129765</v>
+      </c>
+      <c r="K165" s="21"/>
+      <c r="L165" s="21"/>
+      <c r="M165" s="21"/>
+      <c r="N165" s="21"/>
+      <c r="O165" s="21"/>
+      <c r="P165" s="21">
+        <f t="shared" si="24"/>
+        <v>0.64567582172578564</v>
+      </c>
+      <c r="Q165" s="22">
+        <f t="shared" si="25"/>
+        <v>-0.55067891339661901</v>
+      </c>
+      <c r="R165" s="22">
+        <f t="shared" si="26"/>
+        <v>-4.9157877851424523</v>
+      </c>
+      <c r="S165" s="21"/>
+      <c r="T165" s="21"/>
+      <c r="U165" s="21"/>
+      <c r="V165" s="21"/>
+      <c r="W165" s="21"/>
+    </row>
+    <row r="166" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G166" s="11">
+        <f t="shared" si="32"/>
+        <v>203</v>
+      </c>
+      <c r="H166" s="21">
+        <f t="shared" si="19"/>
+        <v>-0.28831458892716888</v>
+      </c>
+      <c r="I166" s="21">
+        <f t="shared" si="20"/>
+        <v>-0.98415167332879505</v>
+      </c>
+      <c r="J166" s="21">
+        <f t="shared" si="21"/>
+        <v>-1.9823806593742852</v>
+      </c>
+      <c r="K166" s="22">
+        <f t="shared" si="22"/>
+        <v>-2.6645149070514651</v>
+      </c>
+      <c r="L166" s="22">
+        <f t="shared" si="23"/>
+        <v>-6.3191590803501612</v>
+      </c>
+      <c r="M166" s="22">
+        <f t="shared" si="30"/>
+        <v>-1.0142820861581952</v>
+      </c>
+      <c r="N166" s="22">
+        <f t="shared" si="33"/>
+        <v>-12.964706455949905</v>
+      </c>
+      <c r="O166" s="22" t="e">
+        <f t="shared" ref="O143:O166" si="35">X138*COS(RADIANS(G166-90))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="P166" s="21">
+        <f t="shared" si="24"/>
+        <v>0.67922660642557353</v>
+      </c>
+      <c r="Q166" s="21">
+        <f t="shared" si="25"/>
+        <v>2.3185160479410469</v>
+      </c>
+      <c r="R166" s="21">
+        <f t="shared" si="26"/>
+        <v>4.6701961663501601</v>
+      </c>
+      <c r="S166" s="22">
+        <f t="shared" si="27"/>
+        <v>6.2772037475498497</v>
+      </c>
+      <c r="T166" s="22">
+        <f t="shared" si="28"/>
+        <v>14.887005869459575</v>
+      </c>
+      <c r="U166" s="22">
+        <f t="shared" si="31"/>
+        <v>2.3894988522884355</v>
+      </c>
+      <c r="V166" s="22">
+        <f t="shared" si="34"/>
+        <v>30.542934376460064</v>
+      </c>
+      <c r="W166" s="22" t="e">
+        <f t="shared" ref="W143:W166" si="36">X138*SIN(RADIANS(G166-90))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="167" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="H167" s="21">
+        <v>6.2142487861744824</v>
+      </c>
+    </row>
+    <row r="168" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="H168" s="22">
+        <v>6.8654742391068719</v>
+      </c>
+    </row>
+    <row r="169" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="H169" s="21">
+        <v>6.9973806760331421</v>
+      </c>
+    </row>
+    <row r="170" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="H170" s="21">
+        <v>5.050102438097813</v>
+      </c>
+    </row>
+    <row r="171" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="H171" s="21" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K171" t="s">
+        <v>66</v>
+      </c>
+      <c r="L171" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="172" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="H172" s="21">
+        <v>13.01813381786922</v>
+      </c>
+      <c r="K172">
+        <v>7.4692905705016743</v>
+      </c>
+      <c r="L172">
+        <v>-11.501698854066166</v>
+      </c>
+    </row>
+    <row r="173" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="H173" s="21">
+        <v>12.835674091538065</v>
+      </c>
+      <c r="K173">
+        <v>7.9943779650250448</v>
+      </c>
+      <c r="L173">
+        <v>-10.23233718092254</v>
+      </c>
+    </row>
+    <row r="174" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="H174" s="21">
+        <v>12.312319132797922</v>
+      </c>
+      <c r="K174">
+        <v>8.1842339395141099</v>
+      </c>
+      <c r="L174">
+        <v>-8.7765163922569727</v>
+      </c>
+    </row>
+    <row r="175" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="H175" s="21">
+        <v>12.029254557888878</v>
+      </c>
+      <c r="K175">
+        <v>8.2415211258158063</v>
+      </c>
+      <c r="L175">
+        <v>-7.4206989528506391</v>
+      </c>
+    </row>
+    <row r="176" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="H176" s="21">
+        <v>7.0017844214176375</v>
+      </c>
+      <c r="K176">
+        <v>7.6772831948910927</v>
+      </c>
+      <c r="L176">
+        <v>-5.7852478452963023</v>
+      </c>
+    </row>
+    <row r="177" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H177" s="21">
+        <v>6.9462520686921643</v>
+      </c>
+      <c r="K177">
+        <v>7.0989027654360397</v>
+      </c>
+      <c r="L177">
+        <v>-4.4358867703053502</v>
+      </c>
+    </row>
+    <row r="178" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H178" s="21">
+        <v>6.7878174086700129</v>
+      </c>
+      <c r="K178">
+        <v>6.4840594712768871</v>
+      </c>
+      <c r="L178">
+        <v>-3.3037933166509639</v>
+      </c>
+    </row>
+    <row r="179" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H179" s="21">
+        <v>5.6729148603063226</v>
+      </c>
+      <c r="K179">
+        <v>5.0341531166837719</v>
+      </c>
+      <c r="L179">
+        <v>-2.0339298840100359</v>
+      </c>
+    </row>
+    <row r="180" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H180" s="21">
+        <v>4.4635587343858916</v>
+      </c>
+      <c r="K180">
+        <v>3.8230982664073192</v>
+      </c>
+      <c r="L180">
+        <v>-1.1688384382721331</v>
+      </c>
+    </row>
+    <row r="181" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H181" s="21">
+        <v>5.3961675773422995</v>
+      </c>
+      <c r="K181">
+        <v>2.9417525892463843</v>
+      </c>
+      <c r="L181">
+        <v>-0.62528881565409633</v>
+      </c>
+    </row>
+    <row r="182" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H182" s="21">
+        <v>4.4874626339248529</v>
+      </c>
+      <c r="K182" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L182" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="183" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H183" s="21">
+        <v>0.23351156214026736</v>
+      </c>
+      <c r="K183" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L183" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="184" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H184" s="22">
+        <v>0.68103356635998225</v>
+      </c>
+      <c r="K184">
+        <v>1.1918541152468785E-14</v>
+      </c>
+      <c r="L184">
+        <v>6.2462427409442772E-16</v>
+      </c>
+    </row>
+    <row r="185" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H185" s="21">
+        <v>0.31579669506644026</v>
+      </c>
+      <c r="K185">
+        <v>-0.17965924699465785</v>
+      </c>
+      <c r="L185">
+        <v>-2.5249460534632326E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H186" s="22">
+        <v>1.3366251883259732</v>
+      </c>
+      <c r="K186">
+        <v>0.5102733847083093</v>
+      </c>
+      <c r="L186">
+        <v>0.11780589330712594</v>
+      </c>
+    </row>
+    <row r="187" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H187" s="22">
+        <v>1.5508569721594467</v>
+      </c>
+      <c r="K187">
+        <v>0.87363455975885695</v>
+      </c>
+      <c r="L187">
+        <v>0.37083586918799977</v>
+      </c>
+    </row>
+    <row r="188" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H188" s="22">
+        <v>5.7476955337764972E-2</v>
+      </c>
+      <c r="K188">
+        <v>0.5230750701548158</v>
+      </c>
+      <c r="L188">
+        <v>0.33968892237085796</v>
+      </c>
+    </row>
+    <row r="189" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H189" s="22">
+        <v>0.32021055123478326</v>
+      </c>
+      <c r="K189">
+        <v>0.19443912286609197</v>
+      </c>
+      <c r="L189">
+        <v>0.18131741540800514</v>
+      </c>
+    </row>
+    <row r="190" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H190" s="22">
+        <v>0.12713424462686809</v>
+      </c>
+      <c r="K190">
+        <v>-0.10519057511413699</v>
+      </c>
+      <c r="L190">
+        <v>-0.13959260798848824</v>
+      </c>
+    </row>
+    <row r="191" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H191" s="21">
+        <v>-0.98415167332879505</v>
+      </c>
+      <c r="K191">
+        <v>0.35324138402555116</v>
+      </c>
+      <c r="L191">
+        <v>0.69327525126772593</v>
+      </c>
+    </row>
+    <row r="192" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H192">
+        <v>5.0138956135554524</v>
+      </c>
+      <c r="K192">
+        <v>1.0045646977139318</v>
+      </c>
+      <c r="L192">
+        <v>3.2857830719543428</v>
+      </c>
+    </row>
+    <row r="193" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H193">
+        <v>5.832950344872879</v>
+      </c>
+      <c r="K193">
+        <v>0.26893431648896687</v>
+      </c>
+      <c r="L193">
+        <v>2.1902942398567062</v>
+      </c>
+    </row>
+    <row r="194" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H194">
+        <v>5.3830053918317136</v>
+      </c>
+      <c r="K194">
+        <v>5.1354186182140354E-2</v>
+      </c>
+      <c r="L194">
+        <v>-0.97989624602846326</v>
+      </c>
+    </row>
+    <row r="195" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H195">
+        <v>11.631595695664636</v>
+      </c>
+      <c r="K195">
+        <v>-0.1490660090153437</v>
+      </c>
+      <c r="L195">
+        <v>0.64567582172578564</v>
+      </c>
+    </row>
+    <row r="196" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H196">
+        <v>11.872670716868097</v>
+      </c>
+      <c r="K196">
+        <v>-0.28831458892716888</v>
+      </c>
+      <c r="L196">
+        <v>0.67922660642557353</v>
+      </c>
+    </row>
+    <row r="197" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K197">
+        <v>6.2142487861744824</v>
+      </c>
+      <c r="L197">
+        <v>-9.5691039822573849</v>
+      </c>
+    </row>
+    <row r="198" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K198">
+        <v>6.8654742391068719</v>
+      </c>
+      <c r="L198">
+        <v>-8.7874063033819851</v>
+      </c>
+    </row>
+    <row r="199" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K199">
+        <v>6.9973806760331421</v>
+      </c>
+      <c r="L199">
+        <v>-7.5037720891093009</v>
+      </c>
+    </row>
+    <row r="200" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K200">
+        <v>5.050102438097813</v>
+      </c>
+      <c r="L200">
+        <v>-4.5471326593816528</v>
+      </c>
+    </row>
+    <row r="201" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H201">
+        <v>10.952783468422307</v>
+      </c>
+      <c r="K201" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L201" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="202" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H202">
+        <v>10.622791730267023</v>
+      </c>
+      <c r="K202">
+        <v>13.01813381786922</v>
+      </c>
+      <c r="L202">
+        <v>-8.1346328418408387</v>
+      </c>
+    </row>
+    <row r="203" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H203">
+        <v>9.8817583662920399</v>
+      </c>
+      <c r="K203">
+        <v>12.835674091538065</v>
+      </c>
+      <c r="L203">
+        <v>-6.5401026110549259</v>
+      </c>
+    </row>
+    <row r="204" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H204">
+        <v>3.0734100015812529</v>
+      </c>
+      <c r="K204">
+        <v>12.312319132797922</v>
+      </c>
+      <c r="L204">
+        <v>-4.9744998305023351</v>
+      </c>
+    </row>
+    <row r="205" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H205">
+        <v>7.1751075899678556</v>
+      </c>
+      <c r="K205">
+        <v>12.029254557888878</v>
+      </c>
+      <c r="L205">
+        <v>-3.6777121934230634</v>
+      </c>
+    </row>
+    <row r="206" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H206">
+        <v>11.194165306973588</v>
+      </c>
+      <c r="K206">
+        <v>7.0017844214176375</v>
+      </c>
+      <c r="L206">
+        <v>-1.4882752221712583</v>
+      </c>
+    </row>
+    <row r="207" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H207">
+        <v>5.9372850809123339</v>
+      </c>
+      <c r="K207">
+        <v>6.9462520686921643</v>
+      </c>
+      <c r="L207">
+        <v>-0.85289251017526013</v>
+      </c>
+    </row>
+    <row r="208" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H208">
+        <v>2.6680249453415845</v>
+      </c>
+      <c r="K208">
+        <v>6.7878174086700129</v>
+      </c>
+      <c r="L208">
+        <v>-0.23703580708023789</v>
+      </c>
+    </row>
+    <row r="209" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H209">
+        <v>3.625731617221581</v>
+      </c>
+      <c r="K209">
+        <v>5.6729148603063226</v>
+      </c>
+      <c r="L209">
+        <v>0.29730486989041832</v>
+      </c>
+    </row>
+    <row r="210" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H210">
+        <v>-1.6191551968665734</v>
+      </c>
+      <c r="K210">
+        <v>4.4635587343858916</v>
+      </c>
+      <c r="L210">
+        <v>0.62731227027374314</v>
+      </c>
+    </row>
+    <row r="211" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H211">
+        <v>2.3751722861194411</v>
+      </c>
+      <c r="K211">
+        <v>5.3961675773422995</v>
+      </c>
+      <c r="L211">
+        <v>1.245803447591429</v>
+      </c>
+    </row>
+    <row r="212" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H212">
+        <v>-0.43540305077855146</v>
+      </c>
+      <c r="K212">
+        <v>4.4874626339248529</v>
+      </c>
+      <c r="L212">
+        <v>1.9048148767827207</v>
+      </c>
+    </row>
+    <row r="213" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H213">
+        <v>0.8054255214418613</v>
+      </c>
+      <c r="K213">
+        <v>0.23351156214026736</v>
+      </c>
+      <c r="L213">
+        <v>0.15164418155330195</v>
+      </c>
+    </row>
+    <row r="214" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H214">
+        <v>0.38070223516900825</v>
+      </c>
+      <c r="K214">
+        <v>0.68103356635998225</v>
+      </c>
+      <c r="L214">
+        <v>0.63507407479681777</v>
+      </c>
+    </row>
+    <row r="215" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H215">
+        <v>1.1348990339129765</v>
+      </c>
+      <c r="K215">
+        <v>0.31579669506644026</v>
+      </c>
+      <c r="L215">
+        <v>0.41907636887275918</v>
+      </c>
+    </row>
+    <row r="216" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H216">
+        <v>-1.9823806593742852</v>
+      </c>
+      <c r="K216">
+        <v>1.3366251883259732</v>
+      </c>
+      <c r="L216">
+        <v>2.6232746365313551</v>
+      </c>
+    </row>
+    <row r="217" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H217">
+        <v>10.575131621247049</v>
+      </c>
+      <c r="K217">
+        <v>1.5508569721594467</v>
+      </c>
+      <c r="L217">
+        <v>5.0726245882821113</v>
+      </c>
+    </row>
+    <row r="218" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H218" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K218">
+        <v>5.7476955337764972E-2</v>
+      </c>
+      <c r="L218">
+        <v>0.46811223589598139</v>
+      </c>
+    </row>
+    <row r="219" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H219">
+        <v>11.708808511481873</v>
+      </c>
+      <c r="K219">
+        <v>0.32021055123478326</v>
+      </c>
+      <c r="L219">
+        <v>-6.1099812969636957</v>
+      </c>
+    </row>
+    <row r="220" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K220">
+        <v>0.12713424462686809</v>
+      </c>
+      <c r="L220">
+        <v>-0.55067891339661901</v>
+      </c>
+    </row>
+    <row r="221" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K221">
+        <v>-0.98415167332879505</v>
+      </c>
+      <c r="L221">
+        <v>2.3185160479410469</v>
+      </c>
+    </row>
+    <row r="222" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K222">
+        <v>5.0138956135554524</v>
+      </c>
+      <c r="L222">
+        <v>-7.7207221875376622</v>
+      </c>
+    </row>
+    <row r="223" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K223">
+        <v>5.832950344872879</v>
+      </c>
+      <c r="L223">
+        <v>-7.4658359849177742</v>
+      </c>
+    </row>
+    <row r="224" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K224">
+        <v>5.3830053918317136</v>
+      </c>
+      <c r="L224">
+        <v>-5.7725665480944848</v>
+      </c>
+    </row>
+    <row r="225" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K225">
+        <v>11.631595695664636</v>
+      </c>
+      <c r="L225">
+        <v>-10.473135806013786</v>
+      </c>
+    </row>
+    <row r="226" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K226">
+        <v>11.872670716868097</v>
+      </c>
+      <c r="L226">
+        <v>-8.946699104232799</v>
+      </c>
+    </row>
+    <row r="228" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H228" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="229" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H229">
+        <v>9.4183977402092722</v>
+      </c>
+    </row>
+    <row r="230" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H230">
+        <v>3.2283486699464152</v>
+      </c>
+    </row>
+    <row r="231" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H231">
+        <v>3.9830897044783349</v>
+      </c>
+      <c r="K231">
+        <v>10.952783468422307</v>
+      </c>
+      <c r="L231">
+        <v>-2.328085994764105</v>
+      </c>
+    </row>
+    <row r="232" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H232">
+        <v>10.636240427143116</v>
+      </c>
+      <c r="K232">
+        <v>10.622791730267023</v>
+      </c>
+      <c r="L232">
+        <v>-1.3043148181638426</v>
+      </c>
+    </row>
+    <row r="233" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H233">
+        <v>4.5137392070246971</v>
+      </c>
+      <c r="K233">
+        <v>9.8817583662920399</v>
+      </c>
+      <c r="L233">
+        <v>-0.3450786060824339</v>
+      </c>
+    </row>
+    <row r="234" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H234">
+        <v>10.027331069310833</v>
+      </c>
+      <c r="K234">
+        <v>3.0734100015812529</v>
+      </c>
+      <c r="L234">
+        <v>0.16107059300916163</v>
+      </c>
+    </row>
+    <row r="235" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H235">
+        <v>7.1580555037241185</v>
+      </c>
+      <c r="K235">
+        <v>7.1751075899678556</v>
+      </c>
+      <c r="L235">
+        <v>1.0083956097735465</v>
+      </c>
+    </row>
+    <row r="236" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H236">
+        <v>3.9012310073895038</v>
+      </c>
+      <c r="K236">
+        <v>11.194165306973588</v>
+      </c>
+      <c r="L236">
+        <v>2.5843766955815259</v>
+      </c>
+    </row>
+    <row r="237" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H237">
+        <v>15.132347783628571</v>
+      </c>
+      <c r="K237">
+        <v>5.9372850809123339</v>
+      </c>
+      <c r="L237">
+        <v>2.5202279935042911</v>
+      </c>
+    </row>
+    <row r="238" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H238">
+        <v>0.36255672961699908</v>
+      </c>
+      <c r="K238">
+        <v>2.6680249453415845</v>
+      </c>
+      <c r="L238">
+        <v>1.7326356583451981</v>
+      </c>
+    </row>
+    <row r="239" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H239">
+        <v>0.38365877337589743</v>
+      </c>
+      <c r="K239">
+        <v>3.625731617221581</v>
+      </c>
+      <c r="L239">
+        <v>3.381049431345426</v>
+      </c>
+    </row>
+    <row r="240" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K240">
+        <v>-1.6191551968665734</v>
+      </c>
+      <c r="L240">
+        <v>-2.1486915194015612</v>
+      </c>
+    </row>
+    <row r="241" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H241">
+        <v>-2.6645149070514651</v>
+      </c>
+      <c r="K241">
+        <v>2.3751722861194411</v>
+      </c>
+      <c r="L241">
+        <v>4.6615380811226999</v>
+      </c>
+    </row>
+    <row r="242" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K242">
+        <v>-0.43540305077855146</v>
+      </c>
+      <c r="L242">
+        <v>-1.424139208735008</v>
+      </c>
+    </row>
+    <row r="243" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H243">
+        <v>9.7684231128227079</v>
+      </c>
+      <c r="K243">
+        <v>0.8054255214418613</v>
+      </c>
+      <c r="L243">
+        <v>6.5596644685545966</v>
+      </c>
+    </row>
+    <row r="244" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K244">
+        <v>0.38070223516900825</v>
+      </c>
+      <c r="L244">
+        <v>-7.2642313865834947</v>
+      </c>
+    </row>
+    <row r="245" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K245">
+        <v>1.1348990339129765</v>
+      </c>
+      <c r="L245">
+        <v>-4.9157877851424523</v>
+      </c>
+    </row>
+    <row r="246" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K246">
+        <v>-1.9823806593742852</v>
+      </c>
+      <c r="L246">
+        <v>4.6701961663501601</v>
+      </c>
+    </row>
+    <row r="247" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K247">
+        <v>10.575131621247049</v>
+      </c>
+      <c r="L247">
+        <v>-16.284274671286042</v>
+      </c>
+    </row>
+    <row r="248" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K248" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L248" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="249" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K249">
+        <v>11.708808511481873</v>
+      </c>
+      <c r="L249">
+        <v>-12.55615987938384</v>
+      </c>
+    </row>
+    <row r="254" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H254">
+        <v>10.992769827199471</v>
+      </c>
+    </row>
+    <row r="255" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H255">
+        <v>15.212173976057795</v>
+      </c>
+    </row>
+    <row r="257" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H257">
+        <v>6.0235064181324889</v>
+      </c>
+    </row>
+    <row r="258" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H258">
+        <v>9.7226297539906561</v>
+      </c>
+      <c r="K258" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L258" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="259" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H259" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K259">
+        <v>9.4183977402092722</v>
+      </c>
+      <c r="L259">
+        <v>0.49359730996878165</v>
+      </c>
+    </row>
+    <row r="260" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H260" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K260">
+        <v>3.2283486699464152</v>
+      </c>
+      <c r="L260">
+        <v>0.45371481678462439</v>
+      </c>
+    </row>
+    <row r="261" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K261">
+        <v>3.9830897044783349</v>
+      </c>
+      <c r="L261">
+        <v>0.91956871516376693</v>
+      </c>
+    </row>
+    <row r="262" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H262">
+        <v>48.823075790747744</v>
+      </c>
+      <c r="K262">
+        <v>10.636240427143116</v>
+      </c>
+      <c r="L262">
+        <v>4.5148162004727421</v>
+      </c>
+    </row>
+    <row r="263" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H263">
+        <v>-0.75390537416828007</v>
+      </c>
+      <c r="K263">
+        <v>4.5137392070246971</v>
+      </c>
+      <c r="L263">
+        <v>2.9312565147551481</v>
+      </c>
+    </row>
+    <row r="264" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K264">
+        <v>10.027331069310833</v>
+      </c>
+      <c r="L264">
+        <v>9.3506374958292415</v>
+      </c>
+    </row>
+    <row r="265" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K265">
+        <v>7.1580555037241185</v>
+      </c>
+      <c r="L265">
+        <v>9.4990604890885653</v>
+      </c>
+    </row>
+    <row r="266" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H266">
+        <v>-6.3191590803501612</v>
+      </c>
+      <c r="K266">
+        <v>3.9012310073895038</v>
+      </c>
+      <c r="L266">
+        <v>7.6565969595050811</v>
+      </c>
+    </row>
+    <row r="267" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K267">
+        <v>15.132347783628571</v>
+      </c>
+      <c r="L267">
+        <v>49.495679371894191</v>
+      </c>
+    </row>
+    <row r="268" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K268">
+        <v>0.36255672961699908</v>
+      </c>
+      <c r="L268">
+        <v>2.9527876057943567</v>
+      </c>
+    </row>
+    <row r="269" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K269">
+        <v>0.38365877337589743</v>
+      </c>
+      <c r="L269">
+        <v>-7.3206454962316387</v>
+      </c>
+    </row>
+    <row r="271" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K271">
+        <v>-2.6645149070514651</v>
+      </c>
+      <c r="L271">
+        <v>6.2772037475498497</v>
+      </c>
+    </row>
+    <row r="273" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K273">
+        <v>9.7684231128227079</v>
+      </c>
+      <c r="L273">
+        <v>-12.503011422978892</v>
+      </c>
+    </row>
+    <row r="279" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H279">
+        <v>14.167155053717167</v>
+      </c>
+    </row>
+    <row r="282" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H282">
+        <v>0.10776384183531375</v>
+      </c>
+    </row>
+    <row r="283" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H283" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="284" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K284">
+        <v>10.992769827199471</v>
+      </c>
+      <c r="L284">
+        <v>0.57610665481314494</v>
+      </c>
+    </row>
+    <row r="285" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H285" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K285">
+        <v>15.212173976057795</v>
+      </c>
+      <c r="L285">
+        <v>2.1379316282331593</v>
+      </c>
+    </row>
+    <row r="287" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H287">
+        <v>-1.8850479133018472</v>
+      </c>
+      <c r="K287">
+        <v>6.0235064181324889</v>
+      </c>
+      <c r="L287">
+        <v>2.5568267797741626</v>
+      </c>
+    </row>
+    <row r="288" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H288">
+        <v>-0.93122489736555969</v>
+      </c>
+      <c r="K288">
+        <v>9.7226297539906561</v>
+      </c>
+      <c r="L288">
+        <v>6.3139495880895762</v>
+      </c>
+    </row>
+    <row r="289" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K289" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L289" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="290" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K290" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L290" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="291" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H291">
+        <v>-1.0142820861581952</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K292">
+        <v>48.823075790747744</v>
+      </c>
+      <c r="L292">
+        <v>159.6930852926169</v>
+      </c>
+    </row>
+    <row r="293" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K293">
+        <v>-0.75390537416828007</v>
+      </c>
+      <c r="L293">
+        <v>-6.1400665411382809</v>
+      </c>
+    </row>
+    <row r="296" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K296">
+        <v>-6.3191590803501612</v>
+      </c>
+      <c r="L296">
+        <v>14.887005869459575</v>
+      </c>
+    </row>
+    <row r="309" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K309">
+        <v>14.167155053717167</v>
+      </c>
+      <c r="L309">
+        <v>0.74246913512383106</v>
+      </c>
+    </row>
+    <row r="310" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H310">
+        <v>-1.3778368073270779</v>
+      </c>
+    </row>
+    <row r="312" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H312" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K312">
+        <v>0.10776384183531375</v>
+      </c>
+      <c r="L312">
+        <v>4.5743036957085717E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H313">
+        <v>-0.8092731150539757</v>
+      </c>
+      <c r="K313" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L313" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="315" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K315" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L315" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="316" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H316">
+        <v>-12.964706455949905</v>
+      </c>
+    </row>
+    <row r="317" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K317">
+        <v>-1.8850479133018472</v>
+      </c>
+      <c r="L317">
+        <v>-6.1657139031914117</v>
+      </c>
+    </row>
+    <row r="318" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K318">
+        <v>-0.93122489736555969</v>
+      </c>
+      <c r="L318">
+        <v>-7.5842181665002038</v>
+      </c>
+    </row>
+    <row r="321" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K321">
+        <v>-1.0142820861581952</v>
+      </c>
+      <c r="L321">
+        <v>2.3894988522884355</v>
+      </c>
+    </row>
+    <row r="340" spans="8:37" x14ac:dyDescent="0.45">
+      <c r="K340">
+        <v>-1.3778368073270779</v>
+      </c>
+      <c r="L340">
+        <v>-1.8284512002013973</v>
+      </c>
+    </row>
+    <row r="341" spans="8:37" x14ac:dyDescent="0.45">
+      <c r="H341" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="342" spans="8:37" x14ac:dyDescent="0.45">
+      <c r="K342" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L342" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="343" spans="8:37" x14ac:dyDescent="0.45">
+      <c r="K343">
+        <v>-0.8092731150539757</v>
+      </c>
+      <c r="L343">
+        <v>-6.5910006038457185</v>
+      </c>
+    </row>
+    <row r="346" spans="8:37" x14ac:dyDescent="0.45">
+      <c r="K346">
+        <v>-12.964706455949905</v>
+      </c>
+      <c r="L346">
+        <v>30.542934376460064</v>
+      </c>
+    </row>
+    <row r="347" spans="8:37" x14ac:dyDescent="0.45">
+      <c r="M347" s="21"/>
+      <c r="N347" s="21"/>
+      <c r="O347" s="21"/>
+      <c r="P347" s="21"/>
+      <c r="Q347" s="21"/>
+      <c r="R347" s="21"/>
+      <c r="S347" s="21"/>
+      <c r="T347" s="21"/>
+      <c r="U347" s="21"/>
+      <c r="V347" s="21"/>
+      <c r="W347" s="21"/>
+      <c r="X347" s="21"/>
+      <c r="Y347" s="21"/>
+      <c r="Z347" s="21"/>
+      <c r="AA347" s="21"/>
+      <c r="AB347" s="21"/>
+      <c r="AC347" s="21"/>
+      <c r="AD347" s="21"/>
+      <c r="AE347" s="21"/>
+      <c r="AF347" s="21"/>
+      <c r="AG347" s="21"/>
+      <c r="AH347" s="21"/>
+      <c r="AI347" s="21"/>
+      <c r="AJ347" s="21"/>
+      <c r="AK347" s="22">
+        <f>I348*SIN(RADIANS(AK331-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="8:37" x14ac:dyDescent="0.45">
+      <c r="M348" s="21"/>
+      <c r="N348" s="21"/>
+      <c r="O348" s="21"/>
+      <c r="P348" s="21"/>
+      <c r="Q348" s="21"/>
+      <c r="R348" s="21"/>
+      <c r="S348" s="21"/>
+      <c r="T348" s="21"/>
+      <c r="U348" s="21"/>
+      <c r="V348" s="21"/>
+      <c r="W348" s="21"/>
+      <c r="X348" s="21"/>
+      <c r="Y348" s="21"/>
+      <c r="Z348" s="21"/>
+      <c r="AA348" s="21"/>
+      <c r="AB348" s="21"/>
+      <c r="AC348" s="21"/>
+      <c r="AD348" s="21"/>
+      <c r="AE348" s="21"/>
+      <c r="AF348" s="21"/>
+      <c r="AG348" s="21"/>
+      <c r="AH348" s="21"/>
+      <c r="AI348" s="21"/>
+      <c r="AJ348" s="21"/>
+      <c r="AK348" s="22">
+        <f>I349*SIN(RADIANS(AK332-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="8:37" x14ac:dyDescent="0.45">
+      <c r="M349" s="21"/>
+      <c r="N349" s="21"/>
+      <c r="O349" s="21"/>
+      <c r="P349" s="21"/>
+      <c r="Q349" s="21"/>
+      <c r="R349" s="21"/>
+      <c r="S349" s="21"/>
+      <c r="T349" s="21"/>
+      <c r="U349" s="21"/>
+      <c r="V349" s="21"/>
+      <c r="W349" s="21"/>
+      <c r="X349" s="21"/>
+      <c r="Y349" s="21"/>
+      <c r="Z349" s="21"/>
+      <c r="AA349" s="21"/>
+      <c r="AB349" s="21"/>
+      <c r="AC349" s="21"/>
+      <c r="AD349" s="21"/>
+      <c r="AE349" s="21"/>
+      <c r="AF349" s="21"/>
+      <c r="AG349" s="21"/>
+      <c r="AH349" s="21"/>
+      <c r="AI349" s="21"/>
+      <c r="AJ349" s="21"/>
+      <c r="AK349" s="22">
+        <f>I350*SIN(RADIANS(AK333-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="8:37" x14ac:dyDescent="0.45">
+      <c r="M350" s="21"/>
+      <c r="N350" s="21"/>
+      <c r="O350" s="21"/>
+      <c r="P350" s="21"/>
+      <c r="Q350" s="21"/>
+      <c r="R350" s="21"/>
+      <c r="S350" s="21"/>
+      <c r="T350" s="21"/>
+      <c r="U350" s="21"/>
+      <c r="V350" s="21"/>
+      <c r="W350" s="21"/>
+      <c r="X350" s="21"/>
+      <c r="Y350" s="21"/>
+      <c r="Z350" s="21"/>
+      <c r="AA350" s="21"/>
+      <c r="AB350" s="21"/>
+      <c r="AC350" s="21"/>
+      <c r="AD350" s="21"/>
+      <c r="AE350" s="21"/>
+      <c r="AF350" s="21"/>
+      <c r="AG350" s="21"/>
+      <c r="AH350" s="21"/>
+      <c r="AI350" s="21"/>
+      <c r="AJ350" s="21"/>
+      <c r="AK350" s="22">
+        <f>I351*SIN(RADIANS(AK334-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="8:37" x14ac:dyDescent="0.45">
+      <c r="M351" s="21"/>
+      <c r="N351" s="21"/>
+      <c r="O351" s="21"/>
+      <c r="P351" s="21"/>
+      <c r="Q351" s="21"/>
+      <c r="R351" s="21"/>
+      <c r="S351" s="21"/>
+      <c r="T351" s="21"/>
+      <c r="U351" s="21"/>
+      <c r="V351" s="21"/>
+      <c r="W351" s="21"/>
+      <c r="X351" s="21"/>
+      <c r="Y351" s="21"/>
+      <c r="Z351" s="21"/>
+      <c r="AA351" s="21"/>
+      <c r="AB351" s="21"/>
+      <c r="AC351" s="21"/>
+      <c r="AD351" s="21"/>
+      <c r="AE351" s="21"/>
+      <c r="AF351" s="21"/>
+      <c r="AG351" s="21"/>
+      <c r="AH351" s="21"/>
+      <c r="AI351" s="21"/>
+      <c r="AJ351" s="21"/>
+      <c r="AK351" s="22">
+        <f>I352*SIN(RADIANS(AK335-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="8:37" x14ac:dyDescent="0.45">
+      <c r="M352" s="21"/>
+      <c r="N352" s="21"/>
+      <c r="O352" s="21"/>
+      <c r="P352" s="21"/>
+      <c r="Q352" s="21"/>
+      <c r="R352" s="21"/>
+      <c r="S352" s="21"/>
+      <c r="T352" s="21"/>
+      <c r="U352" s="21"/>
+      <c r="V352" s="21"/>
+      <c r="W352" s="21"/>
+      <c r="X352" s="21"/>
+      <c r="Y352" s="21"/>
+      <c r="Z352" s="21"/>
+      <c r="AA352" s="21"/>
+      <c r="AB352" s="21"/>
+      <c r="AC352" s="21"/>
+      <c r="AD352" s="21"/>
+      <c r="AE352" s="21"/>
+      <c r="AF352" s="21"/>
+      <c r="AG352" s="21"/>
+      <c r="AH352" s="21"/>
+      <c r="AI352" s="21"/>
+      <c r="AJ352" s="21"/>
+      <c r="AK352" s="22">
+        <f>I353*SIN(RADIANS(AK336-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M353" s="21"/>
+      <c r="N353" s="21"/>
+      <c r="O353" s="21"/>
+      <c r="P353" s="21"/>
+      <c r="Q353" s="21"/>
+      <c r="R353" s="21"/>
+      <c r="S353" s="21"/>
+      <c r="T353" s="21"/>
+      <c r="U353" s="21"/>
+      <c r="V353" s="21"/>
+      <c r="W353" s="21"/>
+      <c r="X353" s="21"/>
+      <c r="Y353" s="21"/>
+      <c r="Z353" s="21"/>
+      <c r="AA353" s="21"/>
+      <c r="AB353" s="21"/>
+      <c r="AC353" s="21"/>
+      <c r="AD353" s="21"/>
+      <c r="AE353" s="21"/>
+      <c r="AF353" s="21"/>
+      <c r="AG353" s="21"/>
+      <c r="AH353" s="21"/>
+      <c r="AI353" s="21"/>
+      <c r="AJ353" s="21"/>
+      <c r="AK353" s="22">
+        <f>I354*SIN(RADIANS(AK337-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M354" s="21"/>
+      <c r="N354" s="21"/>
+      <c r="O354" s="21"/>
+      <c r="P354" s="21"/>
+      <c r="Q354" s="21"/>
+      <c r="R354" s="21"/>
+      <c r="S354" s="21"/>
+      <c r="T354" s="21"/>
+      <c r="U354" s="21"/>
+      <c r="V354" s="21"/>
+      <c r="W354" s="21"/>
+      <c r="X354" s="21"/>
+      <c r="Y354" s="21"/>
+      <c r="Z354" s="21"/>
+      <c r="AA354" s="21"/>
+      <c r="AB354" s="21"/>
+      <c r="AC354" s="21"/>
+      <c r="AD354" s="21"/>
+      <c r="AE354" s="21"/>
+      <c r="AF354" s="21"/>
+      <c r="AG354" s="21"/>
+      <c r="AH354" s="21"/>
+      <c r="AI354" s="21"/>
+      <c r="AJ354" s="21"/>
+      <c r="AK354" s="22">
+        <f>I355*SIN(RADIANS(AK338-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M355" s="21"/>
+      <c r="N355" s="21"/>
+      <c r="O355" s="21"/>
+      <c r="P355" s="21"/>
+      <c r="Q355" s="21"/>
+      <c r="R355" s="21"/>
+      <c r="S355" s="21"/>
+      <c r="T355" s="21"/>
+      <c r="U355" s="21"/>
+      <c r="V355" s="21"/>
+      <c r="W355" s="21"/>
+      <c r="X355" s="21"/>
+      <c r="Y355" s="21"/>
+      <c r="Z355" s="21"/>
+      <c r="AA355" s="21"/>
+      <c r="AB355" s="21"/>
+      <c r="AC355" s="21"/>
+      <c r="AD355" s="21"/>
+      <c r="AE355" s="21"/>
+      <c r="AF355" s="21"/>
+      <c r="AG355" s="21"/>
+      <c r="AH355" s="21"/>
+      <c r="AI355" s="21"/>
+      <c r="AJ355" s="21"/>
+      <c r="AK355" s="22">
+        <f>I356*SIN(RADIANS(AK339-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M356" s="21"/>
+      <c r="N356" s="21"/>
+      <c r="O356" s="21"/>
+      <c r="P356" s="21"/>
+      <c r="Q356" s="21"/>
+      <c r="R356" s="21"/>
+      <c r="S356" s="21"/>
+      <c r="T356" s="21"/>
+      <c r="U356" s="21"/>
+      <c r="V356" s="21"/>
+      <c r="W356" s="21"/>
+      <c r="X356" s="21"/>
+      <c r="Y356" s="21"/>
+      <c r="Z356" s="21"/>
+      <c r="AA356" s="21"/>
+      <c r="AB356" s="21"/>
+      <c r="AC356" s="21"/>
+      <c r="AD356" s="21"/>
+      <c r="AE356" s="21"/>
+      <c r="AF356" s="21"/>
+      <c r="AG356" s="21"/>
+      <c r="AH356" s="21"/>
+      <c r="AI356" s="21"/>
+      <c r="AJ356" s="21"/>
+      <c r="AK356" s="22">
+        <f>I357*SIN(RADIANS(AK340-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M357" s="21"/>
+      <c r="N357" s="21"/>
+      <c r="O357" s="21"/>
+      <c r="P357" s="21"/>
+      <c r="Q357" s="21"/>
+      <c r="R357" s="21"/>
+      <c r="S357" s="21"/>
+      <c r="T357" s="21"/>
+      <c r="U357" s="21"/>
+      <c r="V357" s="21"/>
+      <c r="W357" s="21"/>
+      <c r="X357" s="21"/>
+      <c r="Y357" s="21"/>
+      <c r="Z357" s="21"/>
+      <c r="AA357" s="21"/>
+      <c r="AB357" s="21"/>
+      <c r="AC357" s="21"/>
+      <c r="AD357" s="21"/>
+      <c r="AE357" s="21"/>
+      <c r="AF357" s="21"/>
+      <c r="AG357" s="21"/>
+      <c r="AH357" s="21"/>
+      <c r="AI357" s="21"/>
+      <c r="AJ357" s="21"/>
+      <c r="AK357" s="22">
+        <f>I358*SIN(RADIANS(AK341-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M358" s="21"/>
+      <c r="N358" s="21"/>
+      <c r="O358" s="21"/>
+      <c r="P358" s="21"/>
+      <c r="Q358" s="21"/>
+      <c r="R358" s="21"/>
+      <c r="S358" s="21"/>
+      <c r="T358" s="21"/>
+      <c r="U358" s="21"/>
+      <c r="V358" s="21"/>
+      <c r="W358" s="21"/>
+      <c r="X358" s="21"/>
+      <c r="Y358" s="21"/>
+      <c r="Z358" s="21"/>
+      <c r="AA358" s="21"/>
+      <c r="AB358" s="21"/>
+      <c r="AC358" s="21"/>
+      <c r="AD358" s="21"/>
+      <c r="AE358" s="21"/>
+      <c r="AF358" s="21"/>
+      <c r="AG358" s="21"/>
+      <c r="AH358" s="21"/>
+      <c r="AI358" s="21"/>
+      <c r="AJ358" s="21"/>
+      <c r="AK358" s="22">
+        <f>I359*SIN(RADIANS(AK342-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M359" s="21"/>
+      <c r="N359" s="21"/>
+      <c r="O359" s="21"/>
+      <c r="P359" s="21"/>
+      <c r="Q359" s="21"/>
+      <c r="R359" s="21"/>
+      <c r="S359" s="21"/>
+      <c r="T359" s="21"/>
+      <c r="U359" s="21"/>
+      <c r="V359" s="21"/>
+      <c r="W359" s="21"/>
+      <c r="X359" s="21"/>
+      <c r="Y359" s="21"/>
+      <c r="Z359" s="21"/>
+      <c r="AA359" s="21"/>
+      <c r="AB359" s="21"/>
+      <c r="AC359" s="21"/>
+      <c r="AD359" s="21"/>
+      <c r="AE359" s="21"/>
+      <c r="AF359" s="21"/>
+      <c r="AG359" s="21"/>
+      <c r="AH359" s="21"/>
+      <c r="AI359" s="21"/>
+      <c r="AJ359" s="21"/>
+      <c r="AK359" s="22">
+        <f>I360*SIN(RADIANS(AK343-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M360" s="21"/>
+      <c r="N360" s="21"/>
+      <c r="O360" s="21"/>
+      <c r="P360" s="21"/>
+      <c r="Q360" s="21"/>
+      <c r="R360" s="21"/>
+      <c r="S360" s="21"/>
+      <c r="T360" s="21"/>
+      <c r="U360" s="21"/>
+      <c r="V360" s="21"/>
+      <c r="W360" s="21"/>
+      <c r="X360" s="21"/>
+      <c r="Y360" s="21"/>
+      <c r="Z360" s="21"/>
+      <c r="AA360" s="21"/>
+      <c r="AB360" s="21"/>
+      <c r="AC360" s="21"/>
+      <c r="AD360" s="21"/>
+      <c r="AE360" s="21"/>
+      <c r="AF360" s="21"/>
+      <c r="AG360" s="21"/>
+      <c r="AH360" s="21"/>
+      <c r="AI360" s="21"/>
+      <c r="AJ360" s="21"/>
+      <c r="AK360" s="22">
+        <f>I361*SIN(RADIANS(AK344-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M361" s="21"/>
+      <c r="N361" s="21"/>
+      <c r="O361" s="21"/>
+      <c r="P361" s="21"/>
+      <c r="Q361" s="21"/>
+      <c r="R361" s="21"/>
+      <c r="S361" s="21"/>
+      <c r="T361" s="21"/>
+      <c r="U361" s="21"/>
+      <c r="V361" s="21"/>
+      <c r="W361" s="21"/>
+      <c r="X361" s="21"/>
+      <c r="Y361" s="21"/>
+      <c r="Z361" s="21"/>
+      <c r="AA361" s="21"/>
+      <c r="AB361" s="21"/>
+      <c r="AC361" s="21"/>
+      <c r="AD361" s="21"/>
+      <c r="AE361" s="21"/>
+      <c r="AF361" s="21"/>
+      <c r="AG361" s="21"/>
+      <c r="AH361" s="21"/>
+      <c r="AI361" s="21"/>
+      <c r="AJ361" s="21"/>
+      <c r="AK361" s="22">
+        <f>I362*SIN(RADIANS(AK345-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M362" s="21"/>
+      <c r="N362" s="21"/>
+      <c r="O362" s="21"/>
+      <c r="P362" s="21"/>
+      <c r="Q362" s="21"/>
+      <c r="R362" s="21"/>
+      <c r="S362" s="21"/>
+      <c r="T362" s="21"/>
+      <c r="U362" s="21"/>
+      <c r="V362" s="21"/>
+      <c r="W362" s="21"/>
+      <c r="X362" s="21"/>
+      <c r="Y362" s="21"/>
+      <c r="Z362" s="21"/>
+      <c r="AA362" s="21"/>
+      <c r="AB362" s="21"/>
+      <c r="AC362" s="21"/>
+      <c r="AD362" s="21"/>
+      <c r="AE362" s="21"/>
+      <c r="AF362" s="21"/>
+      <c r="AG362" s="21"/>
+      <c r="AH362" s="21"/>
+      <c r="AI362" s="21"/>
+      <c r="AJ362" s="21"/>
+      <c r="AK362" s="22">
+        <f>I363*SIN(RADIANS(AK346-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M363" s="21"/>
+      <c r="N363" s="21"/>
+      <c r="O363" s="21"/>
+      <c r="P363" s="21"/>
+      <c r="Q363" s="21"/>
+      <c r="R363" s="21"/>
+      <c r="S363" s="21"/>
+      <c r="T363" s="21"/>
+      <c r="U363" s="21"/>
+      <c r="V363" s="21"/>
+      <c r="W363" s="21"/>
+      <c r="X363" s="21"/>
+      <c r="Y363" s="21"/>
+      <c r="Z363" s="21"/>
+      <c r="AA363" s="21"/>
+      <c r="AB363" s="21"/>
+      <c r="AC363" s="21"/>
+      <c r="AD363" s="21"/>
+      <c r="AE363" s="21"/>
+      <c r="AF363" s="21"/>
+      <c r="AG363" s="21"/>
+      <c r="AH363" s="21"/>
+      <c r="AI363" s="21"/>
+      <c r="AJ363" s="21"/>
+      <c r="AK363" s="22">
+        <f>I364*SIN(RADIANS(AK347-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M364" s="21"/>
+      <c r="N364" s="21"/>
+      <c r="O364" s="21"/>
+      <c r="P364" s="21"/>
+      <c r="Q364" s="21"/>
+      <c r="R364" s="21"/>
+      <c r="S364" s="21"/>
+      <c r="T364" s="21"/>
+      <c r="U364" s="21"/>
+      <c r="V364" s="21"/>
+      <c r="W364" s="21"/>
+      <c r="X364" s="21"/>
+      <c r="Y364" s="21"/>
+      <c r="Z364" s="21"/>
+      <c r="AA364" s="21"/>
+      <c r="AB364" s="21"/>
+      <c r="AC364" s="21"/>
+      <c r="AD364" s="21"/>
+      <c r="AE364" s="21"/>
+      <c r="AF364" s="21"/>
+      <c r="AG364" s="21"/>
+      <c r="AH364" s="21"/>
+      <c r="AI364" s="21"/>
+      <c r="AJ364" s="21"/>
+      <c r="AK364" s="22">
+        <f>I365*SIN(RADIANS(AK348-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M365" s="21"/>
+      <c r="N365" s="21"/>
+      <c r="O365" s="21"/>
+      <c r="P365" s="21"/>
+      <c r="Q365" s="21"/>
+      <c r="R365" s="21"/>
+      <c r="S365" s="21"/>
+      <c r="T365" s="21"/>
+      <c r="U365" s="21"/>
+      <c r="V365" s="21"/>
+      <c r="W365" s="21"/>
+      <c r="X365" s="21"/>
+      <c r="Y365" s="21"/>
+      <c r="Z365" s="21"/>
+      <c r="AA365" s="21"/>
+      <c r="AB365" s="21"/>
+      <c r="AC365" s="21"/>
+      <c r="AD365" s="21"/>
+      <c r="AE365" s="21"/>
+      <c r="AF365" s="21"/>
+      <c r="AG365" s="21"/>
+      <c r="AH365" s="21"/>
+      <c r="AI365" s="21"/>
+      <c r="AJ365" s="21"/>
+      <c r="AK365" s="22">
+        <f>I366*SIN(RADIANS(AK349-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M366" s="21"/>
+      <c r="N366" s="21"/>
+      <c r="O366" s="21"/>
+      <c r="P366" s="21"/>
+      <c r="Q366" s="21"/>
+      <c r="R366" s="21"/>
+      <c r="S366" s="21"/>
+      <c r="T366" s="21"/>
+      <c r="U366" s="21"/>
+      <c r="V366" s="21"/>
+      <c r="W366" s="21"/>
+      <c r="X366" s="21"/>
+      <c r="Y366" s="21"/>
+      <c r="Z366" s="21"/>
+      <c r="AA366" s="21"/>
+      <c r="AB366" s="21"/>
+      <c r="AC366" s="21"/>
+      <c r="AD366" s="21"/>
+      <c r="AE366" s="21"/>
+      <c r="AF366" s="21"/>
+      <c r="AG366" s="21"/>
+      <c r="AH366" s="21"/>
+      <c r="AI366" s="21"/>
+      <c r="AJ366" s="21"/>
+      <c r="AK366" s="22">
+        <f>I367*SIN(RADIANS(AK350-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M367" s="21"/>
+      <c r="N367" s="21"/>
+      <c r="O367" s="21"/>
+      <c r="P367" s="21"/>
+      <c r="Q367" s="21"/>
+      <c r="R367" s="21"/>
+      <c r="S367" s="21"/>
+      <c r="T367" s="21"/>
+      <c r="U367" s="21"/>
+      <c r="V367" s="21"/>
+      <c r="W367" s="21"/>
+      <c r="X367" s="21"/>
+      <c r="Y367" s="21"/>
+      <c r="Z367" s="21"/>
+      <c r="AA367" s="21"/>
+      <c r="AB367" s="21"/>
+      <c r="AC367" s="21"/>
+      <c r="AD367" s="21"/>
+      <c r="AE367" s="21"/>
+      <c r="AF367" s="21"/>
+      <c r="AG367" s="21"/>
+      <c r="AH367" s="21"/>
+      <c r="AI367" s="21"/>
+      <c r="AJ367" s="21"/>
+      <c r="AK367" s="22">
+        <f>I368*SIN(RADIANS(AK351-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="13:37" x14ac:dyDescent="0.45">
+      <c r="M368" s="21"/>
+      <c r="N368" s="21"/>
+      <c r="O368" s="21"/>
+      <c r="P368" s="21"/>
+      <c r="Q368" s="21"/>
+      <c r="R368" s="21"/>
+      <c r="S368" s="21"/>
+      <c r="T368" s="21"/>
+      <c r="U368" s="21"/>
+      <c r="V368" s="21"/>
+      <c r="W368" s="21"/>
+      <c r="X368" s="21"/>
+      <c r="Y368" s="21"/>
+      <c r="Z368" s="21"/>
+      <c r="AA368" s="21"/>
+      <c r="AB368" s="21"/>
+      <c r="AC368" s="21"/>
+      <c r="AD368" s="21"/>
+      <c r="AE368" s="21"/>
+      <c r="AF368" s="21"/>
+      <c r="AG368" s="21"/>
+      <c r="AH368" s="21"/>
+      <c r="AI368" s="21"/>
+      <c r="AJ368" s="21"/>
+      <c r="AK368" s="22">
+        <f>I369*SIN(RADIANS(AK352-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="11:37" x14ac:dyDescent="0.45">
+      <c r="M369" s="21"/>
+      <c r="N369" s="21"/>
+      <c r="O369" s="21"/>
+      <c r="P369" s="21"/>
+      <c r="Q369" s="21"/>
+      <c r="R369" s="21"/>
+      <c r="S369" s="21"/>
+      <c r="T369" s="21"/>
+      <c r="U369" s="21"/>
+      <c r="V369" s="21"/>
+      <c r="W369" s="21"/>
+      <c r="X369" s="21"/>
+      <c r="Y369" s="21"/>
+      <c r="Z369" s="21"/>
+      <c r="AA369" s="21"/>
+      <c r="AB369" s="21"/>
+      <c r="AC369" s="21"/>
+      <c r="AD369" s="21"/>
+      <c r="AE369" s="21"/>
+      <c r="AF369" s="21"/>
+      <c r="AG369" s="21"/>
+      <c r="AH369" s="21"/>
+      <c r="AI369" s="21"/>
+      <c r="AJ369" s="21"/>
+      <c r="AK369" s="22">
+        <f>I370*SIN(RADIANS(AK353-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="11:37" x14ac:dyDescent="0.45">
+      <c r="M370" s="21"/>
+      <c r="N370" s="21"/>
+      <c r="O370" s="21"/>
+      <c r="P370" s="21"/>
+      <c r="Q370" s="21"/>
+      <c r="R370" s="21"/>
+      <c r="S370" s="21"/>
+      <c r="T370" s="21"/>
+      <c r="U370" s="21"/>
+      <c r="V370" s="21"/>
+      <c r="W370" s="21"/>
+      <c r="X370" s="21"/>
+      <c r="Y370" s="21"/>
+      <c r="Z370" s="21"/>
+      <c r="AA370" s="21"/>
+      <c r="AB370" s="21"/>
+      <c r="AC370" s="21"/>
+      <c r="AD370" s="21"/>
+      <c r="AE370" s="21"/>
+      <c r="AF370" s="21"/>
+      <c r="AG370" s="21"/>
+      <c r="AH370" s="21"/>
+      <c r="AI370" s="21"/>
+      <c r="AJ370" s="21"/>
+      <c r="AK370" s="22">
+        <f>I371*SIN(RADIANS(AK354-90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="11:37" x14ac:dyDescent="0.45">
+      <c r="K371" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L371" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M371" s="21"/>
+      <c r="N371" s="21"/>
+      <c r="O371" s="21"/>
+      <c r="P371" s="21"/>
+      <c r="Q371" s="21"/>
+      <c r="R371" s="21"/>
+      <c r="S371" s="21"/>
+      <c r="T371" s="21"/>
+      <c r="U371" s="21"/>
+      <c r="V371" s="21"/>
+      <c r="W371" s="21"/>
+      <c r="X371" s="21"/>
+      <c r="Y371" s="21"/>
+      <c r="Z371" s="21"/>
+      <c r="AA371" s="21"/>
+      <c r="AB371" s="21"/>
+      <c r="AC371" s="21"/>
+      <c r="AD371" s="21"/>
+      <c r="AE371" s="21"/>
+      <c r="AF371" s="21"/>
+      <c r="AG371" s="21"/>
+      <c r="AH371" s="21"/>
+      <c r="AI371" s="21"/>
+      <c r="AJ371" s="21"/>
+      <c r="AK371" s="22">
+        <f>I372*SIN(RADIANS(AK355-90))</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Messprotokoll_Simon.xlsx
+++ b/Messprotokoll_Simon.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62D5E49-B66D-4933-B276-6D7F547AE73E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3AB27E-D4EA-4380-AC50-24A819598C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4950" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q189" sqref="Q189"/>
+    <sheetView tabSelected="1" topLeftCell="E190" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O171" sqref="O171:P230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2461,7 +2461,7 @@
         <v>13.2</v>
       </c>
       <c r="X86" s="21">
-        <f>$I$81*SIN(RADIANS(A86))</f>
+        <f t="shared" ref="X86:X97" si="3">$I$81*SIN(RADIANS(A86))</f>
         <v>4.6294317976277304</v>
       </c>
       <c r="Y86">
@@ -2514,7 +2514,7 @@
         <v>15.4</v>
       </c>
       <c r="X87" s="21">
-        <f>$I$81*SIN(RADIANS(A87))</f>
+        <f t="shared" si="3"/>
         <v>5.2331225402680959</v>
       </c>
       <c r="Y87">
@@ -2561,7 +2561,7 @@
         <v>15</v>
       </c>
       <c r="X88" s="21">
-        <f>$I$81*SIN(RADIANS(A88))</f>
+        <f t="shared" si="3"/>
         <v>5.7969860605312373</v>
       </c>
       <c r="Y88">
@@ -2607,7 +2607,7 @@
         <v>57</v>
       </c>
       <c r="X89" s="21">
-        <f>$I$81*SIN(RADIANS(A89))</f>
+        <f t="shared" si="3"/>
         <v>6.316731016557851</v>
       </c>
       <c r="Y89">
@@ -2617,7 +2617,7 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A90" s="11">
-        <f t="shared" ref="A90:A100" si="3">A89+5</f>
+        <f t="shared" ref="A90:A100" si="4">A89+5</f>
         <v>53</v>
       </c>
       <c r="B90" s="14">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="D90" s="11"/>
       <c r="G90" s="11">
-        <f t="shared" ref="G90:G100" si="4">G89+5</f>
+        <f t="shared" ref="G90:G100" si="5">G89+5</f>
         <v>53</v>
       </c>
       <c r="H90" s="11">
@@ -2653,7 +2653,7 @@
         <v>57</v>
       </c>
       <c r="X90" s="21">
-        <f>$I$81*SIN(RADIANS(A90))</f>
+        <f t="shared" si="3"/>
         <v>6.7884018354019888</v>
       </c>
       <c r="Y90">
@@ -2663,7 +2663,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A91" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="B91" s="14">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="D91" s="11"/>
       <c r="G91" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="H91" s="11">
@@ -2699,17 +2699,17 @@
         <v>57</v>
       </c>
       <c r="X91" s="21">
-        <f>$I$81*SIN(RADIANS(A91))</f>
+        <f t="shared" si="3"/>
         <v>7.2084088173296204</v>
       </c>
       <c r="Y91">
-        <f>H91+$H$81*SIN(RADIANS(A91))</f>
+        <f t="shared" ref="Y91:Y97" si="6">H91+$H$81*SIN(RADIANS(A91))</f>
         <v>193.87058115441371</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A92" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="B92" s="14">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="D92" s="11"/>
       <c r="G92" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="H92" s="11">
@@ -2745,17 +2745,17 @@
         <v>57</v>
       </c>
       <c r="X92" s="21">
-        <f>$I$81*SIN(RADIANS(A92))</f>
+        <f t="shared" si="3"/>
         <v>7.5735554556011264</v>
       </c>
       <c r="Y92">
-        <f>H92+$H$81*SIN(RADIANS(A92))</f>
+        <f t="shared" si="6"/>
         <v>200.52143532144092</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A93" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="B93" s="14">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="D93" s="11"/>
       <c r="G93" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="H93" s="11">
@@ -2791,11 +2791,11 @@
         <v>57</v>
       </c>
       <c r="X93" s="21">
-        <f>$I$81*SIN(RADIANS(A93))</f>
+        <f t="shared" si="3"/>
         <v>7.8810627638176936</v>
       </c>
       <c r="Y93">
-        <f>H93+$H$81*SIN(RADIANS(A93))</f>
+        <f t="shared" si="6"/>
         <v>211.58044800469324</v>
       </c>
     </row>
@@ -2837,17 +2837,17 @@
         <v>57</v>
       </c>
       <c r="X94" s="21">
-        <f>$I$81*SIN(RADIANS(A94))</f>
+        <f t="shared" si="3"/>
         <v>8.1285904256858004</v>
       </c>
       <c r="Y94">
-        <f>H94+$H$81*SIN(RADIANS(A94))</f>
+        <f t="shared" si="6"/>
         <v>216.28704631186781</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A95" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B95" s="14">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D95" s="11"/>
       <c r="G95" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="H95" s="11">
@@ -2883,17 +2883,17 @@
         <v>57</v>
       </c>
       <c r="X95" s="21">
-        <f>$I$81*SIN(RADIANS(A95))</f>
+        <f t="shared" si="3"/>
         <v>8.3142546062373466</v>
       </c>
       <c r="Y95">
-        <f>H95+$H$81*SIN(RADIANS(A95))</f>
+        <f t="shared" si="6"/>
         <v>217.59247216143723</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A96" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="B96" s="14">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="D96" s="11"/>
       <c r="G96" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="H96" s="11">
@@ -2929,17 +2929,17 @@
         <v>57</v>
       </c>
       <c r="X96" s="21">
-        <f>$I$81*SIN(RADIANS(A96))</f>
+        <f t="shared" si="3"/>
         <v>8.4366422889512371</v>
       </c>
       <c r="Y96">
-        <f>H96+$H$81*SIN(RADIANS(A96))</f>
+        <f t="shared" si="6"/>
         <v>222.96015336109082</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A97" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="B97" s="14">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="D97" s="11"/>
       <c r="G97" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="H97" s="11">
@@ -2990,11 +2990,11 @@
         <v>57</v>
       </c>
       <c r="X97" s="21">
-        <f>$I$81*SIN(RADIANS(A97))</f>
+        <f t="shared" si="3"/>
         <v>8.4948220296623145</v>
       </c>
       <c r="Y97">
-        <f>H97+$H$81*SIN(RADIANS(A97))</f>
+        <f t="shared" si="6"/>
         <v>222.16598194420109</v>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A99" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="B99" s="14">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="D99" s="11"/>
       <c r="G99" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="H99" s="11">
@@ -3114,7 +3114,7 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A100" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="B100" s="14">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="D100" s="11"/>
       <c r="G100" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="H100" s="11">
@@ -3228,7 +3228,7 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A102" s="11">
-        <f t="shared" ref="A102:A110" si="5">A101+10</f>
+        <f t="shared" ref="A102:A110" si="7">A101+10</f>
         <v>123</v>
       </c>
       <c r="B102" s="14">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="D102" s="11"/>
       <c r="G102" s="11">
-        <f t="shared" ref="G102:G110" si="6">G101+10</f>
+        <f t="shared" ref="G102:G110" si="8">G101+10</f>
         <v>123</v>
       </c>
       <c r="H102" s="11">
@@ -3342,7 +3342,7 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A104" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>143</v>
       </c>
       <c r="B104" s="14">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="D104" s="11"/>
       <c r="G104" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>143</v>
       </c>
       <c r="H104" s="19">
@@ -3402,7 +3402,7 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A105" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>153</v>
       </c>
       <c r="B105" s="14">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="D105" s="11"/>
       <c r="G105" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>153</v>
       </c>
       <c r="H105" s="11">
@@ -3462,7 +3462,7 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A106" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>163</v>
       </c>
       <c r="B106" s="14">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="D106" s="11"/>
       <c r="G106" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>163</v>
       </c>
       <c r="H106" s="11">
@@ -3522,7 +3522,7 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A107" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>173</v>
       </c>
       <c r="B107" s="14">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="D107" s="11"/>
       <c r="G107" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>173</v>
       </c>
       <c r="H107" s="11">
@@ -3582,7 +3582,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A108" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>183</v>
       </c>
       <c r="B108" s="14">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="D108" s="11"/>
       <c r="G108" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>183</v>
       </c>
       <c r="H108" s="11">
@@ -3711,7 +3711,7 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A110" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>203</v>
       </c>
       <c r="B110" s="14">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="D110" s="11"/>
       <c r="G110" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>203</v>
       </c>
       <c r="H110" s="11">
@@ -3881,11 +3881,11 @@
         <v>33</v>
       </c>
       <c r="H114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+H86)</f>
+        <f t="shared" ref="H114:H138" si="9">($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+H86)</f>
         <v>8.0498756286719964</v>
       </c>
       <c r="I114" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+J86)</f>
+        <f t="shared" ref="I114:I138" si="10">($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+J86)</f>
         <v>6.3055429029822347</v>
       </c>
       <c r="J114" s="21">
@@ -3940,11 +3940,11 @@
         <v>38</v>
       </c>
       <c r="H115" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+H87)</f>
+        <f t="shared" si="9"/>
         <v>8.1799187744185229</v>
       </c>
       <c r="I115" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+J87)</f>
+        <f t="shared" si="10"/>
         <v>6.8714873870992275</v>
       </c>
       <c r="J115" s="22">
@@ -3963,23 +3963,23 @@
       <c r="N115" s="21"/>
       <c r="O115" s="21"/>
       <c r="Q115" s="21">
-        <f t="shared" ref="Q115:Q138" si="7">SQRT(H115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
+        <f t="shared" ref="Q115:Q138" si="11">SQRT(H115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
         <v>12.985022265355104</v>
       </c>
       <c r="R115" s="22">
-        <f t="shared" ref="R115:R138" si="8">SQRT(I115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
+        <f t="shared" ref="R115:R138" si="12">SQRT(I115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
         <v>11.151378662235334</v>
       </c>
       <c r="S115" s="22">
-        <f t="shared" ref="S115:S118" si="9">SQRT(J115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
+        <f t="shared" ref="S115:S118" si="13">SQRT(J115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
         <v>9.4742818556049819</v>
       </c>
       <c r="T115" s="22" t="e">
-        <f t="shared" ref="T115:T138" si="10">SQRT(K115^2-$I$81^2*SIN(RADIANS(G115)))+$I$81*COS(RADIANS(G115))</f>
+        <f t="shared" ref="T115:T116" si="14">SQRT(K115^2-$I$81^2*SIN(RADIANS(G115)))+$I$81*COS(RADIANS(G115))</f>
         <v>#NUM!</v>
       </c>
       <c r="U115" s="21">
-        <f t="shared" ref="U115:U138" si="11">SQRT(L115^2-$I$81^2*SIN(RADIANS(G115)))+$I$81*COS(RADIANS(G115))</f>
+        <f t="shared" ref="U115" si="15">SQRT(L115^2-$I$81^2*SIN(RADIANS(G115)))+$I$81*COS(RADIANS(G115))</f>
         <v>15.866549239020737</v>
       </c>
       <c r="V115" s="21"/>
@@ -4005,11 +4005,11 @@
         <v>43</v>
       </c>
       <c r="H116" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A88)))/($H$81*SIN(RADIANS(A88))+H88)</f>
+        <f t="shared" si="9"/>
         <v>8.188903863880773</v>
       </c>
       <c r="I116" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A88)))/($H$81*SIN(RADIANS(A88))+J88)</f>
+        <f t="shared" si="10"/>
         <v>7.0679421599047965</v>
       </c>
       <c r="J116" s="21">
@@ -4025,19 +4025,19 @@
       <c r="N116" s="21"/>
       <c r="O116" s="21"/>
       <c r="Q116" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12.000371875914929</v>
       </c>
       <c r="R116" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10.260113639264324</v>
       </c>
       <c r="S116" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7.8929887622287147</v>
       </c>
       <c r="T116" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17.16838220902595</v>
       </c>
       <c r="U116" s="21"/>
@@ -4065,11 +4065,11 @@
         <v>48</v>
       </c>
       <c r="H117" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A89)))/($H$81*SIN(RADIANS(A89))+H89)</f>
+        <f t="shared" si="9"/>
         <v>8.311892757828744</v>
       </c>
       <c r="I117" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A89)))/($H$81*SIN(RADIANS(A89))+J89)</f>
+        <f t="shared" si="10"/>
         <v>6.4131657430483298</v>
       </c>
       <c r="J117" s="21">
@@ -4082,15 +4082,15 @@
       <c r="N117" s="21"/>
       <c r="O117" s="21"/>
       <c r="Q117" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>11.090060568640137</v>
       </c>
       <c r="R117" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.7955831285693753</v>
       </c>
       <c r="S117" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>15.65185586563498</v>
       </c>
       <c r="T117" s="21"/>
@@ -4116,15 +4116,15 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11">
-        <f t="shared" ref="G118:G128" si="12">G117+5</f>
+        <f t="shared" ref="G118:G128" si="16">G117+5</f>
         <v>53</v>
       </c>
       <c r="H118" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A90)))/($H$81*SIN(RADIANS(A90))+H90)</f>
+        <f t="shared" si="9"/>
         <v>8.1431294055802379</v>
       </c>
       <c r="I118" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A90)))/($H$81*SIN(RADIANS(A90))+J90)</f>
+        <f t="shared" si="10"/>
         <v>6.7091179860332026</v>
       </c>
       <c r="J118" s="21">
@@ -4137,7 +4137,7 @@
       <c r="N118" s="21"/>
       <c r="O118" s="21"/>
       <c r="Q118" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.6130000460866896</v>
       </c>
       <c r="R118" s="21" t="e">
@@ -4145,7 +4145,7 @@
         <v>#NUM!</v>
       </c>
       <c r="S118" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14.866194362137783</v>
       </c>
       <c r="T118" s="21"/>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A119" s="11">
-        <f t="shared" ref="A119:A127" si="13">A118+5</f>
+        <f t="shared" ref="A119:A127" si="17">A118+5</f>
         <v>53</v>
       </c>
       <c r="B119" s="11">
@@ -4171,15 +4171,15 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>58</v>
       </c>
       <c r="H119" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A91)))/($H$81*SIN(RADIANS(A91))+H91)</f>
+        <f t="shared" si="9"/>
         <v>8.1799411255151782</v>
       </c>
       <c r="I119" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A91)))/($H$81*SIN(RADIANS(A91))+J91)</f>
+        <f t="shared" si="10"/>
         <v>13.02326000893062</v>
       </c>
       <c r="J119" s="21"/>
@@ -4189,11 +4189,11 @@
       <c r="N119" s="21"/>
       <c r="O119" s="21"/>
       <c r="Q119" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.3708728285696399</v>
       </c>
       <c r="R119" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>15.350702250109141</v>
       </c>
       <c r="S119" s="21"/>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A120" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>58</v>
       </c>
       <c r="B120" s="11">
@@ -4220,15 +4220,15 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>63</v>
       </c>
       <c r="H120" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A92)))/($H$81*SIN(RADIANS(A92))+H92)</f>
+        <f t="shared" si="9"/>
         <v>8.3092473259096504</v>
       </c>
       <c r="I120" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A92)))/($H$81*SIN(RADIANS(A92))+J92)</f>
+        <f t="shared" si="10"/>
         <v>12.984441734605891</v>
       </c>
       <c r="J120" s="21"/>
@@ -4238,11 +4238,11 @@
       <c r="N120" s="21"/>
       <c r="O120" s="21"/>
       <c r="Q120" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.277230070995631</v>
       </c>
       <c r="R120" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14.405813810656758</v>
       </c>
       <c r="S120" s="21"/>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A121" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>63</v>
       </c>
       <c r="B121" s="11">
@@ -4269,15 +4269,15 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>68</v>
       </c>
       <c r="H121" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A93)))/($H$81*SIN(RADIANS(A93))+H93)</f>
+        <f t="shared" si="9"/>
         <v>8.1946787824243241</v>
       </c>
       <c r="I121" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A93)))/($H$81*SIN(RADIANS(A93))+J93)</f>
+        <f t="shared" si="10"/>
         <v>12.807121217236521</v>
       </c>
       <c r="J121" s="21"/>
@@ -4287,11 +4287,11 @@
       <c r="N121" s="21"/>
       <c r="O121" s="21"/>
       <c r="Q121" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.4295090363020861</v>
       </c>
       <c r="R121" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>13.279263947656494</v>
       </c>
       <c r="S121" s="21"/>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A122" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>68</v>
       </c>
       <c r="B122" s="11">
@@ -4322,11 +4322,11 @@
         <v>73</v>
       </c>
       <c r="H122" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A94)))/($H$81*SIN(RADIANS(A94))+H94)</f>
+        <f t="shared" si="9"/>
         <v>8.2681322073829246</v>
       </c>
       <c r="I122" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A94)))/($H$81*SIN(RADIANS(A94))+J94)</f>
+        <f t="shared" si="10"/>
         <v>12.959838922916864</v>
       </c>
       <c r="J122" s="21"/>
@@ -4336,11 +4336,11 @@
       <c r="N122" s="21"/>
       <c r="O122" s="21"/>
       <c r="Q122" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.9977823414224405</v>
       </c>
       <c r="R122" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12.578892327869852</v>
       </c>
       <c r="S122" s="21"/>
@@ -4367,19 +4367,19 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>78</v>
       </c>
       <c r="H123" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A95)))/($H$81*SIN(RADIANS(A95))+H95)</f>
+        <f t="shared" si="9"/>
         <v>8.406246756620952</v>
       </c>
       <c r="I123" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A95)))/($H$81*SIN(RADIANS(A95))+J95)</f>
+        <f t="shared" si="10"/>
         <v>9.9090498759479573</v>
       </c>
       <c r="J123" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A95)))/($H$81*SIN(RADIANS(A95))+L95)</f>
+        <f t="shared" ref="J123:J138" si="18">($I$81*$H$81*SIN(RADIANS(A95)))/($H$81*SIN(RADIANS(A95))+L95)</f>
         <v>12.572031983500993</v>
       </c>
       <c r="K123" s="21"/>
@@ -4388,11 +4388,11 @@
       <c r="N123" s="21"/>
       <c r="O123" s="21"/>
       <c r="Q123" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.0074730920358883</v>
       </c>
       <c r="R123" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7.1582084505088019</v>
       </c>
       <c r="S123" s="21">
@@ -4421,19 +4421,19 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>83</v>
       </c>
       <c r="H124" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A96)))/($H$81*SIN(RADIANS(A96))+H96)</f>
+        <f t="shared" si="9"/>
         <v>8.3246323416513075</v>
       </c>
       <c r="I124" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A96)))/($H$81*SIN(RADIANS(A96))+J96)</f>
+        <f t="shared" si="10"/>
         <v>10.330956914184853</v>
       </c>
       <c r="J124" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A96)))/($H$81*SIN(RADIANS(A96))+L96)</f>
+        <f t="shared" si="18"/>
         <v>12.830494510373555</v>
       </c>
       <c r="K124" s="21"/>
@@ -4442,15 +4442,15 @@
       <c r="N124" s="21"/>
       <c r="O124" s="21"/>
       <c r="Q124" s="21" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="R124" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.9984172093212074</v>
       </c>
       <c r="S124" s="21">
-        <f t="shared" ref="S124:S138" si="14">SQRT(J124^2-$I$81^2*SIN(RADIANS(G124))^2)+$I$81*COS(RADIANS(G124))</f>
+        <f t="shared" ref="S124:S138" si="19">SQRT(J124^2-$I$81^2*SIN(RADIANS(G124))^2)+$I$81*COS(RADIANS(G124))</f>
         <v>10.702567042047027</v>
       </c>
       <c r="T124" s="21"/>
@@ -4476,23 +4476,23 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>88</v>
       </c>
       <c r="H125" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A97)))/($H$81*SIN(RADIANS(A97))+H97)</f>
+        <f t="shared" si="9"/>
         <v>8.4120027295406992</v>
       </c>
       <c r="I125" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A97)))/($H$81*SIN(RADIANS(A97))+J97)</f>
+        <f t="shared" si="10"/>
         <v>10.693504684008785</v>
       </c>
       <c r="J125" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A97)))/($H$81*SIN(RADIANS(A97))+L97)</f>
+        <f t="shared" si="18"/>
         <v>12.812177463286915</v>
       </c>
       <c r="K125" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A97)))/($H$81*SIN(RADIANS(A97))+N97)</f>
+        <f t="shared" ref="K125:K136" si="20">($I$81*$H$81*SIN(RADIANS(A97)))/($H$81*SIN(RADIANS(A97))+N97)</f>
         <v>4.3842598886306297</v>
       </c>
       <c r="L125" s="21"/>
@@ -4500,15 +4500,15 @@
       <c r="N125" s="21"/>
       <c r="O125" s="21"/>
       <c r="Q125" s="21" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="R125" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.7919548840729105</v>
       </c>
       <c r="S125" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>9.8877817357665467</v>
       </c>
       <c r="T125" s="22" t="e">
@@ -4522,7 +4522,7 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A126" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>83</v>
       </c>
       <c r="B126" s="11">
@@ -4541,19 +4541,19 @@
         <v>93</v>
       </c>
       <c r="H126" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+H98)</f>
+        <f t="shared" si="9"/>
         <v>8.5</v>
       </c>
       <c r="I126" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+J98)</f>
+        <f t="shared" si="10"/>
         <v>10.467785629543718</v>
       </c>
       <c r="J126" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+L98)</f>
+        <f t="shared" si="18"/>
         <v>9.1902117959766159</v>
       </c>
       <c r="K126" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+N98)</f>
+        <f t="shared" si="20"/>
         <v>13.022711260204492</v>
       </c>
       <c r="L126" s="22">
@@ -4567,19 +4567,19 @@
       <c r="N126" s="21"/>
       <c r="O126" s="21"/>
       <c r="Q126" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1934897514720433E-14</v>
       </c>
       <c r="R126" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.680700062311411</v>
       </c>
       <c r="S126" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.0776277834968933</v>
       </c>
       <c r="T126" s="21">
-        <f t="shared" ref="T126:T136" si="15">SQRT(K126^2-$I$81^2*SIN(RADIANS(G126))^2)+$I$81*COS(RADIANS(G126))</f>
+        <f t="shared" ref="T126:T136" si="21">SQRT(K126^2-$I$81^2*SIN(RADIANS(G126))^2)+$I$81*COS(RADIANS(G126))</f>
         <v>9.4313230406548776</v>
       </c>
       <c r="U126" s="22">
@@ -4595,7 +4595,7 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A127" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>88</v>
       </c>
       <c r="B127" s="11">
@@ -4610,23 +4610,23 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>98</v>
       </c>
       <c r="H127" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A99)))/($H$81*SIN(RADIANS(A99))+H99)</f>
+        <f t="shared" si="9"/>
         <v>8.4766546556527373</v>
       </c>
       <c r="I127" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A99)))/($H$81*SIN(RADIANS(A99))+J99)</f>
+        <f t="shared" si="10"/>
         <v>10.160274890690813</v>
       </c>
       <c r="J127" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A99)))/($H$81*SIN(RADIANS(A99))+L99)</f>
+        <f t="shared" si="18"/>
         <v>11.911832604581679</v>
       </c>
       <c r="K127" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A99)))/($H$81*SIN(RADIANS(A99))+N99)</f>
+        <f t="shared" si="20"/>
         <v>9.5179432733681129</v>
       </c>
       <c r="L127" s="22">
@@ -4641,15 +4641,15 @@
         <v>-0.18142486127313817</v>
       </c>
       <c r="R127" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.5074246815391801</v>
       </c>
       <c r="S127" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>7.2456214801371512</v>
       </c>
       <c r="T127" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>3.2600755006156978</v>
       </c>
       <c r="U127" s="22">
@@ -4676,23 +4676,23 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>103</v>
       </c>
       <c r="H128" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A100)))/($H$81*SIN(RADIANS(A100))+H100)</f>
+        <f t="shared" si="9"/>
         <v>8.6328997064636805</v>
       </c>
       <c r="I128" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A100)))/($H$81*SIN(RADIANS(A100))+J100)</f>
+        <f t="shared" si="10"/>
         <v>11.13998695519188</v>
       </c>
       <c r="J128" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A100)))/($H$81*SIN(RADIANS(A100))+L100)</f>
+        <f t="shared" si="18"/>
         <v>15.753499409636003</v>
       </c>
       <c r="K128" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A100)))/($H$81*SIN(RADIANS(A100))+N100)</f>
+        <f t="shared" si="20"/>
         <v>10.227085526855307</v>
       </c>
       <c r="L128" s="21"/>
@@ -4700,19 +4700,19 @@
       <c r="N128" s="21"/>
       <c r="O128" s="21"/>
       <c r="Q128" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.52369567082377544</v>
       </c>
       <c r="R128" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.5381089509679162</v>
       </c>
       <c r="S128" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>11.488617837865265</v>
       </c>
       <c r="T128" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>4.0878613254156813</v>
       </c>
       <c r="U128" s="21"/>
@@ -4732,19 +4732,19 @@
         <v>113</v>
       </c>
       <c r="H129" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A101)))/($H$81*SIN(RADIANS(A101))+H101)</f>
+        <f t="shared" si="9"/>
         <v>8.9137515313181943</v>
       </c>
       <c r="I129" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A101)))/($H$81*SIN(RADIANS(A101))+J101)</f>
+        <f t="shared" si="10"/>
         <v>11.33126177929849</v>
       </c>
       <c r="J129" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A101)))/($H$81*SIN(RADIANS(A101))+L101)</f>
+        <f t="shared" si="18"/>
         <v>12.517858409521965</v>
       </c>
       <c r="K129" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A101)))/($H$81*SIN(RADIANS(A101))+N101)</f>
+        <f t="shared" si="20"/>
         <v>16.808184052897602</v>
       </c>
       <c r="L129" s="22">
@@ -4758,19 +4758,19 @@
       <c r="N129" s="21"/>
       <c r="O129" s="21"/>
       <c r="Q129" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.94908197005394168</v>
       </c>
       <c r="R129" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.8750016005827677</v>
       </c>
       <c r="S129" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6.4500312612627573</v>
       </c>
       <c r="T129" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>11.554790164604665</v>
       </c>
       <c r="U129" s="22">
@@ -4802,23 +4802,23 @@
       </c>
       <c r="F130" s="11"/>
       <c r="G130" s="11">
-        <f t="shared" ref="G130:G138" si="16">G129+10</f>
+        <f t="shared" ref="G130:G138" si="22">G129+10</f>
         <v>123</v>
       </c>
       <c r="H130" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A102)))/($H$81*SIN(RADIANS(A102))+H102)</f>
+        <f t="shared" si="9"/>
         <v>8.8551514822335768</v>
       </c>
       <c r="I130" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A102)))/($H$81*SIN(RADIANS(A102))+J102)</f>
+        <f t="shared" si="10"/>
         <v>8.6547948961173127</v>
       </c>
       <c r="J130" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A102)))/($H$81*SIN(RADIANS(A102))+L102)</f>
+        <f t="shared" si="18"/>
         <v>10.574743005170509</v>
       </c>
       <c r="K130" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A102)))/($H$81*SIN(RADIANS(A102))+N102)</f>
+        <f t="shared" si="20"/>
         <v>12.290136986021105</v>
       </c>
       <c r="L130" s="22">
@@ -4832,23 +4832,23 @@
       <c r="N130" s="21"/>
       <c r="O130" s="21"/>
       <c r="Q130" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.62369551305019044</v>
       </c>
       <c r="R130" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.27843061514883516</v>
       </c>
       <c r="S130" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.1812550091959402</v>
       </c>
       <c r="T130" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>5.3820169438906857</v>
       </c>
       <c r="U130" s="22">
-        <f t="shared" ref="U130:U132" si="17">SQRT(L130^2-$I$81^2*SIN(RADIANS(G130))^2)+$I$81*COS(RADIANS(G130))</f>
+        <f t="shared" ref="U130:U132" si="23">SQRT(L130^2-$I$81^2*SIN(RADIANS(G130))^2)+$I$81*COS(RADIANS(G130))</f>
         <v>11.592906828493057</v>
       </c>
       <c r="V130" s="22" t="e">
@@ -4880,19 +4880,19 @@
         <v>133</v>
       </c>
       <c r="H131" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A103)))/($H$81*SIN(RADIANS(A103))+H103)</f>
+        <f t="shared" si="9"/>
         <v>8.6834946098657344</v>
       </c>
       <c r="I131" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A103)))/($H$81*SIN(RADIANS(A103))+J103)</f>
+        <f t="shared" si="10"/>
         <v>9.1604249394083208</v>
       </c>
       <c r="J131" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A103)))/($H$81*SIN(RADIANS(A103))+L103)</f>
+        <f t="shared" si="18"/>
         <v>12.421967048345994</v>
       </c>
       <c r="K131" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A103)))/($H$81*SIN(RADIANS(A103))+N103)</f>
+        <f t="shared" si="20"/>
         <v>20.474194181482972</v>
       </c>
       <c r="L131" s="22">
@@ -4903,23 +4903,23 @@
       <c r="N131" s="21"/>
       <c r="O131" s="21"/>
       <c r="Q131" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.26586195220673137</v>
       </c>
       <c r="R131" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.93119589721391627</v>
       </c>
       <c r="S131" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.9575624068004887</v>
       </c>
       <c r="T131" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>13.710645132595843</v>
       </c>
       <c r="U131" s="22" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>#NUM!</v>
       </c>
       <c r="V131" s="21"/>
@@ -4942,23 +4942,23 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>143</v>
       </c>
       <c r="H132" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A104)))/($H$81*SIN(RADIANS(A104))+H104)</f>
+        <f t="shared" si="9"/>
         <v>8.3610691192869329</v>
       </c>
       <c r="I132" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A104)))/($H$81*SIN(RADIANS(A104))+J104)</f>
+        <f t="shared" si="10"/>
         <v>8.9246653061276966</v>
       </c>
       <c r="J132" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A104)))/($H$81*SIN(RADIANS(A104))+L104)</f>
+        <f t="shared" si="18"/>
         <v>6.5544475714785966</v>
       </c>
       <c r="K132" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A104)))/($H$81*SIN(RADIANS(A104))+N104)</f>
+        <f t="shared" si="20"/>
         <v>19.370181648200006</v>
       </c>
       <c r="L132" s="22">
@@ -4979,19 +4979,19 @@
         <v>-0.17478888207740972</v>
       </c>
       <c r="R132" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.52474046495621351</v>
       </c>
       <c r="S132" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-2.6904532698205745</v>
       </c>
       <c r="T132" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>11.894112357370711</v>
       </c>
       <c r="U132" s="22" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>#NUM!</v>
       </c>
       <c r="V132" s="22" t="e">
@@ -5021,23 +5021,23 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>153</v>
       </c>
       <c r="H133" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A105)))/($H$81*SIN(RADIANS(A105))+H105)</f>
+        <f t="shared" si="9"/>
         <v>9.200059202035602</v>
       </c>
       <c r="I133" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A105)))/($H$81*SIN(RADIANS(A105))+J105)</f>
+        <f t="shared" si="10"/>
         <v>11.203294405386712</v>
       </c>
       <c r="J133" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A105)))/($H$81*SIN(RADIANS(A105))+L105)</f>
+        <f t="shared" si="18"/>
         <v>13.374136534729741</v>
       </c>
       <c r="K133" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A105)))/($H$81*SIN(RADIANS(A105))+N105)</f>
+        <f t="shared" si="20"/>
         <v>16.620927431551653</v>
       </c>
       <c r="L133" s="21"/>
@@ -5045,19 +5045,19 @@
       <c r="N133" s="21"/>
       <c r="O133" s="21"/>
       <c r="Q133" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.77808100440032302</v>
       </c>
       <c r="R133" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.9441699530998813</v>
       </c>
       <c r="S133" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5.2317664961757382</v>
       </c>
       <c r="T133" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>8.5931996586440249</v>
       </c>
       <c r="U133" s="21"/>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A134" s="11">
-        <f t="shared" ref="A134:A142" si="18">A133+5</f>
+        <f t="shared" ref="A134:A142" si="24">A133+5</f>
         <v>53</v>
       </c>
       <c r="B134" s="11">
@@ -5082,23 +5082,23 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="G134" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>163</v>
       </c>
       <c r="H134" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A106)))/($H$81*SIN(RADIANS(A106))+H106)</f>
+        <f t="shared" si="9"/>
         <v>11.828517779124256</v>
       </c>
       <c r="I134" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A106)))/($H$81*SIN(RADIANS(A106))+J106)</f>
+        <f t="shared" si="10"/>
         <v>13.660940507978788</v>
       </c>
       <c r="J134" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A106)))/($H$81*SIN(RADIANS(A106))+L106)</f>
+        <f t="shared" si="18"/>
         <v>7.0892440890399948</v>
       </c>
       <c r="K134" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A106)))/($H$81*SIN(RADIANS(A106))+N106)</f>
+        <f t="shared" si="20"/>
         <v>59.937357092653343</v>
       </c>
       <c r="L134" s="22">
@@ -5115,19 +5115,19 @@
       </c>
       <c r="O134" s="21"/>
       <c r="Q134" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.4359162719476739</v>
       </c>
       <c r="R134" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.3044017157206174</v>
       </c>
       <c r="S134" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-1.4892106306643278</v>
       </c>
       <c r="T134" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>51.757223900920735</v>
       </c>
       <c r="U134" s="22">
@@ -5146,7 +5146,7 @@
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A135" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>58</v>
       </c>
       <c r="B135" s="11">
@@ -5161,23 +5161,23 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>173</v>
       </c>
       <c r="H135" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A107)))/($H$81*SIN(RADIANS(A107))+H107)</f>
+        <f t="shared" si="9"/>
         <v>10.693676477306523</v>
       </c>
       <c r="I135" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A107)))/($H$81*SIN(RADIANS(A107))+J107)</f>
+        <f t="shared" si="10"/>
         <v>8.9682964199463271</v>
       </c>
       <c r="J135" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A107)))/($H$81*SIN(RADIANS(A107))+L107)</f>
+        <f t="shared" si="18"/>
         <v>15.081187094391334</v>
       </c>
       <c r="K135" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A107)))/($H$81*SIN(RADIANS(A107))+N107)</f>
+        <f t="shared" si="20"/>
         <v>-11.458524832002915</v>
       </c>
       <c r="L135" s="22">
@@ -5194,19 +5194,19 @@
       </c>
       <c r="O135" s="21"/>
       <c r="Q135" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.2067429673015511</v>
       </c>
       <c r="R135" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.47162767708271147</v>
       </c>
       <c r="S135" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6.6089264037820517</v>
       </c>
       <c r="T135" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2.9749625253309233</v>
       </c>
       <c r="U135" s="22">
@@ -5225,7 +5225,7 @@
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A136" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>63</v>
       </c>
       <c r="B136" s="11">
@@ -5240,23 +5240,23 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
       <c r="G136" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>183</v>
       </c>
       <c r="H136" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A108)))/($H$81*SIN(RADIANS(A108))+H108)</f>
+        <f t="shared" si="9"/>
         <v>7.5202790987393024</v>
       </c>
       <c r="I136" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A108)))/($H$81*SIN(RADIANS(A108))+J108)</f>
+        <f t="shared" si="10"/>
         <v>-2.4113739233029396</v>
       </c>
       <c r="J136" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A108)))/($H$81*SIN(RADIANS(A108))+L108)</f>
+        <f t="shared" si="18"/>
         <v>-1.2930809169452722</v>
       </c>
       <c r="K136" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A108)))/($H$81*SIN(RADIANS(A108))+N108)</f>
+        <f t="shared" si="20"/>
         <v>1.2401899451080107</v>
       </c>
       <c r="L136" s="21"/>
@@ -5264,19 +5264,19 @@
       <c r="N136" s="21"/>
       <c r="O136" s="21"/>
       <c r="Q136" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.98124100272007819</v>
       </c>
       <c r="R136" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-6.1183663053439563</v>
       </c>
       <c r="S136" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-7.2742004254548451</v>
       </c>
       <c r="T136" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-7.3306919547805904</v>
       </c>
       <c r="U136" s="21"/>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A137" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>68</v>
       </c>
       <c r="B137" s="11">
@@ -5305,15 +5305,15 @@
         <v>193</v>
       </c>
       <c r="H137" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A109)))/($H$81*SIN(RADIANS(A109))+H109)</f>
+        <f t="shared" si="9"/>
         <v>9.1468905597007879</v>
       </c>
       <c r="I137" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A109)))/($H$81*SIN(RADIANS(A109))+J109)</f>
+        <f t="shared" si="10"/>
         <v>-7.9503376566076742</v>
       </c>
       <c r="J137" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A109)))/($H$81*SIN(RADIANS(A109))+L109)</f>
+        <f t="shared" si="18"/>
         <v>3.7595974542909052</v>
       </c>
       <c r="K137" s="21"/>
@@ -5322,15 +5322,15 @@
       <c r="N137" s="21"/>
       <c r="O137" s="21"/>
       <c r="Q137" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.66265974814004736</v>
       </c>
       <c r="R137" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-0.56516403089415146</v>
       </c>
       <c r="S137" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-5.0450931969322772</v>
       </c>
       <c r="T137" s="21"/>
@@ -5356,19 +5356,19 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>203</v>
       </c>
       <c r="H138" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+H110)</f>
+        <f t="shared" si="9"/>
         <v>9.1837533935912816</v>
       </c>
       <c r="I138" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+J110)</f>
+        <f t="shared" si="10"/>
         <v>10.863187561469877</v>
       </c>
       <c r="J138" s="21">
-        <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+L110)</f>
+        <f t="shared" si="18"/>
         <v>13.318554731606794</v>
       </c>
       <c r="K138" s="22">
@@ -5392,15 +5392,15 @@
         <v>2.5758479350859909</v>
       </c>
       <c r="Q138" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.73788487250020474</v>
       </c>
       <c r="R138" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.5187439688614717</v>
       </c>
       <c r="S138" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5.0735160698329285</v>
       </c>
       <c r="T138" s="22">
@@ -5461,7 +5461,7 @@
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A141" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>83</v>
       </c>
       <c r="B141" s="11">
@@ -5529,7 +5529,7 @@
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A142" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>88</v>
       </c>
       <c r="B142" s="11">
@@ -5606,46 +5606,46 @@
         <v>38</v>
       </c>
       <c r="H143" s="21">
-        <f t="shared" ref="H143:H166" si="19">Q115*COS(RADIANS(G143-90))</f>
+        <f t="shared" ref="H143:H166" si="25">Q115*COS(RADIANS(G143-90))</f>
         <v>7.9943779650250448</v>
       </c>
       <c r="I143" s="22">
-        <f t="shared" ref="H143:I168" si="20">R115*COS(RADIANS(G143-90))</f>
+        <f t="shared" ref="I143:I166" si="26">R115*COS(RADIANS(G143-90))</f>
         <v>6.8654742391068719</v>
       </c>
       <c r="J143" s="22">
-        <f t="shared" ref="J143:J166" si="21">S115*COS(RADIANS(G143-90))</f>
+        <f t="shared" ref="J143:J166" si="27">S115*COS(RADIANS(G143-90))</f>
         <v>5.832950344872879</v>
       </c>
       <c r="K143" s="22" t="e">
-        <f t="shared" ref="K143:K166" si="22">T115*COS(RADIANS(G143-90))</f>
+        <f t="shared" ref="K143:K166" si="28">T115*COS(RADIANS(G143-90))</f>
         <v>#NUM!</v>
       </c>
       <c r="L143" s="21">
-        <f t="shared" ref="L143:L166" si="23">U115*COS(RADIANS(G143-90))</f>
+        <f t="shared" ref="L143:L166" si="29">U115*COS(RADIANS(G143-90))</f>
         <v>9.7684231128227079</v>
       </c>
       <c r="M143" s="21"/>
       <c r="N143" s="21"/>
       <c r="O143" s="21"/>
       <c r="P143" s="21">
-        <f t="shared" ref="P143:P166" si="24">Q115*SIN(RADIANS(G143-90))</f>
+        <f t="shared" ref="P143:P166" si="30">Q115*SIN(RADIANS(G143-90))</f>
         <v>-10.23233718092254</v>
       </c>
       <c r="Q143" s="22">
-        <f t="shared" ref="Q143:Q166" si="25">R115*SIN(RADIANS(G143-90))</f>
+        <f t="shared" ref="Q143:Q166" si="31">R115*SIN(RADIANS(G143-90))</f>
         <v>-8.7874063033819851</v>
       </c>
       <c r="R143" s="22">
-        <f t="shared" ref="R143:R166" si="26">S115*SIN(RADIANS(G143-90))</f>
+        <f t="shared" ref="R143:R166" si="32">S115*SIN(RADIANS(G143-90))</f>
         <v>-7.4658359849177742</v>
       </c>
       <c r="S143" s="22" t="e">
-        <f t="shared" ref="S143:S166" si="27">T115*SIN(RADIANS(G143-90))</f>
+        <f t="shared" ref="S143:S166" si="33">T115*SIN(RADIANS(G143-90))</f>
         <v>#NUM!</v>
       </c>
       <c r="T143" s="21">
-        <f t="shared" ref="T143:T166" si="28">U115*SIN(RADIANS(G143-90))</f>
+        <f t="shared" ref="T143:T166" si="34">U115*SIN(RADIANS(G143-90))</f>
         <v>-12.503011422978892</v>
       </c>
       <c r="U143" s="21"/>
@@ -5663,19 +5663,19 @@
         <v>43</v>
       </c>
       <c r="H144" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>8.1842339395141099</v>
       </c>
       <c r="I144" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>6.9973806760331421</v>
       </c>
       <c r="J144" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>5.3830053918317136</v>
       </c>
       <c r="K144" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>11.708808511481873</v>
       </c>
       <c r="L144" s="21"/>
@@ -5683,19 +5683,19 @@
       <c r="N144" s="21"/>
       <c r="O144" s="21"/>
       <c r="P144" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-8.7765163922569727</v>
       </c>
       <c r="Q144" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-7.5037720891093009</v>
       </c>
       <c r="R144" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-5.7725665480944848</v>
       </c>
       <c r="S144" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-12.55615987938384</v>
       </c>
       <c r="T144" s="21"/>
@@ -5709,15 +5709,15 @@
         <v>48</v>
       </c>
       <c r="H145" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>8.2415211258158063</v>
       </c>
       <c r="I145" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>5.050102438097813</v>
       </c>
       <c r="J145" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>11.631595695664636</v>
       </c>
       <c r="K145" s="21"/>
@@ -5726,15 +5726,15 @@
       <c r="N145" s="21"/>
       <c r="O145" s="21"/>
       <c r="P145" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-7.4206989528506391</v>
       </c>
       <c r="Q145" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-4.5471326593816528</v>
       </c>
       <c r="R145" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-10.473135806013786</v>
       </c>
       <c r="S145" s="21"/>
@@ -5745,19 +5745,19 @@
     </row>
     <row r="146" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G146" s="11">
-        <f t="shared" ref="G146:G156" si="29">G145+5</f>
+        <f t="shared" ref="G146:G156" si="35">G145+5</f>
         <v>53</v>
       </c>
       <c r="H146" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>7.6772831948910927</v>
       </c>
       <c r="I146" s="21" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#NUM!</v>
       </c>
       <c r="J146" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>11.872670716868097</v>
       </c>
       <c r="K146" s="21"/>
@@ -5766,15 +5766,15 @@
       <c r="N146" s="21"/>
       <c r="O146" s="21"/>
       <c r="P146" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-5.7852478452963023</v>
       </c>
       <c r="Q146" s="21" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#NUM!</v>
       </c>
       <c r="R146" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-8.946699104232799</v>
       </c>
       <c r="S146" s="21"/>
@@ -5785,15 +5785,15 @@
     </row>
     <row r="147" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G147" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>58</v>
       </c>
       <c r="H147" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>7.0989027654360397</v>
       </c>
       <c r="I147" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>13.01813381786922</v>
       </c>
       <c r="J147" s="21"/>
@@ -5803,11 +5803,11 @@
       <c r="N147" s="21"/>
       <c r="O147" s="21"/>
       <c r="P147" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-4.4358867703053502</v>
       </c>
       <c r="Q147" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-8.1346328418408387</v>
       </c>
       <c r="R147" s="21"/>
@@ -5819,15 +5819,15 @@
     </row>
     <row r="148" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G148" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>63</v>
       </c>
       <c r="H148" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>6.4840594712768871</v>
       </c>
       <c r="I148" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>12.835674091538065</v>
       </c>
       <c r="J148" s="21"/>
@@ -5837,11 +5837,11 @@
       <c r="N148" s="21"/>
       <c r="O148" s="21"/>
       <c r="P148" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-3.3037933166509639</v>
       </c>
       <c r="Q148" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-6.5401026110549259</v>
       </c>
       <c r="R148" s="21"/>
@@ -5853,15 +5853,15 @@
     </row>
     <row r="149" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G149" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>68</v>
       </c>
       <c r="H149" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>5.0341531166837719</v>
       </c>
       <c r="I149" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>12.312319132797922</v>
       </c>
       <c r="J149" s="21"/>
@@ -5871,11 +5871,11 @@
       <c r="N149" s="21"/>
       <c r="O149" s="21"/>
       <c r="P149" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-2.0339298840100359</v>
       </c>
       <c r="Q149" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-4.9744998305023351</v>
       </c>
       <c r="R149" s="21"/>
@@ -5891,11 +5891,11 @@
         <v>73</v>
       </c>
       <c r="H150" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>3.8230982664073192</v>
       </c>
       <c r="I150" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>12.029254557888878</v>
       </c>
       <c r="J150" s="21"/>
@@ -5905,11 +5905,11 @@
       <c r="N150" s="21"/>
       <c r="O150" s="21"/>
       <c r="P150" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-1.1688384382721331</v>
       </c>
       <c r="Q150" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-3.6777121934230634</v>
       </c>
       <c r="R150" s="21"/>
@@ -5921,19 +5921,19 @@
     </row>
     <row r="151" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G151" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>78</v>
       </c>
       <c r="H151" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2.9417525892463843</v>
       </c>
       <c r="I151" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>7.0017844214176375</v>
       </c>
       <c r="J151" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>10.952783468422307</v>
       </c>
       <c r="K151" s="21"/>
@@ -5942,15 +5942,15 @@
       <c r="N151" s="21"/>
       <c r="O151" s="21"/>
       <c r="P151" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.62528881565409633</v>
       </c>
       <c r="Q151" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-1.4882752221712583</v>
       </c>
       <c r="R151" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-2.328085994764105</v>
       </c>
       <c r="S151" s="21"/>
@@ -5961,19 +5961,19 @@
     </row>
     <row r="152" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G152" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>83</v>
       </c>
       <c r="H152" s="21" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>#NUM!</v>
       </c>
       <c r="I152" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>6.9462520686921643</v>
       </c>
       <c r="J152" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>10.622791730267023</v>
       </c>
       <c r="K152" s="21"/>
@@ -5982,15 +5982,15 @@
       <c r="N152" s="21"/>
       <c r="O152" s="21"/>
       <c r="P152" s="21" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>#NUM!</v>
       </c>
       <c r="Q152" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.85289251017526013</v>
       </c>
       <c r="R152" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-1.3043148181638426</v>
       </c>
       <c r="S152" s="21"/>
@@ -6001,23 +6001,23 @@
     </row>
     <row r="153" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G153" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>88</v>
       </c>
       <c r="H153" s="21" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>#NUM!</v>
       </c>
       <c r="I153" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>6.7878174086700129</v>
       </c>
       <c r="J153" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>9.8817583662920399</v>
       </c>
       <c r="K153" s="22" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>#NUM!</v>
       </c>
       <c r="L153" s="21"/>
@@ -6025,19 +6025,19 @@
       <c r="N153" s="21"/>
       <c r="O153" s="21"/>
       <c r="P153" s="21" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>#NUM!</v>
       </c>
       <c r="Q153" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.23703580708023789</v>
       </c>
       <c r="R153" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-0.3450786060824339</v>
       </c>
       <c r="S153" s="22" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>#NUM!</v>
       </c>
       <c r="T153" s="21"/>
@@ -6051,53 +6051,53 @@
         <v>93</v>
       </c>
       <c r="H154" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.1918541152468785E-14</v>
       </c>
       <c r="I154" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>5.6729148603063226</v>
       </c>
       <c r="J154" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.0734100015812529</v>
       </c>
       <c r="K154" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>9.4183977402092722</v>
       </c>
       <c r="L154" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>10.992769827199471</v>
       </c>
       <c r="M154" s="22">
-        <f t="shared" ref="M143:M166" si="30">V126*COS(RADIANS(G154-90))</f>
+        <f t="shared" ref="M154:M166" si="36">V126*COS(RADIANS(G154-90))</f>
         <v>14.167155053717167</v>
       </c>
       <c r="N154" s="21"/>
       <c r="O154" s="21"/>
       <c r="P154" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>6.2462427409442772E-16</v>
       </c>
       <c r="Q154" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.29730486989041832</v>
       </c>
       <c r="R154" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.16107059300916163</v>
       </c>
       <c r="S154" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.49359730996878165</v>
       </c>
       <c r="T154" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.57610665481314494</v>
       </c>
       <c r="U154" s="22">
-        <f t="shared" ref="U143:U166" si="31">V126*SIN(RADIANS(G154-90))</f>
+        <f t="shared" ref="U154:U166" si="37">V126*SIN(RADIANS(G154-90))</f>
         <v>0.74246913512383106</v>
       </c>
       <c r="V154" s="21"/>
@@ -6105,50 +6105,50 @@
     </row>
     <row r="155" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G155" s="11">
+        <f t="shared" si="35"/>
+        <v>98</v>
+      </c>
+      <c r="H155" s="21">
+        <f t="shared" si="25"/>
+        <v>-0.17965924699465785</v>
+      </c>
+      <c r="I155" s="21">
+        <f t="shared" si="26"/>
+        <v>4.4635587343858916</v>
+      </c>
+      <c r="J155" s="21">
+        <f t="shared" si="27"/>
+        <v>7.1751075899678556</v>
+      </c>
+      <c r="K155" s="21">
+        <f t="shared" si="28"/>
+        <v>3.2283486699464152</v>
+      </c>
+      <c r="L155" s="22">
         <f t="shared" si="29"/>
-        <v>98</v>
-      </c>
-      <c r="H155" s="21">
-        <f t="shared" si="19"/>
-        <v>-0.17965924699465785</v>
-      </c>
-      <c r="I155" s="21">
-        <f t="shared" si="20"/>
-        <v>4.4635587343858916</v>
-      </c>
-      <c r="J155" s="21">
-        <f t="shared" si="21"/>
-        <v>7.1751075899678556</v>
-      </c>
-      <c r="K155" s="21">
-        <f t="shared" si="22"/>
-        <v>3.2283486699464152</v>
-      </c>
-      <c r="L155" s="22">
-        <f t="shared" si="23"/>
         <v>15.212173976057795</v>
       </c>
       <c r="M155" s="21"/>
       <c r="N155" s="21"/>
       <c r="O155" s="21"/>
       <c r="P155" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-2.5249460534632326E-2</v>
       </c>
       <c r="Q155" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.62731227027374314</v>
       </c>
       <c r="R155" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.0083956097735465</v>
       </c>
       <c r="S155" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.45371481678462439</v>
       </c>
       <c r="T155" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>2.1379316282331593</v>
       </c>
       <c r="U155" s="21"/>
@@ -6157,23 +6157,23 @@
     </row>
     <row r="156" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G156" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>103</v>
       </c>
       <c r="H156" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.5102733847083093</v>
       </c>
       <c r="I156" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>5.3961675773422995</v>
       </c>
       <c r="J156" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>11.194165306973588</v>
       </c>
       <c r="K156" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>3.9830897044783349</v>
       </c>
       <c r="L156" s="21"/>
@@ -6181,19 +6181,19 @@
       <c r="N156" s="21"/>
       <c r="O156" s="21"/>
       <c r="P156" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.11780589330712594</v>
       </c>
       <c r="Q156" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1.245803447591429</v>
       </c>
       <c r="R156" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2.5843766955815259</v>
       </c>
       <c r="S156" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.91956871516376693</v>
       </c>
       <c r="T156" s="21"/>
@@ -6207,53 +6207,53 @@
         <v>113</v>
       </c>
       <c r="H157" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.87363455975885695</v>
       </c>
       <c r="I157" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>4.4874626339248529</v>
       </c>
       <c r="J157" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>5.9372850809123339</v>
       </c>
       <c r="K157" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>10.636240427143116</v>
       </c>
       <c r="L157" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>6.0235064181324889</v>
       </c>
       <c r="M157" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.10776384183531375</v>
       </c>
       <c r="N157" s="21"/>
       <c r="O157" s="21"/>
       <c r="P157" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.37083586918799977</v>
       </c>
       <c r="Q157" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1.9048148767827207</v>
       </c>
       <c r="R157" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2.5202279935042911</v>
       </c>
       <c r="S157" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>4.5148162004727421</v>
       </c>
       <c r="T157" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>2.5568267797741626</v>
       </c>
       <c r="U157" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>4.5743036957085717E-2</v>
       </c>
       <c r="V157" s="21"/>
@@ -6261,11 +6261,11 @@
     </row>
     <row r="158" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G158" s="11">
-        <f t="shared" ref="G158:G166" si="32">G157+10</f>
+        <f t="shared" ref="G158:G166" si="38">G157+10</f>
         <v>123</v>
       </c>
       <c r="H158" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.5230750701548158</v>
       </c>
       <c r="I158" s="21">
@@ -6273,45 +6273,45 @@
         <v>0.23351156214026736</v>
       </c>
       <c r="J158" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>2.6680249453415845</v>
       </c>
       <c r="K158" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>4.5137392070246971</v>
       </c>
       <c r="L158" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>9.7226297539906561</v>
       </c>
       <c r="M158" s="22" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>#NUM!</v>
       </c>
       <c r="N158" s="21"/>
       <c r="O158" s="21"/>
       <c r="P158" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.33968892237085796</v>
       </c>
       <c r="Q158" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.15164418155330195</v>
       </c>
       <c r="R158" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.7326356583451981</v>
       </c>
       <c r="S158" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>2.9312565147551481</v>
       </c>
       <c r="T158" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>6.3139495880895762</v>
       </c>
       <c r="U158" s="22" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>#NUM!</v>
       </c>
       <c r="V158" s="21"/>
@@ -6323,46 +6323,46 @@
         <v>133</v>
       </c>
       <c r="H159" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.19443912286609197</v>
       </c>
       <c r="I159" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.68103356635998225</v>
       </c>
       <c r="J159" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.625731617221581</v>
       </c>
       <c r="K159" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>10.027331069310833</v>
       </c>
       <c r="L159" s="22" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#NUM!</v>
       </c>
       <c r="M159" s="21"/>
       <c r="N159" s="21"/>
       <c r="O159" s="21"/>
       <c r="P159" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.18131741540800514</v>
       </c>
       <c r="Q159" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.63507407479681777</v>
       </c>
       <c r="R159" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>3.381049431345426</v>
       </c>
       <c r="S159" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>9.3506374958292415</v>
       </c>
       <c r="T159" s="22" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>#NUM!</v>
       </c>
       <c r="U159" s="21"/>
@@ -6371,87 +6371,87 @@
     </row>
     <row r="160" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G160" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>143</v>
       </c>
       <c r="H160" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-0.10519057511413699</v>
       </c>
       <c r="I160" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.31579669506644026</v>
       </c>
       <c r="J160" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-1.6191551968665734</v>
       </c>
       <c r="K160" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>7.1580555037241185</v>
       </c>
       <c r="L160" s="22" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#NUM!</v>
       </c>
       <c r="M160" s="22" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>#NUM!</v>
       </c>
       <c r="N160" s="22">
-        <f t="shared" ref="N143:N166" si="33">W132*COS(RADIANS(G160-90))</f>
+        <f t="shared" ref="N160:N166" si="39">W132*COS(RADIANS(G160-90))</f>
         <v>-1.3778368073270779</v>
       </c>
       <c r="O160" s="21"/>
       <c r="P160" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.13959260798848824</v>
       </c>
       <c r="Q160" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.41907636887275918</v>
       </c>
       <c r="R160" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-2.1486915194015612</v>
       </c>
       <c r="S160" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>9.4990604890885653</v>
       </c>
       <c r="T160" s="22" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>#NUM!</v>
       </c>
       <c r="U160" s="22" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>#NUM!</v>
       </c>
       <c r="V160" s="22">
-        <f t="shared" ref="V143:V166" si="34">W132*SIN(RADIANS(G160-90))</f>
+        <f t="shared" ref="V160:V166" si="40">W132*SIN(RADIANS(G160-90))</f>
         <v>-1.8284512002013973</v>
       </c>
       <c r="W160" s="21"/>
     </row>
     <row r="161" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G161" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>153</v>
       </c>
       <c r="H161" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.35324138402555116</v>
       </c>
       <c r="I161" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.3366251883259732</v>
       </c>
       <c r="J161" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>2.3751722861194411</v>
       </c>
       <c r="K161" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>3.9012310073895038</v>
       </c>
       <c r="L161" s="21"/>
@@ -6459,19 +6459,19 @@
       <c r="N161" s="21"/>
       <c r="O161" s="21"/>
       <c r="P161" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.69327525126772593</v>
       </c>
-      <c r="Q161" s="21">
-        <f t="shared" si="25"/>
+      <c r="Q161" s="22">
+        <f t="shared" si="31"/>
         <v>2.6232746365313551</v>
       </c>
       <c r="R161" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>4.6615380811226999</v>
       </c>
       <c r="S161" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.6565969595050811</v>
       </c>
       <c r="T161" s="21"/>
@@ -6481,151 +6481,151 @@
     </row>
     <row r="162" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G162" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>163</v>
       </c>
       <c r="H162" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.0045646977139318</v>
       </c>
       <c r="I162" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.5508569721594467</v>
       </c>
       <c r="J162" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-0.43540305077855146</v>
       </c>
       <c r="K162" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>15.132347783628571</v>
       </c>
       <c r="L162" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>48.823075790747744</v>
       </c>
       <c r="M162" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-1.8850479133018472</v>
       </c>
       <c r="N162" s="22" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>#NUM!</v>
       </c>
       <c r="O162" s="21"/>
       <c r="P162" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>3.2857830719543428</v>
       </c>
       <c r="Q162" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>5.0726245882821113</v>
       </c>
       <c r="R162" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-1.424139208735008</v>
       </c>
       <c r="S162" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>49.495679371894191</v>
       </c>
       <c r="T162" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>159.6930852926169</v>
       </c>
       <c r="U162" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-6.1657139031914117</v>
       </c>
       <c r="V162" s="22" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>#NUM!</v>
       </c>
       <c r="W162" s="21"/>
     </row>
     <row r="163" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G163" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>173</v>
       </c>
       <c r="H163" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.26893431648896687</v>
       </c>
       <c r="I163" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>5.7476955337764972E-2</v>
       </c>
       <c r="J163" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.8054255214418613</v>
       </c>
       <c r="K163" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.36255672961699908</v>
       </c>
       <c r="L163" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.75390537416828007</v>
       </c>
       <c r="M163" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.93122489736555969</v>
       </c>
       <c r="N163" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-0.8092731150539757</v>
       </c>
       <c r="O163" s="21"/>
       <c r="P163" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2.1902942398567062</v>
       </c>
       <c r="Q163" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.46811223589598139</v>
       </c>
       <c r="R163" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>6.5596644685545966</v>
       </c>
       <c r="S163" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>2.9527876057943567</v>
       </c>
       <c r="T163" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-6.1400665411382809</v>
       </c>
       <c r="U163" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-7.5842181665002038</v>
       </c>
       <c r="V163" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>-6.5910006038457185</v>
       </c>
       <c r="W163" s="21"/>
     </row>
     <row r="164" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G164" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>183</v>
       </c>
       <c r="H164" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>5.1354186182140354E-2</v>
       </c>
       <c r="I164" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.32021055123478326</v>
       </c>
       <c r="J164" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.38070223516900825</v>
       </c>
       <c r="K164" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.38365877337589743</v>
       </c>
       <c r="L164" s="21"/>
@@ -6633,19 +6633,19 @@
       <c r="N164" s="21"/>
       <c r="O164" s="21"/>
       <c r="P164" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.97989624602846326</v>
       </c>
       <c r="Q164" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-6.1099812969636957</v>
       </c>
       <c r="R164" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-7.2642313865834947</v>
       </c>
       <c r="S164" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-7.3206454962316387</v>
       </c>
       <c r="T164" s="21"/>
@@ -6659,15 +6659,15 @@
         <v>193</v>
       </c>
       <c r="H165" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-0.1490660090153437</v>
       </c>
       <c r="I165" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.12713424462686809</v>
       </c>
       <c r="J165" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1.1348990339129765</v>
       </c>
       <c r="K165" s="21"/>
@@ -6676,15 +6676,15 @@
       <c r="N165" s="21"/>
       <c r="O165" s="21"/>
       <c r="P165" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.64567582172578564</v>
       </c>
       <c r="Q165" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.55067891339661901</v>
       </c>
       <c r="R165" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-4.9157877851424523</v>
       </c>
       <c r="S165" s="21"/>
@@ -6695,71 +6695,71 @@
     </row>
     <row r="166" spans="7:23" x14ac:dyDescent="0.45">
       <c r="G166" s="11">
+        <f t="shared" si="38"/>
+        <v>203</v>
+      </c>
+      <c r="H166" s="21">
+        <f t="shared" si="25"/>
+        <v>-0.28831458892716888</v>
+      </c>
+      <c r="I166" s="21">
+        <f t="shared" si="26"/>
+        <v>-0.98415167332879505</v>
+      </c>
+      <c r="J166" s="21">
+        <f t="shared" si="27"/>
+        <v>-1.9823806593742852</v>
+      </c>
+      <c r="K166" s="22">
+        <f t="shared" si="28"/>
+        <v>-2.6645149070514651</v>
+      </c>
+      <c r="L166" s="22">
+        <f t="shared" si="29"/>
+        <v>-6.3191590803501612</v>
+      </c>
+      <c r="M166" s="22">
+        <f t="shared" si="36"/>
+        <v>-1.0142820861581952</v>
+      </c>
+      <c r="N166" s="22">
+        <f t="shared" si="39"/>
+        <v>-12.964706455949905</v>
+      </c>
+      <c r="O166" s="22" t="e">
+        <f t="shared" ref="O166" si="41">X138*COS(RADIANS(G166-90))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="P166" s="21">
+        <f t="shared" si="30"/>
+        <v>0.67922660642557353</v>
+      </c>
+      <c r="Q166" s="21">
+        <f t="shared" si="31"/>
+        <v>2.3185160479410469</v>
+      </c>
+      <c r="R166" s="21">
         <f t="shared" si="32"/>
-        <v>203</v>
-      </c>
-      <c r="H166" s="21">
-        <f t="shared" si="19"/>
-        <v>-0.28831458892716888</v>
-      </c>
-      <c r="I166" s="21">
-        <f t="shared" si="20"/>
-        <v>-0.98415167332879505</v>
-      </c>
-      <c r="J166" s="21">
-        <f t="shared" si="21"/>
-        <v>-1.9823806593742852</v>
-      </c>
-      <c r="K166" s="22">
-        <f t="shared" si="22"/>
-        <v>-2.6645149070514651</v>
-      </c>
-      <c r="L166" s="22">
-        <f t="shared" si="23"/>
-        <v>-6.3191590803501612</v>
-      </c>
-      <c r="M166" s="22">
-        <f t="shared" si="30"/>
-        <v>-1.0142820861581952</v>
-      </c>
-      <c r="N166" s="22">
+        <v>4.6701961663501601</v>
+      </c>
+      <c r="S166" s="22">
         <f t="shared" si="33"/>
-        <v>-12.964706455949905</v>
-      </c>
-      <c r="O166" s="22" t="e">
-        <f t="shared" ref="O143:O166" si="35">X138*COS(RADIANS(G166-90))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="P166" s="21">
-        <f t="shared" si="24"/>
-        <v>0.67922660642557353</v>
-      </c>
-      <c r="Q166" s="21">
-        <f t="shared" si="25"/>
-        <v>2.3185160479410469</v>
-      </c>
-      <c r="R166" s="21">
-        <f t="shared" si="26"/>
-        <v>4.6701961663501601</v>
-      </c>
-      <c r="S166" s="22">
-        <f t="shared" si="27"/>
         <v>6.2772037475498497</v>
       </c>
       <c r="T166" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>14.887005869459575</v>
       </c>
       <c r="U166" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>2.3894988522884355</v>
       </c>
       <c r="V166" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>30.542934376460064</v>
       </c>
       <c r="W166" s="22" t="e">
-        <f t="shared" ref="W143:W166" si="36">X138*SIN(RADIANS(G166-90))</f>
+        <f t="shared" ref="W166" si="42">X138*SIN(RADIANS(G166-90))</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6793,6 +6793,12 @@
       <c r="L171" t="s">
         <v>74</v>
       </c>
+      <c r="O171" s="21">
+        <v>7.4692905705016743</v>
+      </c>
+      <c r="P171" s="21">
+        <v>-11.501698854066166</v>
+      </c>
     </row>
     <row r="172" spans="7:23" x14ac:dyDescent="0.45">
       <c r="H172" s="21">
@@ -6804,6 +6810,12 @@
       <c r="L172">
         <v>-11.501698854066166</v>
       </c>
+      <c r="O172" s="21">
+        <v>7.9943779650250448</v>
+      </c>
+      <c r="P172" s="21">
+        <v>-10.23233718092254</v>
+      </c>
     </row>
     <row r="173" spans="7:23" x14ac:dyDescent="0.45">
       <c r="H173" s="21">
@@ -6815,6 +6827,12 @@
       <c r="L173">
         <v>-10.23233718092254</v>
       </c>
+      <c r="O173" s="21">
+        <v>8.1842339395141099</v>
+      </c>
+      <c r="P173" s="21">
+        <v>-8.7765163922569727</v>
+      </c>
     </row>
     <row r="174" spans="7:23" x14ac:dyDescent="0.45">
       <c r="H174" s="21">
@@ -6826,6 +6844,12 @@
       <c r="L174">
         <v>-8.7765163922569727</v>
       </c>
+      <c r="O174" s="21">
+        <v>8.2415211258158063</v>
+      </c>
+      <c r="P174" s="21">
+        <v>-7.4206989528506391</v>
+      </c>
     </row>
     <row r="175" spans="7:23" x14ac:dyDescent="0.45">
       <c r="H175" s="21">
@@ -6837,6 +6861,12 @@
       <c r="L175">
         <v>-7.4206989528506391</v>
       </c>
+      <c r="O175" s="21">
+        <v>7.6772831948910927</v>
+      </c>
+      <c r="P175" s="21">
+        <v>-5.7852478452963023</v>
+      </c>
     </row>
     <row r="176" spans="7:23" x14ac:dyDescent="0.45">
       <c r="H176" s="21">
@@ -6848,8 +6878,14 @@
       <c r="L176">
         <v>-5.7852478452963023</v>
       </c>
-    </row>
-    <row r="177" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O176" s="21">
+        <v>7.0989027654360397</v>
+      </c>
+      <c r="P176" s="21">
+        <v>-4.4358867703053502</v>
+      </c>
+    </row>
+    <row r="177" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H177" s="21">
         <v>6.9462520686921643</v>
       </c>
@@ -6859,8 +6895,14 @@
       <c r="L177">
         <v>-4.4358867703053502</v>
       </c>
-    </row>
-    <row r="178" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O177" s="21">
+        <v>6.4840594712768871</v>
+      </c>
+      <c r="P177" s="21">
+        <v>-3.3037933166509639</v>
+      </c>
+    </row>
+    <row r="178" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H178" s="21">
         <v>6.7878174086700129</v>
       </c>
@@ -6870,8 +6912,14 @@
       <c r="L178">
         <v>-3.3037933166509639</v>
       </c>
-    </row>
-    <row r="179" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O178" s="21">
+        <v>5.0341531166837719</v>
+      </c>
+      <c r="P178" s="21">
+        <v>-2.0339298840100359</v>
+      </c>
+    </row>
+    <row r="179" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H179" s="21">
         <v>5.6729148603063226</v>
       </c>
@@ -6881,8 +6929,14 @@
       <c r="L179">
         <v>-2.0339298840100359</v>
       </c>
-    </row>
-    <row r="180" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O179" s="21">
+        <v>3.8230982664073192</v>
+      </c>
+      <c r="P179" s="21">
+        <v>-1.1688384382721331</v>
+      </c>
+    </row>
+    <row r="180" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H180" s="21">
         <v>4.4635587343858916</v>
       </c>
@@ -6892,8 +6946,14 @@
       <c r="L180">
         <v>-1.1688384382721331</v>
       </c>
-    </row>
-    <row r="181" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O180" s="21">
+        <v>2.9417525892463843</v>
+      </c>
+      <c r="P180" s="21">
+        <v>-0.62528881565409633</v>
+      </c>
+    </row>
+    <row r="181" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H181" s="21">
         <v>5.3961675773422995</v>
       </c>
@@ -6903,8 +6963,14 @@
       <c r="L181">
         <v>-0.62528881565409633</v>
       </c>
-    </row>
-    <row r="182" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O181" s="21">
+        <v>1.1918541152468785E-14</v>
+      </c>
+      <c r="P181" s="21">
+        <v>6.2462427409442772E-16</v>
+      </c>
+    </row>
+    <row r="182" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H182" s="21">
         <v>4.4874626339248529</v>
       </c>
@@ -6914,8 +6980,14 @@
       <c r="L182" t="e">
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="183" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O182" s="21">
+        <v>-0.17965924699465785</v>
+      </c>
+      <c r="P182" s="21">
+        <v>-2.5249460534632326E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H183" s="21">
         <v>0.23351156214026736</v>
       </c>
@@ -6925,8 +6997,14 @@
       <c r="L183" t="e">
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="184" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O183" s="21">
+        <v>0.5102733847083093</v>
+      </c>
+      <c r="P183" s="21">
+        <v>0.11780589330712594</v>
+      </c>
+    </row>
+    <row r="184" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H184" s="22">
         <v>0.68103356635998225</v>
       </c>
@@ -6936,8 +7014,14 @@
       <c r="L184">
         <v>6.2462427409442772E-16</v>
       </c>
-    </row>
-    <row r="185" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O184" s="21">
+        <v>0.87363455975885695</v>
+      </c>
+      <c r="P184" s="21">
+        <v>0.37083586918799977</v>
+      </c>
+    </row>
+    <row r="185" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H185" s="21">
         <v>0.31579669506644026</v>
       </c>
@@ -6947,8 +7031,14 @@
       <c r="L185">
         <v>-2.5249460534632326E-2</v>
       </c>
-    </row>
-    <row r="186" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O185" s="21">
+        <v>0.5230750701548158</v>
+      </c>
+      <c r="P185" s="21">
+        <v>0.33968892237085796</v>
+      </c>
+    </row>
+    <row r="186" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H186" s="22">
         <v>1.3366251883259732</v>
       </c>
@@ -6958,8 +7048,14 @@
       <c r="L186">
         <v>0.11780589330712594</v>
       </c>
-    </row>
-    <row r="187" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O186" s="21">
+        <v>0.19443912286609197</v>
+      </c>
+      <c r="P186" s="21">
+        <v>0.18131741540800514</v>
+      </c>
+    </row>
+    <row r="187" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H187" s="22">
         <v>1.5508569721594467</v>
       </c>
@@ -6969,8 +7065,14 @@
       <c r="L187">
         <v>0.37083586918799977</v>
       </c>
-    </row>
-    <row r="188" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O187" s="21">
+        <v>0.35324138402555116</v>
+      </c>
+      <c r="P187" s="21">
+        <v>0.69327525126772593</v>
+      </c>
+    </row>
+    <row r="188" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H188" s="22">
         <v>5.7476955337764972E-2</v>
       </c>
@@ -6980,8 +7082,14 @@
       <c r="L188">
         <v>0.33968892237085796</v>
       </c>
-    </row>
-    <row r="189" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O188" s="21">
+        <v>1.0045646977139318</v>
+      </c>
+      <c r="P188" s="21">
+        <v>3.2857830719543428</v>
+      </c>
+    </row>
+    <row r="189" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H189" s="22">
         <v>0.32021055123478326</v>
       </c>
@@ -6991,8 +7099,14 @@
       <c r="L189">
         <v>0.18131741540800514</v>
       </c>
-    </row>
-    <row r="190" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O189" s="21">
+        <v>0.26893431648896687</v>
+      </c>
+      <c r="P189" s="21">
+        <v>2.1902942398567062</v>
+      </c>
+    </row>
+    <row r="190" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H190" s="22">
         <v>0.12713424462686809</v>
       </c>
@@ -7002,8 +7116,14 @@
       <c r="L190">
         <v>-0.13959260798848824</v>
       </c>
-    </row>
-    <row r="191" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O190" s="21">
+        <v>5.1354186182140354E-2</v>
+      </c>
+      <c r="P190" s="21">
+        <v>-0.97989624602846326</v>
+      </c>
+    </row>
+    <row r="191" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H191" s="21">
         <v>-0.98415167332879505</v>
       </c>
@@ -7013,8 +7133,14 @@
       <c r="L191">
         <v>0.69327525126772593</v>
       </c>
-    </row>
-    <row r="192" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O191" s="21">
+        <v>-0.1490660090153437</v>
+      </c>
+      <c r="P191" s="21">
+        <v>0.64567582172578564</v>
+      </c>
+    </row>
+    <row r="192" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H192">
         <v>5.0138956135554524</v>
       </c>
@@ -7024,8 +7150,14 @@
       <c r="L192">
         <v>3.2857830719543428</v>
       </c>
-    </row>
-    <row r="193" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O192" s="21">
+        <v>-0.28831458892716888</v>
+      </c>
+      <c r="P192" s="21">
+        <v>0.67922660642557353</v>
+      </c>
+    </row>
+    <row r="193" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H193">
         <v>5.832950344872879</v>
       </c>
@@ -7035,8 +7167,14 @@
       <c r="L193">
         <v>2.1902942398567062</v>
       </c>
-    </row>
-    <row r="194" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O193" s="21">
+        <v>6.2142487861744824</v>
+      </c>
+      <c r="P193" s="21">
+        <v>-9.5691039822573849</v>
+      </c>
+    </row>
+    <row r="194" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H194">
         <v>5.3830053918317136</v>
       </c>
@@ -7046,8 +7184,14 @@
       <c r="L194">
         <v>-0.97989624602846326</v>
       </c>
-    </row>
-    <row r="195" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O194" s="21">
+        <v>6.9973806760331421</v>
+      </c>
+      <c r="P194" s="21">
+        <v>-7.5037720891093009</v>
+      </c>
+    </row>
+    <row r="195" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H195">
         <v>11.631595695664636</v>
       </c>
@@ -7057,8 +7201,14 @@
       <c r="L195">
         <v>0.64567582172578564</v>
       </c>
-    </row>
-    <row r="196" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O195" s="21">
+        <v>5.050102438097813</v>
+      </c>
+      <c r="P195" s="21">
+        <v>-4.5471326593816528</v>
+      </c>
+    </row>
+    <row r="196" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H196">
         <v>11.872670716868097</v>
       </c>
@@ -7068,40 +7218,70 @@
       <c r="L196">
         <v>0.67922660642557353</v>
       </c>
-    </row>
-    <row r="197" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O196" s="21">
+        <v>13.01813381786922</v>
+      </c>
+      <c r="P196" s="21">
+        <v>-8.1346328418408387</v>
+      </c>
+    </row>
+    <row r="197" spans="8:16" x14ac:dyDescent="0.45">
       <c r="K197">
         <v>6.2142487861744824</v>
       </c>
       <c r="L197">
         <v>-9.5691039822573849</v>
       </c>
-    </row>
-    <row r="198" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O197" s="21">
+        <v>12.835674091538065</v>
+      </c>
+      <c r="P197" s="21">
+        <v>-6.5401026110549259</v>
+      </c>
+    </row>
+    <row r="198" spans="8:16" x14ac:dyDescent="0.45">
       <c r="K198">
         <v>6.8654742391068719</v>
       </c>
       <c r="L198">
         <v>-8.7874063033819851</v>
       </c>
-    </row>
-    <row r="199" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O198" s="21">
+        <v>12.312319132797922</v>
+      </c>
+      <c r="P198" s="21">
+        <v>-4.9744998305023351</v>
+      </c>
+    </row>
+    <row r="199" spans="8:16" x14ac:dyDescent="0.45">
       <c r="K199">
         <v>6.9973806760331421</v>
       </c>
       <c r="L199">
         <v>-7.5037720891093009</v>
       </c>
-    </row>
-    <row r="200" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O199" s="21">
+        <v>12.029254557888878</v>
+      </c>
+      <c r="P199" s="21">
+        <v>-3.6777121934230634</v>
+      </c>
+    </row>
+    <row r="200" spans="8:16" x14ac:dyDescent="0.45">
       <c r="K200">
         <v>5.050102438097813</v>
       </c>
       <c r="L200">
         <v>-4.5471326593816528</v>
       </c>
-    </row>
-    <row r="201" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O200" s="21">
+        <v>7.0017844214176375</v>
+      </c>
+      <c r="P200" s="21">
+        <v>-1.4882752221712583</v>
+      </c>
+    </row>
+    <row r="201" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H201">
         <v>10.952783468422307</v>
       </c>
@@ -7111,8 +7291,14 @@
       <c r="L201" t="e">
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="202" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O201" s="21">
+        <v>6.9462520686921643</v>
+      </c>
+      <c r="P201" s="21">
+        <v>-0.85289251017526013</v>
+      </c>
+    </row>
+    <row r="202" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H202">
         <v>10.622791730267023</v>
       </c>
@@ -7122,8 +7308,14 @@
       <c r="L202">
         <v>-8.1346328418408387</v>
       </c>
-    </row>
-    <row r="203" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O202" s="21">
+        <v>6.7878174086700129</v>
+      </c>
+      <c r="P202" s="21">
+        <v>-0.23703580708023789</v>
+      </c>
+    </row>
+    <row r="203" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H203">
         <v>9.8817583662920399</v>
       </c>
@@ -7133,8 +7325,14 @@
       <c r="L203">
         <v>-6.5401026110549259</v>
       </c>
-    </row>
-    <row r="204" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O203" s="21">
+        <v>5.6729148603063226</v>
+      </c>
+      <c r="P203" s="21">
+        <v>0.29730486989041832</v>
+      </c>
+    </row>
+    <row r="204" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H204">
         <v>3.0734100015812529</v>
       </c>
@@ -7144,8 +7342,14 @@
       <c r="L204">
         <v>-4.9744998305023351</v>
       </c>
-    </row>
-    <row r="205" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O204" s="21">
+        <v>4.4635587343858916</v>
+      </c>
+      <c r="P204" s="21">
+        <v>0.62731227027374314</v>
+      </c>
+    </row>
+    <row r="205" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H205">
         <v>7.1751075899678556</v>
       </c>
@@ -7155,8 +7359,14 @@
       <c r="L205">
         <v>-3.6777121934230634</v>
       </c>
-    </row>
-    <row r="206" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O205" s="21">
+        <v>5.3961675773422995</v>
+      </c>
+      <c r="P205" s="21">
+        <v>1.245803447591429</v>
+      </c>
+    </row>
+    <row r="206" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H206">
         <v>11.194165306973588</v>
       </c>
@@ -7166,8 +7376,14 @@
       <c r="L206">
         <v>-1.4882752221712583</v>
       </c>
-    </row>
-    <row r="207" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O206" s="21">
+        <v>4.4874626339248529</v>
+      </c>
+      <c r="P206" s="21">
+        <v>1.9048148767827207</v>
+      </c>
+    </row>
+    <row r="207" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H207">
         <v>5.9372850809123339</v>
       </c>
@@ -7177,8 +7393,14 @@
       <c r="L207">
         <v>-0.85289251017526013</v>
       </c>
-    </row>
-    <row r="208" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O207" s="21">
+        <v>0.23351156214026736</v>
+      </c>
+      <c r="P207" s="21">
+        <v>0.15164418155330195</v>
+      </c>
+    </row>
+    <row r="208" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H208">
         <v>2.6680249453415845</v>
       </c>
@@ -7188,8 +7410,14 @@
       <c r="L208">
         <v>-0.23703580708023789</v>
       </c>
-    </row>
-    <row r="209" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O208" s="21">
+        <v>0.31579669506644026</v>
+      </c>
+      <c r="P208" s="21">
+        <v>0.41907636887275918</v>
+      </c>
+    </row>
+    <row r="209" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H209">
         <v>3.625731617221581</v>
       </c>
@@ -7199,8 +7427,14 @@
       <c r="L209">
         <v>0.29730486989041832</v>
       </c>
-    </row>
-    <row r="210" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O209" s="21">
+        <v>-0.98415167332879505</v>
+      </c>
+      <c r="P209" s="21">
+        <v>2.3185160479410469</v>
+      </c>
+    </row>
+    <row r="210" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H210">
         <v>-1.6191551968665734</v>
       </c>
@@ -7210,8 +7444,14 @@
       <c r="L210">
         <v>0.62731227027374314</v>
       </c>
-    </row>
-    <row r="211" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O210" s="21">
+        <v>5.0138956135554524</v>
+      </c>
+      <c r="P210" s="21">
+        <v>-7.7207221875376622</v>
+      </c>
+    </row>
+    <row r="211" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H211">
         <v>2.3751722861194411</v>
       </c>
@@ -7221,8 +7461,14 @@
       <c r="L211">
         <v>1.245803447591429</v>
       </c>
-    </row>
-    <row r="212" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O211" s="21">
+        <v>5.3830053918317136</v>
+      </c>
+      <c r="P211" s="21">
+        <v>-5.7725665480944848</v>
+      </c>
+    </row>
+    <row r="212" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H212">
         <v>-0.43540305077855146</v>
       </c>
@@ -7232,8 +7478,14 @@
       <c r="L212">
         <v>1.9048148767827207</v>
       </c>
-    </row>
-    <row r="213" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O212" s="21">
+        <v>11.631595695664636</v>
+      </c>
+      <c r="P212" s="21">
+        <v>-10.473135806013786</v>
+      </c>
+    </row>
+    <row r="213" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H213">
         <v>0.8054255214418613</v>
       </c>
@@ -7243,8 +7495,14 @@
       <c r="L213">
         <v>0.15164418155330195</v>
       </c>
-    </row>
-    <row r="214" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O213" s="21">
+        <v>11.872670716868097</v>
+      </c>
+      <c r="P213" s="21">
+        <v>-8.946699104232799</v>
+      </c>
+    </row>
+    <row r="214" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H214">
         <v>0.38070223516900825</v>
       </c>
@@ -7254,8 +7512,14 @@
       <c r="L214">
         <v>0.63507407479681777</v>
       </c>
-    </row>
-    <row r="215" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O214" s="21">
+        <v>10.952783468422307</v>
+      </c>
+      <c r="P214" s="21">
+        <v>-2.328085994764105</v>
+      </c>
+    </row>
+    <row r="215" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H215">
         <v>1.1348990339129765</v>
       </c>
@@ -7265,8 +7529,14 @@
       <c r="L215">
         <v>0.41907636887275918</v>
       </c>
-    </row>
-    <row r="216" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O215" s="21">
+        <v>10.622791730267023</v>
+      </c>
+      <c r="P215" s="21">
+        <v>-1.3043148181638426</v>
+      </c>
+    </row>
+    <row r="216" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H216">
         <v>-1.9823806593742852</v>
       </c>
@@ -7276,8 +7546,14 @@
       <c r="L216">
         <v>2.6232746365313551</v>
       </c>
-    </row>
-    <row r="217" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O216" s="21">
+        <v>9.8817583662920399</v>
+      </c>
+      <c r="P216" s="21">
+        <v>-0.3450786060824339</v>
+      </c>
+    </row>
+    <row r="217" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H217">
         <v>10.575131621247049</v>
       </c>
@@ -7287,8 +7563,14 @@
       <c r="L217">
         <v>5.0726245882821113</v>
       </c>
-    </row>
-    <row r="218" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O217" s="21">
+        <v>7.1751075899678556</v>
+      </c>
+      <c r="P217" s="21">
+        <v>1.0083956097735465</v>
+      </c>
+    </row>
+    <row r="218" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H218" t="e">
         <v>#NUM!</v>
       </c>
@@ -7298,8 +7580,14 @@
       <c r="L218">
         <v>0.46811223589598139</v>
       </c>
-    </row>
-    <row r="219" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O218" s="21">
+        <v>5.9372850809123339</v>
+      </c>
+      <c r="P218" s="21">
+        <v>2.5202279935042911</v>
+      </c>
+    </row>
+    <row r="219" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H219">
         <v>11.708808511481873</v>
       </c>
@@ -7309,79 +7597,153 @@
       <c r="L219">
         <v>-6.1099812969636957</v>
       </c>
-    </row>
-    <row r="220" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O219" s="21">
+        <v>3.625731617221581</v>
+      </c>
+      <c r="P219" s="21">
+        <v>3.381049431345426</v>
+      </c>
+    </row>
+    <row r="220" spans="8:16" x14ac:dyDescent="0.45">
       <c r="K220">
         <v>0.12713424462686809</v>
       </c>
       <c r="L220">
         <v>-0.55067891339661901</v>
       </c>
-    </row>
-    <row r="221" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O220" s="21">
+        <v>-1.6191551968665734</v>
+      </c>
+      <c r="P220" s="21">
+        <v>-2.1486915194015612</v>
+      </c>
+    </row>
+    <row r="221" spans="8:16" x14ac:dyDescent="0.45">
       <c r="K221">
         <v>-0.98415167332879505</v>
       </c>
       <c r="L221">
         <v>2.3185160479410469</v>
       </c>
-    </row>
-    <row r="222" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O221" s="21">
+        <v>2.3751722861194411</v>
+      </c>
+      <c r="P221" s="21">
+        <v>4.6615380811226999</v>
+      </c>
+    </row>
+    <row r="222" spans="8:16" x14ac:dyDescent="0.45">
       <c r="K222">
         <v>5.0138956135554524</v>
       </c>
       <c r="L222">
         <v>-7.7207221875376622</v>
       </c>
-    </row>
-    <row r="223" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O222" s="21">
+        <v>-1.9823806593742852</v>
+      </c>
+      <c r="P222" s="21">
+        <v>4.6701961663501601</v>
+      </c>
+    </row>
+    <row r="223" spans="8:16" x14ac:dyDescent="0.45">
       <c r="K223">
         <v>5.832950344872879</v>
       </c>
       <c r="L223">
         <v>-7.4658359849177742</v>
       </c>
-    </row>
-    <row r="224" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O223" s="21">
+        <v>11.708808511481873</v>
+      </c>
+      <c r="P223" s="21">
+        <v>-12.55615987938384</v>
+      </c>
+    </row>
+    <row r="224" spans="8:16" x14ac:dyDescent="0.45">
       <c r="K224">
         <v>5.3830053918317136</v>
       </c>
       <c r="L224">
         <v>-5.7725665480944848</v>
       </c>
-    </row>
-    <row r="225" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O224" s="21">
+        <v>9.4183977402092722</v>
+      </c>
+      <c r="P224" s="21">
+        <v>0.49359730996878165</v>
+      </c>
+    </row>
+    <row r="225" spans="8:16" x14ac:dyDescent="0.45">
       <c r="K225">
         <v>11.631595695664636</v>
       </c>
       <c r="L225">
         <v>-10.473135806013786</v>
       </c>
-    </row>
-    <row r="226" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O225" s="21">
+        <v>3.2283486699464152</v>
+      </c>
+      <c r="P225" s="21">
+        <v>0.45371481678462439</v>
+      </c>
+    </row>
+    <row r="226" spans="8:16" x14ac:dyDescent="0.45">
       <c r="K226">
         <v>11.872670716868097</v>
       </c>
       <c r="L226">
         <v>-8.946699104232799</v>
       </c>
-    </row>
-    <row r="228" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O226" s="21">
+        <v>10.636240427143116</v>
+      </c>
+      <c r="P226" s="21">
+        <v>4.5148162004727421</v>
+      </c>
+    </row>
+    <row r="227" spans="8:16" x14ac:dyDescent="0.45">
+      <c r="O227" s="21">
+        <v>4.5137392070246971</v>
+      </c>
+      <c r="P227" s="21">
+        <v>2.9312565147551481</v>
+      </c>
+    </row>
+    <row r="228" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H228" t="e">
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="229" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O228" s="21">
+        <v>7.1580555037241185</v>
+      </c>
+      <c r="P228" s="21">
+        <v>9.4990604890885653</v>
+      </c>
+    </row>
+    <row r="229" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H229">
         <v>9.4183977402092722</v>
       </c>
-    </row>
-    <row r="230" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O229" s="21">
+        <v>3.9012310073895038</v>
+      </c>
+      <c r="P229" s="21">
+        <v>7.6565969595050811</v>
+      </c>
+    </row>
+    <row r="230" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H230">
         <v>3.2283486699464152</v>
       </c>
-    </row>
-    <row r="231" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O230" s="21">
+        <v>9.7684231128227079</v>
+      </c>
+      <c r="P230">
+        <v>-12.503011422978892</v>
+      </c>
+    </row>
+    <row r="231" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H231">
         <v>3.9830897044783349</v>
       </c>
@@ -7392,7 +7754,7 @@
         <v>-2.328085994764105</v>
       </c>
     </row>
-    <row r="232" spans="8:12" x14ac:dyDescent="0.45">
+    <row r="232" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H232">
         <v>10.636240427143116</v>
       </c>
@@ -7403,7 +7765,7 @@
         <v>-1.3043148181638426</v>
       </c>
     </row>
-    <row r="233" spans="8:12" x14ac:dyDescent="0.45">
+    <row r="233" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H233">
         <v>4.5137392070246971</v>
       </c>
@@ -7414,7 +7776,7 @@
         <v>-0.3450786060824339</v>
       </c>
     </row>
-    <row r="234" spans="8:12" x14ac:dyDescent="0.45">
+    <row r="234" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H234">
         <v>10.027331069310833</v>
       </c>
@@ -7425,7 +7787,7 @@
         <v>0.16107059300916163</v>
       </c>
     </row>
-    <row r="235" spans="8:12" x14ac:dyDescent="0.45">
+    <row r="235" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H235">
         <v>7.1580555037241185</v>
       </c>
@@ -7436,7 +7798,7 @@
         <v>1.0083956097735465</v>
       </c>
     </row>
-    <row r="236" spans="8:12" x14ac:dyDescent="0.45">
+    <row r="236" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H236">
         <v>3.9012310073895038</v>
       </c>
@@ -7447,7 +7809,7 @@
         <v>2.5843766955815259</v>
       </c>
     </row>
-    <row r="237" spans="8:12" x14ac:dyDescent="0.45">
+    <row r="237" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H237">
         <v>15.132347783628571</v>
       </c>
@@ -7458,7 +7820,7 @@
         <v>2.5202279935042911</v>
       </c>
     </row>
-    <row r="238" spans="8:12" x14ac:dyDescent="0.45">
+    <row r="238" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H238">
         <v>0.36255672961699908</v>
       </c>
@@ -7469,7 +7831,7 @@
         <v>1.7326356583451981</v>
       </c>
     </row>
-    <row r="239" spans="8:12" x14ac:dyDescent="0.45">
+    <row r="239" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H239">
         <v>0.38365877337589743</v>
       </c>
@@ -7480,7 +7842,7 @@
         <v>3.381049431345426</v>
       </c>
     </row>
-    <row r="240" spans="8:12" x14ac:dyDescent="0.45">
+    <row r="240" spans="8:16" x14ac:dyDescent="0.45">
       <c r="K240">
         <v>-1.6191551968665734</v>
       </c>
@@ -7950,7 +8312,7 @@
       <c r="AI347" s="21"/>
       <c r="AJ347" s="21"/>
       <c r="AK347" s="22">
-        <f>I348*SIN(RADIANS(AK331-90))</f>
+        <f t="shared" ref="AK347:AK371" si="43">I348*SIN(RADIANS(AK331-90))</f>
         <v>0</v>
       </c>
     </row>
@@ -7980,7 +8342,7 @@
       <c r="AI348" s="21"/>
       <c r="AJ348" s="21"/>
       <c r="AK348" s="22">
-        <f>I349*SIN(RADIANS(AK332-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8010,7 +8372,7 @@
       <c r="AI349" s="21"/>
       <c r="AJ349" s="21"/>
       <c r="AK349" s="22">
-        <f>I350*SIN(RADIANS(AK333-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8040,7 +8402,7 @@
       <c r="AI350" s="21"/>
       <c r="AJ350" s="21"/>
       <c r="AK350" s="22">
-        <f>I351*SIN(RADIANS(AK334-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8070,7 +8432,7 @@
       <c r="AI351" s="21"/>
       <c r="AJ351" s="21"/>
       <c r="AK351" s="22">
-        <f>I352*SIN(RADIANS(AK335-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8100,7 +8462,7 @@
       <c r="AI352" s="21"/>
       <c r="AJ352" s="21"/>
       <c r="AK352" s="22">
-        <f>I353*SIN(RADIANS(AK336-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8130,7 +8492,7 @@
       <c r="AI353" s="21"/>
       <c r="AJ353" s="21"/>
       <c r="AK353" s="22">
-        <f>I354*SIN(RADIANS(AK337-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8160,7 +8522,7 @@
       <c r="AI354" s="21"/>
       <c r="AJ354" s="21"/>
       <c r="AK354" s="22">
-        <f>I355*SIN(RADIANS(AK338-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8190,7 +8552,7 @@
       <c r="AI355" s="21"/>
       <c r="AJ355" s="21"/>
       <c r="AK355" s="22">
-        <f>I356*SIN(RADIANS(AK339-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8220,7 +8582,7 @@
       <c r="AI356" s="21"/>
       <c r="AJ356" s="21"/>
       <c r="AK356" s="22">
-        <f>I357*SIN(RADIANS(AK340-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8250,7 +8612,7 @@
       <c r="AI357" s="21"/>
       <c r="AJ357" s="21"/>
       <c r="AK357" s="22">
-        <f>I358*SIN(RADIANS(AK341-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8280,7 +8642,7 @@
       <c r="AI358" s="21"/>
       <c r="AJ358" s="21"/>
       <c r="AK358" s="22">
-        <f>I359*SIN(RADIANS(AK342-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8310,7 +8672,7 @@
       <c r="AI359" s="21"/>
       <c r="AJ359" s="21"/>
       <c r="AK359" s="22">
-        <f>I360*SIN(RADIANS(AK343-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8340,7 +8702,7 @@
       <c r="AI360" s="21"/>
       <c r="AJ360" s="21"/>
       <c r="AK360" s="22">
-        <f>I361*SIN(RADIANS(AK344-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8370,7 +8732,7 @@
       <c r="AI361" s="21"/>
       <c r="AJ361" s="21"/>
       <c r="AK361" s="22">
-        <f>I362*SIN(RADIANS(AK345-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8400,7 +8762,7 @@
       <c r="AI362" s="21"/>
       <c r="AJ362" s="21"/>
       <c r="AK362" s="22">
-        <f>I363*SIN(RADIANS(AK346-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8430,7 +8792,7 @@
       <c r="AI363" s="21"/>
       <c r="AJ363" s="21"/>
       <c r="AK363" s="22">
-        <f>I364*SIN(RADIANS(AK347-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8460,7 +8822,7 @@
       <c r="AI364" s="21"/>
       <c r="AJ364" s="21"/>
       <c r="AK364" s="22">
-        <f>I365*SIN(RADIANS(AK348-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8490,7 +8852,7 @@
       <c r="AI365" s="21"/>
       <c r="AJ365" s="21"/>
       <c r="AK365" s="22">
-        <f>I366*SIN(RADIANS(AK349-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8520,7 +8882,7 @@
       <c r="AI366" s="21"/>
       <c r="AJ366" s="21"/>
       <c r="AK366" s="22">
-        <f>I367*SIN(RADIANS(AK350-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8550,7 +8912,7 @@
       <c r="AI367" s="21"/>
       <c r="AJ367" s="21"/>
       <c r="AK367" s="22">
-        <f>I368*SIN(RADIANS(AK351-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8580,7 +8942,7 @@
       <c r="AI368" s="21"/>
       <c r="AJ368" s="21"/>
       <c r="AK368" s="22">
-        <f>I369*SIN(RADIANS(AK352-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8610,7 +8972,7 @@
       <c r="AI369" s="21"/>
       <c r="AJ369" s="21"/>
       <c r="AK369" s="22">
-        <f>I370*SIN(RADIANS(AK353-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8640,7 +9002,7 @@
       <c r="AI370" s="21"/>
       <c r="AJ370" s="21"/>
       <c r="AK370" s="22">
-        <f>I371*SIN(RADIANS(AK354-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8676,7 +9038,7 @@
       <c r="AI371" s="21"/>
       <c r="AJ371" s="21"/>
       <c r="AK371" s="22">
-        <f>I372*SIN(RADIANS(AK355-90))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>

--- a/Messprotokoll_Simon.xlsx
+++ b/Messprotokoll_Simon.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3AB27E-D4EA-4380-AC50-24A819598C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5510BEFB-E171-42FD-93FE-BC840BDF95CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="4950" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="82">
   <si>
     <t>Simon Keegan, Philipp Gebauer</t>
   </si>
@@ -341,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +351,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -393,6 +399,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E190" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O171" sqref="O171:P230"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98:H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -705,6 +712,13 @@
     <col min="22" max="22" width="14.86328125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.3984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -2719,6 +2733,10 @@
         <v>60</v>
       </c>
       <c r="D92" s="11"/>
+      <c r="F92">
+        <f>SIN(RADIANS(A108))</f>
+        <v>-5.2335956242943557E-2</v>
+      </c>
       <c r="G92" s="11">
         <f t="shared" si="5"/>
         <v>63</v>
@@ -3791,7 +3809,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A113" s="13" t="s">
         <v>16</v>
       </c>
@@ -3859,8 +3877,30 @@
       <c r="X113" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z113" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA113" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB113" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC113" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD113" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE113" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF113" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG113" s="13"/>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A114" s="11">
         <v>33</v>
       </c>
@@ -3892,7 +3932,7 @@
         <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+L86)</f>
         <v>5.0740933310914462</v>
       </c>
-      <c r="K114" s="22">
+      <c r="K114" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A86)))/($H$81*SIN(RADIANS(A86))+N86)</f>
         <v>13.796625401730438</v>
       </c>
@@ -3900,19 +3940,20 @@
       <c r="M114" s="21"/>
       <c r="N114" s="21"/>
       <c r="O114" s="21"/>
-      <c r="Q114" s="21">
+      <c r="P114" s="21"/>
+      <c r="Q114" s="23">
         <f>SQRT(H114^2-$I$81^2*SIN(RADIANS(G114))^2)+$I$81*COS(RADIANS(G114))</f>
         <v>13.714203518841778</v>
       </c>
-      <c r="R114" s="21">
+      <c r="R114" s="23">
         <f>SQRT(I114^2-$I$81^2*SIN(RADIANS(G114))^2)+$I$81*COS(RADIANS(G114))</f>
         <v>11.409848333773994</v>
       </c>
-      <c r="S114" s="21">
+      <c r="S114" s="23">
         <f>SQRT(J114^2-$I$81^2*SIN(RADIANS(G114))^2)+$I$81*COS(RADIANS(G114))</f>
         <v>9.2059057306039662</v>
       </c>
-      <c r="T114" s="22">
+      <c r="T114" s="21">
         <f>SQRT(K114^2-$I$81^2*SIN(RADIANS(G114)))+$I$81*COS(RADIANS(G114))</f>
         <v>19.416771368499639</v>
       </c>
@@ -3920,8 +3961,28 @@
       <c r="V114" s="21"/>
       <c r="W114" s="21"/>
       <c r="X114" s="21"/>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z114" s="23">
+        <f>-SQRT(H114^2-$I$81^2*SIN(RADIANS(G114))^2)+$I$81*COS(RADIANS(G114))</f>
+        <v>0.54319613623043139</v>
+      </c>
+      <c r="AA114" s="23">
+        <f>-SQRT(I114^2-$I$81^2*SIN(RADIANS(G114))^2)+$I$81*COS(RADIANS(G114))</f>
+        <v>2.8475513212982158</v>
+      </c>
+      <c r="AB114" s="23">
+        <f>-SQRT(J114^2-$I$81^2*SIN(RADIANS(G114))^2)+$I$81*COS(RADIANS(G114))</f>
+        <v>5.051493924468244</v>
+      </c>
+      <c r="AC114" s="21">
+        <f>-SQRT(K114^2-$I$81^2*SIN(RADIANS(G114))^2)+$I$81*COS(RADIANS(G114))</f>
+        <v>-5.8680395215001315</v>
+      </c>
+      <c r="AD114" s="21"/>
+      <c r="AE114" s="21"/>
+      <c r="AF114" s="21"/>
+      <c r="AG114" s="21"/>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A115" s="11">
         <v>38</v>
       </c>
@@ -3943,18 +4004,15 @@
         <f t="shared" si="9"/>
         <v>8.1799187744185229</v>
       </c>
-      <c r="I115" s="22">
+      <c r="I115" s="21">
         <f t="shared" si="10"/>
         <v>6.8714873870992275</v>
       </c>
-      <c r="J115" s="22">
+      <c r="J115" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+L87)</f>
         <v>5.9239180392577699</v>
       </c>
-      <c r="K115" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+N87)</f>
-        <v>5.571313297229552</v>
-      </c>
+      <c r="K115" s="21"/>
       <c r="L115" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A87)))/($H$81*SIN(RADIANS(A87))+P87)</f>
         <v>11.337643522110103</v>
@@ -3962,31 +4020,49 @@
       <c r="M115" s="21"/>
       <c r="N115" s="21"/>
       <c r="O115" s="21"/>
-      <c r="Q115" s="21">
+      <c r="P115" s="21"/>
+      <c r="Q115" s="23">
         <f t="shared" ref="Q115:Q138" si="11">SQRT(H115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
         <v>12.985022265355104</v>
       </c>
-      <c r="R115" s="22">
+      <c r="R115" s="23">
         <f t="shared" ref="R115:R138" si="12">SQRT(I115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
         <v>11.151378662235334</v>
       </c>
-      <c r="S115" s="22">
+      <c r="S115" s="23">
         <f t="shared" ref="S115:S118" si="13">SQRT(J115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
         <v>9.4742818556049819</v>
       </c>
-      <c r="T115" s="22" t="e">
-        <f t="shared" ref="T115:T116" si="14">SQRT(K115^2-$I$81^2*SIN(RADIANS(G115)))+$I$81*COS(RADIANS(G115))</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="T115" s="21"/>
       <c r="U115" s="21">
-        <f t="shared" ref="U115" si="15">SQRT(L115^2-$I$81^2*SIN(RADIANS(G115)))+$I$81*COS(RADIANS(G115))</f>
+        <f t="shared" ref="U115" si="14">SQRT(L115^2-$I$81^2*SIN(RADIANS(G115)))+$I$81*COS(RADIANS(G115))</f>
         <v>15.866549239020737</v>
       </c>
       <c r="V115" s="21"/>
       <c r="W115" s="21"/>
       <c r="X115" s="21"/>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z115" s="23">
+        <f t="shared" ref="Z115:Z138" si="15">-SQRT(H115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
+        <v>0.41116054595916829</v>
+      </c>
+      <c r="AA115" s="23">
+        <f t="shared" ref="AA115:AA138" si="16">-SQRT(I115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
+        <v>2.2448041490789388</v>
+      </c>
+      <c r="AB115" s="23">
+        <f t="shared" ref="AB115:AB138" si="17">-SQRT(J115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
+        <v>3.9219009557092908</v>
+      </c>
+      <c r="AC115" s="21"/>
+      <c r="AD115" s="21">
+        <f t="shared" ref="AD115:AD138" si="18">-SQRT(L115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
+        <v>-3.3595717977407169</v>
+      </c>
+      <c r="AE115" s="21"/>
+      <c r="AF115" s="21"/>
+      <c r="AG115" s="21"/>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A116" s="11">
         <v>38</v>
       </c>
@@ -4024,28 +4100,49 @@
       <c r="M116" s="21"/>
       <c r="N116" s="21"/>
       <c r="O116" s="21"/>
-      <c r="Q116" s="21">
+      <c r="P116" s="21"/>
+      <c r="Q116" s="23">
         <f t="shared" si="11"/>
         <v>12.000371875914929</v>
       </c>
-      <c r="R116" s="21">
+      <c r="R116" s="23">
         <f t="shared" si="12"/>
         <v>10.260113639264324</v>
       </c>
-      <c r="S116" s="21">
+      <c r="S116" s="23">
         <f t="shared" si="13"/>
         <v>7.8929887622287147</v>
       </c>
       <c r="T116" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="T115:T116" si="19">SQRT(K116^2-$I$81^2*SIN(RADIANS(G116)))+$I$81*COS(RADIANS(G116))</f>
         <v>17.16838220902595</v>
       </c>
       <c r="U116" s="21"/>
       <c r="V116" s="21"/>
       <c r="W116" s="21"/>
       <c r="X116" s="21"/>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z116" s="23">
+        <f t="shared" si="15"/>
+        <v>0.43264105161096911</v>
+      </c>
+      <c r="AA116" s="23">
+        <f t="shared" si="16"/>
+        <v>2.1728992882615739</v>
+      </c>
+      <c r="AB116" s="23">
+        <f t="shared" si="17"/>
+        <v>4.5400241652971829</v>
+      </c>
+      <c r="AC116" s="21">
+        <f t="shared" ref="AC115:AC138" si="20">-SQRT(K116^2-$I$81^2*SIN(RADIANS(G116))^2)+$I$81*COS(RADIANS(G116))</f>
+        <v>-5.4287894306401689</v>
+      </c>
+      <c r="AD116" s="21"/>
+      <c r="AE116" s="21"/>
+      <c r="AF116" s="21"/>
+      <c r="AG116" s="21"/>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A117" s="11">
         <v>43</v>
       </c>
@@ -4081,11 +4178,12 @@
       <c r="M117" s="21"/>
       <c r="N117" s="21"/>
       <c r="O117" s="21"/>
-      <c r="Q117" s="21">
+      <c r="P117" s="21"/>
+      <c r="Q117" s="23">
         <f t="shared" si="11"/>
         <v>11.090060568640137</v>
       </c>
-      <c r="R117" s="21">
+      <c r="R117" s="23">
         <f t="shared" si="12"/>
         <v>6.7955831285693753</v>
       </c>
@@ -4098,8 +4196,25 @@
       <c r="V117" s="21"/>
       <c r="W117" s="21"/>
       <c r="X117" s="21"/>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z117" s="23">
+        <f t="shared" si="15"/>
+        <v>0.28515973946045481</v>
+      </c>
+      <c r="AA117" s="23">
+        <f t="shared" si="16"/>
+        <v>4.5796371795312156</v>
+      </c>
+      <c r="AB117" s="21">
+        <f t="shared" si="17"/>
+        <v>-4.2766355575343891</v>
+      </c>
+      <c r="AC117" s="21"/>
+      <c r="AD117" s="21"/>
+      <c r="AE117" s="21"/>
+      <c r="AF117" s="21"/>
+      <c r="AG117" s="21"/>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A118" s="11">
         <f>A117+5</f>
         <v>48</v>
@@ -4116,17 +4231,14 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11">
-        <f t="shared" ref="G118:G128" si="16">G117+5</f>
+        <f t="shared" ref="G118:G128" si="21">G117+5</f>
         <v>53</v>
       </c>
       <c r="H118" s="21">
         <f t="shared" si="9"/>
         <v>8.1431294055802379</v>
       </c>
-      <c r="I118" s="21">
-        <f t="shared" si="10"/>
-        <v>6.7091179860332026</v>
-      </c>
+      <c r="I118" s="21"/>
       <c r="J118" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A90)))/($H$81*SIN(RADIANS(A90))+L90)</f>
         <v>11.881071081384018</v>
@@ -4136,14 +4248,12 @@
       <c r="M118" s="21"/>
       <c r="N118" s="21"/>
       <c r="O118" s="21"/>
-      <c r="Q118" s="21">
+      <c r="P118" s="21"/>
+      <c r="Q118" s="23">
         <f t="shared" si="11"/>
         <v>9.6130000460866896</v>
       </c>
-      <c r="R118" s="21" t="e">
-        <f>SQRT(I118^2-$I$81^2*SIN(RADIANS(G118))^2)+$I$81*COS(RADIANS(G118))</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="R118" s="21"/>
       <c r="S118" s="21">
         <f t="shared" si="13"/>
         <v>14.866194362137783</v>
@@ -4153,10 +4263,24 @@
       <c r="V118" s="21"/>
       <c r="W118" s="21"/>
       <c r="X118" s="21"/>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z118" s="23">
+        <f t="shared" si="15"/>
+        <v>0.6178553474981312</v>
+      </c>
+      <c r="AA118" s="21"/>
+      <c r="AB118" s="21">
+        <f t="shared" si="17"/>
+        <v>-4.6353389685529613</v>
+      </c>
+      <c r="AC118" s="21"/>
+      <c r="AD118" s="21"/>
+      <c r="AE118" s="21"/>
+      <c r="AF118" s="21"/>
+      <c r="AG118" s="21"/>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A119" s="11">
-        <f t="shared" ref="A119:A127" si="17">A118+5</f>
+        <f t="shared" ref="A119:A127" si="22">A118+5</f>
         <v>53</v>
       </c>
       <c r="B119" s="11">
@@ -4171,7 +4295,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>58</v>
       </c>
       <c r="H119" s="21">
@@ -4188,7 +4312,8 @@
       <c r="M119" s="21"/>
       <c r="N119" s="21"/>
       <c r="O119" s="21"/>
-      <c r="Q119" s="21">
+      <c r="P119" s="21"/>
+      <c r="Q119" s="23">
         <f t="shared" si="11"/>
         <v>8.3708728285696399</v>
       </c>
@@ -4202,10 +4327,24 @@
       <c r="V119" s="21"/>
       <c r="W119" s="21"/>
       <c r="X119" s="21"/>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z119" s="23">
+        <f>-SQRT(H119^2-$I$81^2*SIN(RADIANS(G119))^2)+$I$81*COS(RADIANS(G119))</f>
+        <v>0.6377546633948441</v>
+      </c>
+      <c r="AA119" s="21">
+        <f t="shared" si="16"/>
+        <v>-6.3420747581446575</v>
+      </c>
+      <c r="AB119" s="21"/>
+      <c r="AC119" s="21"/>
+      <c r="AD119" s="21"/>
+      <c r="AE119" s="21"/>
+      <c r="AF119" s="21"/>
+      <c r="AG119" s="21"/>
+    </row>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A120" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>58</v>
       </c>
       <c r="B120" s="11">
@@ -4220,7 +4359,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>63</v>
       </c>
       <c r="H120" s="21">
@@ -4237,8 +4376,9 @@
       <c r="M120" s="21"/>
       <c r="N120" s="21"/>
       <c r="O120" s="21"/>
-      <c r="Q120" s="21">
-        <f t="shared" si="11"/>
+      <c r="P120" s="21"/>
+      <c r="Q120" s="23">
+        <f>SQRT(H120^2-$I$81^2*SIN(RADIANS(G120))^2)+$I$81*COS(RADIANS(G120))</f>
         <v>7.277230070995631</v>
       </c>
       <c r="R120" s="21">
@@ -4251,10 +4391,24 @@
       <c r="V120" s="21"/>
       <c r="W120" s="21"/>
       <c r="X120" s="21"/>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z120" s="23">
+        <f t="shared" si="15"/>
+        <v>0.4406084245766646</v>
+      </c>
+      <c r="AA120" s="21">
+        <f t="shared" si="16"/>
+        <v>-6.6879753150844632</v>
+      </c>
+      <c r="AB120" s="21"/>
+      <c r="AC120" s="21"/>
+      <c r="AD120" s="21"/>
+      <c r="AE120" s="21"/>
+      <c r="AF120" s="21"/>
+      <c r="AG120" s="21"/>
+    </row>
+    <row r="121" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A121" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>63</v>
       </c>
       <c r="B121" s="11">
@@ -4269,7 +4423,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>68</v>
       </c>
       <c r="H121" s="21">
@@ -4286,7 +4440,8 @@
       <c r="M121" s="21"/>
       <c r="N121" s="21"/>
       <c r="O121" s="21"/>
-      <c r="Q121" s="21">
+      <c r="P121" s="21"/>
+      <c r="Q121" s="23">
         <f t="shared" si="11"/>
         <v>5.4295090363020861</v>
       </c>
@@ -4300,10 +4455,24 @@
       <c r="V121" s="21"/>
       <c r="W121" s="21"/>
       <c r="X121" s="21"/>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z121" s="23">
+        <f t="shared" si="15"/>
+        <v>0.93880305176841716</v>
+      </c>
+      <c r="AA121" s="21">
+        <f t="shared" si="16"/>
+        <v>-6.9109518595859907</v>
+      </c>
+      <c r="AB121" s="21"/>
+      <c r="AC121" s="21"/>
+      <c r="AD121" s="21"/>
+      <c r="AE121" s="21"/>
+      <c r="AF121" s="21"/>
+      <c r="AG121" s="21"/>
+    </row>
+    <row r="122" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A122" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
       <c r="B122" s="11">
@@ -4335,7 +4504,8 @@
       <c r="M122" s="21"/>
       <c r="N122" s="21"/>
       <c r="O122" s="21"/>
-      <c r="Q122" s="21">
+      <c r="P122" s="21"/>
+      <c r="Q122" s="23">
         <f t="shared" si="11"/>
         <v>3.9977823414224405</v>
       </c>
@@ -4349,8 +4519,22 @@
       <c r="V122" s="21"/>
       <c r="W122" s="21"/>
       <c r="X122" s="21"/>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z122" s="23">
+        <f t="shared" si="15"/>
+        <v>0.97253663886408437</v>
+      </c>
+      <c r="AA122" s="21">
+        <f t="shared" si="16"/>
+        <v>-7.6085733475833273</v>
+      </c>
+      <c r="AB122" s="21"/>
+      <c r="AC122" s="21"/>
+      <c r="AD122" s="21"/>
+      <c r="AE122" s="21"/>
+      <c r="AF122" s="21"/>
+      <c r="AG122" s="21"/>
+    </row>
+    <row r="123" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A123" s="11">
         <f>A122+5</f>
         <v>73</v>
@@ -4367,7 +4551,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>78</v>
       </c>
       <c r="H123" s="21">
@@ -4379,7 +4563,7 @@
         <v>9.9090498759479573</v>
       </c>
       <c r="J123" s="21">
-        <f t="shared" ref="J123:J138" si="18">($I$81*$H$81*SIN(RADIANS(A95)))/($H$81*SIN(RADIANS(A95))+L95)</f>
+        <f t="shared" ref="J123:J138" si="23">($I$81*$H$81*SIN(RADIANS(A95)))/($H$81*SIN(RADIANS(A95))+L95)</f>
         <v>12.572031983500993</v>
       </c>
       <c r="K123" s="21"/>
@@ -4387,7 +4571,8 @@
       <c r="M123" s="21"/>
       <c r="N123" s="21"/>
       <c r="O123" s="21"/>
-      <c r="Q123" s="21">
+      <c r="P123" s="21"/>
+      <c r="Q123" s="23">
         <f t="shared" si="11"/>
         <v>3.0074730920358883</v>
       </c>
@@ -4404,8 +4589,25 @@
       <c r="V123" s="21"/>
       <c r="W123" s="21"/>
       <c r="X123" s="21"/>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z123" s="23">
+        <f t="shared" si="15"/>
+        <v>0.52702565186602279</v>
+      </c>
+      <c r="AA123" s="21">
+        <f t="shared" si="16"/>
+        <v>-3.6237097066068915</v>
+      </c>
+      <c r="AB123" s="21">
+        <f t="shared" si="17"/>
+        <v>-7.6629764226328092</v>
+      </c>
+      <c r="AC123" s="21"/>
+      <c r="AD123" s="21"/>
+      <c r="AE123" s="21"/>
+      <c r="AF123" s="21"/>
+      <c r="AG123" s="21"/>
+    </row>
+    <row r="124" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A124" s="11">
         <v>73</v>
       </c>
@@ -4421,19 +4623,16 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>83</v>
       </c>
-      <c r="H124" s="21">
-        <f t="shared" si="9"/>
-        <v>8.3246323416513075</v>
-      </c>
+      <c r="H124" s="21"/>
       <c r="I124" s="21">
         <f t="shared" si="10"/>
         <v>10.330956914184853</v>
       </c>
       <c r="J124" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12.830494510373555</v>
       </c>
       <c r="K124" s="21"/>
@@ -4441,16 +4640,14 @@
       <c r="M124" s="21"/>
       <c r="N124" s="21"/>
       <c r="O124" s="21"/>
-      <c r="Q124" s="21" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="P124" s="21"/>
+      <c r="Q124" s="21"/>
       <c r="R124" s="21">
         <f t="shared" si="12"/>
         <v>6.9984172093212074</v>
       </c>
       <c r="S124" s="21">
-        <f t="shared" ref="S124:S138" si="19">SQRT(J124^2-$I$81^2*SIN(RADIANS(G124))^2)+$I$81*COS(RADIANS(G124))</f>
+        <f t="shared" ref="S124:S138" si="24">SQRT(J124^2-$I$81^2*SIN(RADIANS(G124))^2)+$I$81*COS(RADIANS(G124))</f>
         <v>10.702567042047027</v>
       </c>
       <c r="T124" s="21"/>
@@ -4458,8 +4655,22 @@
       <c r="V124" s="21"/>
       <c r="W124" s="21"/>
       <c r="X124" s="21"/>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z124" s="21"/>
+      <c r="AA124" s="21">
+        <f t="shared" si="16"/>
+        <v>-4.9266383714337003</v>
+      </c>
+      <c r="AB124" s="21">
+        <f t="shared" si="17"/>
+        <v>-8.6307882041595203</v>
+      </c>
+      <c r="AC124" s="21"/>
+      <c r="AD124" s="21"/>
+      <c r="AE124" s="21"/>
+      <c r="AF124" s="21"/>
+      <c r="AG124" s="21"/>
+    </row>
+    <row r="125" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A125" s="11">
         <f>A123+5</f>
         <v>78</v>
@@ -4476,53 +4687,56 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>88</v>
       </c>
-      <c r="H125" s="21">
-        <f t="shared" si="9"/>
-        <v>8.4120027295406992</v>
-      </c>
+      <c r="H125" s="21"/>
       <c r="I125" s="21">
         <f t="shared" si="10"/>
         <v>10.693504684008785</v>
       </c>
       <c r="J125" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12.812177463286915</v>
       </c>
-      <c r="K125" s="22">
-        <f t="shared" ref="K125:K136" si="20">($I$81*$H$81*SIN(RADIANS(A97)))/($H$81*SIN(RADIANS(A97))+N97)</f>
-        <v>4.3842598886306297</v>
-      </c>
+      <c r="K125" s="21"/>
       <c r="L125" s="21"/>
       <c r="M125" s="21"/>
       <c r="N125" s="21"/>
       <c r="O125" s="21"/>
-      <c r="Q125" s="21" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="P125" s="21"/>
+      <c r="Q125" s="21"/>
       <c r="R125" s="21">
         <f t="shared" si="12"/>
         <v>6.7919548840729105</v>
       </c>
       <c r="S125" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>9.8877817357665467</v>
       </c>
-      <c r="T125" s="22" t="e">
-        <f>SQRT(K125^2-$I$81^2*SIN(RADIANS(G125))^2)+$I$81*COS(RADIANS(G125))</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="T125" s="21"/>
       <c r="U125" s="21"/>
       <c r="V125" s="21"/>
       <c r="W125" s="21"/>
       <c r="X125" s="21"/>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z125" s="21"/>
+      <c r="AA125" s="21">
+        <f t="shared" si="16"/>
+        <v>-6.1986634401303915</v>
+      </c>
+      <c r="AB125" s="21">
+        <f t="shared" si="17"/>
+        <v>-9.2944902918240278</v>
+      </c>
+      <c r="AC125" s="21"/>
+      <c r="AD125" s="21"/>
+      <c r="AE125" s="21"/>
+      <c r="AF125" s="21"/>
+      <c r="AG125" s="21"/>
+    </row>
+    <row r="126" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A126" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>83</v>
       </c>
       <c r="B126" s="11">
@@ -4548,24 +4762,25 @@
         <f t="shared" si="10"/>
         <v>10.467785629543718</v>
       </c>
-      <c r="J126" s="22">
-        <f t="shared" si="18"/>
+      <c r="J126" s="21">
+        <f t="shared" si="23"/>
         <v>9.1902117959766159</v>
       </c>
       <c r="K126" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="K125:K136" si="25">($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+N98)</f>
         <v>13.022711260204492</v>
       </c>
-      <c r="L126" s="22">
+      <c r="L126" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+P98)</f>
         <v>14.255409516507427</v>
       </c>
-      <c r="M126" s="22">
+      <c r="M126" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+R98)</f>
         <v>16.915422490431048</v>
       </c>
       <c r="N126" s="21"/>
       <c r="O126" s="21"/>
+      <c r="P126" s="21"/>
       <c r="Q126" s="21">
         <f t="shared" si="11"/>
         <v>1.1934897514720433E-14</v>
@@ -4574,28 +4789,54 @@
         <f t="shared" si="12"/>
         <v>5.680700062311411</v>
       </c>
-      <c r="S126" s="22">
-        <f t="shared" si="19"/>
+      <c r="S126" s="21">
+        <f t="shared" si="24"/>
         <v>3.0776277834968933</v>
       </c>
       <c r="T126" s="21">
-        <f t="shared" ref="T126:T136" si="21">SQRT(K126^2-$I$81^2*SIN(RADIANS(G126))^2)+$I$81*COS(RADIANS(G126))</f>
+        <f t="shared" ref="T126:T136" si="26">SQRT(K126^2-$I$81^2*SIN(RADIANS(G126))^2)+$I$81*COS(RADIANS(G126))</f>
         <v>9.4313230406548776</v>
       </c>
-      <c r="U126" s="22">
+      <c r="U126" s="21">
         <f>SQRT(L126^2-$I$81^2*SIN(RADIANS(G126))^2)+$I$81*COS(RADIANS(G126))</f>
         <v>11.007855710877894</v>
       </c>
-      <c r="V126" s="22">
+      <c r="V126" s="21">
         <f>SQRT(M126^2-$I$81^2*SIN(RADIANS(G126))^2)+$I$81*COS(RADIANS(G126))</f>
         <v>14.186597292257062</v>
       </c>
       <c r="W126" s="21"/>
       <c r="X126" s="21"/>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z126" s="21">
+        <f t="shared" si="15"/>
+        <v>-0.8897112561300573</v>
+      </c>
+      <c r="AA126" s="21">
+        <f t="shared" si="16"/>
+        <v>-6.5704113184414563</v>
+      </c>
+      <c r="AB126" s="21">
+        <f t="shared" si="17"/>
+        <v>-3.9673390396269386</v>
+      </c>
+      <c r="AC126" s="21">
+        <f t="shared" si="20"/>
+        <v>-10.321034296784923</v>
+      </c>
+      <c r="AD126" s="21">
+        <f t="shared" si="18"/>
+        <v>-11.89756696700794</v>
+      </c>
+      <c r="AE126" s="21">
+        <f t="shared" ref="AE115:AE138" si="27">-SQRT(M126^2-$I$81^2*SIN(RADIANS(G126))^2)+$I$81*COS(RADIANS(G126))</f>
+        <v>-15.076308548387107</v>
+      </c>
+      <c r="AF126" s="21"/>
+      <c r="AG126" s="21"/>
+    </row>
+    <row r="127" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A127" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>88</v>
       </c>
       <c r="B127" s="11">
@@ -4610,57 +4851,72 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>98</v>
       </c>
-      <c r="H127" s="21">
-        <f t="shared" si="9"/>
-        <v>8.4766546556527373</v>
-      </c>
+      <c r="H127" s="21"/>
       <c r="I127" s="21">
         <f t="shared" si="10"/>
         <v>10.160274890690813</v>
       </c>
       <c r="J127" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>11.911832604581679</v>
       </c>
       <c r="K127" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>9.5179432733681129</v>
       </c>
-      <c r="L127" s="22">
+      <c r="L127" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A99)))/($H$81*SIN(RADIANS(A99))+P99)</f>
         <v>18.562753739809548</v>
       </c>
       <c r="M127" s="21"/>
       <c r="N127" s="21"/>
       <c r="O127" s="21"/>
-      <c r="Q127" s="21">
-        <f>SQRT(H127^2-$I$81^2*SIN(RADIANS(G127))^2)+$I$81*COS(RADIANS(G127))</f>
-        <v>-0.18142486127313817</v>
-      </c>
+      <c r="P127" s="21"/>
+      <c r="Q127" s="21"/>
       <c r="R127" s="21">
         <f t="shared" si="12"/>
         <v>4.5074246815391801</v>
       </c>
       <c r="S127" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>7.2456214801371512</v>
       </c>
       <c r="T127" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>3.2600755006156978</v>
       </c>
-      <c r="U127" s="22">
+      <c r="U127" s="21">
         <f>SQRT(L127^2-$I$81^2*SIN(RADIANS(G127))^2)+$I$81*COS(RADIANS(G127))</f>
         <v>15.361672718973336</v>
       </c>
       <c r="V127" s="21"/>
       <c r="W127" s="21"/>
       <c r="X127" s="21"/>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z127" s="21"/>
+      <c r="AA127" s="21">
+        <f t="shared" si="16"/>
+        <v>-6.8733673978602914</v>
+      </c>
+      <c r="AB127" s="21">
+        <f t="shared" si="17"/>
+        <v>-9.6115641964582625</v>
+      </c>
+      <c r="AC127" s="21">
+        <f t="shared" si="20"/>
+        <v>-5.6260182169368091</v>
+      </c>
+      <c r="AD127" s="21">
+        <f t="shared" si="18"/>
+        <v>-17.727615435294446</v>
+      </c>
+      <c r="AE127" s="21"/>
+      <c r="AF127" s="21"/>
+      <c r="AG127" s="21"/>
+    </row>
+    <row r="128" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A128" s="11">
         <v>88</v>
       </c>
@@ -4676,7 +4932,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>103</v>
       </c>
       <c r="H128" s="21">
@@ -4687,18 +4943,19 @@
         <f t="shared" si="10"/>
         <v>11.13998695519188</v>
       </c>
-      <c r="J128" s="22">
-        <f t="shared" si="18"/>
+      <c r="J128" s="21">
+        <f t="shared" si="23"/>
         <v>15.753499409636003</v>
       </c>
-      <c r="K128" s="22">
-        <f t="shared" si="20"/>
+      <c r="K128" s="21">
+        <f t="shared" si="25"/>
         <v>10.227085526855307</v>
       </c>
       <c r="L128" s="21"/>
       <c r="M128" s="21"/>
       <c r="N128" s="21"/>
       <c r="O128" s="21"/>
+      <c r="P128" s="21"/>
       <c r="Q128" s="21">
         <f t="shared" si="11"/>
         <v>0.52369567082377544</v>
@@ -4707,20 +4964,40 @@
         <f t="shared" si="12"/>
         <v>5.5381089509679162</v>
       </c>
-      <c r="S128" s="22">
-        <f t="shared" si="19"/>
+      <c r="S128" s="21">
+        <f t="shared" si="24"/>
         <v>11.488617837865265</v>
       </c>
-      <c r="T128" s="22">
-        <f t="shared" si="21"/>
+      <c r="T128" s="21">
+        <f t="shared" si="26"/>
         <v>4.0878613254156813</v>
       </c>
       <c r="U128" s="21"/>
       <c r="V128" s="21"/>
       <c r="W128" s="21"/>
       <c r="X128" s="21"/>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z128" s="21">
+        <f t="shared" si="15"/>
+        <v>-4.347863594669481</v>
+      </c>
+      <c r="AA128" s="21">
+        <f t="shared" si="16"/>
+        <v>-9.362276874813622</v>
+      </c>
+      <c r="AB128" s="21">
+        <f t="shared" si="17"/>
+        <v>-15.312785761710971</v>
+      </c>
+      <c r="AC128" s="21">
+        <f t="shared" si="20"/>
+        <v>-7.9120292492613862</v>
+      </c>
+      <c r="AD128" s="21"/>
+      <c r="AE128" s="21"/>
+      <c r="AF128" s="21"/>
+      <c r="AG128" s="21"/>
+    </row>
+    <row r="129" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A129" s="17"/>
       <c r="B129" s="18"/>
       <c r="C129" s="11"/>
@@ -4740,23 +5017,24 @@
         <v>11.33126177929849</v>
       </c>
       <c r="J129" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12.517858409521965</v>
       </c>
       <c r="K129" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>16.808184052897602</v>
       </c>
-      <c r="L129" s="22">
+      <c r="L129" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A101)))/($H$81*SIN(RADIANS(A101))+P101)</f>
         <v>12.591109879880104</v>
       </c>
-      <c r="M129" s="22">
+      <c r="M129" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A101)))/($H$81*SIN(RADIANS(A101))+R101)</f>
         <v>8.546422473720078</v>
       </c>
       <c r="N129" s="21"/>
       <c r="O129" s="21"/>
+      <c r="P129" s="21"/>
       <c r="Q129" s="21">
         <f t="shared" si="11"/>
         <v>0.94908197005394168</v>
@@ -4766,25 +5044,51 @@
         <v>4.8750016005827677</v>
       </c>
       <c r="S129" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>6.4500312612627573</v>
       </c>
       <c r="T129" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>11.554790164604665</v>
       </c>
-      <c r="U129" s="22">
+      <c r="U129" s="21">
         <f>SQRT(L129^2-$I$81^2*SIN(RADIANS(G129))^2)+$I$81*COS(RADIANS(G129))</f>
         <v>6.5436987057056344</v>
       </c>
-      <c r="V129" s="22">
+      <c r="V129" s="21">
         <f>SQRT(M129^2-$I$81^2*SIN(RADIANS(G129))^2)+$I$81*COS(RADIANS(G129))</f>
         <v>0.1170703678868561</v>
       </c>
       <c r="W129" s="21"/>
       <c r="X129" s="21"/>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z129" s="21">
+        <f t="shared" si="15"/>
+        <v>-7.5915111543715961</v>
+      </c>
+      <c r="AA129" s="21">
+        <f t="shared" si="16"/>
+        <v>-11.517430784900423</v>
+      </c>
+      <c r="AB129" s="21">
+        <f t="shared" si="17"/>
+        <v>-13.092460445580411</v>
+      </c>
+      <c r="AC129" s="21">
+        <f t="shared" si="20"/>
+        <v>-18.197219348922317</v>
+      </c>
+      <c r="AD129" s="21">
+        <f t="shared" si="18"/>
+        <v>-13.18612789002329</v>
+      </c>
+      <c r="AE129" s="21">
+        <f t="shared" si="27"/>
+        <v>-6.7594995522045105</v>
+      </c>
+      <c r="AF129" s="21"/>
+      <c r="AG129" s="21"/>
+    </row>
+    <row r="130" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A130" s="13" t="s">
         <v>16</v>
       </c>
@@ -4802,7 +5106,7 @@
       </c>
       <c r="F130" s="11"/>
       <c r="G130" s="11">
-        <f t="shared" ref="G130:G138" si="22">G129+10</f>
+        <f t="shared" ref="G130:G138" si="28">G129+10</f>
         <v>123</v>
       </c>
       <c r="H130" s="21">
@@ -4813,24 +5117,22 @@
         <f t="shared" si="10"/>
         <v>8.6547948961173127</v>
       </c>
-      <c r="J130" s="22">
-        <f t="shared" si="18"/>
+      <c r="J130" s="21">
+        <f t="shared" si="23"/>
         <v>10.574743005170509</v>
       </c>
       <c r="K130" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>12.290136986021105</v>
       </c>
-      <c r="L130" s="22">
+      <c r="L130" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A102)))/($H$81*SIN(RADIANS(A102))+P102)</f>
         <v>17.719555065848684</v>
       </c>
-      <c r="M130" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A102)))/($H$81*SIN(RADIANS(A102))+R102)</f>
-        <v>5.7236163946797056</v>
-      </c>
+      <c r="M130" s="21"/>
       <c r="N130" s="21"/>
       <c r="O130" s="21"/>
+      <c r="P130" s="21"/>
       <c r="Q130" s="21">
         <f t="shared" si="11"/>
         <v>0.62369551305019044</v>
@@ -4839,26 +5141,46 @@
         <f t="shared" si="12"/>
         <v>0.27843061514883516</v>
       </c>
-      <c r="S130" s="22">
-        <f t="shared" si="19"/>
+      <c r="S130" s="21">
+        <f t="shared" si="24"/>
         <v>3.1812550091959402</v>
       </c>
       <c r="T130" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>5.3820169438906857</v>
       </c>
-      <c r="U130" s="22">
-        <f t="shared" ref="U130:U132" si="23">SQRT(L130^2-$I$81^2*SIN(RADIANS(G130))^2)+$I$81*COS(RADIANS(G130))</f>
+      <c r="U130" s="21">
+        <f t="shared" ref="U130:U132" si="29">SQRT(L130^2-$I$81^2*SIN(RADIANS(G130))^2)+$I$81*COS(RADIANS(G130))</f>
         <v>11.592906828493057</v>
       </c>
-      <c r="V130" s="22" t="e">
-        <f>SQRT(M130^2-$I$81^2*SIN(RADIANS(G130))^2)+$I$81*COS(RADIANS(G130))</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="V130" s="21"/>
       <c r="W130" s="21"/>
       <c r="X130" s="21"/>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z130" s="21">
+        <f t="shared" si="15"/>
+        <v>-9.8825591083056512</v>
+      </c>
+      <c r="AA130" s="21">
+        <f t="shared" si="16"/>
+        <v>-9.5372942104042959</v>
+      </c>
+      <c r="AB130" s="21">
+        <f t="shared" si="17"/>
+        <v>-12.440118604451401</v>
+      </c>
+      <c r="AC130" s="21">
+        <f t="shared" si="20"/>
+        <v>-14.640880539146146</v>
+      </c>
+      <c r="AD130" s="21">
+        <f t="shared" si="18"/>
+        <v>-20.851770423748519</v>
+      </c>
+      <c r="AE130" s="21"/>
+      <c r="AF130" s="21"/>
+      <c r="AG130" s="21"/>
+    </row>
+    <row r="131" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A131" s="11">
         <v>38</v>
       </c>
@@ -4883,50 +5205,68 @@
         <f t="shared" si="9"/>
         <v>8.6834946098657344</v>
       </c>
-      <c r="I131" s="22">
+      <c r="I131" s="21">
         <f t="shared" si="10"/>
         <v>9.1604249394083208</v>
       </c>
       <c r="J131" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12.421967048345994</v>
       </c>
-      <c r="K131" s="22">
-        <f t="shared" si="20"/>
+      <c r="K131" s="21">
+        <f t="shared" si="25"/>
         <v>20.474194181482972</v>
       </c>
-      <c r="L131" s="22">
+      <c r="L131" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A103)))/($H$81*SIN(RADIANS(A103))+P103)</f>
         <v>4.4117453694570496</v>
       </c>
       <c r="M131" s="21"/>
       <c r="N131" s="21"/>
       <c r="O131" s="21"/>
+      <c r="P131" s="21"/>
       <c r="Q131" s="21">
         <f t="shared" si="11"/>
         <v>0.26586195220673137</v>
       </c>
-      <c r="R131" s="22">
+      <c r="R131" s="21">
         <f t="shared" si="12"/>
         <v>0.93119589721391627</v>
       </c>
       <c r="S131" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>4.9575624068004887</v>
       </c>
-      <c r="T131" s="22">
-        <f t="shared" si="21"/>
+      <c r="T131" s="21">
+        <f t="shared" si="26"/>
         <v>13.710645132595843</v>
       </c>
-      <c r="U131" s="22" t="e">
-        <f t="shared" si="23"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="U131" s="21"/>
       <c r="V131" s="21"/>
       <c r="W131" s="21"/>
       <c r="X131" s="21"/>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z131" s="21">
+        <f t="shared" si="15"/>
+        <v>-11.859834073269205</v>
+      </c>
+      <c r="AA131" s="21">
+        <f t="shared" si="16"/>
+        <v>-12.525168018276389</v>
+      </c>
+      <c r="AB131" s="21">
+        <f t="shared" si="17"/>
+        <v>-16.551534527862962</v>
+      </c>
+      <c r="AC131" s="21">
+        <f t="shared" si="20"/>
+        <v>-25.304617253658314</v>
+      </c>
+      <c r="AD131" s="21"/>
+      <c r="AE131" s="21"/>
+      <c r="AF131" s="21"/>
+      <c r="AG131" s="21"/>
+    </row>
+    <row r="132" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A132" s="11">
         <v>43</v>
       </c>
@@ -4942,69 +5282,54 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>143</v>
       </c>
-      <c r="H132" s="22">
-        <f t="shared" si="9"/>
-        <v>8.3610691192869329</v>
-      </c>
+      <c r="H132" s="21"/>
       <c r="I132" s="21">
         <f t="shared" si="10"/>
         <v>8.9246653061276966</v>
       </c>
-      <c r="J132" s="21">
-        <f t="shared" si="18"/>
-        <v>6.5544475714785966</v>
-      </c>
+      <c r="J132" s="21"/>
       <c r="K132" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>19.370181648200006</v>
       </c>
-      <c r="L132" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A104)))/($H$81*SIN(RADIANS(A104))+P104)</f>
-        <v>4.3978005054892702</v>
-      </c>
-      <c r="M132" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A104)))/($H$81*SIN(RADIANS(A104))+R104)</f>
-        <v>4.6198575684056307</v>
-      </c>
-      <c r="N132" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A104)))/($H$81*SIN(RADIANS(A104))+T104)</f>
-        <v>6.8123415692197531</v>
-      </c>
+      <c r="L132" s="21"/>
+      <c r="M132" s="21"/>
+      <c r="N132" s="21"/>
       <c r="O132" s="21"/>
-      <c r="Q132" s="22">
-        <f>SQRT(H132^2-$I$81^2*SIN(RADIANS(G132))^2)+$I$81*COS(RADIANS(G132))</f>
-        <v>-0.17478888207740972</v>
-      </c>
+      <c r="P132" s="21"/>
+      <c r="Q132" s="21"/>
       <c r="R132" s="21">
         <f t="shared" si="12"/>
         <v>0.52474046495621351</v>
       </c>
-      <c r="S132" s="21">
-        <f t="shared" si="19"/>
-        <v>-2.6904532698205745</v>
-      </c>
+      <c r="S132" s="21"/>
       <c r="T132" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>11.894112357370711</v>
       </c>
-      <c r="U132" s="22" t="e">
-        <f t="shared" si="23"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="V132" s="22" t="e">
-        <f>SQRT(M132^2-$I$81^2*SIN(RADIANS(G132))^2)+$I$81*COS(RADIANS(G132))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="W132" s="22">
-        <f>SQRT(N132^2-$I$81^2*SIN(RADIANS(G132))^2)+$I$81*COS(RADIANS(G132))</f>
-        <v>-2.2894689469707172</v>
-      </c>
+      <c r="U132" s="21"/>
+      <c r="V132" s="21"/>
+      <c r="W132" s="21"/>
       <c r="X132" s="21"/>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z132" s="21"/>
+      <c r="AA132" s="21">
+        <f t="shared" si="16"/>
+        <v>-14.101544135760193</v>
+      </c>
+      <c r="AB132" s="21"/>
+      <c r="AC132" s="21">
+        <f t="shared" si="20"/>
+        <v>-25.470916028174692</v>
+      </c>
+      <c r="AD132" s="21"/>
+      <c r="AE132" s="21"/>
+      <c r="AF132" s="21"/>
+      <c r="AG132" s="21"/>
+    </row>
+    <row r="133" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A133" s="11">
         <f>A132+5</f>
         <v>48</v>
@@ -5021,53 +5346,74 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>153</v>
       </c>
       <c r="H133" s="21">
         <f t="shared" si="9"/>
         <v>9.200059202035602</v>
       </c>
-      <c r="I133" s="22">
+      <c r="I133" s="21">
         <f t="shared" si="10"/>
         <v>11.203294405386712</v>
       </c>
       <c r="J133" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>13.374136534729741</v>
       </c>
       <c r="K133" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>16.620927431551653</v>
       </c>
       <c r="L133" s="21"/>
       <c r="M133" s="21"/>
       <c r="N133" s="21"/>
       <c r="O133" s="21"/>
+      <c r="P133" s="21"/>
       <c r="Q133" s="21">
         <f t="shared" si="11"/>
         <v>0.77808100440032302</v>
       </c>
-      <c r="R133" s="22">
+      <c r="R133" s="21">
         <f t="shared" si="12"/>
         <v>2.9441699530998813</v>
       </c>
       <c r="S133" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>5.2317664961757382</v>
       </c>
       <c r="T133" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>8.5931996586440249</v>
       </c>
       <c r="U133" s="21"/>
       <c r="V133" s="21"/>
       <c r="W133" s="21"/>
       <c r="X133" s="21"/>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z133" s="21">
+        <f t="shared" si="15"/>
+        <v>-15.925191915602575</v>
+      </c>
+      <c r="AA133" s="21">
+        <f t="shared" si="16"/>
+        <v>-18.091280864302135</v>
+      </c>
+      <c r="AB133" s="21">
+        <f t="shared" si="17"/>
+        <v>-20.378877407377992</v>
+      </c>
+      <c r="AC133" s="21">
+        <f t="shared" si="20"/>
+        <v>-23.74031056984628</v>
+      </c>
+      <c r="AD133" s="21"/>
+      <c r="AE133" s="21"/>
+      <c r="AF133" s="21"/>
+      <c r="AG133" s="21"/>
+    </row>
+    <row r="134" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A134" s="11">
-        <f t="shared" ref="A134:A142" si="24">A133+5</f>
+        <f t="shared" ref="A134:A142" si="30">A133+5</f>
         <v>53</v>
       </c>
       <c r="B134" s="11">
@@ -5082,71 +5428,74 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="G134" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>163</v>
       </c>
       <c r="H134" s="21">
         <f t="shared" si="9"/>
         <v>11.828517779124256</v>
       </c>
-      <c r="I134" s="22">
+      <c r="I134" s="21">
         <f t="shared" si="10"/>
         <v>13.660940507978788</v>
       </c>
-      <c r="J134" s="22">
-        <f t="shared" si="18"/>
-        <v>7.0892440890399948</v>
-      </c>
-      <c r="K134" s="22">
-        <f t="shared" si="20"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="21">
+        <f t="shared" si="25"/>
         <v>59.937357092653343</v>
       </c>
-      <c r="L134" s="22">
+      <c r="L134" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A106)))/($H$81*SIN(RADIANS(A106))+P106)</f>
         <v>175.13596623743112</v>
       </c>
-      <c r="M134" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A106)))/($H$81*SIN(RADIANS(A106))+R106)</f>
-        <v>3.0003828451045238</v>
-      </c>
-      <c r="N134" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A106)))/($H$81*SIN(RADIANS(A106))+T106)</f>
-        <v>2.1850020356793403</v>
-      </c>
+      <c r="M134" s="21"/>
+      <c r="N134" s="21"/>
       <c r="O134" s="21"/>
+      <c r="P134" s="21"/>
       <c r="Q134" s="21">
         <f t="shared" si="11"/>
         <v>3.4359162719476739</v>
       </c>
-      <c r="R134" s="22">
+      <c r="R134" s="21">
         <f t="shared" si="12"/>
         <v>5.3044017157206174</v>
       </c>
-      <c r="S134" s="22">
-        <f t="shared" si="19"/>
-        <v>-1.4892106306643278</v>
-      </c>
-      <c r="T134" s="22">
-        <f t="shared" si="21"/>
+      <c r="S134" s="21"/>
+      <c r="T134" s="21">
+        <f t="shared" si="26"/>
         <v>51.757223900920735</v>
       </c>
-      <c r="U134" s="22">
+      <c r="U134" s="21">
         <f>SQRT(L134^2-$I$81^2*SIN(RADIANS(G134))^2)+$I$81*COS(RADIANS(G134))</f>
         <v>166.98974285848851</v>
       </c>
-      <c r="V134" s="22">
-        <f>SQRT(M134^2-$I$81^2*SIN(RADIANS(G134))^2)+$I$81*COS(RADIANS(G134))</f>
-        <v>-6.4474362014254565</v>
-      </c>
-      <c r="W134" s="22" t="e">
-        <f>SQRT(N134^2-$I$81^2*SIN(RADIANS(G134))^2)+$I$81*COS(RADIANS(G134))</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="V134" s="21"/>
+      <c r="W134" s="21"/>
       <c r="X134" s="21"/>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z134" s="21">
+        <f t="shared" si="15"/>
+        <v>-19.693097123319276</v>
+      </c>
+      <c r="AA134" s="21">
+        <f t="shared" si="16"/>
+        <v>-21.561582567092223</v>
+      </c>
+      <c r="AB134" s="21"/>
+      <c r="AC134" s="21">
+        <f t="shared" si="20"/>
+        <v>-68.014404752292336</v>
+      </c>
+      <c r="AD134" s="21">
+        <f t="shared" si="18"/>
+        <v>-183.24692370986014</v>
+      </c>
+      <c r="AE134" s="21"/>
+      <c r="AF134" s="21"/>
+      <c r="AG134" s="21"/>
+    </row>
+    <row r="135" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A135" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>58</v>
       </c>
       <c r="B135" s="11">
@@ -5161,71 +5510,65 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>173</v>
       </c>
       <c r="H135" s="21">
         <f t="shared" si="9"/>
         <v>10.693676477306523</v>
       </c>
-      <c r="I135" s="22">
+      <c r="I135" s="21">
         <f t="shared" si="10"/>
         <v>8.9682964199463271</v>
       </c>
-      <c r="J135" s="22">
-        <f t="shared" si="18"/>
+      <c r="J135" s="21">
+        <f t="shared" si="23"/>
         <v>15.081187094391334</v>
       </c>
-      <c r="K135" s="22">
-        <f t="shared" si="20"/>
-        <v>-11.458524832002915</v>
-      </c>
-      <c r="L135" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A107)))/($H$81*SIN(RADIANS(A107))+P107)</f>
-        <v>-2.4774299674168092</v>
-      </c>
-      <c r="M135" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A107)))/($H$81*SIN(RADIANS(A107))+R107)</f>
-        <v>-1.3060766348272776</v>
-      </c>
-      <c r="N135" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A107)))/($H$81*SIN(RADIANS(A107))+T107)</f>
-        <v>2.07345163176443</v>
-      </c>
+      <c r="K135" s="21"/>
+      <c r="L135" s="21"/>
+      <c r="M135" s="21"/>
+      <c r="N135" s="21"/>
       <c r="O135" s="21"/>
+      <c r="P135" s="21"/>
       <c r="Q135" s="21">
         <f t="shared" si="11"/>
         <v>2.2067429673015511</v>
       </c>
-      <c r="R135" s="22">
+      <c r="R135" s="21">
         <f t="shared" si="12"/>
         <v>0.47162767708271147</v>
       </c>
-      <c r="S135" s="22">
-        <f t="shared" si="19"/>
+      <c r="S135" s="21">
+        <f t="shared" si="24"/>
         <v>6.6089264037820517</v>
       </c>
-      <c r="T135" s="22">
-        <f t="shared" si="21"/>
-        <v>2.9749625253309233</v>
-      </c>
-      <c r="U135" s="22">
-        <f>SQRT(L135^2-$I$81^2*SIN(RADIANS(G135))^2)+$I$81*COS(RADIANS(G135))</f>
-        <v>-6.186177369167944</v>
-      </c>
-      <c r="V135" s="22">
-        <f>SQRT(M135^2-$I$81^2*SIN(RADIANS(G135))^2)+$I$81*COS(RADIANS(G135))</f>
-        <v>-7.6411743211724472</v>
-      </c>
-      <c r="W135" s="22">
-        <f>SQRT(N135^2-$I$81^2*SIN(RADIANS(G135))^2)+$I$81*COS(RADIANS(G135))</f>
-        <v>-6.6404978679797644</v>
-      </c>
+      <c r="T135" s="21"/>
+      <c r="U135" s="21"/>
+      <c r="V135" s="21"/>
+      <c r="W135" s="21"/>
       <c r="X135" s="21"/>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z135" s="21">
+        <f t="shared" si="15"/>
+        <v>-19.080027545204025</v>
+      </c>
+      <c r="AA135" s="21">
+        <f t="shared" si="16"/>
+        <v>-17.344912254985186</v>
+      </c>
+      <c r="AB135" s="21">
+        <f t="shared" si="17"/>
+        <v>-23.482210981684524</v>
+      </c>
+      <c r="AC135" s="21"/>
+      <c r="AD135" s="21"/>
+      <c r="AE135" s="21"/>
+      <c r="AF135" s="21"/>
+      <c r="AG135" s="21"/>
+    </row>
+    <row r="136" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A136" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>63</v>
       </c>
       <c r="B136" s="11">
@@ -5240,53 +5583,38 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
       <c r="G136" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>183</v>
       </c>
-      <c r="H136" s="21">
-        <f t="shared" si="9"/>
-        <v>7.5202790987393024</v>
-      </c>
-      <c r="I136" s="22">
-        <f t="shared" si="10"/>
-        <v>-2.4113739233029396</v>
-      </c>
-      <c r="J136" s="22">
-        <f t="shared" si="18"/>
-        <v>-1.2930809169452722</v>
-      </c>
-      <c r="K136" s="22">
-        <f t="shared" si="20"/>
-        <v>1.2401899451080107</v>
-      </c>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
+      <c r="J136" s="21"/>
+      <c r="K136" s="21"/>
       <c r="L136" s="21"/>
       <c r="M136" s="21"/>
       <c r="N136" s="21"/>
       <c r="O136" s="21"/>
-      <c r="Q136" s="21">
-        <f t="shared" si="11"/>
-        <v>-0.98124100272007819</v>
-      </c>
-      <c r="R136" s="22">
-        <f t="shared" si="12"/>
-        <v>-6.1183663053439563</v>
-      </c>
-      <c r="S136" s="22">
-        <f t="shared" si="19"/>
-        <v>-7.2742004254548451</v>
-      </c>
-      <c r="T136" s="22">
-        <f t="shared" si="21"/>
-        <v>-7.3306919547805904</v>
-      </c>
+      <c r="P136" s="21"/>
+      <c r="Q136" s="21"/>
+      <c r="R136" s="21"/>
+      <c r="S136" s="21"/>
+      <c r="T136" s="21"/>
       <c r="U136" s="21"/>
       <c r="V136" s="21"/>
       <c r="W136" s="21"/>
       <c r="X136" s="21"/>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z136" s="21"/>
+      <c r="AA136" s="21"/>
+      <c r="AB136" s="21"/>
+      <c r="AC136" s="21"/>
+      <c r="AD136" s="21"/>
+      <c r="AE136" s="21"/>
+      <c r="AF136" s="21"/>
+      <c r="AG136" s="21"/>
+    </row>
+    <row r="137" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A137" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>68</v>
       </c>
       <c r="B137" s="11">
@@ -5308,38 +5636,38 @@
         <f t="shared" si="9"/>
         <v>9.1468905597007879</v>
       </c>
-      <c r="I137" s="22">
-        <f t="shared" si="10"/>
-        <v>-7.9503376566076742</v>
-      </c>
-      <c r="J137" s="22">
-        <f t="shared" si="18"/>
-        <v>3.7595974542909052</v>
-      </c>
+      <c r="I137" s="21"/>
+      <c r="J137" s="21"/>
       <c r="K137" s="21"/>
       <c r="L137" s="21"/>
       <c r="M137" s="21"/>
       <c r="N137" s="21"/>
       <c r="O137" s="21"/>
+      <c r="P137" s="21"/>
       <c r="Q137" s="21">
         <f t="shared" si="11"/>
         <v>0.66265974814004736</v>
       </c>
-      <c r="R137" s="22">
-        <f t="shared" si="12"/>
-        <v>-0.56516403089415146</v>
-      </c>
-      <c r="S137" s="22">
-        <f t="shared" si="19"/>
-        <v>-5.0450931969322772</v>
-      </c>
+      <c r="R137" s="21"/>
+      <c r="S137" s="21"/>
       <c r="T137" s="21"/>
       <c r="U137" s="21"/>
       <c r="V137" s="21"/>
       <c r="W137" s="21"/>
       <c r="X137" s="21"/>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="Z137" s="21">
+        <f t="shared" si="15"/>
+        <v>-17.226950849489047</v>
+      </c>
+      <c r="AA137" s="21"/>
+      <c r="AB137" s="21"/>
+      <c r="AC137" s="21"/>
+      <c r="AD137" s="21"/>
+      <c r="AE137" s="21"/>
+      <c r="AF137" s="21"/>
+      <c r="AG137" s="21"/>
+    </row>
+    <row r="138" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A138" s="11">
         <f>A137+5</f>
         <v>73</v>
@@ -5356,7 +5684,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>203</v>
       </c>
       <c r="H138" s="21">
@@ -5368,29 +5696,27 @@
         <v>10.863187561469877</v>
       </c>
       <c r="J138" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>13.318554731606794</v>
       </c>
-      <c r="K138" s="22">
+      <c r="K138" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+N110)</f>
         <v>15.015504996053274</v>
       </c>
-      <c r="L138" s="22">
+      <c r="L138" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+P110)</f>
         <v>24.225685026865776</v>
       </c>
-      <c r="M138" s="22">
+      <c r="M138" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+R110)</f>
         <v>-10.936633549876881</v>
       </c>
-      <c r="N138" s="22">
+      <c r="N138" s="21">
         <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+T110)</f>
         <v>41.139206825284276</v>
       </c>
-      <c r="O138" s="22">
-        <f>($I$81*$H$81*SIN(RADIANS(A110)))/($H$81*SIN(RADIANS(A110))+V110)</f>
-        <v>2.5758479350859909</v>
-      </c>
+      <c r="O138" s="21"/>
+      <c r="P138" s="21"/>
       <c r="Q138" s="21">
         <f t="shared" si="11"/>
         <v>0.73788487250020474</v>
@@ -5400,31 +5726,57 @@
         <v>2.5187439688614717</v>
       </c>
       <c r="S138" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>5.0735160698329285</v>
       </c>
-      <c r="T138" s="22">
+      <c r="T138" s="21">
         <f>SQRT(K138^2-$I$81^2*SIN(RADIANS(G138))^2)+$I$81*COS(RADIANS(G138))</f>
         <v>6.8193054322381954</v>
       </c>
-      <c r="U138" s="22">
+      <c r="U138" s="21">
         <f>SQRT(L138^2-$I$81^2*SIN(RADIANS(G138))^2)+$I$81*COS(RADIANS(G138))</f>
         <v>16.172653314780966</v>
       </c>
-      <c r="V138" s="22">
+      <c r="V138" s="21">
         <f>SQRT(M138^2-$I$81^2*SIN(RADIANS(G138))^2)+$I$81*COS(RADIANS(G138))</f>
         <v>2.5958568749815871</v>
       </c>
-      <c r="W138" s="22">
+      <c r="W138" s="21">
         <f>SQRT(N138^2-$I$81^2*SIN(RADIANS(G138))^2)+$I$81*COS(RADIANS(G138))</f>
         <v>33.180633716276354</v>
       </c>
-      <c r="X138" s="22" t="e">
-        <f>SQRT(O138^2-$I$81^2*SIN(RADIANS(G138))^2)+$I$81*COS(RADIANS(G138))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="X138" s="21"/>
+      <c r="Z138" s="21">
+        <f t="shared" si="15"/>
+        <v>-16.386467381191693</v>
+      </c>
+      <c r="AA138" s="21">
+        <f t="shared" si="16"/>
+        <v>-18.167326477552958</v>
+      </c>
+      <c r="AB138" s="21">
+        <f t="shared" si="17"/>
+        <v>-20.722098578524417</v>
+      </c>
+      <c r="AC138" s="21">
+        <f t="shared" si="20"/>
+        <v>-22.467887940929682</v>
+      </c>
+      <c r="AD138" s="21">
+        <f t="shared" si="18"/>
+        <v>-31.821235823472456</v>
+      </c>
+      <c r="AE138" s="21">
+        <f t="shared" si="27"/>
+        <v>-18.244439383673075</v>
+      </c>
+      <c r="AF138" s="21">
+        <f t="shared" ref="AF115:AF138" si="31">-SQRT(N138^2-$I$81^2*SIN(RADIANS(G138))^2)+$I$81*COS(RADIANS(G138))</f>
+        <v>-48.829216224967844</v>
+      </c>
+      <c r="AG138" s="21"/>
+    </row>
+    <row r="139" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A139" s="11">
         <v>73</v>
       </c>
@@ -5440,8 +5792,24 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
       <c r="H139" s="21"/>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="21"/>
+      <c r="M139" s="21"/>
+      <c r="N139" s="21"/>
+      <c r="O139" s="21"/>
+      <c r="P139" s="21"/>
+      <c r="Q139" s="21"/>
+      <c r="R139" s="21"/>
+      <c r="S139" s="21"/>
+      <c r="T139" s="21"/>
+      <c r="U139" s="21"/>
+      <c r="V139" s="21"/>
+      <c r="W139" s="21"/>
+      <c r="X139" s="21"/>
+    </row>
+    <row r="140" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A140" s="11">
         <f>A138+5</f>
         <v>78</v>
@@ -5458,10 +5826,26 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
       <c r="H140" s="21"/>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="I140" s="21"/>
+      <c r="J140" s="21"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="21"/>
+      <c r="M140" s="21"/>
+      <c r="N140" s="21"/>
+      <c r="O140" s="21"/>
+      <c r="P140" s="21"/>
+      <c r="Q140" s="21"/>
+      <c r="R140" s="21"/>
+      <c r="S140" s="21"/>
+      <c r="T140" s="21"/>
+      <c r="U140" s="21"/>
+      <c r="V140" s="21"/>
+      <c r="W140" s="21"/>
+      <c r="X140" s="21"/>
+    </row>
+    <row r="141" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A141" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>83</v>
       </c>
       <c r="B141" s="11">
@@ -5481,55 +5865,56 @@
       <c r="H141" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="21" t="s">
         <v>67</v>
       </c>
       <c r="J141" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K141" t="s">
+      <c r="K141" s="21" t="s">
         <v>69</v>
       </c>
       <c r="L141" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M141" s="21" t="s">
         <v>71</v>
       </c>
       <c r="N141" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O141" t="s">
+      <c r="O141" s="21" t="s">
         <v>73</v>
       </c>
       <c r="P141" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="Q141" t="s">
+      <c r="Q141" s="21" t="s">
         <v>75</v>
       </c>
       <c r="R141" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="S141" t="s">
+      <c r="S141" s="21" t="s">
         <v>77</v>
       </c>
       <c r="T141" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="U141" t="s">
+      <c r="U141" s="21" t="s">
         <v>79</v>
       </c>
       <c r="V141" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="W141" t="s">
+      <c r="W141" s="21" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="X141" s="21"/>
+    </row>
+    <row r="142" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A142" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>88</v>
       </c>
       <c r="B142" s="11">
@@ -5546,19 +5931,10 @@
       <c r="G142" s="11">
         <v>33</v>
       </c>
-      <c r="H142" s="21">
-        <f>Q114*COS(RADIANS(G142-90))</f>
-        <v>7.4692905705016743</v>
-      </c>
-      <c r="I142" s="21">
-        <f>R114*COS(RADIANS(G142-90))</f>
-        <v>6.2142487861744824</v>
-      </c>
-      <c r="J142" s="21">
-        <f>S114*COS(RADIANS(G142-90))</f>
-        <v>5.0138956135554524</v>
-      </c>
-      <c r="K142" s="22">
+      <c r="H142" s="23"/>
+      <c r="I142" s="23"/>
+      <c r="J142" s="23"/>
+      <c r="K142" s="21">
         <f>T114*COS(RADIANS(G142-90))</f>
         <v>10.575131621247049</v>
       </c>
@@ -5566,19 +5942,10 @@
       <c r="M142" s="21"/>
       <c r="N142" s="21"/>
       <c r="O142" s="21"/>
-      <c r="P142" s="21">
-        <f>Q114*SIN(RADIANS(G142-90))</f>
-        <v>-11.501698854066166</v>
-      </c>
-      <c r="Q142" s="21">
-        <f>R114*SIN(RADIANS(G142-90))</f>
-        <v>-9.5691039822573849</v>
-      </c>
-      <c r="R142" s="21">
-        <f>S114*SIN(RADIANS(G142-90))</f>
-        <v>-7.7207221875376622</v>
-      </c>
-      <c r="S142" s="22">
+      <c r="P142" s="23"/>
+      <c r="Q142" s="23"/>
+      <c r="R142" s="23"/>
+      <c r="S142" s="21">
         <f>T114*SIN(RADIANS(G142-90))</f>
         <v>-16.284274671286042</v>
       </c>
@@ -5586,8 +5953,9 @@
       <c r="U142" s="21"/>
       <c r="V142" s="21"/>
       <c r="W142" s="21"/>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="X142" s="21"/>
+    </row>
+    <row r="143" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A143" s="11">
         <v>88</v>
       </c>
@@ -5605,54 +5973,31 @@
       <c r="G143" s="11">
         <v>38</v>
       </c>
-      <c r="H143" s="21">
-        <f t="shared" ref="H143:H166" si="25">Q115*COS(RADIANS(G143-90))</f>
-        <v>7.9943779650250448</v>
-      </c>
-      <c r="I143" s="22">
-        <f t="shared" ref="I143:I166" si="26">R115*COS(RADIANS(G143-90))</f>
-        <v>6.8654742391068719</v>
-      </c>
-      <c r="J143" s="22">
-        <f t="shared" ref="J143:J166" si="27">S115*COS(RADIANS(G143-90))</f>
-        <v>5.832950344872879</v>
-      </c>
-      <c r="K143" s="22" t="e">
-        <f t="shared" ref="K143:K166" si="28">T115*COS(RADIANS(G143-90))</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="H143" s="23"/>
+      <c r="I143" s="23"/>
+      <c r="J143" s="23"/>
+      <c r="K143" s="21"/>
       <c r="L143" s="21">
-        <f t="shared" ref="L143:L166" si="29">U115*COS(RADIANS(G143-90))</f>
+        <f t="shared" ref="L143:L166" si="32">U115*COS(RADIANS(G143-90))</f>
         <v>9.7684231128227079</v>
       </c>
       <c r="M143" s="21"/>
       <c r="N143" s="21"/>
       <c r="O143" s="21"/>
-      <c r="P143" s="21">
-        <f t="shared" ref="P143:P166" si="30">Q115*SIN(RADIANS(G143-90))</f>
-        <v>-10.23233718092254</v>
-      </c>
-      <c r="Q143" s="22">
-        <f t="shared" ref="Q143:Q166" si="31">R115*SIN(RADIANS(G143-90))</f>
-        <v>-8.7874063033819851</v>
-      </c>
-      <c r="R143" s="22">
-        <f t="shared" ref="R143:R166" si="32">S115*SIN(RADIANS(G143-90))</f>
-        <v>-7.4658359849177742</v>
-      </c>
-      <c r="S143" s="22" t="e">
-        <f t="shared" ref="S143:S166" si="33">T115*SIN(RADIANS(G143-90))</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="P143" s="23"/>
+      <c r="Q143" s="23"/>
+      <c r="R143" s="23"/>
+      <c r="S143" s="21"/>
       <c r="T143" s="21">
-        <f t="shared" ref="T143:T166" si="34">U115*SIN(RADIANS(G143-90))</f>
+        <f t="shared" ref="T143:T166" si="33">U115*SIN(RADIANS(G143-90))</f>
         <v>-12.503011422978892</v>
       </c>
       <c r="U143" s="21"/>
       <c r="V143" s="21"/>
       <c r="W143" s="21"/>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="X143" s="21"/>
+    </row>
+    <row r="144" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -5662,62 +6007,39 @@
       <c r="G144" s="11">
         <v>43</v>
       </c>
-      <c r="H144" s="21">
-        <f t="shared" si="25"/>
-        <v>8.1842339395141099</v>
-      </c>
-      <c r="I144" s="21">
-        <f t="shared" si="26"/>
-        <v>6.9973806760331421</v>
-      </c>
-      <c r="J144" s="21">
-        <f t="shared" si="27"/>
-        <v>5.3830053918317136</v>
-      </c>
+      <c r="H144" s="23"/>
+      <c r="I144" s="23"/>
+      <c r="J144" s="23"/>
       <c r="K144" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="K143:K166" si="34">T116*COS(RADIANS(G144-90))</f>
         <v>11.708808511481873</v>
       </c>
       <c r="L144" s="21"/>
       <c r="M144" s="21"/>
       <c r="N144" s="21"/>
       <c r="O144" s="21"/>
-      <c r="P144" s="21">
-        <f t="shared" si="30"/>
-        <v>-8.7765163922569727</v>
-      </c>
-      <c r="Q144" s="21">
-        <f t="shared" si="31"/>
-        <v>-7.5037720891093009</v>
-      </c>
-      <c r="R144" s="21">
-        <f t="shared" si="32"/>
-        <v>-5.7725665480944848</v>
-      </c>
+      <c r="P144" s="23"/>
+      <c r="Q144" s="23"/>
+      <c r="R144" s="23"/>
       <c r="S144" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="S143:S166" si="35">T116*SIN(RADIANS(G144-90))</f>
         <v>-12.55615987938384</v>
       </c>
       <c r="T144" s="21"/>
       <c r="U144" s="21"/>
       <c r="V144" s="21"/>
       <c r="W144" s="21"/>
-    </row>
-    <row r="145" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X144" s="21"/>
+    </row>
+    <row r="145" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G145" s="11">
         <f>G144+5</f>
         <v>48</v>
       </c>
-      <c r="H145" s="21">
-        <f t="shared" si="25"/>
-        <v>8.2415211258158063</v>
-      </c>
-      <c r="I145" s="21">
-        <f t="shared" si="26"/>
-        <v>5.050102438097813</v>
-      </c>
+      <c r="H145" s="23"/>
+      <c r="I145" s="23"/>
       <c r="J145" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="J143:J166" si="36">S117*COS(RADIANS(G145-90))</f>
         <v>11.631595695664636</v>
       </c>
       <c r="K145" s="21"/>
@@ -5725,16 +6047,10 @@
       <c r="M145" s="21"/>
       <c r="N145" s="21"/>
       <c r="O145" s="21"/>
-      <c r="P145" s="21">
-        <f t="shared" si="30"/>
-        <v>-7.4206989528506391</v>
-      </c>
-      <c r="Q145" s="21">
-        <f t="shared" si="31"/>
-        <v>-4.5471326593816528</v>
-      </c>
+      <c r="P145" s="23"/>
+      <c r="Q145" s="23"/>
       <c r="R145" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="R143:R166" si="37">S117*SIN(RADIANS(G145-90))</f>
         <v>-10.473135806013786</v>
       </c>
       <c r="S145" s="21"/>
@@ -5742,22 +6058,17 @@
       <c r="U145" s="21"/>
       <c r="V145" s="21"/>
       <c r="W145" s="21"/>
-    </row>
-    <row r="146" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X145" s="21"/>
+    </row>
+    <row r="146" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G146" s="11">
-        <f t="shared" ref="G146:G156" si="35">G145+5</f>
+        <f t="shared" ref="G146:G156" si="38">G145+5</f>
         <v>53</v>
       </c>
-      <c r="H146" s="21">
-        <f t="shared" si="25"/>
-        <v>7.6772831948910927</v>
-      </c>
-      <c r="I146" s="21" t="e">
-        <f t="shared" si="26"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="H146" s="23"/>
+      <c r="I146" s="21"/>
       <c r="J146" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>11.872670716868097</v>
       </c>
       <c r="K146" s="21"/>
@@ -5765,16 +6076,10 @@
       <c r="M146" s="21"/>
       <c r="N146" s="21"/>
       <c r="O146" s="21"/>
-      <c r="P146" s="21">
-        <f t="shared" si="30"/>
-        <v>-5.7852478452963023</v>
-      </c>
-      <c r="Q146" s="21" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="P146" s="23"/>
+      <c r="Q146" s="21"/>
       <c r="R146" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-8.946699104232799</v>
       </c>
       <c r="S146" s="21"/>
@@ -5782,18 +6087,16 @@
       <c r="U146" s="21"/>
       <c r="V146" s="21"/>
       <c r="W146" s="21"/>
-    </row>
-    <row r="147" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X146" s="21"/>
+    </row>
+    <row r="147" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G147" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>58</v>
       </c>
-      <c r="H147" s="21">
-        <f t="shared" si="25"/>
-        <v>7.0989027654360397</v>
-      </c>
+      <c r="H147" s="23"/>
       <c r="I147" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="I143:I166" si="39">R119*COS(RADIANS(G147-90))</f>
         <v>13.01813381786922</v>
       </c>
       <c r="J147" s="21"/>
@@ -5802,12 +6105,9 @@
       <c r="M147" s="21"/>
       <c r="N147" s="21"/>
       <c r="O147" s="21"/>
-      <c r="P147" s="21">
-        <f t="shared" si="30"/>
-        <v>-4.4358867703053502</v>
-      </c>
+      <c r="P147" s="23"/>
       <c r="Q147" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="Q143:Q166" si="40">R119*SIN(RADIANS(G147-90))</f>
         <v>-8.1346328418408387</v>
       </c>
       <c r="R147" s="21"/>
@@ -5816,18 +6116,16 @@
       <c r="U147" s="21"/>
       <c r="V147" s="21"/>
       <c r="W147" s="21"/>
-    </row>
-    <row r="148" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X147" s="21"/>
+    </row>
+    <row r="148" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G148" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>63</v>
       </c>
-      <c r="H148" s="21">
-        <f t="shared" si="25"/>
-        <v>6.4840594712768871</v>
-      </c>
+      <c r="H148" s="23"/>
       <c r="I148" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>12.835674091538065</v>
       </c>
       <c r="J148" s="21"/>
@@ -5836,12 +6134,9 @@
       <c r="M148" s="21"/>
       <c r="N148" s="21"/>
       <c r="O148" s="21"/>
-      <c r="P148" s="21">
-        <f t="shared" si="30"/>
-        <v>-3.3037933166509639</v>
-      </c>
+      <c r="P148" s="23"/>
       <c r="Q148" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>-6.5401026110549259</v>
       </c>
       <c r="R148" s="21"/>
@@ -5850,18 +6145,16 @@
       <c r="U148" s="21"/>
       <c r="V148" s="21"/>
       <c r="W148" s="21"/>
-    </row>
-    <row r="149" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X148" s="21"/>
+    </row>
+    <row r="149" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G149" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>68</v>
       </c>
-      <c r="H149" s="21">
-        <f t="shared" si="25"/>
-        <v>5.0341531166837719</v>
-      </c>
+      <c r="H149" s="23"/>
       <c r="I149" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>12.312319132797922</v>
       </c>
       <c r="J149" s="21"/>
@@ -5870,12 +6163,9 @@
       <c r="M149" s="21"/>
       <c r="N149" s="21"/>
       <c r="O149" s="21"/>
-      <c r="P149" s="21">
-        <f t="shared" si="30"/>
-        <v>-2.0339298840100359</v>
-      </c>
+      <c r="P149" s="23"/>
       <c r="Q149" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>-4.9744998305023351</v>
       </c>
       <c r="R149" s="21"/>
@@ -5884,18 +6174,16 @@
       <c r="U149" s="21"/>
       <c r="V149" s="21"/>
       <c r="W149" s="21"/>
-    </row>
-    <row r="150" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X149" s="21"/>
+    </row>
+    <row r="150" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G150" s="11">
         <f>G149+5</f>
         <v>73</v>
       </c>
-      <c r="H150" s="21">
-        <f t="shared" si="25"/>
-        <v>3.8230982664073192</v>
-      </c>
+      <c r="H150" s="23"/>
       <c r="I150" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>12.029254557888878</v>
       </c>
       <c r="J150" s="21"/>
@@ -5904,12 +6192,9 @@
       <c r="M150" s="21"/>
       <c r="N150" s="21"/>
       <c r="O150" s="21"/>
-      <c r="P150" s="21">
-        <f t="shared" si="30"/>
-        <v>-1.1688384382721331</v>
-      </c>
+      <c r="P150" s="23"/>
       <c r="Q150" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>-3.6777121934230634</v>
       </c>
       <c r="R150" s="21"/>
@@ -5918,22 +6203,20 @@
       <c r="U150" s="21"/>
       <c r="V150" s="21"/>
       <c r="W150" s="21"/>
-    </row>
-    <row r="151" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X150" s="21"/>
+    </row>
+    <row r="151" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G151" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>78</v>
       </c>
-      <c r="H151" s="21">
-        <f t="shared" si="25"/>
-        <v>2.9417525892463843</v>
-      </c>
+      <c r="H151" s="23"/>
       <c r="I151" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>7.0017844214176375</v>
       </c>
       <c r="J151" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>10.952783468422307</v>
       </c>
       <c r="K151" s="21"/>
@@ -5941,16 +6224,13 @@
       <c r="M151" s="21"/>
       <c r="N151" s="21"/>
       <c r="O151" s="21"/>
-      <c r="P151" s="21">
-        <f t="shared" si="30"/>
-        <v>-0.62528881565409633</v>
-      </c>
+      <c r="P151" s="23"/>
       <c r="Q151" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>-1.4882752221712583</v>
       </c>
       <c r="R151" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-2.328085994764105</v>
       </c>
       <c r="S151" s="21"/>
@@ -5958,22 +6238,20 @@
       <c r="U151" s="21"/>
       <c r="V151" s="21"/>
       <c r="W151" s="21"/>
-    </row>
-    <row r="152" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X151" s="21"/>
+    </row>
+    <row r="152" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G152" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>83</v>
       </c>
-      <c r="H152" s="21" t="e">
-        <f t="shared" si="25"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="H152" s="21"/>
       <c r="I152" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>6.9462520686921643</v>
       </c>
       <c r="J152" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>10.622791730267023</v>
       </c>
       <c r="K152" s="21"/>
@@ -5981,16 +6259,13 @@
       <c r="M152" s="21"/>
       <c r="N152" s="21"/>
       <c r="O152" s="21"/>
-      <c r="P152" s="21" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="P152" s="21"/>
       <c r="Q152" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>-0.85289251017526013</v>
       </c>
       <c r="R152" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-1.3043148181638426</v>
       </c>
       <c r="S152" s="21"/>
@@ -5998,182 +6273,168 @@
       <c r="U152" s="21"/>
       <c r="V152" s="21"/>
       <c r="W152" s="21"/>
-    </row>
-    <row r="153" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X152" s="21"/>
+    </row>
+    <row r="153" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G153" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>88</v>
       </c>
-      <c r="H153" s="21" t="e">
-        <f t="shared" si="25"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="H153" s="21"/>
       <c r="I153" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>6.7878174086700129</v>
       </c>
       <c r="J153" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>9.8817583662920399</v>
       </c>
-      <c r="K153" s="22" t="e">
-        <f t="shared" si="28"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="K153" s="21"/>
       <c r="L153" s="21"/>
       <c r="M153" s="21"/>
       <c r="N153" s="21"/>
       <c r="O153" s="21"/>
-      <c r="P153" s="21" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="P153" s="21"/>
       <c r="Q153" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>-0.23703580708023789</v>
       </c>
       <c r="R153" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-0.3450786060824339</v>
       </c>
-      <c r="S153" s="22" t="e">
-        <f t="shared" si="33"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="S153" s="21"/>
       <c r="T153" s="21"/>
       <c r="U153" s="21"/>
       <c r="V153" s="21"/>
       <c r="W153" s="21"/>
-    </row>
-    <row r="154" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X153" s="21"/>
+    </row>
+    <row r="154" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G154" s="11">
         <f>G153+5</f>
         <v>93</v>
       </c>
       <c r="H154" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="H143:H166" si="41">Q126*COS(RADIANS(G154-90))</f>
         <v>1.1918541152468785E-14</v>
       </c>
       <c r="I154" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>5.6729148603063226</v>
       </c>
-      <c r="J154" s="22">
-        <f t="shared" si="27"/>
+      <c r="J154" s="21">
+        <f t="shared" si="36"/>
         <v>3.0734100015812529</v>
       </c>
       <c r="K154" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>9.4183977402092722</v>
       </c>
-      <c r="L154" s="22">
-        <f t="shared" si="29"/>
+      <c r="L154" s="21">
+        <f t="shared" si="32"/>
         <v>10.992769827199471</v>
       </c>
-      <c r="M154" s="22">
-        <f t="shared" ref="M154:M166" si="36">V126*COS(RADIANS(G154-90))</f>
+      <c r="M154" s="21">
+        <f t="shared" ref="M154:M166" si="42">V126*COS(RADIANS(G154-90))</f>
         <v>14.167155053717167</v>
       </c>
       <c r="N154" s="21"/>
       <c r="O154" s="21"/>
       <c r="P154" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="P143:P166" si="43">Q126*SIN(RADIANS(G154-90))</f>
         <v>6.2462427409442772E-16</v>
       </c>
       <c r="Q154" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>0.29730486989041832</v>
       </c>
-      <c r="R154" s="22">
-        <f t="shared" si="32"/>
+      <c r="R154" s="21">
+        <f t="shared" si="37"/>
         <v>0.16107059300916163</v>
       </c>
       <c r="S154" s="21">
+        <f t="shared" si="35"/>
+        <v>0.49359730996878165</v>
+      </c>
+      <c r="T154" s="21">
         <f t="shared" si="33"/>
-        <v>0.49359730996878165</v>
-      </c>
-      <c r="T154" s="22">
-        <f t="shared" si="34"/>
         <v>0.57610665481314494</v>
       </c>
-      <c r="U154" s="22">
-        <f t="shared" ref="U154:U166" si="37">V126*SIN(RADIANS(G154-90))</f>
+      <c r="U154" s="21">
+        <f t="shared" ref="U154:U166" si="44">V126*SIN(RADIANS(G154-90))</f>
         <v>0.74246913512383106</v>
       </c>
       <c r="V154" s="21"/>
       <c r="W154" s="21"/>
-    </row>
-    <row r="155" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X154" s="21"/>
+    </row>
+    <row r="155" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G155" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>98</v>
       </c>
-      <c r="H155" s="21">
-        <f t="shared" si="25"/>
-        <v>-0.17965924699465785</v>
-      </c>
+      <c r="H155" s="21"/>
       <c r="I155" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>4.4635587343858916</v>
       </c>
       <c r="J155" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>7.1751075899678556</v>
       </c>
       <c r="K155" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.2283486699464152</v>
       </c>
-      <c r="L155" s="22">
-        <f t="shared" si="29"/>
+      <c r="L155" s="21">
+        <f t="shared" si="32"/>
         <v>15.212173976057795</v>
       </c>
       <c r="M155" s="21"/>
       <c r="N155" s="21"/>
       <c r="O155" s="21"/>
-      <c r="P155" s="21">
-        <f t="shared" si="30"/>
-        <v>-2.5249460534632326E-2</v>
-      </c>
+      <c r="P155" s="21"/>
       <c r="Q155" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>0.62731227027374314</v>
       </c>
       <c r="R155" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1.0083956097735465</v>
       </c>
       <c r="S155" s="21">
+        <f t="shared" si="35"/>
+        <v>0.45371481678462439</v>
+      </c>
+      <c r="T155" s="21">
         <f t="shared" si="33"/>
-        <v>0.45371481678462439</v>
-      </c>
-      <c r="T155" s="22">
-        <f t="shared" si="34"/>
         <v>2.1379316282331593</v>
       </c>
       <c r="U155" s="21"/>
       <c r="V155" s="21"/>
       <c r="W155" s="21"/>
-    </row>
-    <row r="156" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X155" s="21"/>
+    </row>
+    <row r="156" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G156" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>103</v>
       </c>
       <c r="H156" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>0.5102733847083093</v>
       </c>
       <c r="I156" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>5.3961675773422995</v>
       </c>
-      <c r="J156" s="22">
-        <f t="shared" si="27"/>
+      <c r="J156" s="21">
+        <f t="shared" si="36"/>
         <v>11.194165306973588</v>
       </c>
-      <c r="K156" s="22">
-        <f t="shared" si="28"/>
+      <c r="K156" s="21">
+        <f t="shared" si="34"/>
         <v>3.9830897044783349</v>
       </c>
       <c r="L156" s="21"/>
@@ -6181,277 +6442,246 @@
       <c r="N156" s="21"/>
       <c r="O156" s="21"/>
       <c r="P156" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.11780589330712594</v>
       </c>
       <c r="Q156" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>1.245803447591429</v>
       </c>
-      <c r="R156" s="22">
-        <f t="shared" si="32"/>
+      <c r="R156" s="21">
+        <f t="shared" si="37"/>
         <v>2.5843766955815259</v>
       </c>
-      <c r="S156" s="22">
-        <f t="shared" si="33"/>
+      <c r="S156" s="21">
+        <f t="shared" si="35"/>
         <v>0.91956871516376693</v>
       </c>
       <c r="T156" s="21"/>
       <c r="U156" s="21"/>
       <c r="V156" s="21"/>
       <c r="W156" s="21"/>
-    </row>
-    <row r="157" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X156" s="21"/>
+    </row>
+    <row r="157" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G157" s="11">
         <f>G156+10</f>
         <v>113</v>
       </c>
       <c r="H157" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>0.87363455975885695</v>
       </c>
       <c r="I157" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>4.4874626339248529</v>
       </c>
       <c r="J157" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>5.9372850809123339</v>
       </c>
       <c r="K157" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10.636240427143116</v>
       </c>
-      <c r="L157" s="22">
-        <f t="shared" si="29"/>
+      <c r="L157" s="21">
+        <f t="shared" si="32"/>
         <v>6.0235064181324889</v>
       </c>
-      <c r="M157" s="22">
-        <f t="shared" si="36"/>
+      <c r="M157" s="21">
+        <f t="shared" si="42"/>
         <v>0.10776384183531375</v>
       </c>
       <c r="N157" s="21"/>
       <c r="O157" s="21"/>
       <c r="P157" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.37083586918799977</v>
       </c>
       <c r="Q157" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>1.9048148767827207</v>
       </c>
       <c r="R157" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2.5202279935042911</v>
       </c>
       <c r="S157" s="21">
+        <f t="shared" si="35"/>
+        <v>4.5148162004727421</v>
+      </c>
+      <c r="T157" s="21">
         <f t="shared" si="33"/>
-        <v>4.5148162004727421</v>
-      </c>
-      <c r="T157" s="22">
-        <f t="shared" si="34"/>
         <v>2.5568267797741626</v>
       </c>
-      <c r="U157" s="22">
-        <f t="shared" si="37"/>
+      <c r="U157" s="21">
+        <f t="shared" si="44"/>
         <v>4.5743036957085717E-2</v>
       </c>
       <c r="V157" s="21"/>
       <c r="W157" s="21"/>
-    </row>
-    <row r="158" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X157" s="21"/>
+    </row>
+    <row r="158" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G158" s="11">
-        <f t="shared" ref="G158:G166" si="38">G157+10</f>
+        <f t="shared" ref="G158:G166" si="45">G157+10</f>
         <v>123</v>
       </c>
       <c r="H158" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>0.5230750701548158</v>
       </c>
       <c r="I158" s="21">
         <f>R130*COS(RADIANS(G158-90))</f>
         <v>0.23351156214026736</v>
       </c>
-      <c r="J158" s="22">
-        <f t="shared" si="27"/>
+      <c r="J158" s="21">
+        <f t="shared" si="36"/>
         <v>2.6680249453415845</v>
       </c>
       <c r="K158" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.5137392070246971</v>
       </c>
-      <c r="L158" s="22">
-        <f t="shared" si="29"/>
+      <c r="L158" s="21">
+        <f t="shared" si="32"/>
         <v>9.7226297539906561</v>
       </c>
-      <c r="M158" s="22" t="e">
-        <f t="shared" si="36"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="M158" s="21"/>
       <c r="N158" s="21"/>
       <c r="O158" s="21"/>
       <c r="P158" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.33968892237085796</v>
       </c>
       <c r="Q158" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>0.15164418155330195</v>
       </c>
-      <c r="R158" s="22">
-        <f t="shared" si="32"/>
+      <c r="R158" s="21">
+        <f t="shared" si="37"/>
         <v>1.7326356583451981</v>
       </c>
       <c r="S158" s="21">
+        <f t="shared" si="35"/>
+        <v>2.9312565147551481</v>
+      </c>
+      <c r="T158" s="21">
         <f t="shared" si="33"/>
-        <v>2.9312565147551481</v>
-      </c>
-      <c r="T158" s="22">
-        <f t="shared" si="34"/>
         <v>6.3139495880895762</v>
       </c>
-      <c r="U158" s="22" t="e">
-        <f t="shared" si="37"/>
-        <v>#NUM!</v>
+      <c r="U158" s="21">
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="V158" s="21"/>
       <c r="W158" s="21"/>
-    </row>
-    <row r="159" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X158" s="21"/>
+    </row>
+    <row r="159" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G159" s="11">
         <f>G158+10</f>
         <v>133</v>
       </c>
       <c r="H159" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>0.19443912286609197</v>
       </c>
-      <c r="I159" s="22">
-        <f t="shared" si="26"/>
+      <c r="I159" s="21">
+        <f t="shared" si="39"/>
         <v>0.68103356635998225</v>
       </c>
       <c r="J159" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>3.625731617221581</v>
       </c>
-      <c r="K159" s="22">
-        <f t="shared" si="28"/>
+      <c r="K159" s="21">
+        <f t="shared" si="34"/>
         <v>10.027331069310833</v>
       </c>
-      <c r="L159" s="22" t="e">
-        <f t="shared" si="29"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="L159" s="21"/>
       <c r="M159" s="21"/>
       <c r="N159" s="21"/>
       <c r="O159" s="21"/>
       <c r="P159" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.18131741540800514</v>
       </c>
-      <c r="Q159" s="22">
-        <f t="shared" si="31"/>
+      <c r="Q159" s="21">
+        <f t="shared" si="40"/>
         <v>0.63507407479681777</v>
       </c>
       <c r="R159" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3.381049431345426</v>
       </c>
-      <c r="S159" s="22">
-        <f t="shared" si="33"/>
+      <c r="S159" s="21">
+        <f t="shared" si="35"/>
         <v>9.3506374958292415</v>
       </c>
-      <c r="T159" s="22" t="e">
-        <f t="shared" si="34"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="T159" s="21"/>
       <c r="U159" s="21"/>
       <c r="V159" s="21"/>
       <c r="W159" s="21"/>
-    </row>
-    <row r="160" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X159" s="21"/>
+    </row>
+    <row r="160" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G160" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>143</v>
       </c>
-      <c r="H160" s="22">
-        <f t="shared" si="25"/>
-        <v>-0.10519057511413699</v>
-      </c>
+      <c r="H160" s="21"/>
       <c r="I160" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>0.31579669506644026</v>
       </c>
-      <c r="J160" s="21">
-        <f t="shared" si="27"/>
-        <v>-1.6191551968665734</v>
-      </c>
+      <c r="J160" s="21"/>
       <c r="K160" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>7.1580555037241185</v>
       </c>
-      <c r="L160" s="22" t="e">
-        <f t="shared" si="29"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M160" s="22" t="e">
+      <c r="L160" s="21"/>
+      <c r="M160" s="21"/>
+      <c r="N160" s="21"/>
+      <c r="O160" s="21"/>
+      <c r="P160" s="21"/>
+      <c r="Q160" s="21">
+        <f t="shared" si="40"/>
+        <v>0.41907636887275918</v>
+      </c>
+      <c r="R160" s="21">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="S160" s="21">
+        <f t="shared" si="35"/>
+        <v>9.4990604890885653</v>
+      </c>
+      <c r="T160" s="21"/>
+      <c r="U160" s="21"/>
+      <c r="V160" s="21"/>
+      <c r="W160" s="21"/>
+      <c r="X160" s="21"/>
+    </row>
+    <row r="161" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="G161" s="11">
+        <f t="shared" si="45"/>
+        <v>153</v>
+      </c>
+      <c r="H161" s="21">
+        <f t="shared" si="41"/>
+        <v>0.35324138402555116</v>
+      </c>
+      <c r="I161" s="21">
+        <f t="shared" si="39"/>
+        <v>1.3366251883259732</v>
+      </c>
+      <c r="J161" s="21">
         <f t="shared" si="36"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N160" s="22">
-        <f t="shared" ref="N160:N166" si="39">W132*COS(RADIANS(G160-90))</f>
-        <v>-1.3778368073270779</v>
-      </c>
-      <c r="O160" s="21"/>
-      <c r="P160" s="22">
-        <f t="shared" si="30"/>
-        <v>-0.13959260798848824</v>
-      </c>
-      <c r="Q160" s="21">
-        <f t="shared" si="31"/>
-        <v>0.41907636887275918</v>
-      </c>
-      <c r="R160" s="21">
-        <f t="shared" si="32"/>
-        <v>-2.1486915194015612</v>
-      </c>
-      <c r="S160" s="21">
-        <f t="shared" si="33"/>
-        <v>9.4990604890885653</v>
-      </c>
-      <c r="T160" s="22" t="e">
+        <v>2.3751722861194411</v>
+      </c>
+      <c r="K161" s="21">
         <f t="shared" si="34"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="U160" s="22" t="e">
-        <f t="shared" si="37"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="V160" s="22">
-        <f t="shared" ref="V160:V166" si="40">W132*SIN(RADIANS(G160-90))</f>
-        <v>-1.8284512002013973</v>
-      </c>
-      <c r="W160" s="21"/>
-    </row>
-    <row r="161" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="G161" s="11">
-        <f t="shared" si="38"/>
-        <v>153</v>
-      </c>
-      <c r="H161" s="21">
-        <f t="shared" si="25"/>
-        <v>0.35324138402555116</v>
-      </c>
-      <c r="I161" s="22">
-        <f t="shared" si="26"/>
-        <v>1.3366251883259732</v>
-      </c>
-      <c r="J161" s="21">
-        <f t="shared" si="27"/>
-        <v>2.3751722861194411</v>
-      </c>
-      <c r="K161" s="21">
-        <f t="shared" si="28"/>
         <v>3.9012310073895038</v>
       </c>
       <c r="L161" s="21"/>
@@ -6459,1834 +6689,494 @@
       <c r="N161" s="21"/>
       <c r="O161" s="21"/>
       <c r="P161" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.69327525126772593</v>
       </c>
-      <c r="Q161" s="22">
-        <f t="shared" si="31"/>
+      <c r="Q161" s="21">
+        <f t="shared" si="40"/>
         <v>2.6232746365313551</v>
       </c>
       <c r="R161" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4.6615380811226999</v>
       </c>
       <c r="S161" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.6565969595050811</v>
       </c>
       <c r="T161" s="21"/>
       <c r="U161" s="21"/>
       <c r="V161" s="21"/>
       <c r="W161" s="21"/>
-    </row>
-    <row r="162" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X161" s="21"/>
+    </row>
+    <row r="162" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G162" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>163</v>
       </c>
       <c r="H162" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>1.0045646977139318</v>
       </c>
-      <c r="I162" s="22">
-        <f t="shared" si="26"/>
+      <c r="I162" s="21">
+        <f t="shared" si="39"/>
         <v>1.5508569721594467</v>
       </c>
-      <c r="J162" s="22">
-        <f t="shared" si="27"/>
-        <v>-0.43540305077855146</v>
-      </c>
-      <c r="K162" s="22">
-        <f t="shared" si="28"/>
+      <c r="J162" s="21"/>
+      <c r="K162" s="21">
+        <f t="shared" si="34"/>
         <v>15.132347783628571</v>
       </c>
-      <c r="L162" s="22">
-        <f t="shared" si="29"/>
+      <c r="L162" s="21">
+        <f t="shared" si="32"/>
         <v>48.823075790747744</v>
       </c>
-      <c r="M162" s="22">
-        <f t="shared" si="36"/>
-        <v>-1.8850479133018472</v>
-      </c>
-      <c r="N162" s="22" t="e">
-        <f t="shared" si="39"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="M162" s="21"/>
+      <c r="N162" s="21"/>
       <c r="O162" s="21"/>
       <c r="P162" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>3.2857830719543428</v>
       </c>
-      <c r="Q162" s="22">
-        <f t="shared" si="31"/>
+      <c r="Q162" s="21">
+        <f t="shared" si="40"/>
         <v>5.0726245882821113</v>
       </c>
-      <c r="R162" s="22">
-        <f t="shared" si="32"/>
-        <v>-1.424139208735008</v>
-      </c>
-      <c r="S162" s="22">
+      <c r="R162" s="21"/>
+      <c r="S162" s="21">
+        <f t="shared" si="35"/>
+        <v>49.495679371894191</v>
+      </c>
+      <c r="T162" s="21">
         <f t="shared" si="33"/>
-        <v>49.495679371894191</v>
-      </c>
-      <c r="T162" s="22">
-        <f t="shared" si="34"/>
         <v>159.6930852926169</v>
       </c>
-      <c r="U162" s="22">
-        <f t="shared" si="37"/>
-        <v>-6.1657139031914117</v>
-      </c>
-      <c r="V162" s="22" t="e">
-        <f t="shared" si="40"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="U162" s="21"/>
+      <c r="V162" s="21"/>
       <c r="W162" s="21"/>
-    </row>
-    <row r="163" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X162" s="21"/>
+    </row>
+    <row r="163" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G163" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>173</v>
       </c>
       <c r="H163" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>0.26893431648896687</v>
       </c>
-      <c r="I163" s="22">
-        <f t="shared" si="26"/>
+      <c r="I163" s="21">
+        <f t="shared" si="39"/>
         <v>5.7476955337764972E-2</v>
       </c>
-      <c r="J163" s="22">
-        <f t="shared" si="27"/>
+      <c r="J163" s="21">
+        <f t="shared" si="36"/>
         <v>0.8054255214418613</v>
       </c>
-      <c r="K163" s="22">
-        <f t="shared" si="28"/>
-        <v>0.36255672961699908</v>
-      </c>
-      <c r="L163" s="22">
-        <f t="shared" si="29"/>
-        <v>-0.75390537416828007</v>
-      </c>
-      <c r="M163" s="22">
-        <f t="shared" si="36"/>
-        <v>-0.93122489736555969</v>
-      </c>
-      <c r="N163" s="22">
-        <f t="shared" si="39"/>
-        <v>-0.8092731150539757</v>
-      </c>
+      <c r="K163" s="21"/>
+      <c r="L163" s="21"/>
+      <c r="M163" s="21"/>
+      <c r="N163" s="21"/>
       <c r="O163" s="21"/>
       <c r="P163" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>2.1902942398567062</v>
       </c>
-      <c r="Q163" s="22">
-        <f t="shared" si="31"/>
+      <c r="Q163" s="21">
+        <f t="shared" si="40"/>
         <v>0.46811223589598139</v>
       </c>
-      <c r="R163" s="22">
-        <f t="shared" si="32"/>
+      <c r="R163" s="21">
+        <f t="shared" si="37"/>
         <v>6.5596644685545966</v>
       </c>
-      <c r="S163" s="22">
-        <f t="shared" si="33"/>
-        <v>2.9527876057943567</v>
-      </c>
-      <c r="T163" s="22">
-        <f t="shared" si="34"/>
-        <v>-6.1400665411382809</v>
-      </c>
-      <c r="U163" s="22">
-        <f t="shared" si="37"/>
-        <v>-7.5842181665002038</v>
-      </c>
-      <c r="V163" s="22">
-        <f t="shared" si="40"/>
-        <v>-6.5910006038457185</v>
-      </c>
+      <c r="S163" s="21"/>
+      <c r="T163" s="21"/>
+      <c r="U163" s="21"/>
+      <c r="V163" s="21"/>
       <c r="W163" s="21"/>
-    </row>
-    <row r="164" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X163" s="21"/>
+    </row>
+    <row r="164" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G164" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>183</v>
       </c>
-      <c r="H164" s="21">
-        <f t="shared" si="25"/>
-        <v>5.1354186182140354E-2</v>
-      </c>
-      <c r="I164" s="22">
-        <f t="shared" si="26"/>
-        <v>0.32021055123478326</v>
-      </c>
-      <c r="J164" s="22">
-        <f t="shared" si="27"/>
-        <v>0.38070223516900825</v>
-      </c>
-      <c r="K164" s="22">
-        <f t="shared" si="28"/>
-        <v>0.38365877337589743</v>
-      </c>
+      <c r="H164" s="21"/>
+      <c r="I164" s="21"/>
+      <c r="J164" s="21"/>
+      <c r="K164" s="21"/>
       <c r="L164" s="21"/>
       <c r="M164" s="21"/>
       <c r="N164" s="21"/>
       <c r="O164" s="21"/>
-      <c r="P164" s="21">
-        <f t="shared" si="30"/>
-        <v>-0.97989624602846326</v>
-      </c>
-      <c r="Q164" s="22">
-        <f t="shared" si="31"/>
-        <v>-6.1099812969636957</v>
-      </c>
-      <c r="R164" s="22">
-        <f t="shared" si="32"/>
-        <v>-7.2642313865834947</v>
-      </c>
-      <c r="S164" s="22">
-        <f t="shared" si="33"/>
-        <v>-7.3206454962316387</v>
-      </c>
+      <c r="P164" s="21"/>
+      <c r="Q164" s="21"/>
+      <c r="R164" s="21"/>
+      <c r="S164" s="21"/>
       <c r="T164" s="21"/>
       <c r="U164" s="21"/>
       <c r="V164" s="21"/>
       <c r="W164" s="21"/>
-    </row>
-    <row r="165" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X164" s="21"/>
+    </row>
+    <row r="165" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G165" s="11">
         <f>G164+10</f>
         <v>193</v>
       </c>
       <c r="H165" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>-0.1490660090153437</v>
       </c>
-      <c r="I165" s="22">
-        <f t="shared" si="26"/>
-        <v>0.12713424462686809</v>
-      </c>
-      <c r="J165" s="22">
-        <f t="shared" si="27"/>
-        <v>1.1348990339129765</v>
-      </c>
+      <c r="I165" s="21"/>
+      <c r="J165" s="21"/>
       <c r="K165" s="21"/>
       <c r="L165" s="21"/>
       <c r="M165" s="21"/>
       <c r="N165" s="21"/>
       <c r="O165" s="21"/>
       <c r="P165" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.64567582172578564</v>
       </c>
-      <c r="Q165" s="22">
-        <f t="shared" si="31"/>
-        <v>-0.55067891339661901</v>
-      </c>
-      <c r="R165" s="22">
-        <f t="shared" si="32"/>
-        <v>-4.9157877851424523</v>
-      </c>
+      <c r="Q165" s="21"/>
+      <c r="R165" s="21"/>
       <c r="S165" s="21"/>
       <c r="T165" s="21"/>
       <c r="U165" s="21"/>
       <c r="V165" s="21"/>
       <c r="W165" s="21"/>
-    </row>
-    <row r="166" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="X165" s="21"/>
+    </row>
+    <row r="166" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G166" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>203</v>
       </c>
       <c r="H166" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>-0.28831458892716888</v>
       </c>
       <c r="I166" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>-0.98415167332879505</v>
       </c>
       <c r="J166" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>-1.9823806593742852</v>
       </c>
-      <c r="K166" s="22">
-        <f t="shared" si="28"/>
+      <c r="K166" s="21">
+        <f t="shared" si="34"/>
         <v>-2.6645149070514651</v>
       </c>
-      <c r="L166" s="22">
-        <f t="shared" si="29"/>
+      <c r="L166" s="21">
+        <f t="shared" si="32"/>
         <v>-6.3191590803501612</v>
       </c>
-      <c r="M166" s="22">
-        <f t="shared" si="36"/>
+      <c r="M166" s="21">
+        <f t="shared" si="42"/>
         <v>-1.0142820861581952</v>
       </c>
-      <c r="N166" s="22">
-        <f t="shared" si="39"/>
+      <c r="N166" s="21">
+        <f t="shared" ref="N160:N166" si="46">W138*COS(RADIANS(G166-90))</f>
         <v>-12.964706455949905</v>
       </c>
-      <c r="O166" s="22" t="e">
-        <f t="shared" ref="O166" si="41">X138*COS(RADIANS(G166-90))</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="O166" s="21"/>
       <c r="P166" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.67922660642557353</v>
       </c>
       <c r="Q166" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>2.3185160479410469</v>
       </c>
       <c r="R166" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4.6701961663501601</v>
       </c>
-      <c r="S166" s="22">
+      <c r="S166" s="21">
+        <f t="shared" si="35"/>
+        <v>6.2772037475498497</v>
+      </c>
+      <c r="T166" s="21">
         <f t="shared" si="33"/>
-        <v>6.2772037475498497</v>
-      </c>
-      <c r="T166" s="22">
-        <f t="shared" si="34"/>
         <v>14.887005869459575</v>
       </c>
-      <c r="U166" s="22">
-        <f t="shared" si="37"/>
+      <c r="U166" s="21">
+        <f t="shared" si="44"/>
         <v>2.3894988522884355</v>
       </c>
-      <c r="V166" s="22">
-        <f t="shared" si="40"/>
+      <c r="V166" s="21">
+        <f t="shared" ref="V160:V166" si="47">W138*SIN(RADIANS(G166-90))</f>
         <v>30.542934376460064</v>
       </c>
-      <c r="W166" s="22" t="e">
-        <f t="shared" ref="W166" si="42">X138*SIN(RADIANS(G166-90))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="167" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="H167" s="21">
-        <v>6.2142487861744824</v>
-      </c>
-    </row>
-    <row r="168" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="H168" s="22">
-        <v>6.8654742391068719</v>
-      </c>
-    </row>
-    <row r="169" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="H169" s="21">
-        <v>6.9973806760331421</v>
-      </c>
-    </row>
-    <row r="170" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="H170" s="21">
-        <v>5.050102438097813</v>
-      </c>
-    </row>
-    <row r="171" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="H171" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K171" t="s">
-        <v>66</v>
-      </c>
-      <c r="L171" t="s">
-        <v>74</v>
-      </c>
-      <c r="O171" s="21">
-        <v>7.4692905705016743</v>
-      </c>
-      <c r="P171" s="21">
-        <v>-11.501698854066166</v>
-      </c>
-    </row>
-    <row r="172" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="H172" s="21">
-        <v>13.01813381786922</v>
-      </c>
-      <c r="K172">
-        <v>7.4692905705016743</v>
-      </c>
-      <c r="L172">
-        <v>-11.501698854066166</v>
-      </c>
-      <c r="O172" s="21">
-        <v>7.9943779650250448</v>
-      </c>
-      <c r="P172" s="21">
-        <v>-10.23233718092254</v>
-      </c>
-    </row>
-    <row r="173" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="H173" s="21">
-        <v>12.835674091538065</v>
-      </c>
-      <c r="K173">
-        <v>7.9943779650250448</v>
-      </c>
-      <c r="L173">
-        <v>-10.23233718092254</v>
-      </c>
-      <c r="O173" s="21">
-        <v>8.1842339395141099</v>
-      </c>
-      <c r="P173" s="21">
-        <v>-8.7765163922569727</v>
-      </c>
-    </row>
-    <row r="174" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="H174" s="21">
-        <v>12.312319132797922</v>
-      </c>
-      <c r="K174">
-        <v>8.1842339395141099</v>
-      </c>
-      <c r="L174">
-        <v>-8.7765163922569727</v>
-      </c>
-      <c r="O174" s="21">
-        <v>8.2415211258158063</v>
-      </c>
-      <c r="P174" s="21">
-        <v>-7.4206989528506391</v>
-      </c>
-    </row>
-    <row r="175" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="H175" s="21">
-        <v>12.029254557888878</v>
-      </c>
-      <c r="K175">
-        <v>8.2415211258158063</v>
-      </c>
-      <c r="L175">
-        <v>-7.4206989528506391</v>
-      </c>
-      <c r="O175" s="21">
-        <v>7.6772831948910927</v>
-      </c>
-      <c r="P175" s="21">
-        <v>-5.7852478452963023</v>
-      </c>
-    </row>
-    <row r="176" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="H176" s="21">
-        <v>7.0017844214176375</v>
-      </c>
-      <c r="K176">
-        <v>7.6772831948910927</v>
-      </c>
-      <c r="L176">
-        <v>-5.7852478452963023</v>
-      </c>
-      <c r="O176" s="21">
-        <v>7.0989027654360397</v>
-      </c>
-      <c r="P176" s="21">
-        <v>-4.4358867703053502</v>
-      </c>
-    </row>
-    <row r="177" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H177" s="21">
-        <v>6.9462520686921643</v>
-      </c>
-      <c r="K177">
-        <v>7.0989027654360397</v>
-      </c>
-      <c r="L177">
-        <v>-4.4358867703053502</v>
-      </c>
-      <c r="O177" s="21">
-        <v>6.4840594712768871</v>
-      </c>
-      <c r="P177" s="21">
-        <v>-3.3037933166509639</v>
-      </c>
-    </row>
-    <row r="178" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H178" s="21">
-        <v>6.7878174086700129</v>
-      </c>
-      <c r="K178">
-        <v>6.4840594712768871</v>
-      </c>
-      <c r="L178">
-        <v>-3.3037933166509639</v>
-      </c>
-      <c r="O178" s="21">
-        <v>5.0341531166837719</v>
-      </c>
-      <c r="P178" s="21">
-        <v>-2.0339298840100359</v>
-      </c>
-    </row>
-    <row r="179" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H179" s="21">
-        <v>5.6729148603063226</v>
-      </c>
-      <c r="K179">
-        <v>5.0341531166837719</v>
-      </c>
-      <c r="L179">
-        <v>-2.0339298840100359</v>
-      </c>
-      <c r="O179" s="21">
-        <v>3.8230982664073192</v>
-      </c>
-      <c r="P179" s="21">
-        <v>-1.1688384382721331</v>
-      </c>
-    </row>
-    <row r="180" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H180" s="21">
-        <v>4.4635587343858916</v>
-      </c>
-      <c r="K180">
-        <v>3.8230982664073192</v>
-      </c>
-      <c r="L180">
-        <v>-1.1688384382721331</v>
-      </c>
-      <c r="O180" s="21">
-        <v>2.9417525892463843</v>
-      </c>
-      <c r="P180" s="21">
-        <v>-0.62528881565409633</v>
-      </c>
-    </row>
-    <row r="181" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H181" s="21">
-        <v>5.3961675773422995</v>
-      </c>
-      <c r="K181">
-        <v>2.9417525892463843</v>
-      </c>
-      <c r="L181">
-        <v>-0.62528881565409633</v>
-      </c>
-      <c r="O181" s="21">
-        <v>1.1918541152468785E-14</v>
-      </c>
-      <c r="P181" s="21">
-        <v>6.2462427409442772E-16</v>
-      </c>
-    </row>
-    <row r="182" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H182" s="21">
-        <v>4.4874626339248529</v>
-      </c>
-      <c r="K182" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L182" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O182" s="21">
-        <v>-0.17965924699465785</v>
-      </c>
-      <c r="P182" s="21">
-        <v>-2.5249460534632326E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H183" s="21">
-        <v>0.23351156214026736</v>
-      </c>
-      <c r="K183" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L183" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O183" s="21">
-        <v>0.5102733847083093</v>
-      </c>
-      <c r="P183" s="21">
-        <v>0.11780589330712594</v>
-      </c>
-    </row>
-    <row r="184" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H184" s="22">
-        <v>0.68103356635998225</v>
-      </c>
-      <c r="K184">
-        <v>1.1918541152468785E-14</v>
-      </c>
-      <c r="L184">
-        <v>6.2462427409442772E-16</v>
-      </c>
-      <c r="O184" s="21">
-        <v>0.87363455975885695</v>
-      </c>
-      <c r="P184" s="21">
-        <v>0.37083586918799977</v>
-      </c>
-    </row>
-    <row r="185" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H185" s="21">
-        <v>0.31579669506644026</v>
-      </c>
-      <c r="K185">
-        <v>-0.17965924699465785</v>
-      </c>
-      <c r="L185">
-        <v>-2.5249460534632326E-2</v>
-      </c>
-      <c r="O185" s="21">
-        <v>0.5230750701548158</v>
-      </c>
-      <c r="P185" s="21">
-        <v>0.33968892237085796</v>
-      </c>
-    </row>
-    <row r="186" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H186" s="22">
-        <v>1.3366251883259732</v>
-      </c>
-      <c r="K186">
-        <v>0.5102733847083093</v>
-      </c>
-      <c r="L186">
-        <v>0.11780589330712594</v>
-      </c>
-      <c r="O186" s="21">
-        <v>0.19443912286609197</v>
-      </c>
-      <c r="P186" s="21">
-        <v>0.18131741540800514</v>
-      </c>
-    </row>
-    <row r="187" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H187" s="22">
-        <v>1.5508569721594467</v>
-      </c>
-      <c r="K187">
-        <v>0.87363455975885695</v>
-      </c>
-      <c r="L187">
-        <v>0.37083586918799977</v>
-      </c>
-      <c r="O187" s="21">
-        <v>0.35324138402555116</v>
-      </c>
-      <c r="P187" s="21">
-        <v>0.69327525126772593</v>
-      </c>
-    </row>
-    <row r="188" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H188" s="22">
-        <v>5.7476955337764972E-2</v>
-      </c>
-      <c r="K188">
-        <v>0.5230750701548158</v>
-      </c>
-      <c r="L188">
-        <v>0.33968892237085796</v>
-      </c>
-      <c r="O188" s="21">
-        <v>1.0045646977139318</v>
-      </c>
-      <c r="P188" s="21">
-        <v>3.2857830719543428</v>
-      </c>
-    </row>
-    <row r="189" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H189" s="22">
-        <v>0.32021055123478326</v>
-      </c>
-      <c r="K189">
-        <v>0.19443912286609197</v>
-      </c>
-      <c r="L189">
-        <v>0.18131741540800514</v>
-      </c>
-      <c r="O189" s="21">
-        <v>0.26893431648896687</v>
-      </c>
-      <c r="P189" s="21">
-        <v>2.1902942398567062</v>
-      </c>
-    </row>
-    <row r="190" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H190" s="22">
-        <v>0.12713424462686809</v>
-      </c>
-      <c r="K190">
-        <v>-0.10519057511413699</v>
-      </c>
-      <c r="L190">
-        <v>-0.13959260798848824</v>
-      </c>
-      <c r="O190" s="21">
-        <v>5.1354186182140354E-2</v>
-      </c>
-      <c r="P190" s="21">
-        <v>-0.97989624602846326</v>
-      </c>
-    </row>
-    <row r="191" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H191" s="21">
-        <v>-0.98415167332879505</v>
-      </c>
-      <c r="K191">
-        <v>0.35324138402555116</v>
-      </c>
-      <c r="L191">
-        <v>0.69327525126772593</v>
-      </c>
-      <c r="O191" s="21">
-        <v>-0.1490660090153437</v>
-      </c>
-      <c r="P191" s="21">
-        <v>0.64567582172578564</v>
-      </c>
-    </row>
-    <row r="192" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H192">
-        <v>5.0138956135554524</v>
-      </c>
-      <c r="K192">
-        <v>1.0045646977139318</v>
-      </c>
-      <c r="L192">
-        <v>3.2857830719543428</v>
-      </c>
-      <c r="O192" s="21">
-        <v>-0.28831458892716888</v>
-      </c>
-      <c r="P192" s="21">
-        <v>0.67922660642557353</v>
-      </c>
-    </row>
-    <row r="193" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H193">
-        <v>5.832950344872879</v>
-      </c>
-      <c r="K193">
-        <v>0.26893431648896687</v>
-      </c>
-      <c r="L193">
-        <v>2.1902942398567062</v>
-      </c>
-      <c r="O193" s="21">
-        <v>6.2142487861744824</v>
-      </c>
-      <c r="P193" s="21">
-        <v>-9.5691039822573849</v>
-      </c>
-    </row>
-    <row r="194" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H194">
-        <v>5.3830053918317136</v>
-      </c>
-      <c r="K194">
-        <v>5.1354186182140354E-2</v>
-      </c>
-      <c r="L194">
-        <v>-0.97989624602846326</v>
-      </c>
-      <c r="O194" s="21">
-        <v>6.9973806760331421</v>
-      </c>
-      <c r="P194" s="21">
-        <v>-7.5037720891093009</v>
-      </c>
-    </row>
-    <row r="195" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H195">
-        <v>11.631595695664636</v>
-      </c>
-      <c r="K195">
-        <v>-0.1490660090153437</v>
-      </c>
-      <c r="L195">
-        <v>0.64567582172578564</v>
-      </c>
-      <c r="O195" s="21">
-        <v>5.050102438097813</v>
-      </c>
-      <c r="P195" s="21">
-        <v>-4.5471326593816528</v>
-      </c>
-    </row>
-    <row r="196" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H196">
-        <v>11.872670716868097</v>
-      </c>
-      <c r="K196">
-        <v>-0.28831458892716888</v>
-      </c>
-      <c r="L196">
-        <v>0.67922660642557353</v>
-      </c>
-      <c r="O196" s="21">
-        <v>13.01813381786922</v>
-      </c>
-      <c r="P196" s="21">
-        <v>-8.1346328418408387</v>
-      </c>
-    </row>
-    <row r="197" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="K197">
-        <v>6.2142487861744824</v>
-      </c>
-      <c r="L197">
-        <v>-9.5691039822573849</v>
-      </c>
-      <c r="O197" s="21">
-        <v>12.835674091538065</v>
-      </c>
-      <c r="P197" s="21">
-        <v>-6.5401026110549259</v>
-      </c>
-    </row>
-    <row r="198" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="K198">
-        <v>6.8654742391068719</v>
-      </c>
-      <c r="L198">
-        <v>-8.7874063033819851</v>
-      </c>
-      <c r="O198" s="21">
-        <v>12.312319132797922</v>
-      </c>
-      <c r="P198" s="21">
-        <v>-4.9744998305023351</v>
-      </c>
-    </row>
-    <row r="199" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="K199">
-        <v>6.9973806760331421</v>
-      </c>
-      <c r="L199">
-        <v>-7.5037720891093009</v>
-      </c>
-      <c r="O199" s="21">
-        <v>12.029254557888878</v>
-      </c>
-      <c r="P199" s="21">
-        <v>-3.6777121934230634</v>
-      </c>
-    </row>
-    <row r="200" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="K200">
-        <v>5.050102438097813</v>
-      </c>
-      <c r="L200">
-        <v>-4.5471326593816528</v>
-      </c>
-      <c r="O200" s="21">
-        <v>7.0017844214176375</v>
-      </c>
-      <c r="P200" s="21">
-        <v>-1.4882752221712583</v>
-      </c>
-    </row>
-    <row r="201" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H201">
-        <v>10.952783468422307</v>
-      </c>
-      <c r="K201" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L201" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O201" s="21">
-        <v>6.9462520686921643</v>
-      </c>
-      <c r="P201" s="21">
-        <v>-0.85289251017526013</v>
-      </c>
-    </row>
-    <row r="202" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H202">
-        <v>10.622791730267023</v>
-      </c>
-      <c r="K202">
-        <v>13.01813381786922</v>
-      </c>
-      <c r="L202">
-        <v>-8.1346328418408387</v>
-      </c>
-      <c r="O202" s="21">
-        <v>6.7878174086700129</v>
-      </c>
-      <c r="P202" s="21">
-        <v>-0.23703580708023789</v>
-      </c>
-    </row>
-    <row r="203" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H203">
-        <v>9.8817583662920399</v>
-      </c>
-      <c r="K203">
-        <v>12.835674091538065</v>
-      </c>
-      <c r="L203">
-        <v>-6.5401026110549259</v>
-      </c>
-      <c r="O203" s="21">
-        <v>5.6729148603063226</v>
-      </c>
-      <c r="P203" s="21">
-        <v>0.29730486989041832</v>
-      </c>
-    </row>
-    <row r="204" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H204">
-        <v>3.0734100015812529</v>
-      </c>
-      <c r="K204">
-        <v>12.312319132797922</v>
-      </c>
-      <c r="L204">
-        <v>-4.9744998305023351</v>
-      </c>
-      <c r="O204" s="21">
-        <v>4.4635587343858916</v>
-      </c>
-      <c r="P204" s="21">
-        <v>0.62731227027374314</v>
-      </c>
-    </row>
-    <row r="205" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H205">
-        <v>7.1751075899678556</v>
-      </c>
-      <c r="K205">
-        <v>12.029254557888878</v>
-      </c>
-      <c r="L205">
-        <v>-3.6777121934230634</v>
-      </c>
-      <c r="O205" s="21">
-        <v>5.3961675773422995</v>
-      </c>
-      <c r="P205" s="21">
-        <v>1.245803447591429</v>
-      </c>
-    </row>
-    <row r="206" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H206">
-        <v>11.194165306973588</v>
-      </c>
-      <c r="K206">
-        <v>7.0017844214176375</v>
-      </c>
-      <c r="L206">
-        <v>-1.4882752221712583</v>
-      </c>
-      <c r="O206" s="21">
-        <v>4.4874626339248529</v>
-      </c>
-      <c r="P206" s="21">
-        <v>1.9048148767827207</v>
-      </c>
-    </row>
-    <row r="207" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H207">
-        <v>5.9372850809123339</v>
-      </c>
-      <c r="K207">
-        <v>6.9462520686921643</v>
-      </c>
-      <c r="L207">
-        <v>-0.85289251017526013</v>
-      </c>
-      <c r="O207" s="21">
-        <v>0.23351156214026736</v>
-      </c>
-      <c r="P207" s="21">
-        <v>0.15164418155330195</v>
-      </c>
-    </row>
-    <row r="208" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H208">
-        <v>2.6680249453415845</v>
-      </c>
-      <c r="K208">
-        <v>6.7878174086700129</v>
-      </c>
-      <c r="L208">
-        <v>-0.23703580708023789</v>
-      </c>
-      <c r="O208" s="21">
-        <v>0.31579669506644026</v>
-      </c>
-      <c r="P208" s="21">
-        <v>0.41907636887275918</v>
-      </c>
-    </row>
-    <row r="209" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H209">
-        <v>3.625731617221581</v>
-      </c>
-      <c r="K209">
-        <v>5.6729148603063226</v>
-      </c>
-      <c r="L209">
-        <v>0.29730486989041832</v>
-      </c>
-      <c r="O209" s="21">
-        <v>-0.98415167332879505</v>
-      </c>
-      <c r="P209" s="21">
-        <v>2.3185160479410469</v>
-      </c>
-    </row>
-    <row r="210" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H210">
-        <v>-1.6191551968665734</v>
-      </c>
-      <c r="K210">
-        <v>4.4635587343858916</v>
-      </c>
-      <c r="L210">
-        <v>0.62731227027374314</v>
-      </c>
-      <c r="O210" s="21">
-        <v>5.0138956135554524</v>
-      </c>
-      <c r="P210" s="21">
-        <v>-7.7207221875376622</v>
-      </c>
-    </row>
-    <row r="211" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H211">
-        <v>2.3751722861194411</v>
-      </c>
-      <c r="K211">
-        <v>5.3961675773422995</v>
-      </c>
-      <c r="L211">
-        <v>1.245803447591429</v>
-      </c>
-      <c r="O211" s="21">
-        <v>5.3830053918317136</v>
-      </c>
-      <c r="P211" s="21">
-        <v>-5.7725665480944848</v>
-      </c>
-    </row>
-    <row r="212" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H212">
-        <v>-0.43540305077855146</v>
-      </c>
-      <c r="K212">
-        <v>4.4874626339248529</v>
-      </c>
-      <c r="L212">
-        <v>1.9048148767827207</v>
-      </c>
-      <c r="O212" s="21">
-        <v>11.631595695664636</v>
-      </c>
-      <c r="P212" s="21">
-        <v>-10.473135806013786</v>
-      </c>
-    </row>
-    <row r="213" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H213">
-        <v>0.8054255214418613</v>
-      </c>
-      <c r="K213">
-        <v>0.23351156214026736</v>
-      </c>
-      <c r="L213">
-        <v>0.15164418155330195</v>
-      </c>
-      <c r="O213" s="21">
-        <v>11.872670716868097</v>
-      </c>
-      <c r="P213" s="21">
-        <v>-8.946699104232799</v>
-      </c>
-    </row>
-    <row r="214" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H214">
-        <v>0.38070223516900825</v>
-      </c>
-      <c r="K214">
-        <v>0.68103356635998225</v>
-      </c>
-      <c r="L214">
-        <v>0.63507407479681777</v>
-      </c>
-      <c r="O214" s="21">
-        <v>10.952783468422307</v>
-      </c>
-      <c r="P214" s="21">
-        <v>-2.328085994764105</v>
-      </c>
-    </row>
-    <row r="215" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H215">
-        <v>1.1348990339129765</v>
-      </c>
-      <c r="K215">
-        <v>0.31579669506644026</v>
-      </c>
-      <c r="L215">
-        <v>0.41907636887275918</v>
-      </c>
-      <c r="O215" s="21">
-        <v>10.622791730267023</v>
-      </c>
-      <c r="P215" s="21">
-        <v>-1.3043148181638426</v>
-      </c>
-    </row>
-    <row r="216" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H216">
-        <v>-1.9823806593742852</v>
-      </c>
-      <c r="K216">
-        <v>1.3366251883259732</v>
-      </c>
-      <c r="L216">
-        <v>2.6232746365313551</v>
-      </c>
-      <c r="O216" s="21">
-        <v>9.8817583662920399</v>
-      </c>
-      <c r="P216" s="21">
-        <v>-0.3450786060824339</v>
-      </c>
-    </row>
-    <row r="217" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H217">
-        <v>10.575131621247049</v>
-      </c>
-      <c r="K217">
-        <v>1.5508569721594467</v>
-      </c>
-      <c r="L217">
-        <v>5.0726245882821113</v>
-      </c>
-      <c r="O217" s="21">
-        <v>7.1751075899678556</v>
-      </c>
-      <c r="P217" s="21">
-        <v>1.0083956097735465</v>
-      </c>
-    </row>
-    <row r="218" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H218" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K218">
-        <v>5.7476955337764972E-2</v>
-      </c>
-      <c r="L218">
-        <v>0.46811223589598139</v>
-      </c>
-      <c r="O218" s="21">
-        <v>5.9372850809123339</v>
-      </c>
-      <c r="P218" s="21">
-        <v>2.5202279935042911</v>
-      </c>
-    </row>
-    <row r="219" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H219">
-        <v>11.708808511481873</v>
-      </c>
-      <c r="K219">
-        <v>0.32021055123478326</v>
-      </c>
-      <c r="L219">
-        <v>-6.1099812969636957</v>
-      </c>
-      <c r="O219" s="21">
-        <v>3.625731617221581</v>
-      </c>
-      <c r="P219" s="21">
-        <v>3.381049431345426</v>
-      </c>
-    </row>
-    <row r="220" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="K220">
-        <v>0.12713424462686809</v>
-      </c>
-      <c r="L220">
-        <v>-0.55067891339661901</v>
-      </c>
-      <c r="O220" s="21">
-        <v>-1.6191551968665734</v>
-      </c>
-      <c r="P220" s="21">
-        <v>-2.1486915194015612</v>
-      </c>
-    </row>
-    <row r="221" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="K221">
-        <v>-0.98415167332879505</v>
-      </c>
-      <c r="L221">
-        <v>2.3185160479410469</v>
-      </c>
-      <c r="O221" s="21">
-        <v>2.3751722861194411</v>
-      </c>
-      <c r="P221" s="21">
-        <v>4.6615380811226999</v>
-      </c>
-    </row>
-    <row r="222" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="K222">
-        <v>5.0138956135554524</v>
-      </c>
-      <c r="L222">
-        <v>-7.7207221875376622</v>
-      </c>
-      <c r="O222" s="21">
-        <v>-1.9823806593742852</v>
-      </c>
-      <c r="P222" s="21">
-        <v>4.6701961663501601</v>
-      </c>
-    </row>
-    <row r="223" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="K223">
-        <v>5.832950344872879</v>
-      </c>
-      <c r="L223">
-        <v>-7.4658359849177742</v>
-      </c>
-      <c r="O223" s="21">
-        <v>11.708808511481873</v>
-      </c>
-      <c r="P223" s="21">
-        <v>-12.55615987938384</v>
-      </c>
-    </row>
-    <row r="224" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="K224">
-        <v>5.3830053918317136</v>
-      </c>
-      <c r="L224">
-        <v>-5.7725665480944848</v>
-      </c>
-      <c r="O224" s="21">
-        <v>9.4183977402092722</v>
-      </c>
-      <c r="P224" s="21">
-        <v>0.49359730996878165</v>
-      </c>
-    </row>
-    <row r="225" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="K225">
-        <v>11.631595695664636</v>
-      </c>
-      <c r="L225">
-        <v>-10.473135806013786</v>
-      </c>
-      <c r="O225" s="21">
-        <v>3.2283486699464152</v>
-      </c>
-      <c r="P225" s="21">
-        <v>0.45371481678462439</v>
-      </c>
-    </row>
-    <row r="226" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="K226">
-        <v>11.872670716868097</v>
-      </c>
-      <c r="L226">
-        <v>-8.946699104232799</v>
-      </c>
-      <c r="O226" s="21">
-        <v>10.636240427143116</v>
-      </c>
-      <c r="P226" s="21">
-        <v>4.5148162004727421</v>
-      </c>
-    </row>
-    <row r="227" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="O227" s="21">
-        <v>4.5137392070246971</v>
-      </c>
-      <c r="P227" s="21">
-        <v>2.9312565147551481</v>
-      </c>
-    </row>
-    <row r="228" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H228" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O228" s="21">
-        <v>7.1580555037241185</v>
-      </c>
-      <c r="P228" s="21">
-        <v>9.4990604890885653</v>
-      </c>
-    </row>
-    <row r="229" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H229">
-        <v>9.4183977402092722</v>
-      </c>
-      <c r="O229" s="21">
-        <v>3.9012310073895038</v>
-      </c>
-      <c r="P229" s="21">
-        <v>7.6565969595050811</v>
-      </c>
-    </row>
-    <row r="230" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H230">
-        <v>3.2283486699464152</v>
-      </c>
-      <c r="O230" s="21">
-        <v>9.7684231128227079</v>
-      </c>
-      <c r="P230">
-        <v>-12.503011422978892</v>
-      </c>
-    </row>
-    <row r="231" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H231">
-        <v>3.9830897044783349</v>
-      </c>
-      <c r="K231">
-        <v>10.952783468422307</v>
-      </c>
-      <c r="L231">
-        <v>-2.328085994764105</v>
-      </c>
-    </row>
-    <row r="232" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H232">
-        <v>10.636240427143116</v>
-      </c>
-      <c r="K232">
-        <v>10.622791730267023</v>
-      </c>
-      <c r="L232">
-        <v>-1.3043148181638426</v>
-      </c>
-    </row>
-    <row r="233" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H233">
-        <v>4.5137392070246971</v>
-      </c>
-      <c r="K233">
-        <v>9.8817583662920399</v>
-      </c>
-      <c r="L233">
-        <v>-0.3450786060824339</v>
-      </c>
-    </row>
-    <row r="234" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H234">
-        <v>10.027331069310833</v>
-      </c>
-      <c r="K234">
-        <v>3.0734100015812529</v>
-      </c>
-      <c r="L234">
-        <v>0.16107059300916163</v>
-      </c>
-    </row>
-    <row r="235" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H235">
-        <v>7.1580555037241185</v>
-      </c>
-      <c r="K235">
-        <v>7.1751075899678556</v>
-      </c>
-      <c r="L235">
-        <v>1.0083956097735465</v>
-      </c>
-    </row>
-    <row r="236" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H236">
-        <v>3.9012310073895038</v>
-      </c>
-      <c r="K236">
-        <v>11.194165306973588</v>
-      </c>
-      <c r="L236">
-        <v>2.5843766955815259</v>
-      </c>
-    </row>
-    <row r="237" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H237">
-        <v>15.132347783628571</v>
-      </c>
-      <c r="K237">
-        <v>5.9372850809123339</v>
-      </c>
-      <c r="L237">
-        <v>2.5202279935042911</v>
-      </c>
-    </row>
-    <row r="238" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H238">
-        <v>0.36255672961699908</v>
-      </c>
-      <c r="K238">
-        <v>2.6680249453415845</v>
-      </c>
-      <c r="L238">
-        <v>1.7326356583451981</v>
-      </c>
-    </row>
-    <row r="239" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="H239">
-        <v>0.38365877337589743</v>
-      </c>
-      <c r="K239">
-        <v>3.625731617221581</v>
-      </c>
-      <c r="L239">
-        <v>3.381049431345426</v>
-      </c>
-    </row>
-    <row r="240" spans="8:16" x14ac:dyDescent="0.45">
-      <c r="K240">
-        <v>-1.6191551968665734</v>
-      </c>
-      <c r="L240">
-        <v>-2.1486915194015612</v>
-      </c>
-    </row>
-    <row r="241" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H241">
-        <v>-2.6645149070514651</v>
-      </c>
-      <c r="K241">
-        <v>2.3751722861194411</v>
-      </c>
-      <c r="L241">
-        <v>4.6615380811226999</v>
-      </c>
-    </row>
-    <row r="242" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K242">
-        <v>-0.43540305077855146</v>
-      </c>
-      <c r="L242">
-        <v>-1.424139208735008</v>
-      </c>
-    </row>
-    <row r="243" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H243">
-        <v>9.7684231128227079</v>
-      </c>
-      <c r="K243">
-        <v>0.8054255214418613</v>
-      </c>
-      <c r="L243">
-        <v>6.5596644685545966</v>
-      </c>
-    </row>
-    <row r="244" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K244">
-        <v>0.38070223516900825</v>
-      </c>
-      <c r="L244">
-        <v>-7.2642313865834947</v>
-      </c>
-    </row>
-    <row r="245" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K245">
-        <v>1.1348990339129765</v>
-      </c>
-      <c r="L245">
-        <v>-4.9157877851424523</v>
-      </c>
-    </row>
-    <row r="246" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K246">
-        <v>-1.9823806593742852</v>
-      </c>
-      <c r="L246">
-        <v>4.6701961663501601</v>
-      </c>
-    </row>
-    <row r="247" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K247">
-        <v>10.575131621247049</v>
-      </c>
-      <c r="L247">
-        <v>-16.284274671286042</v>
-      </c>
-    </row>
-    <row r="248" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K248" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L248" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="249" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K249">
-        <v>11.708808511481873</v>
-      </c>
-      <c r="L249">
-        <v>-12.55615987938384</v>
-      </c>
-    </row>
-    <row r="254" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H254">
-        <v>10.992769827199471</v>
-      </c>
-    </row>
-    <row r="255" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H255">
-        <v>15.212173976057795</v>
-      </c>
-    </row>
-    <row r="257" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H257">
-        <v>6.0235064181324889</v>
-      </c>
-    </row>
-    <row r="258" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H258">
-        <v>9.7226297539906561</v>
-      </c>
-      <c r="K258" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L258" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="259" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H259" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K259">
-        <v>9.4183977402092722</v>
-      </c>
-      <c r="L259">
-        <v>0.49359730996878165</v>
-      </c>
-    </row>
-    <row r="260" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H260" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K260">
-        <v>3.2283486699464152</v>
-      </c>
-      <c r="L260">
-        <v>0.45371481678462439</v>
-      </c>
-    </row>
-    <row r="261" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K261">
-        <v>3.9830897044783349</v>
-      </c>
-      <c r="L261">
-        <v>0.91956871516376693</v>
-      </c>
-    </row>
-    <row r="262" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H262">
-        <v>48.823075790747744</v>
-      </c>
-      <c r="K262">
-        <v>10.636240427143116</v>
-      </c>
-      <c r="L262">
-        <v>4.5148162004727421</v>
-      </c>
-    </row>
-    <row r="263" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H263">
-        <v>-0.75390537416828007</v>
-      </c>
-      <c r="K263">
-        <v>4.5137392070246971</v>
-      </c>
-      <c r="L263">
-        <v>2.9312565147551481</v>
-      </c>
-    </row>
-    <row r="264" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K264">
-        <v>10.027331069310833</v>
-      </c>
-      <c r="L264">
-        <v>9.3506374958292415</v>
-      </c>
-    </row>
-    <row r="265" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K265">
-        <v>7.1580555037241185</v>
-      </c>
-      <c r="L265">
-        <v>9.4990604890885653</v>
-      </c>
-    </row>
-    <row r="266" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H266">
-        <v>-6.3191590803501612</v>
-      </c>
-      <c r="K266">
-        <v>3.9012310073895038</v>
-      </c>
-      <c r="L266">
-        <v>7.6565969595050811</v>
-      </c>
-    </row>
-    <row r="267" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K267">
-        <v>15.132347783628571</v>
-      </c>
-      <c r="L267">
-        <v>49.495679371894191</v>
-      </c>
-    </row>
-    <row r="268" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K268">
-        <v>0.36255672961699908</v>
-      </c>
-      <c r="L268">
-        <v>2.9527876057943567</v>
-      </c>
-    </row>
-    <row r="269" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K269">
-        <v>0.38365877337589743</v>
-      </c>
-      <c r="L269">
-        <v>-7.3206454962316387</v>
-      </c>
-    </row>
-    <row r="271" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K271">
-        <v>-2.6645149070514651</v>
-      </c>
-      <c r="L271">
-        <v>6.2772037475498497</v>
-      </c>
-    </row>
-    <row r="273" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K273">
-        <v>9.7684231128227079</v>
-      </c>
-      <c r="L273">
-        <v>-12.503011422978892</v>
-      </c>
-    </row>
-    <row r="279" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H279">
-        <v>14.167155053717167</v>
-      </c>
-    </row>
-    <row r="282" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H282">
-        <v>0.10776384183531375</v>
-      </c>
-    </row>
-    <row r="283" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H283" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="284" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K284">
-        <v>10.992769827199471</v>
-      </c>
-      <c r="L284">
-        <v>0.57610665481314494</v>
-      </c>
-    </row>
-    <row r="285" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H285" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K285">
-        <v>15.212173976057795</v>
-      </c>
-      <c r="L285">
-        <v>2.1379316282331593</v>
-      </c>
-    </row>
-    <row r="287" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H287">
-        <v>-1.8850479133018472</v>
-      </c>
-      <c r="K287">
-        <v>6.0235064181324889</v>
-      </c>
-      <c r="L287">
-        <v>2.5568267797741626</v>
-      </c>
-    </row>
-    <row r="288" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H288">
-        <v>-0.93122489736555969</v>
-      </c>
-      <c r="K288">
-        <v>9.7226297539906561</v>
-      </c>
-      <c r="L288">
-        <v>6.3139495880895762</v>
-      </c>
-    </row>
-    <row r="289" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K289" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L289" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="290" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K290" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L290" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="291" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H291">
-        <v>-1.0142820861581952</v>
-      </c>
-      <c r="L291">
+      <c r="W166" s="21">
+        <f t="shared" ref="W166" si="48">X138*SIN(RADIANS(G166-90))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K292">
-        <v>48.823075790747744</v>
-      </c>
-      <c r="L292">
-        <v>159.6930852926169</v>
-      </c>
-    </row>
-    <row r="293" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K293">
-        <v>-0.75390537416828007</v>
-      </c>
-      <c r="L293">
-        <v>-6.1400665411382809</v>
-      </c>
-    </row>
-    <row r="296" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K296">
-        <v>-6.3191590803501612</v>
-      </c>
-      <c r="L296">
-        <v>14.887005869459575</v>
-      </c>
-    </row>
-    <row r="309" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K309">
-        <v>14.167155053717167</v>
-      </c>
-      <c r="L309">
-        <v>0.74246913512383106</v>
-      </c>
-    </row>
-    <row r="310" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H310">
-        <v>-1.3778368073270779</v>
-      </c>
-    </row>
-    <row r="312" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H312" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K312">
-        <v>0.10776384183531375</v>
-      </c>
-      <c r="L312">
-        <v>4.5743036957085717E-2</v>
-      </c>
-    </row>
-    <row r="313" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H313">
-        <v>-0.8092731150539757</v>
-      </c>
-      <c r="K313" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L313" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="315" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K315" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L315" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="316" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H316">
-        <v>-12.964706455949905</v>
-      </c>
-    </row>
-    <row r="317" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K317">
-        <v>-1.8850479133018472</v>
-      </c>
-      <c r="L317">
-        <v>-6.1657139031914117</v>
-      </c>
-    </row>
-    <row r="318" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="K318">
-        <v>-0.93122489736555969</v>
-      </c>
-      <c r="L318">
-        <v>-7.5842181665002038</v>
-      </c>
-    </row>
-    <row r="321" spans="11:12" x14ac:dyDescent="0.45">
-      <c r="K321">
-        <v>-1.0142820861581952</v>
-      </c>
-      <c r="L321">
-        <v>2.3894988522884355</v>
-      </c>
-    </row>
-    <row r="340" spans="8:37" x14ac:dyDescent="0.45">
-      <c r="K340">
-        <v>-1.3778368073270779</v>
-      </c>
-      <c r="L340">
-        <v>-1.8284512002013973</v>
-      </c>
-    </row>
-    <row r="341" spans="8:37" x14ac:dyDescent="0.45">
-      <c r="H341" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="342" spans="8:37" x14ac:dyDescent="0.45">
-      <c r="K342" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L342" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="343" spans="8:37" x14ac:dyDescent="0.45">
-      <c r="K343">
-        <v>-0.8092731150539757</v>
-      </c>
-      <c r="L343">
-        <v>-6.5910006038457185</v>
-      </c>
-    </row>
-    <row r="346" spans="8:37" x14ac:dyDescent="0.45">
-      <c r="K346">
-        <v>-12.964706455949905</v>
-      </c>
-      <c r="L346">
-        <v>30.542934376460064</v>
-      </c>
-    </row>
-    <row r="347" spans="8:37" x14ac:dyDescent="0.45">
+      <c r="X166" s="21"/>
+    </row>
+    <row r="167" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="H167" s="21"/>
+      <c r="I167" s="21"/>
+      <c r="J167" s="21"/>
+      <c r="K167" s="21"/>
+      <c r="L167" s="21"/>
+      <c r="M167" s="21"/>
+      <c r="N167" s="21"/>
+      <c r="O167" s="21"/>
+      <c r="P167" s="21"/>
+      <c r="Q167" s="21"/>
+      <c r="R167" s="21"/>
+      <c r="S167" s="21"/>
+      <c r="T167" s="21"/>
+      <c r="U167" s="21"/>
+      <c r="V167" s="21"/>
+      <c r="W167" s="21"/>
+      <c r="X167" s="21"/>
+    </row>
+    <row r="171" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="O171" s="21"/>
+      <c r="P171" s="21"/>
+    </row>
+    <row r="172" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="O172" s="21"/>
+      <c r="P172" s="21"/>
+    </row>
+    <row r="173" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="O173" s="21"/>
+      <c r="P173" s="21"/>
+    </row>
+    <row r="174" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="O174" s="21"/>
+      <c r="P174" s="21"/>
+    </row>
+    <row r="175" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="O175" s="21"/>
+      <c r="P175" s="21"/>
+    </row>
+    <row r="176" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="O176" s="21"/>
+      <c r="P176" s="21"/>
+    </row>
+    <row r="177" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O177" s="21"/>
+      <c r="P177" s="21"/>
+    </row>
+    <row r="178" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O178" s="21"/>
+      <c r="P178" s="21"/>
+    </row>
+    <row r="179" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O179" s="21"/>
+      <c r="P179" s="21"/>
+    </row>
+    <row r="180" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O180" s="21"/>
+      <c r="P180" s="21"/>
+    </row>
+    <row r="181" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O181" s="21"/>
+      <c r="P181" s="21"/>
+    </row>
+    <row r="182" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O182" s="21"/>
+      <c r="P182" s="21"/>
+    </row>
+    <row r="183" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O183" s="21"/>
+      <c r="P183" s="21"/>
+    </row>
+    <row r="184" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O184" s="21"/>
+      <c r="P184" s="21"/>
+    </row>
+    <row r="185" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O185" s="21"/>
+      <c r="P185" s="21"/>
+    </row>
+    <row r="186" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O186" s="21"/>
+      <c r="P186" s="21"/>
+    </row>
+    <row r="187" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O187" s="21"/>
+      <c r="P187" s="21"/>
+    </row>
+    <row r="188" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O188" s="21"/>
+      <c r="P188" s="21"/>
+    </row>
+    <row r="189" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O189" s="21"/>
+      <c r="P189" s="21"/>
+    </row>
+    <row r="190" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O190" s="21"/>
+      <c r="P190" s="21"/>
+    </row>
+    <row r="191" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O191" s="21"/>
+      <c r="P191" s="21"/>
+    </row>
+    <row r="192" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O192" s="21"/>
+      <c r="P192" s="21"/>
+    </row>
+    <row r="193" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O193" s="21"/>
+      <c r="P193" s="21"/>
+    </row>
+    <row r="194" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O194" s="21"/>
+      <c r="P194" s="21"/>
+    </row>
+    <row r="195" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O195" s="21"/>
+      <c r="P195" s="21"/>
+    </row>
+    <row r="196" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O196" s="21"/>
+      <c r="P196" s="21"/>
+    </row>
+    <row r="197" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O197" s="21"/>
+      <c r="P197" s="21"/>
+    </row>
+    <row r="198" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O198" s="21"/>
+      <c r="P198" s="21"/>
+    </row>
+    <row r="199" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O199" s="21"/>
+      <c r="P199" s="21"/>
+    </row>
+    <row r="200" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O200" s="21"/>
+      <c r="P200" s="21"/>
+    </row>
+    <row r="201" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O201" s="21"/>
+      <c r="P201" s="21"/>
+    </row>
+    <row r="202" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O202" s="21"/>
+      <c r="P202" s="21"/>
+    </row>
+    <row r="203" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O203" s="21"/>
+      <c r="P203" s="21"/>
+    </row>
+    <row r="204" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O204" s="21"/>
+      <c r="P204" s="21"/>
+    </row>
+    <row r="205" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O205" s="21"/>
+      <c r="P205" s="21"/>
+    </row>
+    <row r="206" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O206" s="21"/>
+      <c r="P206" s="21"/>
+    </row>
+    <row r="207" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O207" s="21"/>
+      <c r="P207" s="21"/>
+    </row>
+    <row r="208" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O208" s="21"/>
+      <c r="P208" s="21"/>
+    </row>
+    <row r="209" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O209" s="21"/>
+      <c r="P209" s="21"/>
+    </row>
+    <row r="210" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O210" s="21"/>
+      <c r="P210" s="21"/>
+    </row>
+    <row r="211" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O211" s="21"/>
+      <c r="P211" s="21"/>
+    </row>
+    <row r="212" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O212" s="21"/>
+      <c r="P212" s="21"/>
+    </row>
+    <row r="213" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O213" s="21"/>
+      <c r="P213" s="21"/>
+    </row>
+    <row r="214" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O214" s="21"/>
+      <c r="P214" s="21"/>
+    </row>
+    <row r="215" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O215" s="21"/>
+      <c r="P215" s="21"/>
+    </row>
+    <row r="216" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O216" s="21"/>
+      <c r="P216" s="21"/>
+    </row>
+    <row r="217" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O217" s="21"/>
+      <c r="P217" s="21"/>
+    </row>
+    <row r="218" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O218" s="21"/>
+      <c r="P218" s="21"/>
+    </row>
+    <row r="219" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O219" s="21"/>
+      <c r="P219" s="21"/>
+    </row>
+    <row r="220" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O220" s="21"/>
+      <c r="P220" s="21"/>
+    </row>
+    <row r="221" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O221" s="21"/>
+      <c r="P221" s="21"/>
+    </row>
+    <row r="222" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O222" s="21"/>
+      <c r="P222" s="21"/>
+    </row>
+    <row r="223" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O223" s="21"/>
+      <c r="P223" s="21"/>
+    </row>
+    <row r="224" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O224" s="21"/>
+      <c r="P224" s="21"/>
+    </row>
+    <row r="225" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O225" s="21"/>
+      <c r="P225" s="21"/>
+    </row>
+    <row r="226" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O226" s="21"/>
+      <c r="P226" s="21"/>
+    </row>
+    <row r="227" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O227" s="21"/>
+      <c r="P227" s="21"/>
+    </row>
+    <row r="228" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O228" s="21"/>
+      <c r="P228" s="21"/>
+    </row>
+    <row r="229" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O229" s="21"/>
+      <c r="P229" s="21"/>
+    </row>
+    <row r="230" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O230" s="21"/>
+    </row>
+    <row r="347" spans="13:37" x14ac:dyDescent="0.45">
       <c r="M347" s="21"/>
       <c r="N347" s="21"/>
       <c r="O347" s="21"/>
@@ -8312,11 +7202,11 @@
       <c r="AI347" s="21"/>
       <c r="AJ347" s="21"/>
       <c r="AK347" s="22">
-        <f t="shared" ref="AK347:AK371" si="43">I348*SIN(RADIANS(AK331-90))</f>
+        <f t="shared" ref="AK347:AK371" si="49">I348*SIN(RADIANS(AK331-90))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="8:37" x14ac:dyDescent="0.45">
+    <row r="348" spans="13:37" x14ac:dyDescent="0.45">
       <c r="M348" s="21"/>
       <c r="N348" s="21"/>
       <c r="O348" s="21"/>
@@ -8342,11 +7232,11 @@
       <c r="AI348" s="21"/>
       <c r="AJ348" s="21"/>
       <c r="AK348" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="8:37" x14ac:dyDescent="0.45">
+    <row r="349" spans="13:37" x14ac:dyDescent="0.45">
       <c r="M349" s="21"/>
       <c r="N349" s="21"/>
       <c r="O349" s="21"/>
@@ -8372,11 +7262,11 @@
       <c r="AI349" s="21"/>
       <c r="AJ349" s="21"/>
       <c r="AK349" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="8:37" x14ac:dyDescent="0.45">
+    <row r="350" spans="13:37" x14ac:dyDescent="0.45">
       <c r="M350" s="21"/>
       <c r="N350" s="21"/>
       <c r="O350" s="21"/>
@@ -8402,11 +7292,11 @@
       <c r="AI350" s="21"/>
       <c r="AJ350" s="21"/>
       <c r="AK350" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="8:37" x14ac:dyDescent="0.45">
+    <row r="351" spans="13:37" x14ac:dyDescent="0.45">
       <c r="M351" s="21"/>
       <c r="N351" s="21"/>
       <c r="O351" s="21"/>
@@ -8432,11 +7322,11 @@
       <c r="AI351" s="21"/>
       <c r="AJ351" s="21"/>
       <c r="AK351" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="8:37" x14ac:dyDescent="0.45">
+    <row r="352" spans="13:37" x14ac:dyDescent="0.45">
       <c r="M352" s="21"/>
       <c r="N352" s="21"/>
       <c r="O352" s="21"/>
@@ -8462,7 +7352,7 @@
       <c r="AI352" s="21"/>
       <c r="AJ352" s="21"/>
       <c r="AK352" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8492,7 +7382,7 @@
       <c r="AI353" s="21"/>
       <c r="AJ353" s="21"/>
       <c r="AK353" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8522,7 +7412,7 @@
       <c r="AI354" s="21"/>
       <c r="AJ354" s="21"/>
       <c r="AK354" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8552,7 +7442,7 @@
       <c r="AI355" s="21"/>
       <c r="AJ355" s="21"/>
       <c r="AK355" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8582,7 +7472,7 @@
       <c r="AI356" s="21"/>
       <c r="AJ356" s="21"/>
       <c r="AK356" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8612,7 +7502,7 @@
       <c r="AI357" s="21"/>
       <c r="AJ357" s="21"/>
       <c r="AK357" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8642,7 +7532,7 @@
       <c r="AI358" s="21"/>
       <c r="AJ358" s="21"/>
       <c r="AK358" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8672,7 +7562,7 @@
       <c r="AI359" s="21"/>
       <c r="AJ359" s="21"/>
       <c r="AK359" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8702,7 +7592,7 @@
       <c r="AI360" s="21"/>
       <c r="AJ360" s="21"/>
       <c r="AK360" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8732,7 +7622,7 @@
       <c r="AI361" s="21"/>
       <c r="AJ361" s="21"/>
       <c r="AK361" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8762,7 +7652,7 @@
       <c r="AI362" s="21"/>
       <c r="AJ362" s="21"/>
       <c r="AK362" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8792,7 +7682,7 @@
       <c r="AI363" s="21"/>
       <c r="AJ363" s="21"/>
       <c r="AK363" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8822,7 +7712,7 @@
       <c r="AI364" s="21"/>
       <c r="AJ364" s="21"/>
       <c r="AK364" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8852,7 +7742,7 @@
       <c r="AI365" s="21"/>
       <c r="AJ365" s="21"/>
       <c r="AK365" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8882,7 +7772,7 @@
       <c r="AI366" s="21"/>
       <c r="AJ366" s="21"/>
       <c r="AK366" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8912,7 +7802,7 @@
       <c r="AI367" s="21"/>
       <c r="AJ367" s="21"/>
       <c r="AK367" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8942,11 +7832,11 @@
       <c r="AI368" s="21"/>
       <c r="AJ368" s="21"/>
       <c r="AK368" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="11:37" x14ac:dyDescent="0.45">
+    <row r="369" spans="13:37" x14ac:dyDescent="0.45">
       <c r="M369" s="21"/>
       <c r="N369" s="21"/>
       <c r="O369" s="21"/>
@@ -8972,11 +7862,11 @@
       <c r="AI369" s="21"/>
       <c r="AJ369" s="21"/>
       <c r="AK369" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="11:37" x14ac:dyDescent="0.45">
+    <row r="370" spans="13:37" x14ac:dyDescent="0.45">
       <c r="M370" s="21"/>
       <c r="N370" s="21"/>
       <c r="O370" s="21"/>
@@ -9002,17 +7892,11 @@
       <c r="AI370" s="21"/>
       <c r="AJ370" s="21"/>
       <c r="AK370" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="11:37" x14ac:dyDescent="0.45">
-      <c r="K371" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L371" t="e">
-        <v>#NUM!</v>
-      </c>
+    <row r="371" spans="13:37" x14ac:dyDescent="0.45">
       <c r="M371" s="21"/>
       <c r="N371" s="21"/>
       <c r="O371" s="21"/>
@@ -9038,7 +7922,7 @@
       <c r="AI371" s="21"/>
       <c r="AJ371" s="21"/>
       <c r="AK371" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>

--- a/Messprotokoll_Simon.xlsx
+++ b/Messprotokoll_Simon.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5510BEFB-E171-42FD-93FE-BC840BDF95CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70D04FC-AE01-41C3-89D5-CB595387EE4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4950" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
   <si>
     <t>Simon Keegan, Philipp Gebauer</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>Radius 8</t>
-  </si>
-  <si>
-    <t>l</t>
   </si>
   <si>
     <t>i</t>
@@ -682,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98:H98"/>
+    <sheetView tabSelected="1" topLeftCell="E93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2618,7 +2615,7 @@
         <v>14.9</v>
       </c>
       <c r="N89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X89" s="21">
         <f t="shared" si="3"/>
@@ -2664,7 +2661,7 @@
         <v>14.8</v>
       </c>
       <c r="N90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X90" s="21">
         <f t="shared" si="3"/>
@@ -2703,14 +2700,14 @@
       <c r="K91" s="11">
         <v>15.8</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L91">
+        <v>27.9</v>
+      </c>
+      <c r="M91" t="s">
         <v>56</v>
       </c>
-      <c r="M91" t="s">
-        <v>57</v>
-      </c>
-      <c r="N91" t="s">
-        <v>57</v>
+      <c r="N91">
+        <v>-42.2</v>
       </c>
       <c r="X91" s="21">
         <f t="shared" si="3"/>
@@ -2754,13 +2751,13 @@
         <v>18.899999999999999</v>
       </c>
       <c r="L92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X92" s="21">
         <f t="shared" si="3"/>
@@ -2800,13 +2797,13 @@
         <v>19</v>
       </c>
       <c r="L93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X93" s="21">
         <f t="shared" si="3"/>
@@ -2846,13 +2843,13 @@
         <v>16.399999999999999</v>
       </c>
       <c r="L94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X94" s="21">
         <f t="shared" si="3"/>
@@ -2898,7 +2895,7 @@
         <v>16.2</v>
       </c>
       <c r="N95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X95" s="21">
         <f t="shared" si="3"/>
@@ -2944,7 +2941,7 @@
         <v>15</v>
       </c>
       <c r="N96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X96" s="21">
         <f t="shared" si="3"/>
@@ -2996,16 +2993,16 @@
         <v>14.6</v>
       </c>
       <c r="P97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X97" s="21">
         <f t="shared" si="3"/>
@@ -3069,7 +3066,7 @@
         <v>6</v>
       </c>
       <c r="T98" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X98" s="21"/>
     </row>
@@ -3120,13 +3117,13 @@
         <v>2.5</v>
       </c>
       <c r="R99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X99" s="21"/>
     </row>
@@ -3171,16 +3168,16 @@
         <v>22.2</v>
       </c>
       <c r="P100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X100" s="21"/>
     </row>
@@ -3237,10 +3234,10 @@
         <v>35.799999999999997</v>
       </c>
       <c r="T101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X101" s="21"/>
     </row>
@@ -3297,7 +3294,7 @@
         <v>14.3</v>
       </c>
       <c r="T102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X102" s="21"/>
     </row>
@@ -3348,13 +3345,13 @@
         <v>14.9</v>
       </c>
       <c r="R103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X103" s="21"/>
     </row>
@@ -3459,22 +3456,22 @@
         <v>28.4</v>
       </c>
       <c r="P105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X105" s="21"/>
     </row>
@@ -3639,25 +3636,25 @@
         <v>12.5</v>
       </c>
       <c r="P108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X108" s="21"/>
     </row>
@@ -3696,34 +3693,34 @@
         <v>12.3</v>
       </c>
       <c r="N109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X109" s="21"/>
     </row>
@@ -3854,49 +3851,49 @@
         <v>55</v>
       </c>
       <c r="Q113" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R113" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R113" s="13" t="s">
+      <c r="S113" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="S113" s="13" t="s">
+      <c r="T113" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="T113" s="13" t="s">
+      <c r="U113" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="U113" s="13" t="s">
+      <c r="V113" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="V113" s="13" t="s">
+      <c r="W113" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="W113" s="13" t="s">
+      <c r="X113" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="X113" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="Z113" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA113" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA113" s="13" t="s">
+      <c r="AB113" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AB113" s="13" t="s">
+      <c r="AC113" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AC113" s="13" t="s">
+      <c r="AD113" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AD113" s="13" t="s">
+      <c r="AE113" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AE113" s="13" t="s">
+      <c r="AF113" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="AF113" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="AG113" s="13"/>
     </row>
@@ -4030,7 +4027,7 @@
         <v>11.151378662235334</v>
       </c>
       <c r="S115" s="23">
-        <f t="shared" ref="S115:S118" si="13">SQRT(J115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
+        <f t="shared" ref="S115:S119" si="13">SQRT(J115^2-$I$81^2*SIN(RADIANS(G115))^2)+$I$81*COS(RADIANS(G115))</f>
         <v>9.4742818556049819</v>
       </c>
       <c r="T115" s="21"/>
@@ -4114,7 +4111,7 @@
         <v>7.8929887622287147</v>
       </c>
       <c r="T116" s="21">
-        <f t="shared" ref="T115:T116" si="19">SQRT(K116^2-$I$81^2*SIN(RADIANS(G116)))+$I$81*COS(RADIANS(G116))</f>
+        <f t="shared" ref="T116:T119" si="19">SQRT(K116^2-$I$81^2*SIN(RADIANS(G116)))+$I$81*COS(RADIANS(G116))</f>
         <v>17.16838220902595</v>
       </c>
       <c r="U116" s="21"/>
@@ -4134,7 +4131,7 @@
         <v>4.5400241652971829</v>
       </c>
       <c r="AC116" s="21">
-        <f t="shared" ref="AC115:AC138" si="20">-SQRT(K116^2-$I$81^2*SIN(RADIANS(G116))^2)+$I$81*COS(RADIANS(G116))</f>
+        <f t="shared" ref="AC116:AC138" si="20">-SQRT(K116^2-$I$81^2*SIN(RADIANS(G116))^2)+$I$81*COS(RADIANS(G116))</f>
         <v>-5.4287894306401689</v>
       </c>
       <c r="AD116" s="21"/>
@@ -4306,8 +4303,14 @@
         <f t="shared" si="10"/>
         <v>13.02326000893062</v>
       </c>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
+      <c r="J119" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A91)))/($H$81*SIN(RADIANS(A91))+L91)</f>
+        <v>7.3942539404541572</v>
+      </c>
+      <c r="K119" s="21">
+        <f>($I$81*$H$81*SIN(RADIANS(A91)))/($H$81*SIN(RADIANS(A91))+N91)</f>
+        <v>10.984578209298384</v>
+      </c>
       <c r="L119" s="21"/>
       <c r="M119" s="21"/>
       <c r="N119" s="21"/>
@@ -4321,8 +4324,14 @@
         <f t="shared" si="12"/>
         <v>15.350702250109141</v>
       </c>
-      <c r="S119" s="21"/>
-      <c r="T119" s="21"/>
+      <c r="S119" s="21">
+        <f>SQRT(J119^2-$I$81^2*SIN(RADIANS(G119))^2)+$I$81*COS(RADIANS(G119))</f>
+        <v>6.1516854885365468</v>
+      </c>
+      <c r="T119" s="21">
+        <f>SQRT(K119^2-$I$81^2*SIN(RADIANS(G119)))+$I$81*COS(RADIANS(G119))</f>
+        <v>12.210771005248079</v>
+      </c>
       <c r="U119" s="21"/>
       <c r="V119" s="21"/>
       <c r="W119" s="21"/>
@@ -4335,8 +4344,14 @@
         <f t="shared" si="16"/>
         <v>-6.3420747581446575</v>
       </c>
-      <c r="AB119" s="21"/>
-      <c r="AC119" s="21"/>
+      <c r="AB119" s="21">
+        <f t="shared" si="17"/>
+        <v>2.8569420034279371</v>
+      </c>
+      <c r="AC119" s="21">
+        <f t="shared" si="20"/>
+        <v>-3.784220548960227</v>
+      </c>
       <c r="AD119" s="21"/>
       <c r="AE119" s="21"/>
       <c r="AF119" s="21"/>
@@ -4767,7 +4782,7 @@
         <v>9.1902117959766159</v>
       </c>
       <c r="K126" s="21">
-        <f t="shared" ref="K125:K136" si="25">($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+N98)</f>
+        <f t="shared" ref="K126:K134" si="25">($I$81*$H$81*SIN(RADIANS(A98)))/($H$81*SIN(RADIANS(A98))+N98)</f>
         <v>13.022711260204492</v>
       </c>
       <c r="L126" s="21">
@@ -4794,7 +4809,7 @@
         <v>3.0776277834968933</v>
       </c>
       <c r="T126" s="21">
-        <f t="shared" ref="T126:T136" si="26">SQRT(K126^2-$I$81^2*SIN(RADIANS(G126))^2)+$I$81*COS(RADIANS(G126))</f>
+        <f t="shared" ref="T126:T134" si="26">SQRT(K126^2-$I$81^2*SIN(RADIANS(G126))^2)+$I$81*COS(RADIANS(G126))</f>
         <v>9.4313230406548776</v>
       </c>
       <c r="U126" s="21">
@@ -4828,7 +4843,7 @@
         <v>-11.89756696700794</v>
       </c>
       <c r="AE126" s="21">
-        <f t="shared" ref="AE115:AE138" si="27">-SQRT(M126^2-$I$81^2*SIN(RADIANS(G126))^2)+$I$81*COS(RADIANS(G126))</f>
+        <f t="shared" ref="AE126:AE138" si="27">-SQRT(M126^2-$I$81^2*SIN(RADIANS(G126))^2)+$I$81*COS(RADIANS(G126))</f>
         <v>-15.076308548387107</v>
       </c>
       <c r="AF126" s="21"/>
@@ -5150,7 +5165,7 @@
         <v>5.3820169438906857</v>
       </c>
       <c r="U130" s="21">
-        <f t="shared" ref="U130:U132" si="29">SQRT(L130^2-$I$81^2*SIN(RADIANS(G130))^2)+$I$81*COS(RADIANS(G130))</f>
+        <f t="shared" ref="U130" si="29">SQRT(L130^2-$I$81^2*SIN(RADIANS(G130))^2)+$I$81*COS(RADIANS(G130))</f>
         <v>11.592906828493057</v>
       </c>
       <c r="V130" s="21"/>
@@ -5771,7 +5786,7 @@
         <v>-18.244439383673075</v>
       </c>
       <c r="AF138" s="21">
-        <f t="shared" ref="AF115:AF138" si="31">-SQRT(N138^2-$I$81^2*SIN(RADIANS(G138))^2)+$I$81*COS(RADIANS(G138))</f>
+        <f t="shared" ref="AF138" si="31">-SQRT(N138^2-$I$81^2*SIN(RADIANS(G138))^2)+$I$81*COS(RADIANS(G138))</f>
         <v>-48.829216224967844</v>
       </c>
       <c r="AG138" s="21"/>
@@ -5863,52 +5878,52 @@
         <v>6</v>
       </c>
       <c r="H141" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I141" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I141" s="21" t="s">
+      <c r="J141" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J141" s="21" t="s">
+      <c r="K141" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K141" s="21" t="s">
+      <c r="L141" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="L141" s="21" t="s">
+      <c r="M141" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="M141" s="21" t="s">
+      <c r="N141" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="N141" s="21" t="s">
+      <c r="O141" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O141" s="21" t="s">
+      <c r="P141" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="P141" s="21" t="s">
+      <c r="Q141" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="Q141" s="21" t="s">
+      <c r="R141" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="R141" s="21" t="s">
+      <c r="S141" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="S141" s="21" t="s">
+      <c r="T141" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="T141" s="21" t="s">
+      <c r="U141" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="U141" s="21" t="s">
+      <c r="V141" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="V141" s="21" t="s">
+      <c r="W141" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="W141" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="X141" s="21"/>
     </row>
@@ -6011,7 +6026,7 @@
       <c r="I144" s="23"/>
       <c r="J144" s="23"/>
       <c r="K144" s="21">
-        <f t="shared" ref="K143:K166" si="34">T116*COS(RADIANS(G144-90))</f>
+        <f t="shared" ref="K144:K166" si="34">T116*COS(RADIANS(G144-90))</f>
         <v>11.708808511481873</v>
       </c>
       <c r="L144" s="21"/>
@@ -6022,7 +6037,7 @@
       <c r="Q144" s="23"/>
       <c r="R144" s="23"/>
       <c r="S144" s="21">
-        <f t="shared" ref="S143:S166" si="35">T116*SIN(RADIANS(G144-90))</f>
+        <f t="shared" ref="S144:S166" si="35">T116*SIN(RADIANS(G144-90))</f>
         <v>-12.55615987938384</v>
       </c>
       <c r="T144" s="21"/>
@@ -6039,7 +6054,7 @@
       <c r="H145" s="23"/>
       <c r="I145" s="23"/>
       <c r="J145" s="21">
-        <f t="shared" ref="J143:J166" si="36">S117*COS(RADIANS(G145-90))</f>
+        <f t="shared" ref="J145:J166" si="36">S117*COS(RADIANS(G145-90))</f>
         <v>11.631595695664636</v>
       </c>
       <c r="K145" s="21"/>
@@ -6050,7 +6065,7 @@
       <c r="P145" s="23"/>
       <c r="Q145" s="23"/>
       <c r="R145" s="21">
-        <f t="shared" ref="R143:R166" si="37">S117*SIN(RADIANS(G145-90))</f>
+        <f t="shared" ref="R145:R166" si="37">S117*SIN(RADIANS(G145-90))</f>
         <v>-10.473135806013786</v>
       </c>
       <c r="S145" s="21"/>
@@ -6096,22 +6111,34 @@
       </c>
       <c r="H147" s="23"/>
       <c r="I147" s="21">
-        <f t="shared" ref="I143:I166" si="39">R119*COS(RADIANS(G147-90))</f>
+        <f t="shared" ref="I147:I166" si="39">R119*COS(RADIANS(G147-90))</f>
         <v>13.01813381786922</v>
       </c>
-      <c r="J147" s="21"/>
-      <c r="K147" s="21"/>
+      <c r="J147" s="21">
+        <f>S119*COS(RADIANS(G147-90))</f>
+        <v>5.2169251667065319</v>
+      </c>
+      <c r="K147" s="21">
+        <f t="shared" si="34"/>
+        <v>10.355321103602721</v>
+      </c>
       <c r="L147" s="21"/>
       <c r="M147" s="21"/>
       <c r="N147" s="21"/>
       <c r="O147" s="21"/>
       <c r="P147" s="23"/>
       <c r="Q147" s="21">
-        <f t="shared" ref="Q143:Q166" si="40">R119*SIN(RADIANS(G147-90))</f>
+        <f t="shared" ref="Q147:Q166" si="40">R119*SIN(RADIANS(G147-90))</f>
         <v>-8.1346328418408387</v>
       </c>
-      <c r="R147" s="21"/>
-      <c r="S147" s="21"/>
+      <c r="R147" s="21">
+        <f t="shared" si="37"/>
+        <v>-3.2598966478793705</v>
+      </c>
+      <c r="S147" s="21">
+        <f t="shared" si="35"/>
+        <v>-6.4707227868212138</v>
+      </c>
       <c r="T147" s="21"/>
       <c r="U147" s="21"/>
       <c r="V147" s="21"/>
@@ -6316,7 +6343,7 @@
         <v>93</v>
       </c>
       <c r="H154" s="21">
-        <f t="shared" ref="H143:H166" si="41">Q126*COS(RADIANS(G154-90))</f>
+        <f t="shared" ref="H154:H166" si="41">Q126*COS(RADIANS(G154-90))</f>
         <v>1.1918541152468785E-14</v>
       </c>
       <c r="I154" s="21">
@@ -6342,7 +6369,7 @@
       <c r="N154" s="21"/>
       <c r="O154" s="21"/>
       <c r="P154" s="21">
-        <f t="shared" ref="P143:P166" si="43">Q126*SIN(RADIANS(G154-90))</f>
+        <f t="shared" ref="P154:P166" si="43">Q126*SIN(RADIANS(G154-90))</f>
         <v>6.2462427409442772E-16</v>
       </c>
       <c r="Q154" s="21">
@@ -6880,7 +6907,7 @@
         <v>-1.0142820861581952</v>
       </c>
       <c r="N166" s="21">
-        <f t="shared" ref="N160:N166" si="46">W138*COS(RADIANS(G166-90))</f>
+        <f t="shared" ref="N166" si="46">W138*COS(RADIANS(G166-90))</f>
         <v>-12.964706455949905</v>
       </c>
       <c r="O166" s="21"/>
@@ -6909,7 +6936,7 @@
         <v>2.3894988522884355</v>
       </c>
       <c r="V166" s="21">
-        <f t="shared" ref="V160:V166" si="47">W138*SIN(RADIANS(G166-90))</f>
+        <f t="shared" ref="V166" si="47">W138*SIN(RADIANS(G166-90))</f>
         <v>30.542934376460064</v>
       </c>
       <c r="W166" s="21">
